--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="4392" tabRatio="738" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="SSSN_YESE">#REF!</definedName>
     <definedName name="SSSN_YS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -399,7 +399,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="AD100")</t>
+jx:area(lastCell="AD200")</t>
         </r>
       </text>
     </comment>
@@ -431,6 +431,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F8")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[0].isCommingled == false", lastCell="B8", areas=["B7:B8","B94:B95"])</t>
         </r>
       </text>
     </comment>
@@ -479,6 +493,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[1].isCommingled == false", lastCell="B10", areas=["B9:B10","B96:B97"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -521,6 +549,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F12")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[2].isCommingled == false", lastCell="B12", areas=["B11:B12","B98:B99"])</t>
         </r>
       </text>
     </comment>
@@ -569,6 +611,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[3].isCommingled == false", lastCell="B14", areas=["B13:B14","B100:B101"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -611,6 +667,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F16")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[4].isCommingled == false", lastCell="B16", areas=["B15:B16","B102:B103"])</t>
         </r>
       </text>
     </comment>
@@ -659,6 +729,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[5].isCommingled == false", lastCell="B18", areas=["B17:B18","B104:B105"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -701,6 +785,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F20")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[6].isCommingled == false", lastCell="B20", areas=["B19:B20","B106:B107"])</t>
         </r>
       </text>
     </comment>
@@ -749,6 +847,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[7].isCommingled == false", lastCell="B22", areas=["B21:B22","B108:B109"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
@@ -791,6 +903,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F24")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[8].isCommingled == false", lastCell="B24", areas=["B21:B24","B110:B111"])</t>
         </r>
       </text>
     </comment>
@@ -839,6 +965,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[9].isCommingled == false", lastCell="B26", areas=["B25:B26","B112:B113"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -881,6 +1021,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F28")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[10].isCommingled == false", lastCell="B28", areas=["B27:B28","B114:B115"])</t>
         </r>
       </text>
     </comment>
@@ -929,6 +1083,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[11].isCommingled == false", lastCell="B30", areas=["B29:B30","B116:B117"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
@@ -971,6 +1139,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F32")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[12].isCommingled == false", lastCell="B32", areas=["B31:B32","B118:B119"])</t>
         </r>
       </text>
     </comment>
@@ -1019,6 +1201,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[13].isCommingled == false", lastCell="B34", areas=["B33:B34","B120:B121"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1061,6 +1257,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F36")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[14].isCommingled == false", lastCell="B36", areas=["B35:B36","B122:B123"])</t>
         </r>
       </text>
     </comment>
@@ -1109,6 +1319,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[15].isCommingled == false", lastCell="B38", areas=["B37:B38","B124:B125"])</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1151,6 +1375,20 @@
           </rPr>
           <t>Author:
 jx:area(lastCell="F40")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="sheetThree.cargoTanks[16].isCommingled == false", lastCell="B40", areas=["B39:B40","B126:B127"])</t>
         </r>
       </text>
     </comment>
@@ -2109,12 +2347,267 @@
         </r>
       </text>
     </comment>
+    <comment ref="B94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B95")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B96" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B97")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B98" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B99")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B100" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B101")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B102" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B103")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B104" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B105")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B106" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B107")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B108" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B109")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B110" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B111")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B112" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B113")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B114" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B115")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B116" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B117")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B95")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B120" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B95")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B122" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B119")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B124" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B121")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="B123")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="622">
   <si>
     <t>TRIM</t>
   </si>
@@ -3890,6 +4383,108 @@
   </si>
   <si>
     <t>${ballastPumpStatus2.colorCode}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[0].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[1].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[3].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[4].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[5].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[6].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[7].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[8].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[2].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[9].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[10].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[11].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[12].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[13].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[14].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[15].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[16].commingleCargoName1}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[0].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[1].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[2].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[3].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[4].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[5].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[6].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[7].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[8].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[9].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[10].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[11].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[12].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[13].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[14].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[15].commingleCargoName2}</t>
+  </si>
+  <si>
+    <t>${sheetThree.cargoTanks[16].commingleCargoName2}</t>
   </si>
 </sst>
 </file>
@@ -3911,7 +4506,7 @@
     <numFmt numFmtId="175" formatCode="0.0\ &quot;hrs&quot;"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4296,6 +4891,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4682,7 +5284,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5275,6 +5877,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -5773,11 +6378,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5793,20 +6412,23 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5817,15 +6439,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5870,45 +6506,34 @@
     <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5918,9 +6543,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5933,35 +6555,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5972,6 +6574,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6010,7 +6616,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7401,7 +8007,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -7457,12 +8065,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="335" t="s">
+      <c r="L3" s="336" t="s">
         <v>584</v>
       </c>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
-      <c r="O3" s="335"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7482,13 +8090,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="337" t="s">
+      <c r="D4" s="338" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7515,13 +8123,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7539,13 +8147,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="326" t="s">
+      <c r="V5" s="327" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="326"/>
-      <c r="X5" s="326"/>
-      <c r="Y5" s="326"/>
-      <c r="Z5" s="326"/>
+      <c r="W5" s="327"/>
+      <c r="X5" s="327"/>
+      <c r="Y5" s="327"/>
+      <c r="Z5" s="327"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7575,13 +8183,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="327" t="s">
+      <c r="V6" s="328" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="327"/>
-      <c r="X6" s="327"/>
-      <c r="Y6" s="327"/>
-      <c r="Z6" s="327"/>
+      <c r="W6" s="328"/>
+      <c r="X6" s="328"/>
+      <c r="Y6" s="328"/>
+      <c r="Z6" s="328"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7590,24 +8198,24 @@
       <c r="B7" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="338" t="s">
+      <c r="C7" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339" t="s">
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="339"/>
+      <c r="H7" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="338" t="s">
+      <c r="I7" s="340"/>
+      <c r="J7" s="339" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
+      <c r="K7" s="339"/>
+      <c r="L7" s="339"/>
+      <c r="M7" s="339"/>
+      <c r="N7" s="339"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7619,13 +8227,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="327" t="s">
+      <c r="V7" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
+      <c r="W7" s="328"/>
+      <c r="X7" s="328"/>
+      <c r="Y7" s="328"/>
+      <c r="Z7" s="328"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7716,10 +8324,10 @@
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="330" t="s">
+      <c r="Y10" s="331" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="330"/>
+      <c r="Z10" s="331"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -7751,12 +8359,12 @@
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
-      <c r="W11" s="331" t="s">
+      <c r="W11" s="332" t="s">
         <v>582</v>
       </c>
-      <c r="X11" s="331"/>
-      <c r="Y11" s="331"/>
-      <c r="Z11" s="331"/>
+      <c r="X11" s="332"/>
+      <c r="Y11" s="332"/>
+      <c r="Z11" s="332"/>
       <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
@@ -7775,19 +8383,19 @@
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="329" t="s">
+      <c r="P12" s="330" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="329"/>
-      <c r="R12" s="329"/>
-      <c r="S12" s="329"/>
-      <c r="T12" s="329"/>
-      <c r="U12" s="329"/>
-      <c r="V12" s="329"/>
-      <c r="W12" s="329"/>
-      <c r="X12" s="329"/>
-      <c r="Y12" s="329"/>
-      <c r="Z12" s="329"/>
+      <c r="Q12" s="330"/>
+      <c r="R12" s="330"/>
+      <c r="S12" s="330"/>
+      <c r="T12" s="330"/>
+      <c r="U12" s="330"/>
+      <c r="V12" s="330"/>
+      <c r="W12" s="330"/>
+      <c r="X12" s="330"/>
+      <c r="Y12" s="330"/>
+      <c r="Z12" s="330"/>
     </row>
     <row r="13" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -7848,8 +8456,8 @@
       <c r="G15" s="223" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="255"/>
-      <c r="I15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="257"/>
       <c r="J15" s="79" t="s">
         <v>263</v>
       </c>
@@ -7857,8 +8465,8 @@
       <c r="L15" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="M15" s="255"/>
-      <c r="N15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="257"/>
       <c r="O15" s="79" t="s">
         <v>265</v>
       </c>
@@ -7866,12 +8474,12 @@
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="324" t="s">
+      <c r="T15" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
+      <c r="U15" s="325"/>
+      <c r="V15" s="325"/>
+      <c r="W15" s="325"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7879,47 +8487,47 @@
     <row r="16" spans="1:32" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="248" t="s">
+      <c r="C16" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="248" t="s">
+      <c r="D16" s="250"/>
+      <c r="E16" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="250"/>
-      <c r="G16" s="248" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="249" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="248" t="s">
+      <c r="H16" s="250"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="249" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="250"/>
-      <c r="L16" s="248" t="s">
+      <c r="K16" s="251"/>
+      <c r="L16" s="249" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="249"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="248" t="s">
+      <c r="M16" s="250"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="250"/>
+      <c r="P16" s="251"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="332" t="s">
+      <c r="T16" s="333" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="332"/>
-      <c r="V16" s="332"/>
-      <c r="W16" s="332"/>
+      <c r="U16" s="333"/>
+      <c r="V16" s="333"/>
+      <c r="W16" s="333"/>
       <c r="X16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="319" t="s">
+      <c r="Y16" s="320" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" s="319"/>
+      <c r="Z16" s="320"/>
       <c r="AF16" s="104"/>
     </row>
     <row r="17" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -7940,10 +8548,10 @@
       <c r="G17" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="281" t="s">
+      <c r="H17" s="282" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="282"/>
+      <c r="I17" s="283"/>
       <c r="J17" s="86" t="s">
         <v>281</v>
       </c>
@@ -7953,10 +8561,10 @@
       <c r="L17" s="220" t="s">
         <v>284</v>
       </c>
-      <c r="M17" s="281" t="s">
+      <c r="M17" s="282" t="s">
         <v>194</v>
       </c>
-      <c r="N17" s="282"/>
+      <c r="N17" s="283"/>
       <c r="O17" s="86" t="s">
         <v>287</v>
       </c>
@@ -7985,40 +8593,40 @@
     <row r="18" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="247" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="275"/>
-      <c r="E18" s="246" t="s">
+      <c r="D18" s="276"/>
+      <c r="E18" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="247"/>
-      <c r="G18" s="246" t="s">
+      <c r="F18" s="248"/>
+      <c r="G18" s="247" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="275"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="275" t="s">
+      <c r="H18" s="276"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="275"/>
-      <c r="L18" s="273" t="s">
+      <c r="K18" s="276"/>
+      <c r="L18" s="274" t="s">
         <v>195</v>
       </c>
-      <c r="M18" s="301"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="275" t="s">
+      <c r="M18" s="302"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="276" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="275"/>
-      <c r="Q18" s="300" t="s">
+      <c r="P18" s="276"/>
+      <c r="Q18" s="301" t="s">
         <v>559</v>
       </c>
       <c r="S18" s="71"/>
-      <c r="T18" s="328"/>
-      <c r="U18" s="328"/>
-      <c r="V18" s="328"/>
-      <c r="W18" s="328"/>
+      <c r="T18" s="329"/>
+      <c r="U18" s="329"/>
+      <c r="V18" s="329"/>
+      <c r="W18" s="329"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -8047,10 +8655,10 @@
       <c r="G19" s="226" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="251" t="s">
+      <c r="H19" s="252" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="252"/>
+      <c r="I19" s="253"/>
       <c r="J19" s="224" t="s">
         <v>168</v>
       </c>
@@ -8060,22 +8668,22 @@
       <c r="L19" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="M19" s="251" t="s">
+      <c r="M19" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="252"/>
+      <c r="N19" s="253"/>
       <c r="O19" s="227" t="s">
         <v>224</v>
       </c>
       <c r="P19" s="225" t="s">
         <v>225</v>
       </c>
-      <c r="Q19" s="300"/>
+      <c r="Q19" s="301"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="328"/>
-      <c r="U19" s="328"/>
-      <c r="V19" s="328"/>
-      <c r="W19" s="328"/>
+      <c r="T19" s="329"/>
+      <c r="U19" s="329"/>
+      <c r="V19" s="329"/>
+      <c r="W19" s="329"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -8092,24 +8700,24 @@
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
-      <c r="B20" s="336" t="s">
+      <c r="B20" s="337" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="333" t="s">
+      <c r="D20" s="334" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="304"/>
-      <c r="F20" s="334"/>
+      <c r="E20" s="305"/>
+      <c r="F20" s="335"/>
       <c r="G20" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="283" t="s">
+      <c r="H20" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="284"/>
+      <c r="I20" s="285"/>
       <c r="J20" s="92" t="s">
         <v>279</v>
       </c>
@@ -8119,10 +8727,10 @@
       <c r="L20" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="M20" s="302" t="s">
+      <c r="M20" s="303" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="303"/>
+      <c r="N20" s="304"/>
       <c r="O20" s="95" t="s">
         <v>285</v>
       </c>
@@ -8131,48 +8739,48 @@
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="328"/>
-      <c r="U20" s="328"/>
-      <c r="V20" s="328"/>
-      <c r="W20" s="328"/>
+      <c r="T20" s="329"/>
+      <c r="U20" s="329"/>
+      <c r="V20" s="329"/>
+      <c r="W20" s="329"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="84"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="323" t="s">
+      <c r="AF20" s="324" t="s">
         <v>564</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="84"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="246" t="s">
+      <c r="B21" s="337"/>
+      <c r="C21" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="246" t="s">
+      <c r="D21" s="276"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="275"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="273" t="s">
+      <c r="H21" s="276"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="274"/>
-      <c r="L21" s="273" t="s">
+      <c r="K21" s="275"/>
+      <c r="L21" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="M21" s="301"/>
-      <c r="N21" s="274"/>
-      <c r="O21" s="273" t="s">
+      <c r="M21" s="302"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="274" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="274"/>
+      <c r="P21" s="275"/>
       <c r="Q21" s="234"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -8185,7 +8793,7 @@
       <c r="AA21" s="84"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="323"/>
+      <c r="AF21" s="324"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -8194,18 +8802,18 @@
       <c r="C22" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="279" t="s">
+      <c r="D22" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="279"/>
-      <c r="F22" s="280"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="281"/>
       <c r="G22" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="279" t="s">
+      <c r="H22" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="280"/>
+      <c r="I22" s="281"/>
       <c r="J22" s="230" t="s">
         <v>144</v>
       </c>
@@ -8215,10 +8823,10 @@
       <c r="L22" s="230" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="279" t="s">
+      <c r="M22" s="280" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="280"/>
+      <c r="N22" s="281"/>
       <c r="O22" s="232" t="s">
         <v>200</v>
       </c>
@@ -8257,10 +8865,10 @@
       <c r="G23" s="221" t="s">
         <v>280</v>
       </c>
-      <c r="H23" s="283" t="s">
+      <c r="H23" s="284" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="284"/>
+      <c r="I23" s="285"/>
       <c r="J23" s="92" t="s">
         <v>283</v>
       </c>
@@ -8270,10 +8878,10 @@
       <c r="L23" s="221" t="s">
         <v>286</v>
       </c>
-      <c r="M23" s="283" t="s">
+      <c r="M23" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="N23" s="284"/>
+      <c r="N23" s="285"/>
       <c r="O23" s="92" t="s">
         <v>288</v>
       </c>
@@ -8303,42 +8911,42 @@
     <row r="24" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="247" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="275"/>
-      <c r="E24" s="246" t="s">
+      <c r="D24" s="276"/>
+      <c r="E24" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="275"/>
-      <c r="G24" s="276" t="s">
+      <c r="F24" s="276"/>
+      <c r="G24" s="277" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="277"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="246" t="s">
+      <c r="H24" s="278"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="247" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276" t="s">
+      <c r="K24" s="276"/>
+      <c r="L24" s="277" t="s">
         <v>203</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="246" t="s">
+      <c r="M24" s="278"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="247" t="s">
         <v>227</v>
       </c>
-      <c r="P24" s="275"/>
-      <c r="Q24" s="300" t="s">
+      <c r="P24" s="276"/>
+      <c r="Q24" s="301" t="s">
         <v>557</v>
       </c>
       <c r="S24" s="71"/>
-      <c r="T24" s="310" t="s">
+      <c r="T24" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="U24" s="310"/>
-      <c r="V24" s="310"/>
-      <c r="W24" s="310"/>
+      <c r="U24" s="311"/>
+      <c r="V24" s="311"/>
+      <c r="W24" s="311"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
         <v>258</v>
@@ -8369,10 +8977,10 @@
       <c r="G25" s="226" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="253" t="s">
+      <c r="H25" s="254" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="254"/>
+      <c r="I25" s="255"/>
       <c r="J25" s="224" t="s">
         <v>176</v>
       </c>
@@ -8382,17 +8990,17 @@
       <c r="L25" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="298" t="s">
+      <c r="M25" s="299" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="299"/>
+      <c r="N25" s="300"/>
       <c r="O25" s="224" t="s">
         <v>228</v>
       </c>
       <c r="P25" s="225" t="s">
         <v>229</v>
       </c>
-      <c r="Q25" s="300"/>
+      <c r="Q25" s="301"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -8422,8 +9030,8 @@
       <c r="G26" s="222" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
+      <c r="H26" s="286"/>
+      <c r="I26" s="287"/>
       <c r="J26" s="100" t="s">
         <v>269</v>
       </c>
@@ -8431,19 +9039,19 @@
       <c r="L26" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="285"/>
-      <c r="N26" s="286"/>
+      <c r="M26" s="286"/>
+      <c r="N26" s="287"/>
       <c r="O26" s="76" t="s">
         <v>271</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="290" t="s">
+      <c r="T26" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
+      <c r="U26" s="291"/>
+      <c r="V26" s="291"/>
       <c r="W26" s="74" t="s">
         <v>8</v>
       </c>
@@ -8462,40 +9070,40 @@
     <row r="27" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="249"/>
-      <c r="E27" s="248" t="s">
+      <c r="D27" s="250"/>
+      <c r="E27" s="249" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="249"/>
-      <c r="G27" s="248" t="s">
+      <c r="F27" s="250"/>
+      <c r="G27" s="249" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="249"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="248" t="s">
+      <c r="H27" s="250"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="249" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="249"/>
-      <c r="L27" s="248" t="s">
+      <c r="K27" s="250"/>
+      <c r="L27" s="249" t="s">
         <v>206</v>
       </c>
-      <c r="M27" s="249"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="248" t="s">
+      <c r="M27" s="250"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="249" t="s">
         <v>230</v>
       </c>
-      <c r="P27" s="250"/>
+      <c r="P27" s="251"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="290" t="s">
+      <c r="T27" s="291" t="s">
         <v>69</v>
       </c>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
+      <c r="U27" s="291"/>
+      <c r="V27" s="291"/>
       <c r="W27" s="74" t="s">
         <v>8</v>
       </c>
@@ -8531,11 +9139,11 @@
       <c r="Q28" s="104"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="310" t="s">
+      <c r="T28" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="310"/>
-      <c r="V28" s="310"/>
+      <c r="U28" s="311"/>
+      <c r="V28" s="311"/>
       <c r="W28" s="74" t="s">
         <v>8</v>
       </c>
@@ -8654,12 +9262,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="324" t="s">
+      <c r="T31" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="324"/>
-      <c r="V31" s="324"/>
-      <c r="W31" s="324"/>
+      <c r="U31" s="325"/>
+      <c r="V31" s="325"/>
+      <c r="W31" s="325"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="74"/>
@@ -8690,32 +9298,32 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
-      <c r="T32" s="325" t="s">
+      <c r="T32" s="326" t="s">
         <v>77</v>
       </c>
-      <c r="U32" s="325"/>
-      <c r="V32" s="325"/>
-      <c r="W32" s="325"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
       <c r="X32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="319" t="s">
+      <c r="Y32" s="320" t="s">
         <v>78</v>
       </c>
-      <c r="Z32" s="319"/>
+      <c r="Z32" s="320"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="317"/>
-      <c r="AK32" s="317"/>
+      <c r="AJ32" s="318"/>
+      <c r="AK32" s="318"/>
       <c r="AL32" s="115"/>
       <c r="AM32" s="115"/>
       <c r="AN32" s="115"/>
-      <c r="AO32" s="317"/>
-      <c r="AP32" s="317"/>
+      <c r="AO32" s="318"/>
+      <c r="AP32" s="318"/>
       <c r="AQ32" s="115"/>
       <c r="AR32" s="115"/>
       <c r="AS32" s="115"/>
@@ -8734,8 +9342,8 @@
       <c r="G33" s="223" t="s">
         <v>291</v>
       </c>
-      <c r="H33" s="255"/>
-      <c r="I33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="257"/>
       <c r="J33" s="217" t="s">
         <v>292</v>
       </c>
@@ -8743,8 +9351,8 @@
       <c r="L33" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="257"/>
       <c r="O33" s="217" t="s">
         <v>294</v>
       </c>
@@ -8766,46 +9374,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="316"/>
-      <c r="AK33" s="316"/>
-      <c r="AL33" s="316"/>
-      <c r="AM33" s="316"/>
-      <c r="AN33" s="316"/>
-      <c r="AO33" s="316"/>
-      <c r="AP33" s="316"/>
-      <c r="AQ33" s="316"/>
-      <c r="AR33" s="316"/>
-      <c r="AS33" s="316"/>
+      <c r="AJ33" s="317"/>
+      <c r="AK33" s="317"/>
+      <c r="AL33" s="317"/>
+      <c r="AM33" s="317"/>
+      <c r="AN33" s="317"/>
+      <c r="AO33" s="317"/>
+      <c r="AP33" s="317"/>
+      <c r="AQ33" s="317"/>
+      <c r="AR33" s="317"/>
+      <c r="AS33" s="317"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="248" t="s">
+      <c r="C34" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="250"/>
-      <c r="E34" s="248" t="s">
+      <c r="D34" s="251"/>
+      <c r="E34" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="250"/>
-      <c r="G34" s="248" t="s">
+      <c r="F34" s="251"/>
+      <c r="G34" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="249"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="248" t="s">
+      <c r="H34" s="250"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="249" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="250"/>
-      <c r="L34" s="248" t="s">
+      <c r="K34" s="251"/>
+      <c r="L34" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="249"/>
-      <c r="N34" s="250"/>
-      <c r="O34" s="248" t="s">
+      <c r="M34" s="250"/>
+      <c r="N34" s="251"/>
+      <c r="O34" s="249" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="250"/>
+      <c r="P34" s="251"/>
       <c r="Q34" s="85"/>
       <c r="S34" s="116"/>
       <c r="T34" s="117"/>
@@ -8823,13 +9431,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="320"/>
-      <c r="AK34" s="320"/>
+      <c r="AJ34" s="321"/>
+      <c r="AK34" s="321"/>
       <c r="AL34" s="120"/>
       <c r="AM34" s="119"/>
       <c r="AN34" s="120"/>
-      <c r="AO34" s="320"/>
-      <c r="AP34" s="320"/>
+      <c r="AO34" s="321"/>
+      <c r="AP34" s="321"/>
       <c r="AQ34" s="120"/>
       <c r="AR34" s="119"/>
       <c r="AS34" s="120"/>
@@ -8852,10 +9460,10 @@
       <c r="G35" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="282" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="282"/>
+      <c r="I35" s="283"/>
       <c r="J35" s="220" t="s">
         <v>298</v>
       </c>
@@ -8865,10 +9473,10 @@
       <c r="L35" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="M35" s="281" t="s">
+      <c r="M35" s="282" t="s">
         <v>208</v>
       </c>
-      <c r="N35" s="282"/>
+      <c r="N35" s="283"/>
       <c r="O35" s="220" t="s">
         <v>300</v>
       </c>
@@ -8897,47 +9505,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="316"/>
-      <c r="AK35" s="316"/>
-      <c r="AL35" s="316"/>
-      <c r="AM35" s="316"/>
-      <c r="AN35" s="316"/>
-      <c r="AO35" s="277"/>
-      <c r="AP35" s="277"/>
-      <c r="AQ35" s="277"/>
-      <c r="AR35" s="321"/>
-      <c r="AS35" s="321"/>
+      <c r="AJ35" s="317"/>
+      <c r="AK35" s="317"/>
+      <c r="AL35" s="317"/>
+      <c r="AM35" s="317"/>
+      <c r="AN35" s="317"/>
+      <c r="AO35" s="278"/>
+      <c r="AP35" s="278"/>
+      <c r="AQ35" s="278"/>
+      <c r="AR35" s="322"/>
+      <c r="AS35" s="322"/>
     </row>
     <row r="36" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="246" t="s">
+      <c r="C36" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="247"/>
-      <c r="E36" s="246" t="s">
+      <c r="D36" s="248"/>
+      <c r="E36" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="247"/>
-      <c r="G36" s="246" t="s">
+      <c r="F36" s="248"/>
+      <c r="G36" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="275"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="246" t="s">
+      <c r="H36" s="276"/>
+      <c r="I36" s="248"/>
+      <c r="J36" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="K36" s="247"/>
-      <c r="L36" s="273" t="s">
+      <c r="K36" s="248"/>
+      <c r="L36" s="274" t="s">
         <v>209</v>
       </c>
-      <c r="M36" s="301"/>
-      <c r="N36" s="274"/>
-      <c r="O36" s="246" t="s">
+      <c r="M36" s="302"/>
+      <c r="N36" s="275"/>
+      <c r="O36" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="247"/>
-      <c r="Q36" s="300" t="s">
+      <c r="P36" s="248"/>
+      <c r="Q36" s="301" t="s">
         <v>560</v>
       </c>
       <c r="S36" s="116"/>
@@ -8987,10 +9595,10 @@
       <c r="G37" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="251" t="s">
+      <c r="H37" s="252" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="252"/>
+      <c r="I37" s="253"/>
       <c r="J37" s="224" t="s">
         <v>182</v>
       </c>
@@ -9000,17 +9608,17 @@
       <c r="L37" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="251" t="s">
+      <c r="M37" s="252" t="s">
         <v>211</v>
       </c>
-      <c r="N37" s="252"/>
+      <c r="N37" s="253"/>
       <c r="O37" s="227" t="s">
         <v>234</v>
       </c>
       <c r="P37" s="225" t="s">
         <v>235</v>
       </c>
-      <c r="Q37" s="300"/>
+      <c r="Q37" s="301"/>
       <c r="S37" s="126"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
@@ -9029,37 +9637,37 @@
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
       <c r="AI37" s="237"/>
-      <c r="AJ37" s="318"/>
-      <c r="AK37" s="318"/>
+      <c r="AJ37" s="319"/>
+      <c r="AK37" s="319"/>
       <c r="AL37" s="120"/>
       <c r="AM37" s="97"/>
       <c r="AN37" s="121"/>
       <c r="AO37" s="97"/>
-      <c r="AP37" s="322"/>
-      <c r="AQ37" s="322"/>
+      <c r="AP37" s="323"/>
+      <c r="AQ37" s="323"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="120"/>
     </row>
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="336" t="s">
+      <c r="B38" s="337" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="218" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="304" t="s">
+      <c r="D38" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="304"/>
-      <c r="F38" s="305"/>
+      <c r="E38" s="305"/>
+      <c r="F38" s="306"/>
       <c r="G38" s="221" t="s">
         <v>302</v>
       </c>
-      <c r="H38" s="283" t="s">
+      <c r="H38" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="284"/>
+      <c r="I38" s="285"/>
       <c r="J38" s="218" t="s">
         <v>303</v>
       </c>
@@ -9069,10 +9677,10 @@
       <c r="L38" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="M38" s="302" t="s">
+      <c r="M38" s="303" t="s">
         <v>184</v>
       </c>
-      <c r="N38" s="303"/>
+      <c r="N38" s="304"/>
       <c r="O38" s="95" t="s">
         <v>305</v>
       </c>
@@ -9088,50 +9696,50 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="323" t="s">
+      <c r="AF38" s="324" t="s">
         <v>571</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
       <c r="AI38" s="236"/>
-      <c r="AJ38" s="316"/>
-      <c r="AK38" s="316"/>
-      <c r="AL38" s="316"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
+      <c r="AJ38" s="317"/>
+      <c r="AK38" s="317"/>
+      <c r="AL38" s="317"/>
+      <c r="AM38" s="278"/>
+      <c r="AN38" s="278"/>
+      <c r="AO38" s="278"/>
+      <c r="AP38" s="278"/>
+      <c r="AQ38" s="278"/>
+      <c r="AR38" s="278"/>
+      <c r="AS38" s="278"/>
     </row>
     <row r="39" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="336"/>
-      <c r="C39" s="246" t="s">
+      <c r="B39" s="337"/>
+      <c r="C39" s="247" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="275"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="246" t="s">
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="275"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="273" t="s">
+      <c r="H39" s="276"/>
+      <c r="I39" s="248"/>
+      <c r="J39" s="274" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="274"/>
-      <c r="L39" s="273" t="s">
+      <c r="K39" s="275"/>
+      <c r="L39" s="274" t="s">
         <v>185</v>
       </c>
-      <c r="M39" s="301"/>
-      <c r="N39" s="274"/>
-      <c r="O39" s="273" t="s">
+      <c r="M39" s="302"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="274" t="s">
         <v>213</v>
       </c>
-      <c r="P39" s="274"/>
+      <c r="P39" s="275"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
@@ -9143,7 +9751,7 @@
       <c r="X39" s="71"/>
       <c r="Y39" s="127"/>
       <c r="Z39" s="74"/>
-      <c r="AF39" s="323"/>
+      <c r="AF39" s="324"/>
       <c r="AG39" s="238"/>
       <c r="AH39" s="238"/>
       <c r="AI39" s="125"/>
@@ -9164,18 +9772,18 @@
       <c r="C40" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="279" t="s">
+      <c r="D40" s="280" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="280"/>
+      <c r="E40" s="280"/>
+      <c r="F40" s="281"/>
       <c r="G40" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="279" t="s">
+      <c r="H40" s="280" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="280"/>
+      <c r="I40" s="281"/>
       <c r="J40" s="230" t="s">
         <v>158</v>
       </c>
@@ -9185,10 +9793,10 @@
       <c r="L40" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="M40" s="279" t="s">
+      <c r="M40" s="280" t="s">
         <v>187</v>
       </c>
-      <c r="N40" s="280"/>
+      <c r="N40" s="281"/>
       <c r="O40" s="232" t="s">
         <v>214</v>
       </c>
@@ -9197,12 +9805,12 @@
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="310" t="s">
+      <c r="T40" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="U40" s="310"/>
-      <c r="V40" s="310"/>
-      <c r="W40" s="310"/>
+      <c r="U40" s="311"/>
+      <c r="V40" s="311"/>
+      <c r="W40" s="311"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
         <v>79</v>
@@ -9212,13 +9820,13 @@
       <c r="AG40" s="120"/>
       <c r="AH40" s="238"/>
       <c r="AI40" s="237"/>
-      <c r="AJ40" s="318"/>
-      <c r="AK40" s="318"/>
+      <c r="AJ40" s="319"/>
+      <c r="AK40" s="319"/>
       <c r="AL40" s="120"/>
       <c r="AM40" s="97"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="318"/>
-      <c r="AP40" s="318"/>
+      <c r="AO40" s="319"/>
+      <c r="AP40" s="319"/>
       <c r="AQ40" s="120"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="120"/>
@@ -9241,10 +9849,10 @@
       <c r="G41" s="221" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="283" t="s">
+      <c r="H41" s="284" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="284"/>
+      <c r="I41" s="285"/>
       <c r="J41" s="218" t="s">
         <v>309</v>
       </c>
@@ -9254,10 +9862,10 @@
       <c r="L41" s="221" t="s">
         <v>310</v>
       </c>
-      <c r="M41" s="283" t="s">
+      <c r="M41" s="284" t="s">
         <v>216</v>
       </c>
-      <c r="N41" s="284"/>
+      <c r="N41" s="285"/>
       <c r="O41" s="218" t="s">
         <v>311</v>
       </c>
@@ -9279,55 +9887,55 @@
       <c r="AG41" s="235"/>
       <c r="AH41" s="235"/>
       <c r="AI41" s="235"/>
-      <c r="AJ41" s="277"/>
-      <c r="AK41" s="277"/>
-      <c r="AL41" s="277"/>
-      <c r="AM41" s="316"/>
-      <c r="AN41" s="316"/>
-      <c r="AO41" s="277"/>
-      <c r="AP41" s="277"/>
-      <c r="AQ41" s="277"/>
-      <c r="AR41" s="277"/>
-      <c r="AS41" s="277"/>
+      <c r="AJ41" s="278"/>
+      <c r="AK41" s="278"/>
+      <c r="AL41" s="278"/>
+      <c r="AM41" s="317"/>
+      <c r="AN41" s="317"/>
+      <c r="AO41" s="278"/>
+      <c r="AP41" s="278"/>
+      <c r="AQ41" s="278"/>
+      <c r="AR41" s="278"/>
+      <c r="AS41" s="278"/>
     </row>
     <row r="42" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="246" t="s">
+      <c r="C42" s="247" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="247"/>
-      <c r="E42" s="246" t="s">
+      <c r="D42" s="248"/>
+      <c r="E42" s="247" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="247"/>
-      <c r="G42" s="276" t="s">
+      <c r="F42" s="248"/>
+      <c r="G42" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="277"/>
-      <c r="I42" s="278"/>
-      <c r="J42" s="246" t="s">
+      <c r="H42" s="278"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="247" t="s">
         <v>189</v>
       </c>
-      <c r="K42" s="247"/>
-      <c r="L42" s="276" t="s">
+      <c r="K42" s="248"/>
+      <c r="L42" s="277" t="s">
         <v>217</v>
       </c>
-      <c r="M42" s="277"/>
-      <c r="N42" s="278"/>
-      <c r="O42" s="246" t="s">
+      <c r="M42" s="278"/>
+      <c r="N42" s="279"/>
+      <c r="O42" s="247" t="s">
         <v>237</v>
       </c>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="300" t="s">
+      <c r="P42" s="248"/>
+      <c r="Q42" s="301" t="s">
         <v>558</v>
       </c>
       <c r="S42" s="71"/>
-      <c r="T42" s="290" t="s">
+      <c r="T42" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="290"/>
-      <c r="V42" s="290"/>
+      <c r="U42" s="291"/>
+      <c r="V42" s="291"/>
       <c r="W42" s="74" t="s">
         <v>8</v>
       </c>
@@ -9369,10 +9977,10 @@
       <c r="G43" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="254"/>
+      <c r="I43" s="255"/>
       <c r="J43" s="224" t="s">
         <v>190</v>
       </c>
@@ -9382,23 +9990,23 @@
       <c r="L43" s="224" t="s">
         <v>218</v>
       </c>
-      <c r="M43" s="251" t="s">
+      <c r="M43" s="252" t="s">
         <v>219</v>
       </c>
-      <c r="N43" s="252"/>
+      <c r="N43" s="253"/>
       <c r="O43" s="224" t="s">
         <v>238</v>
       </c>
       <c r="P43" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="Q43" s="300"/>
+      <c r="Q43" s="301"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="290" t="s">
+      <c r="T43" s="291" t="s">
         <v>69</v>
       </c>
-      <c r="U43" s="290"/>
-      <c r="V43" s="290"/>
+      <c r="U43" s="291"/>
+      <c r="V43" s="291"/>
       <c r="W43" s="74" t="s">
         <v>8</v>
       </c>
@@ -9411,13 +10019,13 @@
       <c r="AG43" s="239"/>
       <c r="AH43" s="239"/>
       <c r="AI43" s="239"/>
-      <c r="AJ43" s="317"/>
-      <c r="AK43" s="317"/>
+      <c r="AJ43" s="318"/>
+      <c r="AK43" s="318"/>
       <c r="AL43" s="115"/>
       <c r="AM43" s="115"/>
       <c r="AN43" s="115"/>
-      <c r="AO43" s="317"/>
-      <c r="AP43" s="317"/>
+      <c r="AO43" s="318"/>
+      <c r="AP43" s="318"/>
       <c r="AQ43" s="115"/>
       <c r="AR43" s="115"/>
       <c r="AS43" s="115"/>
@@ -9436,8 +10044,8 @@
       <c r="G44" s="223" t="s">
         <v>314</v>
       </c>
-      <c r="H44" s="255"/>
-      <c r="I44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="257"/>
       <c r="J44" s="100" t="s">
         <v>315</v>
       </c>
@@ -9445,19 +10053,19 @@
       <c r="L44" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="M44" s="255"/>
-      <c r="N44" s="256"/>
+      <c r="M44" s="256"/>
+      <c r="N44" s="257"/>
       <c r="O44" s="76" t="s">
         <v>317</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="310" t="s">
+      <c r="T44" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="310"/>
-      <c r="V44" s="310"/>
+      <c r="U44" s="311"/>
+      <c r="V44" s="311"/>
       <c r="W44" s="74" t="s">
         <v>8</v>
       </c>
@@ -9473,46 +10081,46 @@
       <c r="AG44" s="236"/>
       <c r="AH44" s="236"/>
       <c r="AI44" s="236"/>
-      <c r="AJ44" s="316"/>
-      <c r="AK44" s="316"/>
-      <c r="AL44" s="316"/>
-      <c r="AM44" s="316"/>
-      <c r="AN44" s="316"/>
-      <c r="AO44" s="316"/>
-      <c r="AP44" s="316"/>
-      <c r="AQ44" s="316"/>
-      <c r="AR44" s="316"/>
-      <c r="AS44" s="316"/>
+      <c r="AJ44" s="317"/>
+      <c r="AK44" s="317"/>
+      <c r="AL44" s="317"/>
+      <c r="AM44" s="317"/>
+      <c r="AN44" s="317"/>
+      <c r="AO44" s="317"/>
+      <c r="AP44" s="317"/>
+      <c r="AQ44" s="317"/>
+      <c r="AR44" s="317"/>
+      <c r="AS44" s="317"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
-      <c r="C45" s="248" t="s">
+      <c r="C45" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="250"/>
-      <c r="E45" s="248" t="s">
+      <c r="D45" s="251"/>
+      <c r="E45" s="249" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="250"/>
-      <c r="G45" s="248" t="s">
+      <c r="F45" s="251"/>
+      <c r="G45" s="249" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="249"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="248" t="s">
+      <c r="H45" s="250"/>
+      <c r="I45" s="251"/>
+      <c r="J45" s="249" t="s">
         <v>192</v>
       </c>
-      <c r="K45" s="250"/>
-      <c r="L45" s="248" t="s">
+      <c r="K45" s="251"/>
+      <c r="L45" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="249"/>
-      <c r="N45" s="250"/>
-      <c r="O45" s="248" t="s">
+      <c r="M45" s="250"/>
+      <c r="N45" s="251"/>
+      <c r="O45" s="249" t="s">
         <v>318</v>
       </c>
-      <c r="P45" s="250"/>
+      <c r="P45" s="251"/>
       <c r="Q45" s="104"/>
       <c r="R45" s="71"/>
       <c r="S45" s="73"/>
@@ -9527,18 +10135,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
-      <c r="I46" s="257"/>
-      <c r="J46" s="257"/>
-      <c r="K46" s="257"/>
-      <c r="L46" s="257"/>
-      <c r="M46" s="257"/>
-      <c r="N46" s="257"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="258"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="258"/>
+      <c r="G46" s="258"/>
+      <c r="H46" s="258"/>
+      <c r="I46" s="258"/>
+      <c r="J46" s="258"/>
+      <c r="K46" s="258"/>
+      <c r="L46" s="258"/>
+      <c r="M46" s="258"/>
+      <c r="N46" s="258"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9595,20 +10203,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="291"/>
-      <c r="J48" s="291"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="261" t="s">
+      <c r="I48" s="292"/>
+      <c r="J48" s="292"/>
+      <c r="K48" s="292"/>
+      <c r="L48" s="292"/>
+      <c r="M48" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="262"/>
-      <c r="O48" s="262"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="262"/>
-      <c r="R48" s="262"/>
-      <c r="S48" s="262"/>
-      <c r="T48" s="263"/>
+      <c r="N48" s="263"/>
+      <c r="O48" s="263"/>
+      <c r="P48" s="263"/>
+      <c r="Q48" s="263"/>
+      <c r="R48" s="263"/>
+      <c r="S48" s="263"/>
+      <c r="T48" s="264"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9629,22 +10237,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="245" t="s">
+      <c r="I49" s="246" t="s">
         <v>252</v>
       </c>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="264" t="s">
+      <c r="J49" s="246"/>
+      <c r="K49" s="246"/>
+      <c r="L49" s="246"/>
+      <c r="M49" s="265" t="s">
         <v>259</v>
       </c>
-      <c r="N49" s="265"/>
-      <c r="O49" s="265"/>
-      <c r="P49" s="265"/>
-      <c r="Q49" s="265"/>
-      <c r="R49" s="265"/>
-      <c r="S49" s="265"/>
-      <c r="T49" s="266"/>
+      <c r="N49" s="266"/>
+      <c r="O49" s="266"/>
+      <c r="P49" s="266"/>
+      <c r="Q49" s="266"/>
+      <c r="R49" s="266"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="267"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9665,20 +10273,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="246" t="s">
         <v>253</v>
       </c>
-      <c r="J50" s="245"/>
-      <c r="K50" s="245"/>
-      <c r="L50" s="245"/>
-      <c r="M50" s="267"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="268"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
-      <c r="S50" s="268"/>
-      <c r="T50" s="269"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="269"/>
+      <c r="O50" s="269"/>
+      <c r="P50" s="269"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="269"/>
+      <c r="S50" s="269"/>
+      <c r="T50" s="270"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9699,20 +10307,20 @@
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="245" t="s">
+      <c r="I51" s="246" t="s">
         <v>256</v>
       </c>
-      <c r="J51" s="245"/>
-      <c r="K51" s="245"/>
-      <c r="L51" s="245"/>
-      <c r="M51" s="267"/>
-      <c r="N51" s="268"/>
-      <c r="O51" s="268"/>
-      <c r="P51" s="268"/>
-      <c r="Q51" s="268"/>
-      <c r="R51" s="268"/>
-      <c r="S51" s="268"/>
-      <c r="T51" s="269"/>
+      <c r="J51" s="246"/>
+      <c r="K51" s="246"/>
+      <c r="L51" s="246"/>
+      <c r="M51" s="268"/>
+      <c r="N51" s="269"/>
+      <c r="O51" s="269"/>
+      <c r="P51" s="269"/>
+      <c r="Q51" s="269"/>
+      <c r="R51" s="269"/>
+      <c r="S51" s="269"/>
+      <c r="T51" s="270"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9733,20 +10341,20 @@
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="245" t="s">
+      <c r="I52" s="246" t="s">
         <v>255</v>
       </c>
-      <c r="J52" s="245"/>
-      <c r="K52" s="245"/>
-      <c r="L52" s="245"/>
-      <c r="M52" s="267"/>
-      <c r="N52" s="268"/>
-      <c r="O52" s="268"/>
-      <c r="P52" s="268"/>
-      <c r="Q52" s="268"/>
-      <c r="R52" s="268"/>
-      <c r="S52" s="268"/>
-      <c r="T52" s="269"/>
+      <c r="J52" s="246"/>
+      <c r="K52" s="246"/>
+      <c r="L52" s="246"/>
+      <c r="M52" s="268"/>
+      <c r="N52" s="269"/>
+      <c r="O52" s="269"/>
+      <c r="P52" s="269"/>
+      <c r="Q52" s="269"/>
+      <c r="R52" s="269"/>
+      <c r="S52" s="269"/>
+      <c r="T52" s="270"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9767,20 +10375,20 @@
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="245" t="s">
+      <c r="I53" s="246" t="s">
         <v>254</v>
       </c>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-      <c r="L53" s="245"/>
-      <c r="M53" s="267"/>
-      <c r="N53" s="268"/>
-      <c r="O53" s="268"/>
-      <c r="P53" s="268"/>
-      <c r="Q53" s="268"/>
-      <c r="R53" s="268"/>
-      <c r="S53" s="268"/>
-      <c r="T53" s="269"/>
+      <c r="J53" s="246"/>
+      <c r="K53" s="246"/>
+      <c r="L53" s="246"/>
+      <c r="M53" s="268"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="269"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="270"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9792,29 +10400,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="287" t="s">
+      <c r="B54" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
-      <c r="E54" s="288"/>
-      <c r="F54" s="288"/>
-      <c r="G54" s="288"/>
-      <c r="H54" s="289"/>
-      <c r="I54" s="296" t="s">
+      <c r="C54" s="289"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="289"/>
+      <c r="F54" s="289"/>
+      <c r="G54" s="289"/>
+      <c r="H54" s="290"/>
+      <c r="I54" s="297" t="s">
         <v>257</v>
       </c>
-      <c r="J54" s="296"/>
-      <c r="K54" s="296"/>
-      <c r="L54" s="296"/>
-      <c r="M54" s="267"/>
-      <c r="N54" s="268"/>
-      <c r="O54" s="268"/>
-      <c r="P54" s="268"/>
-      <c r="Q54" s="268"/>
-      <c r="R54" s="268"/>
-      <c r="S54" s="268"/>
-      <c r="T54" s="269"/>
+      <c r="J54" s="297"/>
+      <c r="K54" s="297"/>
+      <c r="L54" s="297"/>
+      <c r="M54" s="268"/>
+      <c r="N54" s="269"/>
+      <c r="O54" s="269"/>
+      <c r="P54" s="269"/>
+      <c r="Q54" s="269"/>
+      <c r="R54" s="269"/>
+      <c r="S54" s="269"/>
+      <c r="T54" s="270"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9837,18 +10445,18 @@
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="296"/>
-      <c r="J55" s="296"/>
-      <c r="K55" s="296"/>
-      <c r="L55" s="296"/>
-      <c r="M55" s="267"/>
-      <c r="N55" s="268"/>
-      <c r="O55" s="268"/>
-      <c r="P55" s="268"/>
-      <c r="Q55" s="268"/>
-      <c r="R55" s="268"/>
-      <c r="S55" s="268"/>
-      <c r="T55" s="269"/>
+      <c r="I55" s="297"/>
+      <c r="J55" s="297"/>
+      <c r="K55" s="297"/>
+      <c r="L55" s="297"/>
+      <c r="M55" s="268"/>
+      <c r="N55" s="269"/>
+      <c r="O55" s="269"/>
+      <c r="P55" s="269"/>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="269"/>
+      <c r="S55" s="269"/>
+      <c r="T55" s="270"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9871,18 +10479,18 @@
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="296"/>
-      <c r="J56" s="296"/>
-      <c r="K56" s="296"/>
-      <c r="L56" s="296"/>
-      <c r="M56" s="267"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
-      <c r="T56" s="269"/>
+      <c r="I56" s="297"/>
+      <c r="J56" s="297"/>
+      <c r="K56" s="297"/>
+      <c r="L56" s="297"/>
+      <c r="M56" s="268"/>
+      <c r="N56" s="269"/>
+      <c r="O56" s="269"/>
+      <c r="P56" s="269"/>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="269"/>
+      <c r="S56" s="269"/>
+      <c r="T56" s="270"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9905,18 +10513,18 @@
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="296"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="296"/>
-      <c r="L57" s="296"/>
-      <c r="M57" s="267"/>
-      <c r="N57" s="268"/>
-      <c r="O57" s="268"/>
-      <c r="P57" s="268"/>
-      <c r="Q57" s="268"/>
-      <c r="R57" s="268"/>
-      <c r="S57" s="268"/>
-      <c r="T57" s="269"/>
+      <c r="I57" s="297"/>
+      <c r="J57" s="297"/>
+      <c r="K57" s="297"/>
+      <c r="L57" s="297"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="269"/>
+      <c r="O57" s="269"/>
+      <c r="P57" s="269"/>
+      <c r="Q57" s="269"/>
+      <c r="R57" s="269"/>
+      <c r="S57" s="269"/>
+      <c r="T57" s="270"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9939,18 +10547,18 @@
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="296"/>
-      <c r="J58" s="296"/>
-      <c r="K58" s="296"/>
-      <c r="L58" s="296"/>
-      <c r="M58" s="267"/>
-      <c r="N58" s="268"/>
-      <c r="O58" s="268"/>
-      <c r="P58" s="268"/>
-      <c r="Q58" s="268"/>
-      <c r="R58" s="268"/>
-      <c r="S58" s="268"/>
-      <c r="T58" s="269"/>
+      <c r="I58" s="297"/>
+      <c r="J58" s="297"/>
+      <c r="K58" s="297"/>
+      <c r="L58" s="297"/>
+      <c r="M58" s="268"/>
+      <c r="N58" s="269"/>
+      <c r="O58" s="269"/>
+      <c r="P58" s="269"/>
+      <c r="Q58" s="269"/>
+      <c r="R58" s="269"/>
+      <c r="S58" s="269"/>
+      <c r="T58" s="270"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9973,18 +10581,18 @@
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="296"/>
-      <c r="J59" s="296"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="296"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="271"/>
-      <c r="O59" s="271"/>
-      <c r="P59" s="271"/>
-      <c r="Q59" s="271"/>
-      <c r="R59" s="271"/>
-      <c r="S59" s="271"/>
-      <c r="T59" s="272"/>
+      <c r="I59" s="297"/>
+      <c r="J59" s="297"/>
+      <c r="K59" s="297"/>
+      <c r="L59" s="297"/>
+      <c r="M59" s="271"/>
+      <c r="N59" s="272"/>
+      <c r="O59" s="272"/>
+      <c r="P59" s="272"/>
+      <c r="Q59" s="272"/>
+      <c r="R59" s="272"/>
+      <c r="S59" s="272"/>
+      <c r="T59" s="273"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -10070,28 +10678,28 @@
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
-      <c r="F62" s="259" t="s">
+      <c r="F62" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="297"/>
-      <c r="L62" s="297"/>
-      <c r="M62" s="297"/>
-      <c r="N62" s="297"/>
-      <c r="O62" s="297"/>
-      <c r="P62" s="258"/>
-      <c r="Q62" s="258"/>
-      <c r="R62" s="258"/>
-      <c r="S62" s="258"/>
-      <c r="T62" s="258"/>
-      <c r="U62" s="258"/>
-      <c r="V62" s="258"/>
-      <c r="W62" s="258"/>
-      <c r="X62" s="258"/>
-      <c r="Y62" s="258"/>
+      <c r="G62" s="260"/>
+      <c r="H62" s="260"/>
+      <c r="I62" s="260"/>
+      <c r="J62" s="260"/>
+      <c r="K62" s="298"/>
+      <c r="L62" s="298"/>
+      <c r="M62" s="298"/>
+      <c r="N62" s="298"/>
+      <c r="O62" s="298"/>
+      <c r="P62" s="259"/>
+      <c r="Q62" s="259"/>
+      <c r="R62" s="259"/>
+      <c r="S62" s="259"/>
+      <c r="T62" s="259"/>
+      <c r="U62" s="259"/>
+      <c r="V62" s="259"/>
+      <c r="W62" s="259"/>
+      <c r="X62" s="259"/>
+      <c r="Y62" s="259"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10104,37 +10712,37 @@
         <v>26</v>
       </c>
       <c r="C63" s="154"/>
-      <c r="D63" s="294" t="s">
+      <c r="D63" s="295" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="295"/>
-      <c r="F63" s="259" t="s">
+      <c r="E63" s="296"/>
+      <c r="F63" s="260" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="259"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="259"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="297"/>
-      <c r="M63" s="297"/>
-      <c r="N63" s="297"/>
-      <c r="O63" s="297"/>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
-      <c r="Z63" s="306"/>
-      <c r="AA63" s="306"/>
-      <c r="AB63" s="306"/>
-      <c r="AC63" s="306"/>
-      <c r="AD63" s="306"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="260"/>
+      <c r="I63" s="260"/>
+      <c r="J63" s="260"/>
+      <c r="K63" s="298"/>
+      <c r="L63" s="298"/>
+      <c r="M63" s="298"/>
+      <c r="N63" s="298"/>
+      <c r="O63" s="298"/>
+      <c r="P63" s="298"/>
+      <c r="Q63" s="298"/>
+      <c r="R63" s="298"/>
+      <c r="S63" s="298"/>
+      <c r="T63" s="298"/>
+      <c r="U63" s="298"/>
+      <c r="V63" s="298"/>
+      <c r="W63" s="298"/>
+      <c r="X63" s="298"/>
+      <c r="Y63" s="298"/>
+      <c r="Z63" s="307"/>
+      <c r="AA63" s="307"/>
+      <c r="AB63" s="307"/>
+      <c r="AC63" s="307"/>
+      <c r="AD63" s="307"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="69"/>
@@ -10144,33 +10752,33 @@
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
-      <c r="F64" s="259" t="s">
+      <c r="F64" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="297"/>
-      <c r="L64" s="297"/>
-      <c r="M64" s="297"/>
-      <c r="N64" s="297"/>
-      <c r="O64" s="297"/>
-      <c r="P64" s="297"/>
-      <c r="Q64" s="297"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="297"/>
-      <c r="V64" s="297"/>
-      <c r="W64" s="297"/>
-      <c r="X64" s="297"/>
-      <c r="Y64" s="297"/>
-      <c r="Z64" s="306"/>
-      <c r="AA64" s="306"/>
-      <c r="AB64" s="306"/>
-      <c r="AC64" s="306"/>
-      <c r="AD64" s="306"/>
+      <c r="G64" s="260"/>
+      <c r="H64" s="260"/>
+      <c r="I64" s="260"/>
+      <c r="J64" s="260"/>
+      <c r="K64" s="298"/>
+      <c r="L64" s="298"/>
+      <c r="M64" s="298"/>
+      <c r="N64" s="298"/>
+      <c r="O64" s="298"/>
+      <c r="P64" s="298"/>
+      <c r="Q64" s="298"/>
+      <c r="R64" s="298"/>
+      <c r="S64" s="298"/>
+      <c r="T64" s="298"/>
+      <c r="U64" s="298"/>
+      <c r="V64" s="298"/>
+      <c r="W64" s="298"/>
+      <c r="X64" s="298"/>
+      <c r="Y64" s="298"/>
+      <c r="Z64" s="307"/>
+      <c r="AA64" s="307"/>
+      <c r="AB64" s="307"/>
+      <c r="AC64" s="307"/>
+      <c r="AD64" s="307"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="69"/>
@@ -10180,33 +10788,33 @@
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
-      <c r="F65" s="259" t="s">
+      <c r="F65" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="G65" s="259"/>
-      <c r="H65" s="259"/>
-      <c r="I65" s="259"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="308"/>
-      <c r="L65" s="308"/>
-      <c r="M65" s="308"/>
-      <c r="N65" s="308"/>
-      <c r="O65" s="308"/>
-      <c r="P65" s="308"/>
-      <c r="Q65" s="308"/>
-      <c r="R65" s="308"/>
-      <c r="S65" s="308"/>
-      <c r="T65" s="308"/>
-      <c r="U65" s="308"/>
-      <c r="V65" s="308"/>
-      <c r="W65" s="308"/>
-      <c r="X65" s="308"/>
-      <c r="Y65" s="308"/>
-      <c r="Z65" s="306"/>
-      <c r="AA65" s="306"/>
-      <c r="AB65" s="306"/>
-      <c r="AC65" s="306"/>
-      <c r="AD65" s="306"/>
+      <c r="G65" s="260"/>
+      <c r="H65" s="260"/>
+      <c r="I65" s="260"/>
+      <c r="J65" s="260"/>
+      <c r="K65" s="309"/>
+      <c r="L65" s="309"/>
+      <c r="M65" s="309"/>
+      <c r="N65" s="309"/>
+      <c r="O65" s="309"/>
+      <c r="P65" s="309"/>
+      <c r="Q65" s="309"/>
+      <c r="R65" s="309"/>
+      <c r="S65" s="309"/>
+      <c r="T65" s="309"/>
+      <c r="U65" s="309"/>
+      <c r="V65" s="309"/>
+      <c r="W65" s="309"/>
+      <c r="X65" s="309"/>
+      <c r="Y65" s="309"/>
+      <c r="Z65" s="307"/>
+      <c r="AA65" s="307"/>
+      <c r="AB65" s="307"/>
+      <c r="AC65" s="307"/>
+      <c r="AD65" s="307"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="69"/>
@@ -10216,69 +10824,69 @@
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
-      <c r="F66" s="259" t="s">
+      <c r="F66" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="308"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="308"/>
-      <c r="O66" s="308"/>
-      <c r="P66" s="308"/>
-      <c r="Q66" s="308"/>
-      <c r="R66" s="308"/>
-      <c r="S66" s="308"/>
-      <c r="T66" s="308"/>
-      <c r="U66" s="308"/>
-      <c r="V66" s="308"/>
-      <c r="W66" s="308"/>
-      <c r="X66" s="308"/>
-      <c r="Y66" s="308"/>
-      <c r="Z66" s="307"/>
-      <c r="AA66" s="307"/>
-      <c r="AB66" s="307"/>
-      <c r="AC66" s="307"/>
-      <c r="AD66" s="307"/>
+      <c r="G66" s="260"/>
+      <c r="H66" s="260"/>
+      <c r="I66" s="260"/>
+      <c r="J66" s="260"/>
+      <c r="K66" s="309"/>
+      <c r="L66" s="309"/>
+      <c r="M66" s="309"/>
+      <c r="N66" s="309"/>
+      <c r="O66" s="309"/>
+      <c r="P66" s="309"/>
+      <c r="Q66" s="309"/>
+      <c r="R66" s="309"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="309"/>
+      <c r="V66" s="309"/>
+      <c r="W66" s="309"/>
+      <c r="X66" s="309"/>
+      <c r="Y66" s="309"/>
+      <c r="Z66" s="308"/>
+      <c r="AA66" s="308"/>
+      <c r="AB66" s="308"/>
+      <c r="AC66" s="308"/>
+      <c r="AD66" s="308"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="293" t="s">
+      <c r="B67" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="294"/>
-      <c r="D67" s="294"/>
-      <c r="E67" s="295"/>
-      <c r="F67" s="259" t="s">
+      <c r="C67" s="295"/>
+      <c r="D67" s="295"/>
+      <c r="E67" s="296"/>
+      <c r="F67" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="308"/>
-      <c r="L67" s="308"/>
-      <c r="M67" s="308"/>
-      <c r="N67" s="308"/>
-      <c r="O67" s="308"/>
-      <c r="P67" s="308"/>
-      <c r="Q67" s="308"/>
-      <c r="R67" s="308"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="308"/>
-      <c r="U67" s="308"/>
-      <c r="V67" s="308"/>
-      <c r="W67" s="308"/>
-      <c r="X67" s="308"/>
-      <c r="Y67" s="308"/>
-      <c r="Z67" s="307"/>
-      <c r="AA67" s="307"/>
-      <c r="AB67" s="307"/>
-      <c r="AC67" s="307"/>
-      <c r="AD67" s="307"/>
+      <c r="G67" s="260"/>
+      <c r="H67" s="260"/>
+      <c r="I67" s="260"/>
+      <c r="J67" s="260"/>
+      <c r="K67" s="309"/>
+      <c r="L67" s="309"/>
+      <c r="M67" s="309"/>
+      <c r="N67" s="309"/>
+      <c r="O67" s="309"/>
+      <c r="P67" s="309"/>
+      <c r="Q67" s="309"/>
+      <c r="R67" s="309"/>
+      <c r="S67" s="309"/>
+      <c r="T67" s="309"/>
+      <c r="U67" s="309"/>
+      <c r="V67" s="309"/>
+      <c r="W67" s="309"/>
+      <c r="X67" s="309"/>
+      <c r="Y67" s="309"/>
+      <c r="Z67" s="308"/>
+      <c r="AA67" s="308"/>
+      <c r="AB67" s="308"/>
+      <c r="AC67" s="308"/>
+      <c r="AD67" s="308"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="69"/>
@@ -10288,28 +10896,28 @@
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="259" t="s">
+      <c r="F68" s="260" t="s">
         <v>247</v>
       </c>
-      <c r="G68" s="259"/>
-      <c r="H68" s="259"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="292"/>
-      <c r="P68" s="292"/>
-      <c r="Q68" s="292"/>
-      <c r="R68" s="292"/>
-      <c r="S68" s="292"/>
-      <c r="T68" s="292"/>
-      <c r="U68" s="292"/>
-      <c r="V68" s="292"/>
-      <c r="W68" s="292"/>
-      <c r="X68" s="292"/>
-      <c r="Y68" s="292"/>
+      <c r="G68" s="260"/>
+      <c r="H68" s="260"/>
+      <c r="I68" s="260"/>
+      <c r="J68" s="260"/>
+      <c r="K68" s="293"/>
+      <c r="L68" s="293"/>
+      <c r="M68" s="293"/>
+      <c r="N68" s="293"/>
+      <c r="O68" s="293"/>
+      <c r="P68" s="293"/>
+      <c r="Q68" s="293"/>
+      <c r="R68" s="293"/>
+      <c r="S68" s="293"/>
+      <c r="T68" s="293"/>
+      <c r="U68" s="293"/>
+      <c r="V68" s="293"/>
+      <c r="W68" s="293"/>
+      <c r="X68" s="293"/>
+      <c r="Y68" s="293"/>
       <c r="Z68" s="155"/>
       <c r="AA68" s="156"/>
       <c r="AB68" s="155"/>
@@ -10324,33 +10932,33 @@
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
-      <c r="F69" s="259" t="s">
+      <c r="F69" s="260" t="s">
         <v>248</v>
       </c>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="259"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="309"/>
-      <c r="P69" s="309"/>
-      <c r="Q69" s="309"/>
-      <c r="R69" s="309"/>
-      <c r="S69" s="309"/>
-      <c r="T69" s="309"/>
-      <c r="U69" s="309"/>
-      <c r="V69" s="309"/>
-      <c r="W69" s="309"/>
-      <c r="X69" s="309"/>
-      <c r="Y69" s="309"/>
-      <c r="Z69" s="306"/>
-      <c r="AA69" s="306"/>
-      <c r="AB69" s="306"/>
-      <c r="AC69" s="306"/>
-      <c r="AD69" s="306"/>
+      <c r="G69" s="260"/>
+      <c r="H69" s="260"/>
+      <c r="I69" s="260"/>
+      <c r="J69" s="260"/>
+      <c r="K69" s="310"/>
+      <c r="L69" s="310"/>
+      <c r="M69" s="310"/>
+      <c r="N69" s="310"/>
+      <c r="O69" s="310"/>
+      <c r="P69" s="310"/>
+      <c r="Q69" s="310"/>
+      <c r="R69" s="310"/>
+      <c r="S69" s="310"/>
+      <c r="T69" s="310"/>
+      <c r="U69" s="310"/>
+      <c r="V69" s="310"/>
+      <c r="W69" s="310"/>
+      <c r="X69" s="310"/>
+      <c r="Y69" s="310"/>
+      <c r="Z69" s="307"/>
+      <c r="AA69" s="307"/>
+      <c r="AB69" s="307"/>
+      <c r="AC69" s="307"/>
+      <c r="AD69" s="307"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="69"/>
@@ -10360,27 +10968,27 @@
       <c r="C70" s="151"/>
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
-      <c r="F70" s="313" t="s">
+      <c r="F70" s="314" t="s">
         <v>249</v>
       </c>
-      <c r="G70" s="314"/>
-      <c r="H70" s="314"/>
-      <c r="I70" s="314"/>
-      <c r="J70" s="315"/>
+      <c r="G70" s="315"/>
+      <c r="H70" s="315"/>
+      <c r="I70" s="315"/>
+      <c r="J70" s="316"/>
       <c r="K70" s="114"/>
-      <c r="L70" s="297"/>
-      <c r="M70" s="297"/>
-      <c r="N70" s="297"/>
+      <c r="L70" s="298"/>
+      <c r="M70" s="298"/>
+      <c r="N70" s="298"/>
       <c r="O70" s="114"/>
       <c r="P70" s="114"/>
-      <c r="Q70" s="297"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="297"/>
+      <c r="Q70" s="298"/>
+      <c r="R70" s="298"/>
+      <c r="S70" s="298"/>
       <c r="T70" s="114"/>
       <c r="U70" s="114"/>
-      <c r="V70" s="297"/>
-      <c r="W70" s="297"/>
-      <c r="X70" s="297"/>
+      <c r="V70" s="298"/>
+      <c r="W70" s="298"/>
+      <c r="X70" s="298"/>
       <c r="Y70" s="114"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10426,10 +11034,10 @@
       <c r="N72" s="160"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="311"/>
-      <c r="K73" s="312"/>
-      <c r="L73" s="312"/>
-      <c r="M73" s="312"/>
+      <c r="J73" s="312"/>
+      <c r="K73" s="313"/>
+      <c r="L73" s="313"/>
+      <c r="M73" s="313"/>
       <c r="W73" s="161"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -10768,72 +11376,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="368" t="s">
+      <c r="B8" s="369" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="361" t="s">
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="362" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="362"/>
-      <c r="J8" s="368" t="s">
+      <c r="G8" s="363"/>
+      <c r="J8" s="369" t="s">
         <v>478</v>
       </c>
-      <c r="K8" s="368"/>
-      <c r="L8" s="368"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="361" t="s">
+      <c r="K8" s="369"/>
+      <c r="L8" s="369"/>
+      <c r="M8" s="370"/>
+      <c r="N8" s="362" t="s">
         <v>494</v>
       </c>
-      <c r="O8" s="362"/>
+      <c r="O8" s="363"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="368" t="s">
+      <c r="B9" s="369" t="s">
         <v>495</v>
       </c>
-      <c r="C9" s="368"/>
-      <c r="D9" s="368"/>
-      <c r="E9" s="368"/>
-      <c r="F9" s="361" t="s">
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="362" t="s">
         <v>501</v>
       </c>
-      <c r="G9" s="362"/>
-      <c r="J9" s="368" t="s">
+      <c r="G9" s="363"/>
+      <c r="J9" s="369" t="s">
         <v>496</v>
       </c>
-      <c r="K9" s="368"/>
-      <c r="L9" s="368"/>
-      <c r="M9" s="369"/>
-      <c r="N9" s="361" t="s">
+      <c r="K9" s="369"/>
+      <c r="L9" s="369"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="362" t="s">
         <v>498</v>
       </c>
-      <c r="O9" s="362"/>
+      <c r="O9" s="363"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="368" t="s">
+      <c r="B10" s="369" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="368"/>
-      <c r="D10" s="368"/>
-      <c r="E10" s="368"/>
-      <c r="F10" s="361" t="s">
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="362" t="s">
         <v>500</v>
       </c>
-      <c r="G10" s="362"/>
-      <c r="J10" s="368" t="s">
+      <c r="G10" s="363"/>
+      <c r="J10" s="369" t="s">
         <v>479</v>
       </c>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="361" t="s">
+      <c r="K10" s="369"/>
+      <c r="L10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="362" t="s">
         <v>499</v>
       </c>
-      <c r="O10" s="362"/>
+      <c r="O10" s="363"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -10865,108 +11473,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="363" t="s">
+      <c r="B13" s="364" t="s">
         <v>450</v>
       </c>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="361" t="s">
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="362" t="s">
         <v>502</v>
       </c>
-      <c r="F13" s="362"/>
+      <c r="F13" s="363"/>
       <c r="H13" s="12" t="s">
         <v>451</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="364" t="s">
+      <c r="K13" s="365" t="s">
         <v>503</v>
       </c>
-      <c r="L13" s="364" t="s">
+      <c r="L13" s="365" t="s">
         <v>449</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="363" t="s">
+      <c r="N13" s="364" t="s">
         <v>452</v>
       </c>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="361" t="s">
+      <c r="O13" s="364"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="362" t="s">
         <v>572</v>
       </c>
-      <c r="R13" s="362"/>
+      <c r="R13" s="363"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="363" t="s">
+      <c r="B14" s="364" t="s">
         <v>453</v>
       </c>
-      <c r="C14" s="363"/>
-      <c r="D14" s="363"/>
-      <c r="E14" s="361" t="s">
+      <c r="C14" s="364"/>
+      <c r="D14" s="364"/>
+      <c r="E14" s="362" t="s">
         <v>504</v>
       </c>
-      <c r="F14" s="362"/>
+      <c r="F14" s="363"/>
       <c r="H14" s="12" t="s">
         <v>454</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="364" t="s">
+      <c r="K14" s="365" t="s">
         <v>505</v>
       </c>
-      <c r="L14" s="364"/>
+      <c r="L14" s="365"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="363" t="s">
+      <c r="N14" s="364" t="s">
         <v>455</v>
       </c>
-      <c r="O14" s="363"/>
-      <c r="P14" s="363"/>
-      <c r="Q14" s="361" t="s">
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="362" t="s">
         <v>506</v>
       </c>
-      <c r="R14" s="362"/>
-      <c r="T14" s="363" t="s">
+      <c r="R14" s="363"/>
+      <c r="T14" s="364" t="s">
         <v>456</v>
       </c>
-      <c r="U14" s="363"/>
-      <c r="V14" s="361" t="s">
+      <c r="U14" s="364"/>
+      <c r="V14" s="362" t="s">
         <v>579</v>
       </c>
-      <c r="W14" s="362"/>
+      <c r="W14" s="363"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="363" t="s">
+      <c r="B15" s="364" t="s">
         <v>457</v>
       </c>
-      <c r="C15" s="363"/>
-      <c r="D15" s="363"/>
-      <c r="E15" s="361" t="s">
+      <c r="C15" s="364"/>
+      <c r="D15" s="364"/>
+      <c r="E15" s="362" t="s">
         <v>507</v>
       </c>
-      <c r="F15" s="362"/>
+      <c r="F15" s="363"/>
       <c r="H15" s="12" t="s">
         <v>459</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="364" t="s">
+      <c r="K15" s="365" t="s">
         <v>508</v>
       </c>
-      <c r="L15" s="364" t="s">
+      <c r="L15" s="365" t="s">
         <v>458</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="363" t="s">
+      <c r="N15" s="364" t="s">
         <v>460</v>
       </c>
-      <c r="O15" s="363"/>
-      <c r="P15" s="363"/>
-      <c r="Q15" s="361" t="s">
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="362" t="s">
         <v>509</v>
       </c>
-      <c r="R15" s="362"/>
+      <c r="R15" s="363"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -11000,23 +11608,23 @@
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="370" t="s">
+      <c r="F18" s="371" t="s">
         <v>463</v>
       </c>
-      <c r="G18" s="371"/>
-      <c r="H18" s="361" t="s">
+      <c r="G18" s="372"/>
+      <c r="H18" s="362" t="s">
         <v>510</v>
       </c>
-      <c r="I18" s="362"/>
+      <c r="I18" s="363"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="370" t="s">
+      <c r="K18" s="371" t="s">
         <v>464</v>
       </c>
-      <c r="L18" s="371"/>
-      <c r="M18" s="361" t="s">
+      <c r="L18" s="372"/>
+      <c r="M18" s="362" t="s">
         <v>511</v>
       </c>
-      <c r="N18" s="362"/>
+      <c r="N18" s="363"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
@@ -11026,23 +11634,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="370" t="s">
+      <c r="F19" s="371" t="s">
         <v>463</v>
       </c>
-      <c r="G19" s="371"/>
-      <c r="H19" s="361" t="s">
+      <c r="G19" s="372"/>
+      <c r="H19" s="362" t="s">
         <v>512</v>
       </c>
-      <c r="I19" s="362"/>
+      <c r="I19" s="363"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="370" t="s">
+      <c r="K19" s="371" t="s">
         <v>464</v>
       </c>
-      <c r="L19" s="371"/>
-      <c r="M19" s="361" t="s">
+      <c r="L19" s="372"/>
+      <c r="M19" s="362" t="s">
         <v>513</v>
       </c>
-      <c r="N19" s="362"/>
+      <c r="N19" s="363"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
@@ -11097,20 +11705,20 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="364" t="s">
+      <c r="H23" s="365" t="s">
         <v>573</v>
       </c>
-      <c r="I23" s="364" t="s">
+      <c r="I23" s="365" t="s">
         <v>449</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="376" t="s">
+      <c r="L23" s="377" t="s">
         <v>467</v>
       </c>
-      <c r="M23" s="377"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="367"/>
+      <c r="M23" s="378"/>
+      <c r="N23" s="366"/>
+      <c r="O23" s="368"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11120,22 +11728,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="372" t="s">
+      <c r="B24" s="373" t="s">
         <v>468</v>
       </c>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
-      <c r="G24" s="372"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
-      <c r="K24" s="366"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="366"/>
-      <c r="N24" s="366"/>
-      <c r="O24" s="367"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="373"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="367"/>
+      <c r="J24" s="367"/>
+      <c r="K24" s="367"/>
+      <c r="L24" s="367"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="367"/>
+      <c r="O24" s="368"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11170,25 +11778,25 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="373"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="374"/>
-      <c r="J26" s="374"/>
-      <c r="K26" s="374"/>
-      <c r="L26" s="374"/>
-      <c r="M26" s="374"/>
-      <c r="N26" s="374"/>
-      <c r="O26" s="374"/>
-      <c r="P26" s="374"/>
-      <c r="Q26" s="374"/>
-      <c r="R26" s="374"/>
-      <c r="S26" s="374"/>
-      <c r="T26" s="375"/>
+      <c r="B26" s="374"/>
+      <c r="C26" s="375"/>
+      <c r="D26" s="375"/>
+      <c r="E26" s="375"/>
+      <c r="F26" s="375"/>
+      <c r="G26" s="375"/>
+      <c r="H26" s="375"/>
+      <c r="I26" s="375"/>
+      <c r="J26" s="375"/>
+      <c r="K26" s="375"/>
+      <c r="L26" s="375"/>
+      <c r="M26" s="375"/>
+      <c r="N26" s="375"/>
+      <c r="O26" s="375"/>
+      <c r="P26" s="375"/>
+      <c r="Q26" s="375"/>
+      <c r="R26" s="375"/>
+      <c r="S26" s="375"/>
+      <c r="T26" s="376"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
@@ -11216,17 +11824,17 @@
       <c r="B29" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C29" s="365" t="s">
+      <c r="C29" s="366" t="s">
         <v>561</v>
       </c>
-      <c r="D29" s="366"/>
-      <c r="E29" s="366"/>
-      <c r="F29" s="367"/>
-      <c r="H29" s="353" t="s">
+      <c r="D29" s="367"/>
+      <c r="E29" s="367"/>
+      <c r="F29" s="368"/>
+      <c r="H29" s="354" t="s">
         <v>472</v>
       </c>
-      <c r="I29" s="353"/>
-      <c r="J29" s="353"/>
+      <c r="I29" s="354"/>
+      <c r="J29" s="354"/>
       <c r="K29" s="27" t="s">
         <v>473</v>
       </c>
@@ -11343,39 +11951,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="341" t="s">
         <v>515</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="351" t="s">
+      <c r="C35" s="342"/>
+      <c r="D35" s="342"/>
+      <c r="E35" s="342"/>
+      <c r="F35" s="343"/>
+      <c r="G35" s="352" t="s">
         <v>574</v>
       </c>
-      <c r="H35" s="351"/>
-      <c r="I35" s="351"/>
-      <c r="J35" s="351"/>
-      <c r="K35" s="351"/>
+      <c r="H35" s="352"/>
+      <c r="I35" s="352"/>
+      <c r="J35" s="352"/>
+      <c r="K35" s="352"/>
       <c r="L35" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="M35" s="358"/>
-      <c r="N35" s="359"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="344" t="s">
+      <c r="M35" s="359"/>
+      <c r="N35" s="360"/>
+      <c r="O35" s="361"/>
+      <c r="P35" s="345" t="s">
         <v>517</v>
       </c>
-      <c r="Q35" s="345"/>
-      <c r="R35" s="345"/>
-      <c r="S35" s="346"/>
-      <c r="T35" s="348" t="s">
+      <c r="Q35" s="346"/>
+      <c r="R35" s="346"/>
+      <c r="S35" s="347"/>
+      <c r="T35" s="349" t="s">
         <v>575</v>
       </c>
-      <c r="U35" s="349"/>
-      <c r="V35" s="349"/>
-      <c r="W35" s="349"/>
-      <c r="X35" s="350"/>
+      <c r="U35" s="350"/>
+      <c r="V35" s="350"/>
+      <c r="W35" s="350"/>
+      <c r="X35" s="351"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11387,78 +11995,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="355"/>
-      <c r="J36" s="355"/>
-      <c r="K36" s="355"/>
-      <c r="L36" s="355"/>
-      <c r="M36" s="355"/>
-      <c r="N36" s="355"/>
-      <c r="O36" s="356"/>
-      <c r="P36" s="344" t="s">
+      <c r="G36" s="355"/>
+      <c r="H36" s="356"/>
+      <c r="I36" s="356"/>
+      <c r="J36" s="356"/>
+      <c r="K36" s="356"/>
+      <c r="L36" s="356"/>
+      <c r="M36" s="356"/>
+      <c r="N36" s="356"/>
+      <c r="O36" s="357"/>
+      <c r="P36" s="345" t="s">
         <v>518</v>
       </c>
-      <c r="Q36" s="345"/>
-      <c r="R36" s="345"/>
-      <c r="S36" s="346"/>
-      <c r="T36" s="351" t="s">
+      <c r="Q36" s="346"/>
+      <c r="R36" s="346"/>
+      <c r="S36" s="347"/>
+      <c r="T36" s="352" t="s">
         <v>576</v>
       </c>
-      <c r="U36" s="351"/>
-      <c r="V36" s="351"/>
-      <c r="W36" s="351"/>
-      <c r="X36" s="351"/>
+      <c r="U36" s="352"/>
+      <c r="V36" s="352"/>
+      <c r="W36" s="352"/>
+      <c r="X36" s="352"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="343" t="s">
+      <c r="B37" s="344" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="343"/>
-      <c r="D37" s="343"/>
-      <c r="E37" s="343"/>
-      <c r="F37" s="343"/>
-      <c r="G37" s="352" t="s">
+      <c r="C37" s="344"/>
+      <c r="D37" s="344"/>
+      <c r="E37" s="344"/>
+      <c r="F37" s="344"/>
+      <c r="G37" s="353" t="s">
         <v>577</v>
       </c>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="352"/>
-      <c r="L37" s="352"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="352"/>
-      <c r="P37" s="347" t="s">
+      <c r="H37" s="353"/>
+      <c r="I37" s="353"/>
+      <c r="J37" s="353"/>
+      <c r="K37" s="353"/>
+      <c r="L37" s="353"/>
+      <c r="M37" s="353"/>
+      <c r="N37" s="353"/>
+      <c r="O37" s="353"/>
+      <c r="P37" s="348" t="s">
         <v>519</v>
       </c>
-      <c r="Q37" s="347"/>
-      <c r="R37" s="347"/>
-      <c r="S37" s="347"/>
-      <c r="T37" s="357" t="s">
+      <c r="Q37" s="348"/>
+      <c r="R37" s="348"/>
+      <c r="S37" s="348"/>
+      <c r="T37" s="358" t="s">
         <v>520</v>
       </c>
-      <c r="U37" s="357"/>
-      <c r="V37" s="357"/>
-      <c r="W37" s="357"/>
-      <c r="X37" s="357"/>
+      <c r="U37" s="358"/>
+      <c r="V37" s="358"/>
+      <c r="W37" s="358"/>
+      <c r="X37" s="358"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="381" t="s">
         <v>483</v>
       </c>
-      <c r="C39" s="380"/>
-      <c r="D39" s="381" t="s">
+      <c r="C39" s="381"/>
+      <c r="D39" s="382" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="381"/>
-      <c r="F39" s="381"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="381"/>
+      <c r="E39" s="382"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="382"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11470,13 +12078,13 @@
       <c r="Q39" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="R39" s="381" t="s">
+      <c r="R39" s="382" t="s">
         <v>62</v>
       </c>
-      <c r="S39" s="381"/>
-      <c r="T39" s="381"/>
-      <c r="U39" s="381"/>
-      <c r="V39" s="381"/>
+      <c r="S39" s="382"/>
+      <c r="T39" s="382"/>
+      <c r="U39" s="382"/>
+      <c r="V39" s="382"/>
       <c r="W39" s="216"/>
       <c r="X39" s="19"/>
     </row>
@@ -11509,93 +12117,93 @@
       <c r="B41" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="378"/>
-      <c r="F41" s="378"/>
-      <c r="G41" s="378"/>
+      <c r="C41" s="379"/>
+      <c r="D41" s="379"/>
+      <c r="E41" s="379"/>
+      <c r="F41" s="379"/>
+      <c r="G41" s="379"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="J41" s="378"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="378"/>
-      <c r="M41" s="378"/>
-      <c r="N41" s="378"/>
-      <c r="O41" s="378"/>
+      <c r="J41" s="379"/>
+      <c r="K41" s="379"/>
+      <c r="L41" s="379"/>
+      <c r="M41" s="379"/>
+      <c r="N41" s="379"/>
+      <c r="O41" s="379"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
-      <c r="T41" s="379"/>
-      <c r="U41" s="379"/>
-      <c r="V41" s="379"/>
-      <c r="W41" s="379"/>
+      <c r="R41" s="380"/>
+      <c r="S41" s="380"/>
+      <c r="T41" s="380"/>
+      <c r="U41" s="380"/>
+      <c r="V41" s="380"/>
+      <c r="W41" s="380"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="378"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="378"/>
+      <c r="C42" s="379"/>
+      <c r="D42" s="379"/>
+      <c r="E42" s="379"/>
+      <c r="F42" s="379"/>
+      <c r="G42" s="379"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="378"/>
-      <c r="M42" s="378"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
+      <c r="J42" s="379"/>
+      <c r="K42" s="379"/>
+      <c r="L42" s="379"/>
+      <c r="M42" s="379"/>
+      <c r="N42" s="379"/>
+      <c r="O42" s="379"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="R42" s="379"/>
-      <c r="S42" s="379"/>
-      <c r="T42" s="379"/>
-      <c r="U42" s="379"/>
-      <c r="V42" s="379"/>
-      <c r="W42" s="379"/>
+      <c r="R42" s="380"/>
+      <c r="S42" s="380"/>
+      <c r="T42" s="380"/>
+      <c r="U42" s="380"/>
+      <c r="V42" s="380"/>
+      <c r="W42" s="380"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="378"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="378"/>
+      <c r="C43" s="379"/>
+      <c r="D43" s="379"/>
+      <c r="E43" s="379"/>
+      <c r="F43" s="379"/>
+      <c r="G43" s="379"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="J43" s="378"/>
-      <c r="K43" s="378"/>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="J43" s="379"/>
+      <c r="K43" s="379"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="R43" s="379"/>
-      <c r="S43" s="379"/>
-      <c r="T43" s="379"/>
-      <c r="U43" s="379"/>
-      <c r="V43" s="379"/>
-      <c r="W43" s="379"/>
+      <c r="R43" s="380"/>
+      <c r="S43" s="380"/>
+      <c r="T43" s="380"/>
+      <c r="U43" s="380"/>
+      <c r="V43" s="380"/>
+      <c r="W43" s="380"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -11735,7 +12343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
@@ -11770,37 +12380,37 @@
       <c r="A2" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="425" t="s">
+      <c r="B2" s="430" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="441" t="s">
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="442" t="s">
         <v>583</v>
       </c>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
-      <c r="K2" s="442"/>
-      <c r="L2" s="442"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="442"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="442"/>
-      <c r="Q2" s="442"/>
-      <c r="R2" s="442"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="442"/>
-      <c r="U2" s="442"/>
-      <c r="V2" s="442"/>
-      <c r="W2" s="442"/>
-      <c r="X2" s="442"/>
-      <c r="Y2" s="442"/>
-      <c r="Z2" s="442"/>
-      <c r="AA2" s="442"/>
-      <c r="AB2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
+      <c r="K2" s="443"/>
+      <c r="L2" s="443"/>
+      <c r="M2" s="443"/>
+      <c r="N2" s="443"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="443"/>
+      <c r="Q2" s="443"/>
+      <c r="R2" s="443"/>
+      <c r="S2" s="443"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="443"/>
+      <c r="X2" s="443"/>
+      <c r="Y2" s="443"/>
+      <c r="Z2" s="443"/>
+      <c r="AA2" s="443"/>
+      <c r="AB2" s="444"/>
       <c r="AC2" s="166"/>
       <c r="AD2" s="166"/>
       <c r="AE2" s="166"/>
@@ -11810,54 +12420,54 @@
       <c r="AI2" s="167"/>
       <c r="AJ2" s="167"/>
       <c r="AP2" s="164"/>
-      <c r="BF2" s="426"/>
-      <c r="BG2" s="426"/>
-      <c r="BH2" s="426"/>
-      <c r="BI2" s="426"/>
-      <c r="BJ2" s="426"/>
-      <c r="BK2" s="426"/>
-      <c r="BL2" s="426"/>
-      <c r="BM2" s="426"/>
-      <c r="BN2" s="426"/>
-      <c r="BO2" s="426"/>
-      <c r="BP2" s="426"/>
-      <c r="BQ2" s="426"/>
-      <c r="BR2" s="426"/>
-      <c r="BS2" s="426"/>
+      <c r="BF2" s="431"/>
+      <c r="BG2" s="431"/>
+      <c r="BH2" s="431"/>
+      <c r="BI2" s="431"/>
+      <c r="BJ2" s="431"/>
+      <c r="BK2" s="431"/>
+      <c r="BL2" s="431"/>
+      <c r="BM2" s="431"/>
+      <c r="BN2" s="431"/>
+      <c r="BO2" s="431"/>
+      <c r="BP2" s="431"/>
+      <c r="BQ2" s="431"/>
+      <c r="BR2" s="431"/>
+      <c r="BS2" s="431"/>
     </row>
     <row r="3" spans="1:75" ht="46.95" customHeight="1" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="430" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
-      <c r="Q3" s="445"/>
-      <c r="R3" s="445"/>
-      <c r="S3" s="445"/>
-      <c r="T3" s="445"/>
-      <c r="U3" s="445"/>
-      <c r="V3" s="445"/>
-      <c r="W3" s="445"/>
-      <c r="X3" s="445"/>
-      <c r="Y3" s="445"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="446"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="445"/>
+      <c r="F3" s="446"/>
+      <c r="G3" s="446"/>
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="446"/>
+      <c r="L3" s="446"/>
+      <c r="M3" s="446"/>
+      <c r="N3" s="446"/>
+      <c r="O3" s="446"/>
+      <c r="P3" s="446"/>
+      <c r="Q3" s="446"/>
+      <c r="R3" s="446"/>
+      <c r="S3" s="446"/>
+      <c r="T3" s="446"/>
+      <c r="U3" s="446"/>
+      <c r="V3" s="446"/>
+      <c r="W3" s="446"/>
+      <c r="X3" s="446"/>
+      <c r="Y3" s="446"/>
+      <c r="Z3" s="446"/>
+      <c r="AA3" s="446"/>
+      <c r="AB3" s="447"/>
       <c r="AC3" s="166"/>
       <c r="AD3" s="166"/>
       <c r="AE3" s="166"/>
@@ -11966,22 +12576,22 @@
       <c r="BO4" s="162"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="428" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="447" t="s">
+      <c r="B5" s="448" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="428" t="s">
+      <c r="C5" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="449" t="s">
+      <c r="D5" s="450" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="451" t="s">
+      <c r="E5" s="452" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="452"/>
+      <c r="F5" s="453"/>
       <c r="G5" s="172"/>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -12008,10 +12618,10 @@
       <c r="AD5" s="176"/>
       <c r="AE5" s="177"/>
       <c r="AF5" s="177"/>
-      <c r="AG5" s="427"/>
-      <c r="AH5" s="427"/>
-      <c r="AI5" s="427"/>
-      <c r="AJ5" s="427"/>
+      <c r="AG5" s="432"/>
+      <c r="AH5" s="432"/>
+      <c r="AI5" s="432"/>
+      <c r="AJ5" s="432"/>
       <c r="AK5" s="178"/>
       <c r="AL5" s="179"/>
       <c r="AM5" s="180"/>
@@ -12053,12 +12663,12 @@
       <c r="BW5" s="180"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="423"/>
-      <c r="B6" s="448"/>
-      <c r="C6" s="429"/>
-      <c r="D6" s="450"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="454"/>
+      <c r="A6" s="429"/>
+      <c r="B6" s="449"/>
+      <c r="C6" s="435"/>
+      <c r="D6" s="451"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="455"/>
       <c r="G6" s="117"/>
       <c r="H6" s="117"/>
       <c r="I6" s="117"/>
@@ -12083,12 +12693,12 @@
       <c r="AB6" s="117"/>
       <c r="AC6" s="117"/>
       <c r="AD6" s="117"/>
-      <c r="AE6" s="417"/>
-      <c r="AF6" s="417"/>
+      <c r="AE6" s="433"/>
+      <c r="AF6" s="433"/>
       <c r="AG6" s="181"/>
       <c r="AH6" s="182"/>
-      <c r="AI6" s="417"/>
-      <c r="AJ6" s="417"/>
+      <c r="AI6" s="433"/>
+      <c r="AJ6" s="433"/>
       <c r="AK6" s="182"/>
       <c r="AL6" s="183"/>
       <c r="AM6" s="183"/>
@@ -12130,22 +12740,22 @@
       <c r="BW6" s="184"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="418" t="s">
+      <c r="A7" s="426" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="383" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="418" t="s">
+      <c r="C7" s="426" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="421" t="s">
+      <c r="D7" s="427" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="394" t="s">
+      <c r="E7" s="387" t="s">
         <v>525</v>
       </c>
-      <c r="F7" s="395"/>
+      <c r="F7" s="388"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="117"/>
@@ -12195,14 +12805,14 @@
       <c r="BW7" s="191"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="418"/>
-      <c r="D8" s="421"/>
-      <c r="E8" s="394" t="s">
+      <c r="A8" s="426"/>
+      <c r="B8" s="384"/>
+      <c r="C8" s="426"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="387" t="s">
         <v>415</v>
       </c>
-      <c r="F8" s="395"/>
+      <c r="F8" s="388"/>
       <c r="G8" s="117"/>
       <c r="H8" s="117"/>
       <c r="I8" s="117"/>
@@ -12249,22 +12859,22 @@
       <c r="BW8" s="191"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="418" t="s">
+      <c r="A9" s="426" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="424" t="s">
+      <c r="B9" s="383" t="s">
         <v>332</v>
       </c>
-      <c r="C9" s="418" t="s">
+      <c r="C9" s="426" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="421" t="s">
+      <c r="D9" s="427" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="394" t="s">
+      <c r="E9" s="387" t="s">
         <v>526</v>
       </c>
-      <c r="F9" s="395"/>
+      <c r="F9" s="388"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
       <c r="I9" s="117"/>
@@ -12311,14 +12921,14 @@
       <c r="BW9" s="191"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="418"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="418"/>
-      <c r="D10" s="421"/>
-      <c r="E10" s="394" t="s">
+      <c r="A10" s="426"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="387" t="s">
         <v>416</v>
       </c>
-      <c r="F10" s="395"/>
+      <c r="F10" s="388"/>
       <c r="G10" s="117"/>
       <c r="H10" s="117"/>
       <c r="I10" s="117"/>
@@ -12369,22 +12979,22 @@
       <c r="BW10" s="191"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="418" t="s">
+      <c r="A11" s="426" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="424" t="s">
+      <c r="B11" s="383" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="418" t="s">
+      <c r="C11" s="426" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="421" t="s">
+      <c r="D11" s="427" t="s">
         <v>338</v>
       </c>
-      <c r="E11" s="394" t="s">
+      <c r="E11" s="387" t="s">
         <v>527</v>
       </c>
-      <c r="F11" s="395"/>
+      <c r="F11" s="388"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -12436,14 +13046,14 @@
       <c r="BW11" s="191"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="418"/>
-      <c r="B12" s="424"/>
-      <c r="C12" s="418"/>
-      <c r="D12" s="421"/>
-      <c r="E12" s="394" t="s">
+      <c r="A12" s="426"/>
+      <c r="B12" s="384"/>
+      <c r="C12" s="426"/>
+      <c r="D12" s="427"/>
+      <c r="E12" s="387" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="395"/>
+      <c r="F12" s="388"/>
       <c r="G12" s="117"/>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -12495,22 +13105,22 @@
       <c r="BW12" s="191"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="418" t="s">
+      <c r="A13" s="426" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="424" t="s">
+      <c r="B13" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="418" t="s">
+      <c r="C13" s="426" t="s">
         <v>341</v>
       </c>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="427" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="394" t="s">
+      <c r="E13" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="395"/>
+      <c r="F13" s="388"/>
       <c r="G13" s="117"/>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -12562,14 +13172,14 @@
       <c r="BW13" s="191"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="418"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="421"/>
-      <c r="E14" s="394" t="s">
+      <c r="A14" s="426"/>
+      <c r="B14" s="384"/>
+      <c r="C14" s="426"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="387" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="395"/>
+      <c r="F14" s="388"/>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -12621,22 +13231,22 @@
       <c r="BW14" s="191"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="418" t="s">
+      <c r="A15" s="426" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="424" t="s">
+      <c r="B15" s="383" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="418" t="s">
+      <c r="C15" s="426" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="421" t="s">
+      <c r="D15" s="427" t="s">
         <v>346</v>
       </c>
-      <c r="E15" s="394" t="s">
+      <c r="E15" s="387" t="s">
         <v>529</v>
       </c>
-      <c r="F15" s="395"/>
+      <c r="F15" s="388"/>
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="117"/>
@@ -12688,14 +13298,14 @@
       <c r="BW15" s="191"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="418"/>
-      <c r="B16" s="424"/>
-      <c r="C16" s="418"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="394" t="s">
+      <c r="A16" s="426"/>
+      <c r="B16" s="384"/>
+      <c r="C16" s="426"/>
+      <c r="D16" s="427"/>
+      <c r="E16" s="387" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="395"/>
+      <c r="F16" s="388"/>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
       <c r="I16" s="117"/>
@@ -12742,22 +13352,22 @@
       <c r="BW16" s="191"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="418" t="s">
+      <c r="A17" s="426" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="424" t="s">
+      <c r="B17" s="383" t="s">
         <v>348</v>
       </c>
-      <c r="C17" s="418" t="s">
+      <c r="C17" s="426" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="421" t="s">
+      <c r="D17" s="427" t="s">
         <v>350</v>
       </c>
-      <c r="E17" s="394" t="s">
+      <c r="E17" s="387" t="s">
         <v>530</v>
       </c>
-      <c r="F17" s="395"/>
+      <c r="F17" s="388"/>
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
       <c r="I17" s="117"/>
@@ -12804,14 +13414,14 @@
       <c r="BW17" s="191"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="418"/>
-      <c r="B18" s="424"/>
-      <c r="C18" s="418"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="394" t="s">
+      <c r="A18" s="426"/>
+      <c r="B18" s="384"/>
+      <c r="C18" s="426"/>
+      <c r="D18" s="427"/>
+      <c r="E18" s="387" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="395"/>
+      <c r="F18" s="388"/>
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -12866,22 +13476,22 @@
       <c r="BW18" s="191"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="418" t="s">
+      <c r="A19" s="426" t="s">
         <v>351</v>
       </c>
-      <c r="B19" s="424" t="s">
+      <c r="B19" s="383" t="s">
         <v>352</v>
       </c>
-      <c r="C19" s="418" t="s">
+      <c r="C19" s="426" t="s">
         <v>353</v>
       </c>
-      <c r="D19" s="421" t="s">
+      <c r="D19" s="427" t="s">
         <v>354</v>
       </c>
-      <c r="E19" s="394" t="s">
+      <c r="E19" s="387" t="s">
         <v>531</v>
       </c>
-      <c r="F19" s="395"/>
+      <c r="F19" s="388"/>
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -12928,14 +13538,14 @@
       <c r="BW19" s="191"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="418"/>
-      <c r="B20" s="424"/>
-      <c r="C20" s="418"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="394" t="s">
+      <c r="A20" s="426"/>
+      <c r="B20" s="384"/>
+      <c r="C20" s="426"/>
+      <c r="D20" s="427"/>
+      <c r="E20" s="387" t="s">
         <v>421</v>
       </c>
-      <c r="F20" s="395"/>
+      <c r="F20" s="388"/>
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
       <c r="I20" s="117"/>
@@ -12982,22 +13592,22 @@
       <c r="BW20" s="191"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="418" t="s">
+      <c r="A21" s="426" t="s">
         <v>355</v>
       </c>
-      <c r="B21" s="424" t="s">
+      <c r="B21" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="426" t="s">
         <v>357</v>
       </c>
-      <c r="D21" s="421" t="s">
+      <c r="D21" s="427" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="394" t="s">
+      <c r="E21" s="387" t="s">
         <v>532</v>
       </c>
-      <c r="F21" s="395"/>
+      <c r="F21" s="388"/>
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -13044,14 +13654,14 @@
       <c r="BW21" s="191"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="418"/>
-      <c r="B22" s="424"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="421"/>
-      <c r="E22" s="394" t="s">
+      <c r="A22" s="426"/>
+      <c r="B22" s="384"/>
+      <c r="C22" s="426"/>
+      <c r="D22" s="427"/>
+      <c r="E22" s="387" t="s">
         <v>422</v>
       </c>
-      <c r="F22" s="395"/>
+      <c r="F22" s="388"/>
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -13098,22 +13708,22 @@
       <c r="BW22" s="191"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="418" t="s">
+      <c r="A23" s="426" t="s">
         <v>359</v>
       </c>
-      <c r="B23" s="424" t="s">
+      <c r="B23" s="383" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="418" t="s">
+      <c r="C23" s="426" t="s">
         <v>361</v>
       </c>
-      <c r="D23" s="421" t="s">
+      <c r="D23" s="427" t="s">
         <v>362</v>
       </c>
-      <c r="E23" s="394" t="s">
+      <c r="E23" s="387" t="s">
         <v>533</v>
       </c>
-      <c r="F23" s="395"/>
+      <c r="F23" s="388"/>
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -13160,14 +13770,14 @@
       <c r="BW23" s="191"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="418"/>
-      <c r="B24" s="424"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="394" t="s">
+      <c r="A24" s="426"/>
+      <c r="B24" s="384"/>
+      <c r="C24" s="426"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="387" t="s">
         <v>423</v>
       </c>
-      <c r="F24" s="395"/>
+      <c r="F24" s="388"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -13214,22 +13824,22 @@
       <c r="BW24" s="191"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="418" t="s">
+      <c r="A25" s="426" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="424" t="s">
+      <c r="B25" s="383" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="418" t="s">
+      <c r="C25" s="426" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="421" t="s">
+      <c r="D25" s="427" t="s">
         <v>366</v>
       </c>
-      <c r="E25" s="394" t="s">
+      <c r="E25" s="387" t="s">
         <v>534</v>
       </c>
-      <c r="F25" s="395"/>
+      <c r="F25" s="388"/>
       <c r="G25" s="117"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -13276,14 +13886,14 @@
       <c r="BW25" s="191"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="418"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="394" t="s">
+      <c r="A26" s="426"/>
+      <c r="B26" s="384"/>
+      <c r="C26" s="426"/>
+      <c r="D26" s="427"/>
+      <c r="E26" s="387" t="s">
         <v>424</v>
       </c>
-      <c r="F26" s="395"/>
+      <c r="F26" s="388"/>
       <c r="G26" s="117"/>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -13330,22 +13940,22 @@
       <c r="BW26" s="191"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="418" t="s">
+      <c r="A27" s="426" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="424" t="s">
+      <c r="B27" s="383" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="418" t="s">
+      <c r="C27" s="426" t="s">
         <v>369</v>
       </c>
-      <c r="D27" s="421" t="s">
+      <c r="D27" s="427" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="394" t="s">
+      <c r="E27" s="387" t="s">
         <v>535</v>
       </c>
-      <c r="F27" s="395"/>
+      <c r="F27" s="388"/>
       <c r="G27" s="117"/>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -13392,14 +14002,14 @@
       <c r="BW27" s="191"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="418"/>
-      <c r="B28" s="424"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="421"/>
-      <c r="E28" s="394" t="s">
+      <c r="A28" s="426"/>
+      <c r="B28" s="384"/>
+      <c r="C28" s="426"/>
+      <c r="D28" s="427"/>
+      <c r="E28" s="387" t="s">
         <v>425</v>
       </c>
-      <c r="F28" s="395"/>
+      <c r="F28" s="388"/>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -13446,22 +14056,22 @@
       <c r="BW28" s="191"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="418" t="s">
+      <c r="A29" s="426" t="s">
         <v>371</v>
       </c>
-      <c r="B29" s="424" t="s">
+      <c r="B29" s="383" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="418" t="s">
+      <c r="C29" s="426" t="s">
         <v>373</v>
       </c>
-      <c r="D29" s="421" t="s">
+      <c r="D29" s="427" t="s">
         <v>374</v>
       </c>
-      <c r="E29" s="394" t="s">
+      <c r="E29" s="387" t="s">
         <v>536</v>
       </c>
-      <c r="F29" s="395"/>
+      <c r="F29" s="388"/>
       <c r="G29" s="117"/>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -13508,14 +14118,14 @@
       <c r="BW29" s="191"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="418"/>
-      <c r="B30" s="424"/>
-      <c r="C30" s="418"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="394" t="s">
+      <c r="A30" s="426"/>
+      <c r="B30" s="384"/>
+      <c r="C30" s="426"/>
+      <c r="D30" s="427"/>
+      <c r="E30" s="387" t="s">
         <v>426</v>
       </c>
-      <c r="F30" s="395"/>
+      <c r="F30" s="388"/>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -13562,22 +14172,22 @@
       <c r="BW30" s="191"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="418" t="s">
+      <c r="A31" s="426" t="s">
         <v>375</v>
       </c>
-      <c r="B31" s="424" t="s">
+      <c r="B31" s="383" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="418" t="s">
+      <c r="C31" s="426" t="s">
         <v>377</v>
       </c>
-      <c r="D31" s="421" t="s">
+      <c r="D31" s="427" t="s">
         <v>378</v>
       </c>
-      <c r="E31" s="394" t="s">
+      <c r="E31" s="387" t="s">
         <v>537</v>
       </c>
-      <c r="F31" s="395"/>
+      <c r="F31" s="388"/>
       <c r="G31" s="117"/>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -13624,14 +14234,14 @@
       <c r="BW31" s="191"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="418"/>
-      <c r="B32" s="424"/>
-      <c r="C32" s="418"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="394" t="s">
+      <c r="A32" s="426"/>
+      <c r="B32" s="384"/>
+      <c r="C32" s="426"/>
+      <c r="D32" s="427"/>
+      <c r="E32" s="387" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="395"/>
+      <c r="F32" s="388"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -13678,22 +14288,22 @@
       <c r="BW32" s="191"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="418" t="s">
+      <c r="A33" s="426" t="s">
         <v>379</v>
       </c>
-      <c r="B33" s="424" t="s">
+      <c r="B33" s="383" t="s">
         <v>380</v>
       </c>
-      <c r="C33" s="418" t="s">
+      <c r="C33" s="426" t="s">
         <v>381</v>
       </c>
-      <c r="D33" s="421" t="s">
+      <c r="D33" s="427" t="s">
         <v>382</v>
       </c>
-      <c r="E33" s="394" t="s">
+      <c r="E33" s="387" t="s">
         <v>538</v>
       </c>
-      <c r="F33" s="395"/>
+      <c r="F33" s="388"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
       <c r="I33" s="117"/>
@@ -13740,14 +14350,14 @@
       <c r="BW33" s="191"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="418"/>
-      <c r="B34" s="424"/>
-      <c r="C34" s="418"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="394" t="s">
+      <c r="A34" s="426"/>
+      <c r="B34" s="384"/>
+      <c r="C34" s="426"/>
+      <c r="D34" s="427"/>
+      <c r="E34" s="387" t="s">
         <v>428</v>
       </c>
-      <c r="F34" s="395"/>
+      <c r="F34" s="388"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
       <c r="I34" s="117"/>
@@ -13794,22 +14404,22 @@
       <c r="BW34" s="191"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="418" t="s">
+      <c r="A35" s="426" t="s">
         <v>383</v>
       </c>
-      <c r="B35" s="424" t="s">
+      <c r="B35" s="383" t="s">
         <v>384</v>
       </c>
-      <c r="C35" s="418" t="s">
+      <c r="C35" s="426" t="s">
         <v>385</v>
       </c>
-      <c r="D35" s="421" t="s">
+      <c r="D35" s="427" t="s">
         <v>386</v>
       </c>
-      <c r="E35" s="394" t="s">
+      <c r="E35" s="387" t="s">
         <v>539</v>
       </c>
-      <c r="F35" s="395"/>
+      <c r="F35" s="388"/>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
@@ -13856,14 +14466,14 @@
       <c r="BW35" s="191"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="418"/>
-      <c r="B36" s="424"/>
-      <c r="C36" s="418"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="394" t="s">
+      <c r="A36" s="426"/>
+      <c r="B36" s="384"/>
+      <c r="C36" s="426"/>
+      <c r="D36" s="427"/>
+      <c r="E36" s="387" t="s">
         <v>429</v>
       </c>
-      <c r="F36" s="395"/>
+      <c r="F36" s="388"/>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
       <c r="I36" s="117"/>
@@ -13910,22 +14520,22 @@
       <c r="BW36" s="191"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="418" t="s">
+      <c r="A37" s="426" t="s">
         <v>387</v>
       </c>
-      <c r="B37" s="424" t="s">
+      <c r="B37" s="383" t="s">
         <v>388</v>
       </c>
-      <c r="C37" s="418" t="s">
+      <c r="C37" s="426" t="s">
         <v>389</v>
       </c>
-      <c r="D37" s="421" t="s">
+      <c r="D37" s="427" t="s">
         <v>390</v>
       </c>
-      <c r="E37" s="394" t="s">
+      <c r="E37" s="387" t="s">
         <v>540</v>
       </c>
-      <c r="F37" s="395"/>
+      <c r="F37" s="388"/>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
       <c r="I37" s="117"/>
@@ -13972,14 +14582,14 @@
       <c r="BW37" s="191"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="418"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="418"/>
-      <c r="D38" s="421"/>
-      <c r="E38" s="394" t="s">
+      <c r="A38" s="426"/>
+      <c r="B38" s="384"/>
+      <c r="C38" s="426"/>
+      <c r="D38" s="427"/>
+      <c r="E38" s="387" t="s">
         <v>430</v>
       </c>
-      <c r="F38" s="395"/>
+      <c r="F38" s="388"/>
       <c r="G38" s="117"/>
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
@@ -14026,22 +14636,22 @@
       <c r="BW38" s="191"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="418" t="s">
+      <c r="A39" s="426" t="s">
         <v>391</v>
       </c>
-      <c r="B39" s="424" t="s">
+      <c r="B39" s="383" t="s">
         <v>392</v>
       </c>
-      <c r="C39" s="418" t="s">
+      <c r="C39" s="426" t="s">
         <v>393</v>
       </c>
-      <c r="D39" s="421" t="s">
+      <c r="D39" s="427" t="s">
         <v>394</v>
       </c>
-      <c r="E39" s="394" t="s">
+      <c r="E39" s="387" t="s">
         <v>541</v>
       </c>
-      <c r="F39" s="395"/>
+      <c r="F39" s="388"/>
       <c r="G39" s="117"/>
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
@@ -14088,14 +14698,14 @@
       <c r="BW39" s="191"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="418"/>
-      <c r="B40" s="424"/>
-      <c r="C40" s="418"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="394" t="s">
+      <c r="A40" s="426"/>
+      <c r="B40" s="384"/>
+      <c r="C40" s="426"/>
+      <c r="D40" s="427"/>
+      <c r="E40" s="387" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="395"/>
+      <c r="F40" s="388"/>
       <c r="G40" s="117"/>
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
@@ -14170,10 +14780,10 @@
         <v>410</v>
       </c>
       <c r="B41" s="439"/>
-      <c r="C41" s="439"/>
-      <c r="D41" s="439"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
+      <c r="C41" s="440"/>
+      <c r="D41" s="440"/>
+      <c r="E41" s="440"/>
+      <c r="F41" s="441"/>
       <c r="G41" s="436" t="s">
         <v>580</v>
       </c>
@@ -14245,18 +14855,18 @@
       <c r="BW41" s="164"/>
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="409" t="s">
+      <c r="A42" s="400" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="410"/>
-      <c r="C42" s="413" t="s">
+      <c r="B42" s="401"/>
+      <c r="C42" s="404" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="414"/>
-      <c r="E42" s="394" t="s">
+      <c r="D42" s="405"/>
+      <c r="E42" s="387" t="s">
         <v>542</v>
       </c>
-      <c r="F42" s="395"/>
+      <c r="F42" s="388"/>
       <c r="G42" s="117"/>
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
@@ -14326,14 +14936,14 @@
       <c r="BW42" s="196"/>
     </row>
     <row r="43" spans="1:75" s="195" customFormat="1">
-      <c r="A43" s="409"/>
-      <c r="B43" s="410"/>
-      <c r="C43" s="386"/>
-      <c r="D43" s="387"/>
-      <c r="E43" s="382" t="s">
+      <c r="A43" s="400"/>
+      <c r="B43" s="401"/>
+      <c r="C43" s="391"/>
+      <c r="D43" s="392"/>
+      <c r="E43" s="385" t="s">
         <v>432</v>
       </c>
-      <c r="F43" s="383"/>
+      <c r="F43" s="386"/>
       <c r="G43" s="117"/>
       <c r="H43" s="117"/>
       <c r="I43" s="117"/>
@@ -14403,16 +15013,16 @@
       <c r="BW43" s="196"/>
     </row>
     <row r="44" spans="1:75" s="195" customFormat="1">
-      <c r="A44" s="409"/>
-      <c r="B44" s="410"/>
-      <c r="C44" s="384" t="s">
+      <c r="A44" s="400"/>
+      <c r="B44" s="401"/>
+      <c r="C44" s="389" t="s">
         <v>396</v>
       </c>
-      <c r="D44" s="385"/>
-      <c r="E44" s="394" t="s">
+      <c r="D44" s="390"/>
+      <c r="E44" s="387" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="395"/>
+      <c r="F44" s="388"/>
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
@@ -14482,14 +15092,14 @@
       <c r="BW44" s="196"/>
     </row>
     <row r="45" spans="1:75" s="195" customFormat="1">
-      <c r="A45" s="409"/>
-      <c r="B45" s="410"/>
-      <c r="C45" s="386"/>
-      <c r="D45" s="387"/>
-      <c r="E45" s="382" t="s">
+      <c r="A45" s="400"/>
+      <c r="B45" s="401"/>
+      <c r="C45" s="391"/>
+      <c r="D45" s="392"/>
+      <c r="E45" s="385" t="s">
         <v>433</v>
       </c>
-      <c r="F45" s="383"/>
+      <c r="F45" s="386"/>
       <c r="G45" s="117"/>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -14559,16 +15169,16 @@
       <c r="BW45" s="196"/>
     </row>
     <row r="46" spans="1:75" s="195" customFormat="1">
-      <c r="A46" s="409"/>
-      <c r="B46" s="410"/>
-      <c r="C46" s="384" t="s">
+      <c r="A46" s="400"/>
+      <c r="B46" s="401"/>
+      <c r="C46" s="389" t="s">
         <v>397</v>
       </c>
-      <c r="D46" s="385"/>
-      <c r="E46" s="394" t="s">
+      <c r="D46" s="390"/>
+      <c r="E46" s="387" t="s">
         <v>544</v>
       </c>
-      <c r="F46" s="395"/>
+      <c r="F46" s="388"/>
       <c r="G46" s="117"/>
       <c r="H46" s="117"/>
       <c r="I46" s="117"/>
@@ -14593,10 +15203,10 @@
       <c r="AD46" s="117"/>
       <c r="AE46" s="117"/>
       <c r="AF46" s="117"/>
-      <c r="AG46" s="415"/>
-      <c r="AH46" s="415"/>
-      <c r="AI46" s="415"/>
-      <c r="AJ46" s="415"/>
+      <c r="AG46" s="406"/>
+      <c r="AH46" s="406"/>
+      <c r="AI46" s="406"/>
+      <c r="AJ46" s="406"/>
       <c r="AK46" s="196"/>
       <c r="AL46" s="196"/>
       <c r="AM46" s="196"/>
@@ -14638,14 +15248,14 @@
       <c r="BW46" s="196"/>
     </row>
     <row r="47" spans="1:75" s="195" customFormat="1">
-      <c r="A47" s="409"/>
-      <c r="B47" s="410"/>
-      <c r="C47" s="386"/>
-      <c r="D47" s="387"/>
-      <c r="E47" s="382" t="s">
+      <c r="A47" s="400"/>
+      <c r="B47" s="401"/>
+      <c r="C47" s="391"/>
+      <c r="D47" s="392"/>
+      <c r="E47" s="385" t="s">
         <v>434</v>
       </c>
-      <c r="F47" s="383"/>
+      <c r="F47" s="386"/>
       <c r="G47" s="117"/>
       <c r="H47" s="117"/>
       <c r="I47" s="117"/>
@@ -14715,16 +15325,16 @@
       <c r="BW47" s="196"/>
     </row>
     <row r="48" spans="1:75" s="195" customFormat="1">
-      <c r="A48" s="409"/>
-      <c r="B48" s="410"/>
-      <c r="C48" s="384" t="s">
+      <c r="A48" s="400"/>
+      <c r="B48" s="401"/>
+      <c r="C48" s="389" t="s">
         <v>398</v>
       </c>
-      <c r="D48" s="385"/>
-      <c r="E48" s="394" t="s">
+      <c r="D48" s="390"/>
+      <c r="E48" s="387" t="s">
         <v>545</v>
       </c>
-      <c r="F48" s="395"/>
+      <c r="F48" s="388"/>
       <c r="G48" s="117"/>
       <c r="H48" s="117"/>
       <c r="I48" s="117"/>
@@ -14749,10 +15359,10 @@
       <c r="AD48" s="117"/>
       <c r="AE48" s="117"/>
       <c r="AF48" s="117"/>
-      <c r="AG48" s="415"/>
-      <c r="AH48" s="415"/>
-      <c r="AI48" s="415"/>
-      <c r="AJ48" s="415"/>
+      <c r="AG48" s="406"/>
+      <c r="AH48" s="406"/>
+      <c r="AI48" s="406"/>
+      <c r="AJ48" s="406"/>
       <c r="AK48" s="196"/>
       <c r="AL48" s="196"/>
       <c r="AM48" s="196"/>
@@ -14794,14 +15404,14 @@
       <c r="BW48" s="196"/>
     </row>
     <row r="49" spans="1:75" s="195" customFormat="1">
-      <c r="A49" s="409"/>
-      <c r="B49" s="410"/>
-      <c r="C49" s="386"/>
-      <c r="D49" s="387"/>
-      <c r="E49" s="382" t="s">
+      <c r="A49" s="400"/>
+      <c r="B49" s="401"/>
+      <c r="C49" s="391"/>
+      <c r="D49" s="392"/>
+      <c r="E49" s="385" t="s">
         <v>435</v>
       </c>
-      <c r="F49" s="383"/>
+      <c r="F49" s="386"/>
       <c r="G49" s="117"/>
       <c r="H49" s="117"/>
       <c r="I49" s="117"/>
@@ -14871,16 +15481,16 @@
       <c r="BW49" s="196"/>
     </row>
     <row r="50" spans="1:75" s="195" customFormat="1">
-      <c r="A50" s="409"/>
-      <c r="B50" s="410"/>
-      <c r="C50" s="384" t="s">
+      <c r="A50" s="400"/>
+      <c r="B50" s="401"/>
+      <c r="C50" s="389" t="s">
         <v>399</v>
       </c>
-      <c r="D50" s="385"/>
-      <c r="E50" s="394" t="s">
+      <c r="D50" s="390"/>
+      <c r="E50" s="387" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="395"/>
+      <c r="F50" s="388"/>
       <c r="G50" s="117"/>
       <c r="H50" s="117"/>
       <c r="I50" s="117"/>
@@ -14905,10 +15515,10 @@
       <c r="AD50" s="117"/>
       <c r="AE50" s="117"/>
       <c r="AF50" s="117"/>
-      <c r="AG50" s="415"/>
-      <c r="AH50" s="415"/>
-      <c r="AI50" s="415"/>
-      <c r="AJ50" s="415"/>
+      <c r="AG50" s="406"/>
+      <c r="AH50" s="406"/>
+      <c r="AI50" s="406"/>
+      <c r="AJ50" s="406"/>
       <c r="AK50" s="196"/>
       <c r="AL50" s="196"/>
       <c r="AM50" s="196"/>
@@ -14950,14 +15560,14 @@
       <c r="BW50" s="196"/>
     </row>
     <row r="51" spans="1:75" s="195" customFormat="1">
-      <c r="A51" s="409"/>
-      <c r="B51" s="410"/>
-      <c r="C51" s="386"/>
-      <c r="D51" s="387"/>
-      <c r="E51" s="382" t="s">
+      <c r="A51" s="400"/>
+      <c r="B51" s="401"/>
+      <c r="C51" s="391"/>
+      <c r="D51" s="392"/>
+      <c r="E51" s="385" t="s">
         <v>436</v>
       </c>
-      <c r="F51" s="383"/>
+      <c r="F51" s="386"/>
       <c r="G51" s="117"/>
       <c r="H51" s="117"/>
       <c r="I51" s="117"/>
@@ -15027,16 +15637,16 @@
       <c r="BW51" s="196"/>
     </row>
     <row r="52" spans="1:75" s="195" customFormat="1">
-      <c r="A52" s="409"/>
-      <c r="B52" s="410"/>
-      <c r="C52" s="384" t="s">
+      <c r="A52" s="400"/>
+      <c r="B52" s="401"/>
+      <c r="C52" s="389" t="s">
         <v>400</v>
       </c>
-      <c r="D52" s="385"/>
-      <c r="E52" s="394" t="s">
+      <c r="D52" s="390"/>
+      <c r="E52" s="387" t="s">
         <v>547</v>
       </c>
-      <c r="F52" s="395"/>
+      <c r="F52" s="388"/>
       <c r="G52" s="117"/>
       <c r="H52" s="117"/>
       <c r="I52" s="117"/>
@@ -15061,10 +15671,10 @@
       <c r="AD52" s="117"/>
       <c r="AE52" s="117"/>
       <c r="AF52" s="117"/>
-      <c r="AG52" s="415"/>
-      <c r="AH52" s="415"/>
-      <c r="AI52" s="415"/>
-      <c r="AJ52" s="415"/>
+      <c r="AG52" s="406"/>
+      <c r="AH52" s="406"/>
+      <c r="AI52" s="406"/>
+      <c r="AJ52" s="406"/>
       <c r="AK52" s="196"/>
       <c r="AL52" s="196"/>
       <c r="AM52" s="196"/>
@@ -15106,14 +15716,14 @@
       <c r="BW52" s="196"/>
     </row>
     <row r="53" spans="1:75" s="195" customFormat="1">
-      <c r="A53" s="409"/>
-      <c r="B53" s="410"/>
-      <c r="C53" s="386"/>
-      <c r="D53" s="387"/>
-      <c r="E53" s="382" t="s">
+      <c r="A53" s="400"/>
+      <c r="B53" s="401"/>
+      <c r="C53" s="391"/>
+      <c r="D53" s="392"/>
+      <c r="E53" s="385" t="s">
         <v>437</v>
       </c>
-      <c r="F53" s="383"/>
+      <c r="F53" s="386"/>
       <c r="G53" s="117"/>
       <c r="H53" s="117"/>
       <c r="I53" s="117"/>
@@ -15183,16 +15793,16 @@
       <c r="BW53" s="196"/>
     </row>
     <row r="54" spans="1:75" s="195" customFormat="1">
-      <c r="A54" s="409"/>
-      <c r="B54" s="410"/>
-      <c r="C54" s="384" t="s">
+      <c r="A54" s="400"/>
+      <c r="B54" s="401"/>
+      <c r="C54" s="389" t="s">
         <v>401</v>
       </c>
-      <c r="D54" s="385"/>
-      <c r="E54" s="394" t="s">
+      <c r="D54" s="390"/>
+      <c r="E54" s="387" t="s">
         <v>548</v>
       </c>
-      <c r="F54" s="395"/>
+      <c r="F54" s="388"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
       <c r="I54" s="117"/>
@@ -15217,10 +15827,10 @@
       <c r="AD54" s="117"/>
       <c r="AE54" s="117"/>
       <c r="AF54" s="117"/>
-      <c r="AG54" s="415"/>
-      <c r="AH54" s="415"/>
-      <c r="AI54" s="415"/>
-      <c r="AJ54" s="415"/>
+      <c r="AG54" s="406"/>
+      <c r="AH54" s="406"/>
+      <c r="AI54" s="406"/>
+      <c r="AJ54" s="406"/>
       <c r="AK54" s="196"/>
       <c r="AL54" s="196"/>
       <c r="AM54" s="196"/>
@@ -15262,14 +15872,14 @@
       <c r="BW54" s="196"/>
     </row>
     <row r="55" spans="1:75" s="195" customFormat="1">
-      <c r="A55" s="409"/>
-      <c r="B55" s="410"/>
-      <c r="C55" s="386"/>
-      <c r="D55" s="387"/>
-      <c r="E55" s="382" t="s">
+      <c r="A55" s="400"/>
+      <c r="B55" s="401"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="385" t="s">
         <v>438</v>
       </c>
-      <c r="F55" s="383"/>
+      <c r="F55" s="386"/>
       <c r="G55" s="117"/>
       <c r="H55" s="117"/>
       <c r="I55" s="117"/>
@@ -15339,16 +15949,16 @@
       <c r="BW55" s="196"/>
     </row>
     <row r="56" spans="1:75" s="195" customFormat="1">
-      <c r="A56" s="409"/>
-      <c r="B56" s="410"/>
-      <c r="C56" s="384" t="s">
+      <c r="A56" s="400"/>
+      <c r="B56" s="401"/>
+      <c r="C56" s="389" t="s">
         <v>402</v>
       </c>
-      <c r="D56" s="385"/>
-      <c r="E56" s="382" t="s">
+      <c r="D56" s="390"/>
+      <c r="E56" s="385" t="s">
         <v>549</v>
       </c>
-      <c r="F56" s="383"/>
+      <c r="F56" s="386"/>
       <c r="G56" s="117"/>
       <c r="H56" s="117"/>
       <c r="I56" s="117"/>
@@ -15373,10 +15983,10 @@
       <c r="AD56" s="117"/>
       <c r="AE56" s="117"/>
       <c r="AF56" s="117"/>
-      <c r="AG56" s="415"/>
-      <c r="AH56" s="415"/>
-      <c r="AI56" s="415"/>
-      <c r="AJ56" s="415"/>
+      <c r="AG56" s="406"/>
+      <c r="AH56" s="406"/>
+      <c r="AI56" s="406"/>
+      <c r="AJ56" s="406"/>
       <c r="AK56" s="196"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="196"/>
@@ -15418,14 +16028,14 @@
       <c r="BW56" s="196"/>
     </row>
     <row r="57" spans="1:75" s="195" customFormat="1">
-      <c r="A57" s="409"/>
-      <c r="B57" s="410"/>
-      <c r="C57" s="386"/>
-      <c r="D57" s="387"/>
-      <c r="E57" s="382" t="s">
+      <c r="A57" s="400"/>
+      <c r="B57" s="401"/>
+      <c r="C57" s="391"/>
+      <c r="D57" s="392"/>
+      <c r="E57" s="385" t="s">
         <v>439</v>
       </c>
-      <c r="F57" s="383"/>
+      <c r="F57" s="386"/>
       <c r="G57" s="117"/>
       <c r="H57" s="117"/>
       <c r="I57" s="117"/>
@@ -15495,16 +16105,16 @@
       <c r="BW57" s="196"/>
     </row>
     <row r="58" spans="1:75" s="195" customFormat="1">
-      <c r="A58" s="409"/>
-      <c r="B58" s="410"/>
-      <c r="C58" s="384" t="s">
+      <c r="A58" s="400"/>
+      <c r="B58" s="401"/>
+      <c r="C58" s="389" t="s">
         <v>403</v>
       </c>
-      <c r="D58" s="385"/>
-      <c r="E58" s="394" t="s">
+      <c r="D58" s="390"/>
+      <c r="E58" s="387" t="s">
         <v>550</v>
       </c>
-      <c r="F58" s="395"/>
+      <c r="F58" s="388"/>
       <c r="G58" s="117"/>
       <c r="H58" s="117"/>
       <c r="I58" s="117"/>
@@ -15529,10 +16139,10 @@
       <c r="AD58" s="117"/>
       <c r="AE58" s="117"/>
       <c r="AF58" s="117"/>
-      <c r="AG58" s="415"/>
-      <c r="AH58" s="415"/>
-      <c r="AI58" s="415"/>
-      <c r="AJ58" s="415"/>
+      <c r="AG58" s="406"/>
+      <c r="AH58" s="406"/>
+      <c r="AI58" s="406"/>
+      <c r="AJ58" s="406"/>
       <c r="AK58" s="196"/>
       <c r="AL58" s="198"/>
       <c r="AM58" s="196"/>
@@ -15574,14 +16184,14 @@
       <c r="BW58" s="196"/>
     </row>
     <row r="59" spans="1:75" s="195" customFormat="1">
-      <c r="A59" s="409"/>
-      <c r="B59" s="410"/>
-      <c r="C59" s="386"/>
-      <c r="D59" s="387"/>
-      <c r="E59" s="382" t="s">
+      <c r="A59" s="400"/>
+      <c r="B59" s="401"/>
+      <c r="C59" s="391"/>
+      <c r="D59" s="392"/>
+      <c r="E59" s="385" t="s">
         <v>440</v>
       </c>
-      <c r="F59" s="383"/>
+      <c r="F59" s="386"/>
       <c r="G59" s="117"/>
       <c r="H59" s="117"/>
       <c r="I59" s="117"/>
@@ -15651,16 +16261,16 @@
       <c r="BW59" s="196"/>
     </row>
     <row r="60" spans="1:75" s="195" customFormat="1">
-      <c r="A60" s="409"/>
-      <c r="B60" s="410"/>
-      <c r="C60" s="384" t="s">
+      <c r="A60" s="400"/>
+      <c r="B60" s="401"/>
+      <c r="C60" s="389" t="s">
         <v>404</v>
       </c>
-      <c r="D60" s="385"/>
-      <c r="E60" s="394" t="s">
+      <c r="D60" s="390"/>
+      <c r="E60" s="387" t="s">
         <v>551</v>
       </c>
-      <c r="F60" s="395"/>
+      <c r="F60" s="388"/>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
       <c r="I60" s="117"/>
@@ -15685,10 +16295,10 @@
       <c r="AD60" s="117"/>
       <c r="AE60" s="117"/>
       <c r="AF60" s="117"/>
-      <c r="AG60" s="415"/>
-      <c r="AH60" s="415"/>
-      <c r="AI60" s="415"/>
-      <c r="AJ60" s="415"/>
+      <c r="AG60" s="406"/>
+      <c r="AH60" s="406"/>
+      <c r="AI60" s="406"/>
+      <c r="AJ60" s="406"/>
       <c r="AK60" s="196"/>
       <c r="AL60" s="197"/>
       <c r="AM60" s="196"/>
@@ -15730,14 +16340,14 @@
       <c r="BW60" s="196"/>
     </row>
     <row r="61" spans="1:75" s="195" customFormat="1">
-      <c r="A61" s="409"/>
-      <c r="B61" s="410"/>
-      <c r="C61" s="386"/>
-      <c r="D61" s="387"/>
-      <c r="E61" s="382" t="s">
+      <c r="A61" s="400"/>
+      <c r="B61" s="401"/>
+      <c r="C61" s="391"/>
+      <c r="D61" s="392"/>
+      <c r="E61" s="385" t="s">
         <v>441</v>
       </c>
-      <c r="F61" s="383"/>
+      <c r="F61" s="386"/>
       <c r="G61" s="117"/>
       <c r="H61" s="117"/>
       <c r="I61" s="117"/>
@@ -15807,16 +16417,16 @@
       <c r="BW61" s="196"/>
     </row>
     <row r="62" spans="1:75" s="195" customFormat="1">
-      <c r="A62" s="409"/>
-      <c r="B62" s="410"/>
-      <c r="C62" s="384" t="s">
+      <c r="A62" s="400"/>
+      <c r="B62" s="401"/>
+      <c r="C62" s="389" t="s">
         <v>405</v>
       </c>
-      <c r="D62" s="385"/>
-      <c r="E62" s="394" t="s">
+      <c r="D62" s="390"/>
+      <c r="E62" s="387" t="s">
         <v>552</v>
       </c>
-      <c r="F62" s="395"/>
+      <c r="F62" s="388"/>
       <c r="G62" s="117"/>
       <c r="H62" s="117"/>
       <c r="I62" s="117"/>
@@ -15841,10 +16451,10 @@
       <c r="AD62" s="117"/>
       <c r="AE62" s="117"/>
       <c r="AF62" s="117"/>
-      <c r="AG62" s="415"/>
-      <c r="AH62" s="415"/>
-      <c r="AI62" s="415"/>
-      <c r="AJ62" s="415"/>
+      <c r="AG62" s="406"/>
+      <c r="AH62" s="406"/>
+      <c r="AI62" s="406"/>
+      <c r="AJ62" s="406"/>
       <c r="AK62" s="202"/>
       <c r="AL62" s="198"/>
       <c r="AM62" s="196"/>
@@ -15886,14 +16496,14 @@
       <c r="BW62" s="196"/>
     </row>
     <row r="63" spans="1:75" s="195" customFormat="1">
-      <c r="A63" s="409"/>
-      <c r="B63" s="410"/>
-      <c r="C63" s="386"/>
-      <c r="D63" s="387"/>
-      <c r="E63" s="382" t="s">
+      <c r="A63" s="400"/>
+      <c r="B63" s="401"/>
+      <c r="C63" s="391"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="385" t="s">
         <v>442</v>
       </c>
-      <c r="F63" s="383"/>
+      <c r="F63" s="386"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="117"/>
@@ -15963,16 +16573,16 @@
       <c r="BW63" s="196"/>
     </row>
     <row r="64" spans="1:75" s="195" customFormat="1">
-      <c r="A64" s="409"/>
-      <c r="B64" s="410"/>
-      <c r="C64" s="384" t="s">
+      <c r="A64" s="400"/>
+      <c r="B64" s="401"/>
+      <c r="C64" s="389" t="s">
         <v>406</v>
       </c>
-      <c r="D64" s="385"/>
-      <c r="E64" s="394" t="s">
+      <c r="D64" s="390"/>
+      <c r="E64" s="387" t="s">
         <v>553</v>
       </c>
-      <c r="F64" s="395"/>
+      <c r="F64" s="388"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="117"/>
@@ -15997,10 +16607,10 @@
       <c r="AD64" s="117"/>
       <c r="AE64" s="117"/>
       <c r="AF64" s="117"/>
-      <c r="AG64" s="415"/>
-      <c r="AH64" s="415"/>
-      <c r="AI64" s="415"/>
-      <c r="AJ64" s="415"/>
+      <c r="AG64" s="406"/>
+      <c r="AH64" s="406"/>
+      <c r="AI64" s="406"/>
+      <c r="AJ64" s="406"/>
       <c r="AK64" s="196"/>
       <c r="AL64" s="197"/>
       <c r="AM64" s="196"/>
@@ -16042,14 +16652,14 @@
       <c r="BW64" s="196"/>
     </row>
     <row r="65" spans="1:75" s="195" customFormat="1">
-      <c r="A65" s="409"/>
-      <c r="B65" s="410"/>
-      <c r="C65" s="386"/>
-      <c r="D65" s="387"/>
-      <c r="E65" s="382" t="s">
+      <c r="A65" s="400"/>
+      <c r="B65" s="401"/>
+      <c r="C65" s="391"/>
+      <c r="D65" s="392"/>
+      <c r="E65" s="385" t="s">
         <v>443</v>
       </c>
-      <c r="F65" s="383"/>
+      <c r="F65" s="386"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="117"/>
@@ -16119,16 +16729,16 @@
       <c r="BW65" s="196"/>
     </row>
     <row r="66" spans="1:75" s="195" customFormat="1">
-      <c r="A66" s="409"/>
-      <c r="B66" s="410"/>
-      <c r="C66" s="384" t="s">
+      <c r="A66" s="400"/>
+      <c r="B66" s="401"/>
+      <c r="C66" s="389" t="s">
         <v>407</v>
       </c>
-      <c r="D66" s="385"/>
-      <c r="E66" s="394" t="s">
+      <c r="D66" s="390"/>
+      <c r="E66" s="387" t="s">
         <v>554</v>
       </c>
-      <c r="F66" s="395"/>
+      <c r="F66" s="388"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="117"/>
@@ -16153,10 +16763,10 @@
       <c r="AD66" s="117"/>
       <c r="AE66" s="117"/>
       <c r="AF66" s="117"/>
-      <c r="AG66" s="415"/>
-      <c r="AH66" s="415"/>
-      <c r="AI66" s="415"/>
-      <c r="AJ66" s="415"/>
+      <c r="AG66" s="406"/>
+      <c r="AH66" s="406"/>
+      <c r="AI66" s="406"/>
+      <c r="AJ66" s="406"/>
       <c r="AK66" s="202"/>
       <c r="AL66" s="198"/>
       <c r="AM66" s="196"/>
@@ -16198,14 +16808,14 @@
       <c r="BW66" s="196"/>
     </row>
     <row r="67" spans="1:75" s="195" customFormat="1">
-      <c r="A67" s="409"/>
-      <c r="B67" s="410"/>
-      <c r="C67" s="386"/>
-      <c r="D67" s="387"/>
-      <c r="E67" s="382" t="s">
+      <c r="A67" s="400"/>
+      <c r="B67" s="401"/>
+      <c r="C67" s="391"/>
+      <c r="D67" s="392"/>
+      <c r="E67" s="385" t="s">
         <v>444</v>
       </c>
-      <c r="F67" s="383"/>
+      <c r="F67" s="386"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="117"/>
@@ -16275,16 +16885,16 @@
       <c r="BW67" s="196"/>
     </row>
     <row r="68" spans="1:75" s="195" customFormat="1">
-      <c r="A68" s="409"/>
-      <c r="B68" s="410"/>
-      <c r="C68" s="384" t="s">
+      <c r="A68" s="400"/>
+      <c r="B68" s="401"/>
+      <c r="C68" s="389" t="s">
         <v>408</v>
       </c>
-      <c r="D68" s="385"/>
-      <c r="E68" s="394" t="s">
+      <c r="D68" s="390"/>
+      <c r="E68" s="387" t="s">
         <v>555</v>
       </c>
-      <c r="F68" s="395"/>
+      <c r="F68" s="388"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117"/>
@@ -16311,10 +16921,10 @@
       <c r="AD68" s="117"/>
       <c r="AE68" s="117"/>
       <c r="AF68" s="117"/>
-      <c r="AG68" s="415"/>
-      <c r="AH68" s="415"/>
-      <c r="AI68" s="415"/>
-      <c r="AJ68" s="415"/>
+      <c r="AG68" s="406"/>
+      <c r="AH68" s="406"/>
+      <c r="AI68" s="406"/>
+      <c r="AJ68" s="406"/>
       <c r="AK68" s="197"/>
       <c r="AL68" s="197"/>
       <c r="AM68" s="196"/>
@@ -16356,14 +16966,14 @@
       <c r="BW68" s="196"/>
     </row>
     <row r="69" spans="1:75" s="195" customFormat="1">
-      <c r="A69" s="409"/>
-      <c r="B69" s="410"/>
-      <c r="C69" s="386"/>
-      <c r="D69" s="387"/>
-      <c r="E69" s="382" t="s">
+      <c r="A69" s="400"/>
+      <c r="B69" s="401"/>
+      <c r="C69" s="391"/>
+      <c r="D69" s="392"/>
+      <c r="E69" s="385" t="s">
         <v>445</v>
       </c>
-      <c r="F69" s="383"/>
+      <c r="F69" s="386"/>
       <c r="G69" s="117"/>
       <c r="H69" s="117"/>
       <c r="I69" s="117"/>
@@ -16435,16 +17045,16 @@
       <c r="BW69" s="196"/>
     </row>
     <row r="70" spans="1:75" s="195" customFormat="1">
-      <c r="A70" s="409"/>
-      <c r="B70" s="410"/>
-      <c r="C70" s="384" t="s">
+      <c r="A70" s="400"/>
+      <c r="B70" s="401"/>
+      <c r="C70" s="389" t="s">
         <v>411</v>
       </c>
-      <c r="D70" s="385"/>
-      <c r="E70" s="394" t="s">
+      <c r="D70" s="390"/>
+      <c r="E70" s="387" t="s">
         <v>556</v>
       </c>
-      <c r="F70" s="395"/>
+      <c r="F70" s="388"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117"/>
@@ -16516,14 +17126,14 @@
       <c r="BW70" s="196"/>
     </row>
     <row r="71" spans="1:75" s="195" customFormat="1">
-      <c r="A71" s="409"/>
-      <c r="B71" s="410"/>
-      <c r="C71" s="386"/>
-      <c r="D71" s="387"/>
-      <c r="E71" s="382" t="s">
+      <c r="A71" s="400"/>
+      <c r="B71" s="401"/>
+      <c r="C71" s="391"/>
+      <c r="D71" s="392"/>
+      <c r="E71" s="385" t="s">
         <v>446</v>
       </c>
-      <c r="F71" s="383"/>
+      <c r="F71" s="386"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117"/>
@@ -16595,16 +17205,16 @@
       <c r="BW71" s="196"/>
     </row>
     <row r="72" spans="1:75" s="195" customFormat="1">
-      <c r="A72" s="409"/>
-      <c r="B72" s="410"/>
-      <c r="C72" s="430" t="s">
+      <c r="A72" s="400"/>
+      <c r="B72" s="401"/>
+      <c r="C72" s="394" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="431"/>
-      <c r="E72" s="382" t="s">
+      <c r="D72" s="395"/>
+      <c r="E72" s="385" t="s">
         <v>585</v>
       </c>
-      <c r="F72" s="383"/>
+      <c r="F72" s="386"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117"/>
@@ -16631,10 +17241,10 @@
       <c r="AD72" s="117"/>
       <c r="AE72" s="117"/>
       <c r="AF72" s="117"/>
-      <c r="AG72" s="416"/>
-      <c r="AH72" s="416"/>
-      <c r="AI72" s="416"/>
-      <c r="AJ72" s="416"/>
+      <c r="AG72" s="425"/>
+      <c r="AH72" s="425"/>
+      <c r="AI72" s="425"/>
+      <c r="AJ72" s="425"/>
       <c r="AK72" s="202"/>
       <c r="AL72" s="196"/>
       <c r="AM72" s="196"/>
@@ -16676,16 +17286,16 @@
       <c r="BW72" s="196"/>
     </row>
     <row r="73" spans="1:75" s="195" customFormat="1">
-      <c r="A73" s="409"/>
-      <c r="B73" s="410"/>
-      <c r="C73" s="432" t="s">
+      <c r="A73" s="400"/>
+      <c r="B73" s="401"/>
+      <c r="C73" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="433"/>
-      <c r="E73" s="382" t="s">
+      <c r="D73" s="397"/>
+      <c r="E73" s="385" t="s">
         <v>586</v>
       </c>
-      <c r="F73" s="383"/>
+      <c r="F73" s="386"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117"/>
@@ -16757,16 +17367,16 @@
       <c r="BW73" s="196"/>
     </row>
     <row r="74" spans="1:75" s="195" customFormat="1">
-      <c r="A74" s="411"/>
-      <c r="B74" s="412"/>
-      <c r="C74" s="432" t="s">
+      <c r="A74" s="402"/>
+      <c r="B74" s="403"/>
+      <c r="C74" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="433"/>
-      <c r="E74" s="382" t="s">
+      <c r="D74" s="397"/>
+      <c r="E74" s="385" t="s">
         <v>587</v>
       </c>
-      <c r="F74" s="383"/>
+      <c r="F74" s="386"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117"/>
@@ -16838,18 +17448,18 @@
       <c r="BW74" s="196"/>
     </row>
     <row r="75" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="388" t="s">
+      <c r="A75" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="389"/>
-      <c r="C75" s="434" t="s">
+      <c r="B75" s="422"/>
+      <c r="C75" s="419" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="435"/>
-      <c r="E75" s="382" t="s">
+      <c r="D75" s="420"/>
+      <c r="E75" s="385" t="s">
         <v>320</v>
       </c>
-      <c r="F75" s="383"/>
+      <c r="F75" s="386"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117"/>
@@ -16876,10 +17486,10 @@
       <c r="AD75" s="117"/>
       <c r="AE75" s="117"/>
       <c r="AF75" s="117"/>
-      <c r="AG75" s="407"/>
-      <c r="AH75" s="407"/>
-      <c r="AI75" s="407"/>
-      <c r="AJ75" s="407"/>
+      <c r="AG75" s="417"/>
+      <c r="AH75" s="417"/>
+      <c r="AI75" s="417"/>
+      <c r="AJ75" s="417"/>
       <c r="AK75" s="202"/>
       <c r="AL75" s="196"/>
       <c r="AM75" s="196"/>
@@ -16921,16 +17531,16 @@
       <c r="BW75" s="196"/>
     </row>
     <row r="76" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="390"/>
-      <c r="B76" s="391"/>
-      <c r="C76" s="434" t="s">
+      <c r="A76" s="423"/>
+      <c r="B76" s="424"/>
+      <c r="C76" s="419" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="435"/>
-      <c r="E76" s="382" t="s">
+      <c r="D76" s="420"/>
+      <c r="E76" s="385" t="s">
         <v>321</v>
       </c>
-      <c r="F76" s="383"/>
+      <c r="F76" s="386"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117"/>
@@ -16957,10 +17567,10 @@
       <c r="AD76" s="117"/>
       <c r="AE76" s="117"/>
       <c r="AF76" s="117"/>
-      <c r="AG76" s="407"/>
-      <c r="AH76" s="407"/>
-      <c r="AI76" s="407"/>
-      <c r="AJ76" s="407"/>
+      <c r="AG76" s="417"/>
+      <c r="AH76" s="417"/>
+      <c r="AI76" s="417"/>
+      <c r="AJ76" s="417"/>
       <c r="AK76" s="202"/>
       <c r="AL76" s="196"/>
       <c r="AM76" s="196"/>
@@ -17002,16 +17612,16 @@
       <c r="BW76" s="196"/>
     </row>
     <row r="77" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="390"/>
-      <c r="B77" s="391"/>
-      <c r="C77" s="434" t="s">
+      <c r="A77" s="423"/>
+      <c r="B77" s="424"/>
+      <c r="C77" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="435"/>
-      <c r="E77" s="382" t="s">
+      <c r="D77" s="420"/>
+      <c r="E77" s="385" t="s">
         <v>322</v>
       </c>
-      <c r="F77" s="383"/>
+      <c r="F77" s="386"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117"/>
@@ -17038,10 +17648,10 @@
       <c r="AD77" s="117"/>
       <c r="AE77" s="117"/>
       <c r="AF77" s="117"/>
-      <c r="AG77" s="408"/>
-      <c r="AH77" s="408"/>
-      <c r="AI77" s="408"/>
-      <c r="AJ77" s="408"/>
+      <c r="AG77" s="418"/>
+      <c r="AH77" s="418"/>
+      <c r="AI77" s="418"/>
+      <c r="AJ77" s="418"/>
       <c r="AK77" s="202"/>
       <c r="AL77" s="196"/>
       <c r="AM77" s="196"/>
@@ -17083,16 +17693,16 @@
       <c r="BW77" s="196"/>
     </row>
     <row r="78" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="390"/>
-      <c r="B78" s="391"/>
-      <c r="C78" s="434" t="s">
+      <c r="A78" s="423"/>
+      <c r="B78" s="424"/>
+      <c r="C78" s="419" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="435"/>
-      <c r="E78" s="382" t="s">
+      <c r="D78" s="420"/>
+      <c r="E78" s="385" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="383"/>
+      <c r="F78" s="386"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117"/>
@@ -17164,16 +17774,16 @@
       <c r="BW78" s="196"/>
     </row>
     <row r="79" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="390"/>
-      <c r="B79" s="391"/>
-      <c r="C79" s="434" t="s">
+      <c r="A79" s="423"/>
+      <c r="B79" s="424"/>
+      <c r="C79" s="419" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="435"/>
-      <c r="E79" s="382" t="s">
+      <c r="D79" s="420"/>
+      <c r="E79" s="385" t="s">
         <v>412</v>
       </c>
-      <c r="F79" s="383"/>
+      <c r="F79" s="386"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117"/>
@@ -17200,10 +17810,10 @@
       <c r="AD79" s="117"/>
       <c r="AE79" s="117"/>
       <c r="AF79" s="117"/>
-      <c r="AG79" s="408"/>
-      <c r="AH79" s="408"/>
-      <c r="AI79" s="408"/>
-      <c r="AJ79" s="408"/>
+      <c r="AG79" s="418"/>
+      <c r="AH79" s="418"/>
+      <c r="AI79" s="418"/>
+      <c r="AJ79" s="418"/>
       <c r="AK79" s="202"/>
       <c r="AL79" s="196"/>
       <c r="AM79" s="196"/>
@@ -17245,16 +17855,16 @@
       <c r="BW79" s="196"/>
     </row>
     <row r="80" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="393" t="s">
+      <c r="A80" s="399" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="393"/>
-      <c r="C80" s="393"/>
-      <c r="D80" s="393"/>
-      <c r="E80" s="392" t="s">
+      <c r="B80" s="399"/>
+      <c r="C80" s="399"/>
+      <c r="D80" s="399"/>
+      <c r="E80" s="398" t="s">
         <v>324</v>
       </c>
-      <c r="F80" s="383"/>
+      <c r="F80" s="386"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117"/>
@@ -17281,10 +17891,10 @@
       <c r="AD80" s="117"/>
       <c r="AE80" s="117"/>
       <c r="AF80" s="117"/>
-      <c r="AG80" s="396"/>
-      <c r="AH80" s="396"/>
-      <c r="AI80" s="396"/>
-      <c r="AJ80" s="396"/>
+      <c r="AG80" s="393"/>
+      <c r="AH80" s="393"/>
+      <c r="AI80" s="393"/>
+      <c r="AJ80" s="393"/>
       <c r="AK80" s="202"/>
       <c r="AL80" s="196"/>
       <c r="AM80" s="196"/>
@@ -17326,16 +17936,16 @@
       <c r="BW80" s="196"/>
     </row>
     <row r="81" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="393" t="s">
+      <c r="A81" s="399" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="393"/>
-      <c r="C81" s="393"/>
-      <c r="D81" s="393"/>
-      <c r="E81" s="392" t="s">
+      <c r="B81" s="399"/>
+      <c r="C81" s="399"/>
+      <c r="D81" s="399"/>
+      <c r="E81" s="398" t="s">
         <v>325</v>
       </c>
-      <c r="F81" s="383"/>
+      <c r="F81" s="386"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117"/>
@@ -17362,10 +17972,10 @@
       <c r="AD81" s="117"/>
       <c r="AE81" s="117"/>
       <c r="AF81" s="117"/>
-      <c r="AG81" s="396"/>
-      <c r="AH81" s="396"/>
-      <c r="AI81" s="396"/>
-      <c r="AJ81" s="396"/>
+      <c r="AG81" s="393"/>
+      <c r="AH81" s="393"/>
+      <c r="AI81" s="393"/>
+      <c r="AJ81" s="393"/>
       <c r="AK81" s="202"/>
       <c r="AL81" s="196"/>
       <c r="AM81" s="196"/>
@@ -17413,17 +18023,17 @@
       <c r="D82" s="206"/>
       <c r="E82" s="206"/>
       <c r="F82" s="206"/>
-      <c r="G82" s="397"/>
-      <c r="H82" s="397"/>
-      <c r="I82" s="397"/>
+      <c r="G82" s="407"/>
+      <c r="H82" s="407"/>
+      <c r="I82" s="407"/>
       <c r="J82" s="206"/>
       <c r="K82" s="206"/>
       <c r="L82" s="206"/>
       <c r="M82" s="206"/>
       <c r="N82" s="206"/>
-      <c r="O82" s="397"/>
-      <c r="P82" s="397"/>
-      <c r="Q82" s="397"/>
+      <c r="O82" s="407"/>
+      <c r="P82" s="407"/>
+      <c r="Q82" s="407"/>
       <c r="R82" s="206"/>
       <c r="S82" s="206"/>
       <c r="T82" s="206"/>
@@ -17452,10 +18062,10 @@
         <v>522</v>
       </c>
       <c r="C83" s="213"/>
-      <c r="D83" s="406" t="s">
+      <c r="D83" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="406"/>
+      <c r="E83" s="416"/>
       <c r="F83" s="206"/>
       <c r="G83" s="212"/>
       <c r="H83" s="212"/>
@@ -17496,10 +18106,10 @@
         <v>523</v>
       </c>
       <c r="C84" s="213"/>
-      <c r="D84" s="406" t="s">
+      <c r="D84" s="416" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="406"/>
+      <c r="E84" s="416"/>
       <c r="F84" s="206"/>
       <c r="G84" s="212"/>
       <c r="H84" s="212"/>
@@ -17541,9 +18151,9 @@
       <c r="D85" s="206"/>
       <c r="E85" s="206"/>
       <c r="F85" s="206"/>
-      <c r="G85" s="399"/>
-      <c r="H85" s="399"/>
-      <c r="I85" s="399"/>
+      <c r="G85" s="409"/>
+      <c r="H85" s="409"/>
+      <c r="I85" s="409"/>
       <c r="J85" s="206"/>
       <c r="K85" s="206"/>
       <c r="L85" s="206"/>
@@ -17576,35 +18186,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="205"/>
-      <c r="B86" s="398" t="s">
+      <c r="B86" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="400"/>
-      <c r="D86" s="401"/>
-      <c r="E86" s="401"/>
-      <c r="F86" s="401"/>
-      <c r="G86" s="401"/>
-      <c r="H86" s="401"/>
-      <c r="I86" s="401"/>
-      <c r="J86" s="401"/>
-      <c r="K86" s="401"/>
-      <c r="L86" s="401"/>
-      <c r="M86" s="401"/>
-      <c r="N86" s="401"/>
-      <c r="O86" s="401"/>
-      <c r="P86" s="401"/>
-      <c r="Q86" s="401"/>
-      <c r="R86" s="401"/>
-      <c r="S86" s="401"/>
-      <c r="T86" s="401"/>
-      <c r="U86" s="401"/>
-      <c r="V86" s="401"/>
-      <c r="W86" s="401"/>
-      <c r="X86" s="401"/>
-      <c r="Y86" s="401"/>
-      <c r="Z86" s="401"/>
-      <c r="AA86" s="401"/>
-      <c r="AB86" s="402"/>
+      <c r="C86" s="410"/>
+      <c r="D86" s="411"/>
+      <c r="E86" s="411"/>
+      <c r="F86" s="411"/>
+      <c r="G86" s="411"/>
+      <c r="H86" s="411"/>
+      <c r="I86" s="411"/>
+      <c r="J86" s="411"/>
+      <c r="K86" s="411"/>
+      <c r="L86" s="411"/>
+      <c r="M86" s="411"/>
+      <c r="N86" s="411"/>
+      <c r="O86" s="411"/>
+      <c r="P86" s="411"/>
+      <c r="Q86" s="411"/>
+      <c r="R86" s="411"/>
+      <c r="S86" s="411"/>
+      <c r="T86" s="411"/>
+      <c r="U86" s="411"/>
+      <c r="V86" s="411"/>
+      <c r="W86" s="411"/>
+      <c r="X86" s="411"/>
+      <c r="Y86" s="411"/>
+      <c r="Z86" s="411"/>
+      <c r="AA86" s="411"/>
+      <c r="AB86" s="412"/>
       <c r="AC86" s="208"/>
       <c r="AD86" s="208"/>
       <c r="AE86" s="208"/>
@@ -17625,33 +18235,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="205"/>
-      <c r="B87" s="398"/>
-      <c r="C87" s="403"/>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404"/>
-      <c r="F87" s="404"/>
-      <c r="G87" s="404"/>
-      <c r="H87" s="404"/>
-      <c r="I87" s="404"/>
-      <c r="J87" s="404"/>
-      <c r="K87" s="404"/>
-      <c r="L87" s="404"/>
-      <c r="M87" s="404"/>
-      <c r="N87" s="404"/>
-      <c r="O87" s="404"/>
-      <c r="P87" s="404"/>
-      <c r="Q87" s="404"/>
-      <c r="R87" s="404"/>
-      <c r="S87" s="404"/>
-      <c r="T87" s="404"/>
-      <c r="U87" s="404"/>
-      <c r="V87" s="404"/>
-      <c r="W87" s="404"/>
-      <c r="X87" s="404"/>
-      <c r="Y87" s="404"/>
-      <c r="Z87" s="404"/>
-      <c r="AA87" s="404"/>
-      <c r="AB87" s="405"/>
+      <c r="B87" s="408"/>
+      <c r="C87" s="413"/>
+      <c r="D87" s="414"/>
+      <c r="E87" s="414"/>
+      <c r="F87" s="414"/>
+      <c r="G87" s="414"/>
+      <c r="H87" s="414"/>
+      <c r="I87" s="414"/>
+      <c r="J87" s="414"/>
+      <c r="K87" s="414"/>
+      <c r="L87" s="414"/>
+      <c r="M87" s="414"/>
+      <c r="N87" s="414"/>
+      <c r="O87" s="414"/>
+      <c r="P87" s="414"/>
+      <c r="Q87" s="414"/>
+      <c r="R87" s="414"/>
+      <c r="S87" s="414"/>
+      <c r="T87" s="414"/>
+      <c r="U87" s="414"/>
+      <c r="V87" s="414"/>
+      <c r="W87" s="414"/>
+      <c r="X87" s="414"/>
+      <c r="Y87" s="414"/>
+      <c r="Z87" s="414"/>
+      <c r="AA87" s="414"/>
+      <c r="AB87" s="415"/>
       <c r="AC87" s="208"/>
       <c r="AD87" s="208"/>
       <c r="AE87" s="208"/>
@@ -17783,6 +18393,9 @@
       <c r="AP93" s="164"/>
     </row>
     <row r="94" spans="1:75" ht="14.1" customHeight="1">
+      <c r="B94" s="245" t="s">
+        <v>588</v>
+      </c>
       <c r="M94" s="164"/>
       <c r="N94" s="164"/>
       <c r="O94" s="164"/>
@@ -17803,6 +18416,9 @@
       <c r="AP94" s="164"/>
     </row>
     <row r="95" spans="1:75">
+      <c r="B95" s="245" t="s">
+        <v>605</v>
+      </c>
       <c r="M95" s="164"/>
       <c r="N95" s="164"/>
       <c r="O95" s="164"/>
@@ -17823,6 +18439,9 @@
       <c r="AP95" s="164"/>
     </row>
     <row r="96" spans="1:75">
+      <c r="B96" s="245" t="s">
+        <v>589</v>
+      </c>
       <c r="M96" s="164"/>
       <c r="N96" s="164"/>
       <c r="O96" s="164"/>
@@ -17842,7 +18461,10 @@
       <c r="AH96" s="164"/>
       <c r="AP96" s="164"/>
     </row>
-    <row r="97" spans="13:42">
+    <row r="97" spans="2:42">
+      <c r="B97" s="245" t="s">
+        <v>606</v>
+      </c>
       <c r="M97" s="164"/>
       <c r="N97" s="164"/>
       <c r="O97" s="164"/>
@@ -17862,7 +18484,10 @@
       <c r="AH97" s="164"/>
       <c r="AP97" s="164"/>
     </row>
-    <row r="98" spans="13:42">
+    <row r="98" spans="2:42">
+      <c r="B98" s="245" t="s">
+        <v>596</v>
+      </c>
       <c r="M98" s="164"/>
       <c r="N98" s="164"/>
       <c r="O98" s="164"/>
@@ -17882,7 +18507,10 @@
       <c r="AH98" s="164"/>
       <c r="AP98" s="164"/>
     </row>
-    <row r="99" spans="13:42">
+    <row r="99" spans="2:42">
+      <c r="B99" s="245" t="s">
+        <v>607</v>
+      </c>
       <c r="M99" s="164"/>
       <c r="N99" s="164"/>
       <c r="O99" s="164"/>
@@ -17902,7 +18530,10 @@
       <c r="AH99" s="164"/>
       <c r="AP99" s="164"/>
     </row>
-    <row r="100" spans="13:42">
+    <row r="100" spans="2:42">
+      <c r="B100" s="245" t="s">
+        <v>590</v>
+      </c>
       <c r="M100" s="164"/>
       <c r="N100" s="164"/>
       <c r="O100" s="164"/>
@@ -17922,7 +18553,10 @@
       <c r="AH100" s="164"/>
       <c r="AP100" s="164"/>
     </row>
-    <row r="101" spans="13:42">
+    <row r="101" spans="2:42">
+      <c r="B101" s="245" t="s">
+        <v>608</v>
+      </c>
       <c r="M101" s="164"/>
       <c r="N101" s="164"/>
       <c r="O101" s="164"/>
@@ -17942,7 +18576,10 @@
       <c r="AH101" s="164"/>
       <c r="AP101" s="164"/>
     </row>
-    <row r="102" spans="13:42">
+    <row r="102" spans="2:42">
+      <c r="B102" s="245" t="s">
+        <v>591</v>
+      </c>
       <c r="M102" s="164"/>
       <c r="N102" s="164"/>
       <c r="O102" s="164"/>
@@ -17962,7 +18599,10 @@
       <c r="AH102" s="164"/>
       <c r="AP102" s="164"/>
     </row>
-    <row r="103" spans="13:42">
+    <row r="103" spans="2:42">
+      <c r="B103" s="245" t="s">
+        <v>609</v>
+      </c>
       <c r="M103" s="164"/>
       <c r="N103" s="164"/>
       <c r="O103" s="164"/>
@@ -17982,7 +18622,10 @@
       <c r="AH103" s="164"/>
       <c r="AP103" s="164"/>
     </row>
-    <row r="104" spans="13:42">
+    <row r="104" spans="2:42">
+      <c r="B104" s="245" t="s">
+        <v>592</v>
+      </c>
       <c r="M104" s="164"/>
       <c r="N104" s="164"/>
       <c r="O104" s="164"/>
@@ -18002,7 +18645,10 @@
       <c r="AH104" s="164"/>
       <c r="AP104" s="164"/>
     </row>
-    <row r="105" spans="13:42">
+    <row r="105" spans="2:42">
+      <c r="B105" s="245" t="s">
+        <v>610</v>
+      </c>
       <c r="M105" s="164"/>
       <c r="N105" s="164"/>
       <c r="O105" s="164"/>
@@ -18022,7 +18668,10 @@
       <c r="AH105" s="164"/>
       <c r="AP105" s="164"/>
     </row>
-    <row r="106" spans="13:42">
+    <row r="106" spans="2:42">
+      <c r="B106" s="245" t="s">
+        <v>593</v>
+      </c>
       <c r="M106" s="164"/>
       <c r="N106" s="164"/>
       <c r="O106" s="164"/>
@@ -18042,7 +18691,10 @@
       <c r="AH106" s="164"/>
       <c r="AP106" s="164"/>
     </row>
-    <row r="107" spans="13:42">
+    <row r="107" spans="2:42">
+      <c r="B107" s="245" t="s">
+        <v>611</v>
+      </c>
       <c r="M107" s="164"/>
       <c r="N107" s="164"/>
       <c r="O107" s="164"/>
@@ -18062,7 +18714,10 @@
       <c r="AH107" s="164"/>
       <c r="AP107" s="164"/>
     </row>
-    <row r="108" spans="13:42">
+    <row r="108" spans="2:42">
+      <c r="B108" s="245" t="s">
+        <v>594</v>
+      </c>
       <c r="M108" s="164"/>
       <c r="N108" s="164"/>
       <c r="O108" s="164"/>
@@ -18082,7 +18737,10 @@
       <c r="AH108" s="164"/>
       <c r="AP108" s="164"/>
     </row>
-    <row r="109" spans="13:42">
+    <row r="109" spans="2:42">
+      <c r="B109" s="245" t="s">
+        <v>612</v>
+      </c>
       <c r="M109" s="164"/>
       <c r="N109" s="164"/>
       <c r="O109" s="164"/>
@@ -18102,7 +18760,10 @@
       <c r="AH109" s="164"/>
       <c r="AP109" s="164"/>
     </row>
-    <row r="110" spans="13:42">
+    <row r="110" spans="2:42">
+      <c r="B110" s="245" t="s">
+        <v>595</v>
+      </c>
       <c r="M110" s="164"/>
       <c r="N110" s="164"/>
       <c r="O110" s="164"/>
@@ -18122,7 +18783,10 @@
       <c r="AH110" s="164"/>
       <c r="AP110" s="164"/>
     </row>
-    <row r="111" spans="13:42">
+    <row r="111" spans="2:42">
+      <c r="B111" s="245" t="s">
+        <v>613</v>
+      </c>
       <c r="M111" s="164"/>
       <c r="N111" s="164"/>
       <c r="O111" s="164"/>
@@ -18142,7 +18806,10 @@
       <c r="AH111" s="164"/>
       <c r="AP111" s="164"/>
     </row>
-    <row r="112" spans="13:42">
+    <row r="112" spans="2:42">
+      <c r="B112" s="245" t="s">
+        <v>597</v>
+      </c>
       <c r="M112" s="164"/>
       <c r="N112" s="164"/>
       <c r="O112" s="164"/>
@@ -18162,7 +18829,10 @@
       <c r="AH112" s="164"/>
       <c r="AP112" s="164"/>
     </row>
-    <row r="113" spans="13:42">
+    <row r="113" spans="2:42">
+      <c r="B113" s="245" t="s">
+        <v>614</v>
+      </c>
       <c r="M113" s="164"/>
       <c r="N113" s="164"/>
       <c r="O113" s="164"/>
@@ -18182,7 +18852,10 @@
       <c r="AH113" s="164"/>
       <c r="AP113" s="164"/>
     </row>
-    <row r="114" spans="13:42">
+    <row r="114" spans="2:42">
+      <c r="B114" s="245" t="s">
+        <v>598</v>
+      </c>
       <c r="M114" s="164"/>
       <c r="N114" s="164"/>
       <c r="O114" s="164"/>
@@ -18202,7 +18875,10 @@
       <c r="AH114" s="164"/>
       <c r="AP114" s="164"/>
     </row>
-    <row r="115" spans="13:42">
+    <row r="115" spans="2:42">
+      <c r="B115" s="245" t="s">
+        <v>615</v>
+      </c>
       <c r="M115" s="164"/>
       <c r="N115" s="164"/>
       <c r="O115" s="164"/>
@@ -18222,7 +18898,10 @@
       <c r="AH115" s="164"/>
       <c r="AP115" s="164"/>
     </row>
-    <row r="116" spans="13:42">
+    <row r="116" spans="2:42">
+      <c r="B116" s="245" t="s">
+        <v>599</v>
+      </c>
       <c r="M116" s="164"/>
       <c r="N116" s="164"/>
       <c r="O116" s="164"/>
@@ -18242,7 +18921,10 @@
       <c r="AH116" s="164"/>
       <c r="AP116" s="164"/>
     </row>
-    <row r="117" spans="13:42">
+    <row r="117" spans="2:42">
+      <c r="B117" s="245" t="s">
+        <v>616</v>
+      </c>
       <c r="M117" s="164"/>
       <c r="N117" s="164"/>
       <c r="O117" s="164"/>
@@ -18262,7 +18944,10 @@
       <c r="AH117" s="164"/>
       <c r="AP117" s="164"/>
     </row>
-    <row r="118" spans="13:42">
+    <row r="118" spans="2:42">
+      <c r="B118" s="245" t="s">
+        <v>600</v>
+      </c>
       <c r="M118" s="164"/>
       <c r="N118" s="164"/>
       <c r="O118" s="164"/>
@@ -18282,7 +18967,10 @@
       <c r="AH118" s="164"/>
       <c r="AP118" s="164"/>
     </row>
-    <row r="119" spans="13:42">
+    <row r="119" spans="2:42">
+      <c r="B119" s="245" t="s">
+        <v>617</v>
+      </c>
       <c r="M119" s="164"/>
       <c r="N119" s="164"/>
       <c r="O119" s="164"/>
@@ -18302,7 +18990,10 @@
       <c r="AH119" s="164"/>
       <c r="AP119" s="164"/>
     </row>
-    <row r="120" spans="13:42">
+    <row r="120" spans="2:42">
+      <c r="B120" s="245" t="s">
+        <v>601</v>
+      </c>
       <c r="M120" s="164"/>
       <c r="N120" s="164"/>
       <c r="O120" s="164"/>
@@ -18322,7 +19013,10 @@
       <c r="AH120" s="164"/>
       <c r="AP120" s="164"/>
     </row>
-    <row r="121" spans="13:42">
+    <row r="121" spans="2:42">
+      <c r="B121" s="245" t="s">
+        <v>618</v>
+      </c>
       <c r="M121" s="164"/>
       <c r="N121" s="164"/>
       <c r="O121" s="164"/>
@@ -18342,7 +19036,10 @@
       <c r="AH121" s="164"/>
       <c r="AP121" s="164"/>
     </row>
-    <row r="122" spans="13:42">
+    <row r="122" spans="2:42">
+      <c r="B122" s="245" t="s">
+        <v>602</v>
+      </c>
       <c r="M122" s="164"/>
       <c r="N122" s="164"/>
       <c r="O122" s="164"/>
@@ -18362,7 +19059,10 @@
       <c r="AH122" s="164"/>
       <c r="AP122" s="164"/>
     </row>
-    <row r="123" spans="13:42">
+    <row r="123" spans="2:42">
+      <c r="B123" s="245" t="s">
+        <v>619</v>
+      </c>
       <c r="M123" s="164"/>
       <c r="N123" s="164"/>
       <c r="O123" s="164"/>
@@ -18382,7 +19082,10 @@
       <c r="AH123" s="164"/>
       <c r="AP123" s="164"/>
     </row>
-    <row r="124" spans="13:42">
+    <row r="124" spans="2:42">
+      <c r="B124" s="245" t="s">
+        <v>603</v>
+      </c>
       <c r="M124" s="164"/>
       <c r="N124" s="164"/>
       <c r="O124" s="164"/>
@@ -18402,7 +19105,10 @@
       <c r="AH124" s="164"/>
       <c r="AP124" s="164"/>
     </row>
-    <row r="125" spans="13:42">
+    <row r="125" spans="2:42">
+      <c r="B125" s="245" t="s">
+        <v>620</v>
+      </c>
       <c r="M125" s="164"/>
       <c r="N125" s="164"/>
       <c r="O125" s="164"/>
@@ -18422,7 +19128,10 @@
       <c r="AH125" s="164"/>
       <c r="AP125" s="164"/>
     </row>
-    <row r="126" spans="13:42">
+    <row r="126" spans="2:42">
+      <c r="B126" s="245" t="s">
+        <v>604</v>
+      </c>
       <c r="M126" s="164"/>
       <c r="N126" s="164"/>
       <c r="O126" s="164"/>
@@ -18442,7 +19151,10 @@
       <c r="AH126" s="164"/>
       <c r="AP126" s="164"/>
     </row>
-    <row r="127" spans="13:42">
+    <row r="127" spans="2:42">
+      <c r="B127" s="245" t="s">
+        <v>621</v>
+      </c>
       <c r="M127" s="164"/>
       <c r="N127" s="164"/>
       <c r="O127" s="164"/>
@@ -18462,7 +19174,8 @@
       <c r="AH127" s="164"/>
       <c r="AP127" s="164"/>
     </row>
-    <row r="128" spans="13:42">
+    <row r="128" spans="2:42">
+      <c r="B128" s="164"/>
       <c r="M128" s="164"/>
       <c r="N128" s="164"/>
       <c r="O128" s="164"/>
@@ -36751,63 +37464,67 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="BF2:BS2"/>
     <mergeCell ref="AG5:AJ5"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E36:F36"/>
@@ -36818,6 +37535,21 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -36825,43 +37557,8 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="AI46:AJ46"/>
     <mergeCell ref="AG48:AH48"/>
     <mergeCell ref="AI48:AJ48"/>
@@ -36880,11 +37577,6 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A42:B74"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="AG66:AH66"/>
     <mergeCell ref="AI66:AJ66"/>
     <mergeCell ref="AG68:AH68"/>
     <mergeCell ref="AI68:AJ68"/>
@@ -36902,8 +37594,6 @@
     <mergeCell ref="AI62:AJ62"/>
     <mergeCell ref="AG64:AH64"/>
     <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
     <mergeCell ref="AI81:AJ81"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="O82:Q82"/>
@@ -36927,14 +37617,7 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="A75:B79"/>
     <mergeCell ref="AG81:AH81"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
@@ -36944,7 +37627,6 @@
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A75:B79"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="A80:D80"/>
@@ -36952,6 +37634,14 @@
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A42:B74"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="C50:D51"/>
     <mergeCell ref="C52:D53"/>
@@ -36973,6 +37663,29 @@
     <mergeCell ref="C70:D71"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="4392" tabRatio="738" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="4392" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -444,7 +444,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[0].isCommingled == false", lastCell="B8", areas=["B7:B8","B94:B95"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[0].commingled==false", lastCell="B8", areas=["B7:B8","B94:B95"])</t>
         </r>
       </text>
     </comment>
@@ -503,7 +503,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[1].isCommingled == false", lastCell="B10", areas=["B9:B10","B96:B97"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[1].commingled==false", lastCell="B10", areas=["B9:B10","B96:B97"])</t>
         </r>
       </text>
     </comment>
@@ -562,7 +562,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[2].isCommingled == false", lastCell="B12", areas=["B11:B12","B98:B99"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[2].commingled==false", lastCell="B12", areas=["B11:B12","B98:B99"])</t>
         </r>
       </text>
     </comment>
@@ -621,7 +621,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[3].isCommingled == false", lastCell="B14", areas=["B13:B14","B100:B101"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[3].commingled == false", lastCell="B14", areas=["B13:B14","B100:B101"])</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[4].isCommingled == false", lastCell="B16", areas=["B15:B16","B102:B103"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[4].commingled == false", lastCell="B16", areas=["B15:B16","B102:B103"])</t>
         </r>
       </text>
     </comment>
@@ -739,7 +739,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[5].isCommingled == false", lastCell="B18", areas=["B17:B18","B104:B105"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[5].commingled== false", lastCell="B18", areas=["B17:B18","B104:B105"])</t>
         </r>
       </text>
     </comment>
@@ -798,7 +798,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[6].isCommingled == false", lastCell="B20", areas=["B19:B20","B106:B107"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[6].commingled== false", lastCell="B20", areas=["B19:B20","B106:B107"])</t>
         </r>
       </text>
     </comment>
@@ -857,7 +857,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[7].isCommingled == false", lastCell="B22", areas=["B21:B22","B108:B109"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[7].commingled== false", lastCell="B22", areas=["B21:B22","B108:B109"])</t>
         </r>
       </text>
     </comment>
@@ -916,7 +916,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[8].isCommingled == false", lastCell="B24", areas=["B21:B24","B110:B111"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[8].commingled== false", lastCell="B24", areas=["B23:B24","B110:B111"])</t>
         </r>
       </text>
     </comment>
@@ -975,7 +975,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[9].isCommingled == false", lastCell="B26", areas=["B25:B26","B112:B113"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[9].commingled == false", lastCell="B26", areas=["B25:B26","B112:B113"])</t>
         </r>
       </text>
     </comment>
@@ -1034,7 +1034,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[10].isCommingled == false", lastCell="B28", areas=["B27:B28","B114:B115"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[10].commingled== false", lastCell="B28", areas=["B27:B28","B114:B115"])</t>
         </r>
       </text>
     </comment>
@@ -1093,7 +1093,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[11].isCommingled == false", lastCell="B30", areas=["B29:B30","B116:B117"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[11].commingled == false", lastCell="B30", areas=["B29:B30","B116:B117"])</t>
         </r>
       </text>
     </comment>
@@ -1152,7 +1152,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[12].isCommingled == false", lastCell="B32", areas=["B31:B32","B118:B119"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[12].commingled== false", lastCell="B32", areas=["B31:B32","B118:B119"])</t>
         </r>
       </text>
     </comment>
@@ -1211,7 +1211,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[13].isCommingled == false", lastCell="B34", areas=["B33:B34","B120:B121"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[13].commingled== false", lastCell="B34", areas=["B33:B34","B120:B121"])</t>
         </r>
       </text>
     </comment>
@@ -1270,7 +1270,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[14].isCommingled == false", lastCell="B36", areas=["B35:B36","B122:B123"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[14].commingled == false", lastCell="B36", areas=["B35:B36","B122:B123"])</t>
         </r>
       </text>
     </comment>
@@ -1329,7 +1329,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[15].isCommingled == false", lastCell="B38", areas=["B37:B38","B124:B125"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[15].commingled == false", lastCell="B38", areas=["B37:B38","B124:B125"])</t>
         </r>
       </text>
     </comment>
@@ -1388,7 +1388,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[16].isCommingled == false", lastCell="B40", areas=["B39:B40","B126:B127"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[16].commingled== false", lastCell="B40", areas=["B39:B40","B126:B127"])</t>
         </r>
       </text>
     </comment>
@@ -2538,7 +2538,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="B95")</t>
+jx:area(lastCell="B119")</t>
         </r>
       </text>
     </comment>
@@ -2553,7 +2553,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="B95")</t>
+jx:area(lastCell="B121")</t>
         </r>
       </text>
     </comment>
@@ -2568,7 +2568,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="B119")</t>
+jx:area(lastCell="B123")</t>
         </r>
       </text>
     </comment>
@@ -2583,7 +2583,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="B121")</t>
+jx:area(lastCell="B125")</t>
         </r>
       </text>
     </comment>
@@ -2598,7 +2598,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="B123")</t>
+jx:area(lastCell="B127")</t>
         </r>
       </text>
     </comment>
@@ -8007,9 +8007,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -12343,8 +12341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -37701,6 +37699,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -37878,22 +37891,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37909,28 +37931,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -419,21 +419,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F8")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -444,7 +429,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[0].commingled==false", lastCell="B8", areas=["B7:B8","B94:B95"])</t>
+          <t>Author:
+jx:area(lastCell="B8")
+jx:if(condition="sheetThree.cargoTanks[0].commingled==false", lastCell="B8", areas=["B7:B8","B94:B95"])</t>
         </r>
       </text>
     </comment>
@@ -478,21 +465,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F10")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -503,7 +475,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[1].commingled==false", lastCell="B10", areas=["B9:B10","B96:B97"])</t>
+          <t>Author:
+jx:area(lastCell="B10")
+jx:if(condition="sheetThree.cargoTanks[1].commingled==false", lastCell="B10", areas=["B9:B10","B96:B97"])</t>
         </r>
       </text>
     </comment>
@@ -537,21 +511,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F12")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -562,7 +521,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[2].commingled==false", lastCell="B12", areas=["B11:B12","B98:B99"])</t>
+          <t xml:space="preserve">Author:
+jx:if(condition="sheetThree.cargoTanks[2].commingled ==false", lastCell="B12", areas=["B11:B12","B98:B99"]) </t>
         </r>
       </text>
     </comment>
@@ -596,21 +556,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F14")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -621,7 +566,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[3].commingled == false", lastCell="B14", areas=["B13:B14","B100:B101"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[3].commingled==false", lastCell="B14", areas=["B13:B14","B100:B101"])</t>
         </r>
       </text>
     </comment>
@@ -655,21 +600,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F16")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -680,7 +610,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[4].commingled == false", lastCell="B16", areas=["B15:B16","B102:B103"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[4].commingled==false", lastCell="B16", areas=["B15:B16","B102:B103"])</t>
         </r>
       </text>
     </comment>
@@ -714,21 +644,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F18")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -739,7 +654,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[5].commingled== false", lastCell="B18", areas=["B17:B18","B104:B105"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[5].commingled==false", lastCell="B18", areas=["B17:B18","B104:B105"])</t>
         </r>
       </text>
     </comment>
@@ -773,21 +688,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F20")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
@@ -798,7 +698,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[6].commingled== false", lastCell="B20", areas=["B19:B20","B106:B107"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[6].commingled==false", lastCell="B20", areas=["B19:B20","B106:B107"])</t>
         </r>
       </text>
     </comment>
@@ -832,21 +732,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F22")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
@@ -857,7 +742,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[7].commingled== false", lastCell="B22", areas=["B21:B22","B108:B109"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[7].commingled==false", lastCell="B22", areas=["B21:B22","B108:B109"])</t>
         </r>
       </text>
     </comment>
@@ -891,21 +776,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F24")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
@@ -916,7 +786,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[8].commingled== false", lastCell="B24", areas=["B23:B24","B110:B111"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[8].commingled==false", lastCell="B24", areas=["B23:B24","B110:B111"])</t>
         </r>
       </text>
     </comment>
@@ -950,21 +820,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F26")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -975,7 +830,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[9].commingled == false", lastCell="B26", areas=["B25:B26","B112:B113"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[9].commingled==false", lastCell="B26", areas=["B25:B26","B112:B113"])</t>
         </r>
       </text>
     </comment>
@@ -1009,21 +864,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F28")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1034,7 +874,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[10].commingled== false", lastCell="B28", areas=["B27:B28","B114:B115"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[10].commingled==false", lastCell="B28", areas=["B27:B28","B114:B115"])</t>
         </r>
       </text>
     </comment>
@@ -1068,21 +908,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F30")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1093,7 +918,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[11].commingled == false", lastCell="B30", areas=["B29:B30","B116:B117"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[11].commingled==false", lastCell="B30", areas=["B29:B30","B116:B117"])</t>
         </r>
       </text>
     </comment>
@@ -1127,21 +952,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F32")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1152,7 +962,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[12].commingled== false", lastCell="B32", areas=["B31:B32","B118:B119"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[12].commingled==false", lastCell="B32", areas=["B31:B32","B118:B119"])</t>
         </r>
       </text>
     </comment>
@@ -1186,21 +996,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F34")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1211,7 +1006,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[13].commingled== false", lastCell="B34", areas=["B33:B34","B120:B121"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[13].commingled==false", lastCell="B34", areas=["B33:B34","B120:B121"])</t>
         </r>
       </text>
     </comment>
@@ -1245,21 +1040,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F36")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1270,7 +1050,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[14].commingled == false", lastCell="B36", areas=["B35:B36","B122:B123"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[14].commingled==false", lastCell="B36", areas=["B35:B36","B122:B123"])</t>
         </r>
       </text>
     </comment>
@@ -1304,21 +1084,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F38")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1329,7 +1094,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[15].commingled == false", lastCell="B38", areas=["B37:B38","B124:B125"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[15].commingled==false", lastCell="B38", areas=["B37:B38","B124:B125"])</t>
         </r>
       </text>
     </comment>
@@ -1363,21 +1128,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F40")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1388,7 +1138,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:if(condition="sheetThree.cargoTanks[16].commingled== false", lastCell="B40", areas=["B39:B40","B126:B127"])</t>
+          <t>jx:if(condition="sheetThree.cargoTanks[16].commingled==false", lastCell="B40", areas=["B39:B40","B126:B127"])</t>
         </r>
       </text>
     </comment>
@@ -5870,9 +5620,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5930,6 +5677,14 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -6034,14 +5789,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6215,6 +5962,9 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8003,7 +7753,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -8117,13 +7867,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -8141,13 +7891,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="326" t="s">
+      <c r="V5" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="326"/>
-      <c r="X5" s="326"/>
-      <c r="Y5" s="326"/>
-      <c r="Z5" s="326"/>
+      <c r="W5" s="325"/>
+      <c r="X5" s="325"/>
+      <c r="Y5" s="325"/>
+      <c r="Z5" s="325"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -8177,13 +7927,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="327" t="s">
+      <c r="V6" s="326" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="327"/>
-      <c r="X6" s="327"/>
-      <c r="Y6" s="327"/>
-      <c r="Z6" s="327"/>
+      <c r="W6" s="326"/>
+      <c r="X6" s="326"/>
+      <c r="Y6" s="326"/>
+      <c r="Z6" s="326"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -8221,13 +7971,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="327" t="s">
+      <c r="V7" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
+      <c r="W7" s="326"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -8307,22 +8057,22 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="242" t="s">
+      <c r="P10" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="242"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="242"/>
-      <c r="U10" s="242"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="242"/>
-      <c r="X10" s="244" t="s">
+      <c r="Q10" s="333"/>
+      <c r="R10" s="333"/>
+      <c r="S10" s="333"/>
+      <c r="T10" s="333"/>
+      <c r="U10" s="333"/>
+      <c r="V10" s="333"/>
+      <c r="W10" s="333"/>
+      <c r="X10" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" s="244"/>
-      <c r="Z10" s="244"/>
-      <c r="AA10" s="244"/>
+      <c r="Y10" s="243"/>
+      <c r="Z10" s="243"/>
+      <c r="AA10" s="243"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8345,21 +8095,21 @@
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
       <c r="O11" s="64"/>
-      <c r="P11" s="243" t="s">
+      <c r="P11" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" s="243"/>
-      <c r="T11" s="243"/>
-      <c r="U11" s="243"/>
-      <c r="V11" s="243"/>
-      <c r="W11" s="330" t="s">
+      <c r="Q11" s="242"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="242"/>
+      <c r="T11" s="242"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="242"/>
+      <c r="W11" s="329" t="s">
         <v>580</v>
       </c>
-      <c r="X11" s="330"/>
-      <c r="Y11" s="330"/>
-      <c r="Z11" s="330"/>
+      <c r="X11" s="329"/>
+      <c r="Y11" s="329"/>
+      <c r="Z11" s="329"/>
       <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
@@ -8378,19 +8128,19 @@
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="329" t="s">
+      <c r="P12" s="328" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="329"/>
-      <c r="R12" s="329"/>
-      <c r="S12" s="329"/>
-      <c r="T12" s="329"/>
-      <c r="U12" s="329"/>
-      <c r="V12" s="329"/>
-      <c r="W12" s="329"/>
-      <c r="X12" s="329"/>
-      <c r="Y12" s="329"/>
-      <c r="Z12" s="329"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="328"/>
+      <c r="T12" s="328"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
     </row>
     <row r="13" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="66"/>
@@ -8451,8 +8201,8 @@
       <c r="G15" s="219" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="255"/>
-      <c r="I15" s="256"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
       <c r="J15" s="75" t="s">
         <v>263</v>
       </c>
@@ -8460,8 +8210,8 @@
       <c r="L15" s="219" t="s">
         <v>264</v>
       </c>
-      <c r="M15" s="255"/>
-      <c r="N15" s="256"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="255"/>
       <c r="O15" s="75" t="s">
         <v>265</v>
       </c>
@@ -8469,12 +8219,12 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="67"/>
       <c r="S15" s="67"/>
-      <c r="T15" s="324" t="s">
+      <c r="T15" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
+      <c r="U15" s="323"/>
+      <c r="V15" s="323"/>
+      <c r="W15" s="323"/>
       <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="70"/>
@@ -8482,47 +8232,47 @@
     <row r="16" spans="1:32" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="248" t="s">
+      <c r="C16" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="248" t="s">
+      <c r="D16" s="248"/>
+      <c r="E16" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="250"/>
-      <c r="G16" s="248" t="s">
+      <c r="F16" s="249"/>
+      <c r="G16" s="247" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="248" t="s">
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="247" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="250"/>
-      <c r="L16" s="248" t="s">
+      <c r="K16" s="249"/>
+      <c r="L16" s="247" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="249"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="248" t="s">
+      <c r="M16" s="248"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="247" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="250"/>
+      <c r="P16" s="249"/>
       <c r="Q16" s="81"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="331" t="s">
+      <c r="T16" s="330" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="331"/>
-      <c r="V16" s="331"/>
-      <c r="W16" s="331"/>
+      <c r="U16" s="330"/>
+      <c r="V16" s="330"/>
+      <c r="W16" s="330"/>
       <c r="X16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="319" t="s">
+      <c r="Y16" s="318" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" s="319"/>
+      <c r="Z16" s="318"/>
       <c r="AF16" s="100"/>
     </row>
     <row r="17" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8543,10 +8293,10 @@
       <c r="G17" s="216" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="281" t="s">
+      <c r="H17" s="282" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="282"/>
+      <c r="I17" s="283"/>
       <c r="J17" s="82" t="s">
         <v>281</v>
       </c>
@@ -8556,10 +8306,10 @@
       <c r="L17" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="M17" s="281" t="s">
+      <c r="M17" s="282" t="s">
         <v>194</v>
       </c>
-      <c r="N17" s="282"/>
+      <c r="N17" s="283"/>
       <c r="O17" s="82" t="s">
         <v>287</v>
       </c>
@@ -8588,40 +8338,40 @@
     <row r="18" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="275"/>
-      <c r="E18" s="246" t="s">
+      <c r="D18" s="276"/>
+      <c r="E18" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="247"/>
-      <c r="G18" s="246" t="s">
+      <c r="F18" s="246"/>
+      <c r="G18" s="245" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="275"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="275" t="s">
+      <c r="H18" s="276"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="275"/>
-      <c r="L18" s="273" t="s">
+      <c r="K18" s="276"/>
+      <c r="L18" s="274" t="s">
         <v>195</v>
       </c>
-      <c r="M18" s="301"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="275" t="s">
+      <c r="M18" s="300"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="276" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="275"/>
-      <c r="Q18" s="300" t="s">
+      <c r="P18" s="276"/>
+      <c r="Q18" s="299" t="s">
         <v>557</v>
       </c>
       <c r="S18" s="67"/>
-      <c r="T18" s="328"/>
-      <c r="U18" s="328"/>
-      <c r="V18" s="328"/>
-      <c r="W18" s="328"/>
+      <c r="T18" s="327"/>
+      <c r="U18" s="327"/>
+      <c r="V18" s="327"/>
+      <c r="W18" s="327"/>
       <c r="X18" s="78"/>
       <c r="Y18" s="86"/>
       <c r="Z18" s="70"/>
@@ -8650,10 +8400,10 @@
       <c r="G19" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="251" t="s">
+      <c r="H19" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="252"/>
+      <c r="I19" s="251"/>
       <c r="J19" s="220" t="s">
         <v>168</v>
       </c>
@@ -8663,22 +8413,22 @@
       <c r="L19" s="220" t="s">
         <v>196</v>
       </c>
-      <c r="M19" s="251" t="s">
+      <c r="M19" s="250" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="252"/>
+      <c r="N19" s="251"/>
       <c r="O19" s="223" t="s">
         <v>224</v>
       </c>
       <c r="P19" s="221" t="s">
         <v>225</v>
       </c>
-      <c r="Q19" s="300"/>
+      <c r="Q19" s="299"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="328"/>
-      <c r="U19" s="328"/>
-      <c r="V19" s="328"/>
-      <c r="W19" s="328"/>
+      <c r="T19" s="327"/>
+      <c r="U19" s="327"/>
+      <c r="V19" s="327"/>
+      <c r="W19" s="327"/>
       <c r="X19" s="78"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="70"/>
@@ -8701,18 +8451,18 @@
       <c r="C20" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="332" t="s">
+      <c r="D20" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="304"/>
-      <c r="F20" s="333"/>
+      <c r="E20" s="303"/>
+      <c r="F20" s="332"/>
       <c r="G20" s="217" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="283" t="s">
+      <c r="H20" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="284"/>
+      <c r="I20" s="285"/>
       <c r="J20" s="88" t="s">
         <v>279</v>
       </c>
@@ -8722,10 +8472,10 @@
       <c r="L20" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="M20" s="302" t="s">
+      <c r="M20" s="301" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="303"/>
+      <c r="N20" s="302"/>
       <c r="O20" s="91" t="s">
         <v>285</v>
       </c>
@@ -8734,17 +8484,17 @@
       </c>
       <c r="Q20" s="229"/>
       <c r="S20" s="67"/>
-      <c r="T20" s="328"/>
-      <c r="U20" s="328"/>
-      <c r="V20" s="328"/>
-      <c r="W20" s="328"/>
+      <c r="T20" s="327"/>
+      <c r="U20" s="327"/>
+      <c r="V20" s="327"/>
+      <c r="W20" s="327"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="86"/>
       <c r="Z20" s="70"/>
       <c r="AA20" s="80"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="323" t="s">
+      <c r="AF20" s="322" t="s">
         <v>562</v>
       </c>
       <c r="AG20"/>
@@ -8752,30 +8502,30 @@
     <row r="21" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="80"/>
       <c r="B21" s="335"/>
-      <c r="C21" s="246" t="s">
+      <c r="C21" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="246" t="s">
+      <c r="D21" s="276"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="245" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="275"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="273" t="s">
+      <c r="H21" s="276"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="274"/>
-      <c r="L21" s="273" t="s">
+      <c r="K21" s="275"/>
+      <c r="L21" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="M21" s="301"/>
-      <c r="N21" s="274"/>
-      <c r="O21" s="273" t="s">
+      <c r="M21" s="300"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="274" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="274"/>
+      <c r="P21" s="275"/>
       <c r="Q21" s="230"/>
       <c r="S21" s="67"/>
       <c r="T21" s="67"/>
@@ -8788,7 +8538,7 @@
       <c r="AA21" s="80"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="323"/>
+      <c r="AF21" s="322"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8797,18 +8547,18 @@
       <c r="C22" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="279" t="s">
+      <c r="D22" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="279"/>
-      <c r="F22" s="280"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="281"/>
       <c r="G22" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="279" t="s">
+      <c r="H22" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="280"/>
+      <c r="I22" s="281"/>
       <c r="J22" s="226" t="s">
         <v>144</v>
       </c>
@@ -8818,10 +8568,10 @@
       <c r="L22" s="226" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="279" t="s">
+      <c r="M22" s="280" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="280"/>
+      <c r="N22" s="281"/>
       <c r="O22" s="228" t="s">
         <v>200</v>
       </c>
@@ -8860,10 +8610,10 @@
       <c r="G23" s="217" t="s">
         <v>280</v>
       </c>
-      <c r="H23" s="283" t="s">
+      <c r="H23" s="284" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="284"/>
+      <c r="I23" s="285"/>
       <c r="J23" s="88" t="s">
         <v>283</v>
       </c>
@@ -8873,10 +8623,10 @@
       <c r="L23" s="217" t="s">
         <v>286</v>
       </c>
-      <c r="M23" s="283" t="s">
+      <c r="M23" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="N23" s="284"/>
+      <c r="N23" s="285"/>
       <c r="O23" s="88" t="s">
         <v>288</v>
       </c>
@@ -8906,42 +8656,42 @@
     <row r="24" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="275"/>
-      <c r="E24" s="246" t="s">
+      <c r="D24" s="276"/>
+      <c r="E24" s="245" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="275"/>
-      <c r="G24" s="276" t="s">
+      <c r="F24" s="276"/>
+      <c r="G24" s="277" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="277"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="246" t="s">
+      <c r="H24" s="278"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="245" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276" t="s">
+      <c r="K24" s="276"/>
+      <c r="L24" s="277" t="s">
         <v>203</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="246" t="s">
+      <c r="M24" s="278"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="245" t="s">
         <v>227</v>
       </c>
-      <c r="P24" s="275"/>
-      <c r="Q24" s="300" t="s">
+      <c r="P24" s="276"/>
+      <c r="Q24" s="299" t="s">
         <v>555</v>
       </c>
       <c r="S24" s="67"/>
-      <c r="T24" s="310" t="s">
+      <c r="T24" s="309" t="s">
         <v>250</v>
       </c>
-      <c r="U24" s="310"/>
-      <c r="V24" s="310"/>
-      <c r="W24" s="310"/>
+      <c r="U24" s="309"/>
+      <c r="V24" s="309"/>
+      <c r="W24" s="309"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="95" t="s">
         <v>258</v>
@@ -8972,10 +8722,10 @@
       <c r="G25" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="253" t="s">
+      <c r="H25" s="252" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="254"/>
+      <c r="I25" s="253"/>
       <c r="J25" s="220" t="s">
         <v>176</v>
       </c>
@@ -8985,17 +8735,17 @@
       <c r="L25" s="220" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="298" t="s">
+      <c r="M25" s="297" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="299"/>
+      <c r="N25" s="298"/>
       <c r="O25" s="220" t="s">
         <v>228</v>
       </c>
       <c r="P25" s="221" t="s">
         <v>229</v>
       </c>
-      <c r="Q25" s="300"/>
+      <c r="Q25" s="299"/>
       <c r="S25" s="67"/>
       <c r="T25" s="67"/>
       <c r="U25" s="67"/>
@@ -9025,8 +8775,8 @@
       <c r="G26" s="218" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="258"/>
       <c r="J26" s="96" t="s">
         <v>269</v>
       </c>
@@ -9034,19 +8784,19 @@
       <c r="L26" s="218" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="285"/>
-      <c r="N26" s="286"/>
+      <c r="M26" s="257"/>
+      <c r="N26" s="258"/>
       <c r="O26" s="72" t="s">
         <v>271</v>
       </c>
       <c r="P26" s="99"/>
       <c r="Q26" s="81"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="290" t="s">
+      <c r="T26" s="289" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
       <c r="W26" s="70" t="s">
         <v>8</v>
       </c>
@@ -9065,40 +8815,40 @@
     <row r="27" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="80"/>
       <c r="B27" s="71"/>
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="249"/>
-      <c r="E27" s="248" t="s">
+      <c r="D27" s="248"/>
+      <c r="E27" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="249"/>
-      <c r="G27" s="248" t="s">
+      <c r="F27" s="248"/>
+      <c r="G27" s="247" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="249"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="248" t="s">
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="249"/>
-      <c r="L27" s="248" t="s">
+      <c r="K27" s="248"/>
+      <c r="L27" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="M27" s="249"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="248" t="s">
+      <c r="M27" s="248"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="247" t="s">
         <v>230</v>
       </c>
-      <c r="P27" s="250"/>
+      <c r="P27" s="249"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="67"/>
       <c r="S27" s="69"/>
-      <c r="T27" s="290" t="s">
+      <c r="T27" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
+      <c r="U27" s="289"/>
+      <c r="V27" s="289"/>
       <c r="W27" s="70" t="s">
         <v>8</v>
       </c>
@@ -9134,11 +8884,11 @@
       <c r="Q28" s="100"/>
       <c r="R28" s="67"/>
       <c r="S28" s="69"/>
-      <c r="T28" s="310" t="s">
+      <c r="T28" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="310"/>
-      <c r="V28" s="310"/>
+      <c r="U28" s="309"/>
+      <c r="V28" s="309"/>
       <c r="W28" s="70" t="s">
         <v>8</v>
       </c>
@@ -9257,12 +9007,12 @@
       <c r="Q31" s="63"/>
       <c r="R31" s="103"/>
       <c r="S31" s="107"/>
-      <c r="T31" s="324" t="s">
+      <c r="T31" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="324"/>
-      <c r="V31" s="324"/>
-      <c r="W31" s="324"/>
+      <c r="U31" s="323"/>
+      <c r="V31" s="323"/>
+      <c r="W31" s="323"/>
       <c r="X31" s="105"/>
       <c r="Y31" s="106"/>
       <c r="Z31" s="70"/>
@@ -9293,32 +9043,32 @@
       <c r="Q32" s="108"/>
       <c r="R32" s="108"/>
       <c r="S32" s="108"/>
-      <c r="T32" s="325" t="s">
+      <c r="T32" s="324" t="s">
         <v>77</v>
       </c>
-      <c r="U32" s="325"/>
-      <c r="V32" s="325"/>
-      <c r="W32" s="325"/>
+      <c r="U32" s="324"/>
+      <c r="V32" s="324"/>
+      <c r="W32" s="324"/>
       <c r="X32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="319" t="s">
+      <c r="Y32" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="Z32" s="319"/>
+      <c r="Z32" s="318"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="317"/>
-      <c r="AK32" s="317"/>
+      <c r="AJ32" s="316"/>
+      <c r="AK32" s="316"/>
       <c r="AL32" s="111"/>
       <c r="AM32" s="111"/>
       <c r="AN32" s="111"/>
-      <c r="AO32" s="317"/>
-      <c r="AP32" s="317"/>
+      <c r="AO32" s="316"/>
+      <c r="AP32" s="316"/>
       <c r="AQ32" s="111"/>
       <c r="AR32" s="111"/>
       <c r="AS32" s="111"/>
@@ -9337,8 +9087,8 @@
       <c r="G33" s="219" t="s">
         <v>291</v>
       </c>
-      <c r="H33" s="255"/>
-      <c r="I33" s="256"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="255"/>
       <c r="J33" s="213" t="s">
         <v>292</v>
       </c>
@@ -9346,8 +9096,8 @@
       <c r="L33" s="219" t="s">
         <v>293</v>
       </c>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
+      <c r="M33" s="254"/>
+      <c r="N33" s="255"/>
       <c r="O33" s="213" t="s">
         <v>294</v>
       </c>
@@ -9369,46 +9119,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="316"/>
-      <c r="AK33" s="316"/>
-      <c r="AL33" s="316"/>
-      <c r="AM33" s="316"/>
-      <c r="AN33" s="316"/>
-      <c r="AO33" s="316"/>
-      <c r="AP33" s="316"/>
-      <c r="AQ33" s="316"/>
-      <c r="AR33" s="316"/>
-      <c r="AS33" s="316"/>
+      <c r="AJ33" s="315"/>
+      <c r="AK33" s="315"/>
+      <c r="AL33" s="315"/>
+      <c r="AM33" s="315"/>
+      <c r="AN33" s="315"/>
+      <c r="AO33" s="315"/>
+      <c r="AP33" s="315"/>
+      <c r="AQ33" s="315"/>
+      <c r="AR33" s="315"/>
+      <c r="AS33" s="315"/>
     </row>
     <row r="34" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="114"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="248" t="s">
+      <c r="C34" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="250"/>
-      <c r="E34" s="248" t="s">
+      <c r="D34" s="249"/>
+      <c r="E34" s="247" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="250"/>
-      <c r="G34" s="248" t="s">
+      <c r="F34" s="249"/>
+      <c r="G34" s="247" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="249"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="248" t="s">
+      <c r="H34" s="248"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="247" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="250"/>
-      <c r="L34" s="248" t="s">
+      <c r="K34" s="249"/>
+      <c r="L34" s="247" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="249"/>
-      <c r="N34" s="250"/>
-      <c r="O34" s="248" t="s">
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="247" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="250"/>
+      <c r="P34" s="249"/>
       <c r="Q34" s="81"/>
       <c r="S34" s="112"/>
       <c r="T34" s="113"/>
@@ -9426,13 +9176,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="320"/>
-      <c r="AK34" s="320"/>
+      <c r="AJ34" s="319"/>
+      <c r="AK34" s="319"/>
       <c r="AL34" s="116"/>
       <c r="AM34" s="115"/>
       <c r="AN34" s="116"/>
-      <c r="AO34" s="320"/>
-      <c r="AP34" s="320"/>
+      <c r="AO34" s="319"/>
+      <c r="AP34" s="319"/>
       <c r="AQ34" s="116"/>
       <c r="AR34" s="115"/>
       <c r="AS34" s="116"/>
@@ -9455,10 +9205,10 @@
       <c r="G35" s="216" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="282" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="282"/>
+      <c r="I35" s="283"/>
       <c r="J35" s="216" t="s">
         <v>298</v>
       </c>
@@ -9468,10 +9218,10 @@
       <c r="L35" s="216" t="s">
         <v>299</v>
       </c>
-      <c r="M35" s="281" t="s">
+      <c r="M35" s="282" t="s">
         <v>208</v>
       </c>
-      <c r="N35" s="282"/>
+      <c r="N35" s="283"/>
       <c r="O35" s="216" t="s">
         <v>300</v>
       </c>
@@ -9500,47 +9250,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="316"/>
-      <c r="AK35" s="316"/>
-      <c r="AL35" s="316"/>
-      <c r="AM35" s="316"/>
-      <c r="AN35" s="316"/>
-      <c r="AO35" s="277"/>
-      <c r="AP35" s="277"/>
-      <c r="AQ35" s="277"/>
-      <c r="AR35" s="321"/>
-      <c r="AS35" s="321"/>
+      <c r="AJ35" s="315"/>
+      <c r="AK35" s="315"/>
+      <c r="AL35" s="315"/>
+      <c r="AM35" s="315"/>
+      <c r="AN35" s="315"/>
+      <c r="AO35" s="278"/>
+      <c r="AP35" s="278"/>
+      <c r="AQ35" s="278"/>
+      <c r="AR35" s="320"/>
+      <c r="AS35" s="320"/>
     </row>
     <row r="36" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="114"/>
       <c r="B36" s="81"/>
-      <c r="C36" s="246" t="s">
+      <c r="C36" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="247"/>
-      <c r="E36" s="246" t="s">
+      <c r="D36" s="246"/>
+      <c r="E36" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="247"/>
-      <c r="G36" s="246" t="s">
+      <c r="F36" s="246"/>
+      <c r="G36" s="245" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="275"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="246" t="s">
+      <c r="H36" s="276"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="K36" s="247"/>
-      <c r="L36" s="273" t="s">
+      <c r="K36" s="246"/>
+      <c r="L36" s="274" t="s">
         <v>209</v>
       </c>
-      <c r="M36" s="301"/>
-      <c r="N36" s="274"/>
-      <c r="O36" s="246" t="s">
+      <c r="M36" s="300"/>
+      <c r="N36" s="275"/>
+      <c r="O36" s="245" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="247"/>
-      <c r="Q36" s="300" t="s">
+      <c r="P36" s="246"/>
+      <c r="Q36" s="299" t="s">
         <v>558</v>
       </c>
       <c r="S36" s="112"/>
@@ -9590,10 +9340,10 @@
       <c r="G37" s="220" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="251" t="s">
+      <c r="H37" s="250" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="252"/>
+      <c r="I37" s="251"/>
       <c r="J37" s="220" t="s">
         <v>182</v>
       </c>
@@ -9603,17 +9353,17 @@
       <c r="L37" s="220" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="251" t="s">
+      <c r="M37" s="250" t="s">
         <v>211</v>
       </c>
-      <c r="N37" s="252"/>
+      <c r="N37" s="251"/>
       <c r="O37" s="223" t="s">
         <v>234</v>
       </c>
       <c r="P37" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="Q37" s="300"/>
+      <c r="Q37" s="299"/>
       <c r="S37" s="122"/>
       <c r="T37" s="113"/>
       <c r="U37" s="113"/>
@@ -9632,14 +9382,14 @@
       <c r="AG37" s="233"/>
       <c r="AH37" s="233"/>
       <c r="AI37" s="233"/>
-      <c r="AJ37" s="318"/>
-      <c r="AK37" s="318"/>
+      <c r="AJ37" s="317"/>
+      <c r="AK37" s="317"/>
       <c r="AL37" s="116"/>
       <c r="AM37" s="93"/>
       <c r="AN37" s="117"/>
       <c r="AO37" s="93"/>
-      <c r="AP37" s="322"/>
-      <c r="AQ37" s="322"/>
+      <c r="AP37" s="321"/>
+      <c r="AQ37" s="321"/>
       <c r="AR37" s="93"/>
       <c r="AS37" s="116"/>
     </row>
@@ -9651,18 +9401,18 @@
       <c r="C38" s="214" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="304" t="s">
+      <c r="D38" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="304"/>
-      <c r="F38" s="305"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="304"/>
       <c r="G38" s="217" t="s">
         <v>302</v>
       </c>
-      <c r="H38" s="283" t="s">
+      <c r="H38" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="284"/>
+      <c r="I38" s="285"/>
       <c r="J38" s="214" t="s">
         <v>303</v>
       </c>
@@ -9672,10 +9422,10 @@
       <c r="L38" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="M38" s="302" t="s">
+      <c r="M38" s="301" t="s">
         <v>184</v>
       </c>
-      <c r="N38" s="303"/>
+      <c r="N38" s="302"/>
       <c r="O38" s="91" t="s">
         <v>305</v>
       </c>
@@ -9691,50 +9441,50 @@
       <c r="X38" s="67"/>
       <c r="Y38" s="123"/>
       <c r="Z38" s="67"/>
-      <c r="AF38" s="323" t="s">
+      <c r="AF38" s="322" t="s">
         <v>569</v>
       </c>
       <c r="AG38" s="232"/>
       <c r="AH38" s="232"/>
       <c r="AI38" s="232"/>
-      <c r="AJ38" s="316"/>
-      <c r="AK38" s="316"/>
-      <c r="AL38" s="316"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
+      <c r="AJ38" s="315"/>
+      <c r="AK38" s="315"/>
+      <c r="AL38" s="315"/>
+      <c r="AM38" s="278"/>
+      <c r="AN38" s="278"/>
+      <c r="AO38" s="278"/>
+      <c r="AP38" s="278"/>
+      <c r="AQ38" s="278"/>
+      <c r="AR38" s="278"/>
+      <c r="AS38" s="278"/>
     </row>
     <row r="39" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="114"/>
       <c r="B39" s="335"/>
-      <c r="C39" s="246" t="s">
+      <c r="C39" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="275"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="246" t="s">
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="245" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="275"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="273" t="s">
+      <c r="H39" s="276"/>
+      <c r="I39" s="246"/>
+      <c r="J39" s="274" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="274"/>
-      <c r="L39" s="273" t="s">
+      <c r="K39" s="275"/>
+      <c r="L39" s="274" t="s">
         <v>185</v>
       </c>
-      <c r="M39" s="301"/>
-      <c r="N39" s="274"/>
-      <c r="O39" s="273" t="s">
+      <c r="M39" s="300"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="274" t="s">
         <v>213</v>
       </c>
-      <c r="P39" s="274"/>
+      <c r="P39" s="275"/>
       <c r="Q39" s="230"/>
       <c r="S39" s="122"/>
       <c r="T39" s="69" t="s">
@@ -9746,7 +9496,7 @@
       <c r="X39" s="67"/>
       <c r="Y39" s="123"/>
       <c r="Z39" s="70"/>
-      <c r="AF39" s="323"/>
+      <c r="AF39" s="322"/>
       <c r="AG39" s="234"/>
       <c r="AH39" s="234"/>
       <c r="AI39" s="121"/>
@@ -9767,18 +9517,18 @@
       <c r="C40" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="279" t="s">
+      <c r="D40" s="280" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="280"/>
+      <c r="E40" s="280"/>
+      <c r="F40" s="281"/>
       <c r="G40" s="225" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="279" t="s">
+      <c r="H40" s="280" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="280"/>
+      <c r="I40" s="281"/>
       <c r="J40" s="226" t="s">
         <v>158</v>
       </c>
@@ -9788,10 +9538,10 @@
       <c r="L40" s="226" t="s">
         <v>186</v>
       </c>
-      <c r="M40" s="279" t="s">
+      <c r="M40" s="280" t="s">
         <v>187</v>
       </c>
-      <c r="N40" s="280"/>
+      <c r="N40" s="281"/>
       <c r="O40" s="228" t="s">
         <v>214</v>
       </c>
@@ -9800,12 +9550,12 @@
       </c>
       <c r="Q40" s="94"/>
       <c r="S40" s="63"/>
-      <c r="T40" s="310" t="s">
+      <c r="T40" s="309" t="s">
         <v>250</v>
       </c>
-      <c r="U40" s="310"/>
-      <c r="V40" s="310"/>
-      <c r="W40" s="310"/>
+      <c r="U40" s="309"/>
+      <c r="V40" s="309"/>
+      <c r="W40" s="309"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="124" t="s">
         <v>79</v>
@@ -9815,13 +9565,13 @@
       <c r="AG40" s="116"/>
       <c r="AH40" s="234"/>
       <c r="AI40" s="233"/>
-      <c r="AJ40" s="318"/>
-      <c r="AK40" s="318"/>
+      <c r="AJ40" s="317"/>
+      <c r="AK40" s="317"/>
       <c r="AL40" s="116"/>
       <c r="AM40" s="93"/>
       <c r="AN40" s="116"/>
-      <c r="AO40" s="318"/>
-      <c r="AP40" s="318"/>
+      <c r="AO40" s="317"/>
+      <c r="AP40" s="317"/>
       <c r="AQ40" s="116"/>
       <c r="AR40" s="93"/>
       <c r="AS40" s="116"/>
@@ -9844,10 +9594,10 @@
       <c r="G41" s="217" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="283" t="s">
+      <c r="H41" s="284" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="284"/>
+      <c r="I41" s="285"/>
       <c r="J41" s="214" t="s">
         <v>309</v>
       </c>
@@ -9857,10 +9607,10 @@
       <c r="L41" s="217" t="s">
         <v>310</v>
       </c>
-      <c r="M41" s="283" t="s">
+      <c r="M41" s="284" t="s">
         <v>216</v>
       </c>
-      <c r="N41" s="284"/>
+      <c r="N41" s="285"/>
       <c r="O41" s="214" t="s">
         <v>311</v>
       </c>
@@ -9882,55 +9632,55 @@
       <c r="AG41" s="231"/>
       <c r="AH41" s="231"/>
       <c r="AI41" s="231"/>
-      <c r="AJ41" s="277"/>
-      <c r="AK41" s="277"/>
-      <c r="AL41" s="277"/>
-      <c r="AM41" s="316"/>
-      <c r="AN41" s="316"/>
-      <c r="AO41" s="277"/>
-      <c r="AP41" s="277"/>
-      <c r="AQ41" s="277"/>
-      <c r="AR41" s="277"/>
-      <c r="AS41" s="277"/>
+      <c r="AJ41" s="278"/>
+      <c r="AK41" s="278"/>
+      <c r="AL41" s="278"/>
+      <c r="AM41" s="315"/>
+      <c r="AN41" s="315"/>
+      <c r="AO41" s="278"/>
+      <c r="AP41" s="278"/>
+      <c r="AQ41" s="278"/>
+      <c r="AR41" s="278"/>
+      <c r="AS41" s="278"/>
     </row>
     <row r="42" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="114"/>
       <c r="B42" s="81"/>
-      <c r="C42" s="246" t="s">
+      <c r="C42" s="245" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="247"/>
-      <c r="E42" s="246" t="s">
+      <c r="D42" s="246"/>
+      <c r="E42" s="245" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="247"/>
-      <c r="G42" s="276" t="s">
+      <c r="F42" s="246"/>
+      <c r="G42" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="277"/>
-      <c r="I42" s="278"/>
-      <c r="J42" s="246" t="s">
+      <c r="H42" s="278"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="245" t="s">
         <v>189</v>
       </c>
-      <c r="K42" s="247"/>
-      <c r="L42" s="276" t="s">
+      <c r="K42" s="246"/>
+      <c r="L42" s="277" t="s">
         <v>217</v>
       </c>
-      <c r="M42" s="277"/>
-      <c r="N42" s="278"/>
-      <c r="O42" s="246" t="s">
+      <c r="M42" s="278"/>
+      <c r="N42" s="279"/>
+      <c r="O42" s="245" t="s">
         <v>237</v>
       </c>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="300" t="s">
+      <c r="P42" s="246"/>
+      <c r="Q42" s="299" t="s">
         <v>556</v>
       </c>
       <c r="S42" s="67"/>
-      <c r="T42" s="290" t="s">
+      <c r="T42" s="289" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="290"/>
-      <c r="V42" s="290"/>
+      <c r="U42" s="289"/>
+      <c r="V42" s="289"/>
       <c r="W42" s="70" t="s">
         <v>8</v>
       </c>
@@ -9972,10 +9722,10 @@
       <c r="G43" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="252" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="254"/>
+      <c r="I43" s="253"/>
       <c r="J43" s="220" t="s">
         <v>190</v>
       </c>
@@ -9985,23 +9735,23 @@
       <c r="L43" s="220" t="s">
         <v>218</v>
       </c>
-      <c r="M43" s="251" t="s">
+      <c r="M43" s="250" t="s">
         <v>219</v>
       </c>
-      <c r="N43" s="252"/>
+      <c r="N43" s="251"/>
       <c r="O43" s="220" t="s">
         <v>238</v>
       </c>
       <c r="P43" s="221" t="s">
         <v>239</v>
       </c>
-      <c r="Q43" s="300"/>
+      <c r="Q43" s="299"/>
       <c r="S43" s="67"/>
-      <c r="T43" s="290" t="s">
+      <c r="T43" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="U43" s="290"/>
-      <c r="V43" s="290"/>
+      <c r="U43" s="289"/>
+      <c r="V43" s="289"/>
       <c r="W43" s="70" t="s">
         <v>8</v>
       </c>
@@ -10014,13 +9764,13 @@
       <c r="AG43" s="235"/>
       <c r="AH43" s="235"/>
       <c r="AI43" s="235"/>
-      <c r="AJ43" s="317"/>
-      <c r="AK43" s="317"/>
+      <c r="AJ43" s="316"/>
+      <c r="AK43" s="316"/>
       <c r="AL43" s="111"/>
       <c r="AM43" s="111"/>
       <c r="AN43" s="111"/>
-      <c r="AO43" s="317"/>
-      <c r="AP43" s="317"/>
+      <c r="AO43" s="316"/>
+      <c r="AP43" s="316"/>
       <c r="AQ43" s="111"/>
       <c r="AR43" s="111"/>
       <c r="AS43" s="111"/>
@@ -10039,8 +9789,8 @@
       <c r="G44" s="219" t="s">
         <v>314</v>
       </c>
-      <c r="H44" s="255"/>
-      <c r="I44" s="256"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="255"/>
       <c r="J44" s="96" t="s">
         <v>315</v>
       </c>
@@ -10048,19 +9798,19 @@
       <c r="L44" s="219" t="s">
         <v>316</v>
       </c>
-      <c r="M44" s="255"/>
-      <c r="N44" s="256"/>
+      <c r="M44" s="254"/>
+      <c r="N44" s="255"/>
       <c r="O44" s="72" t="s">
         <v>317</v>
       </c>
       <c r="P44" s="99"/>
       <c r="Q44" s="81"/>
       <c r="S44" s="67"/>
-      <c r="T44" s="310" t="s">
+      <c r="T44" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="310"/>
-      <c r="V44" s="310"/>
+      <c r="U44" s="309"/>
+      <c r="V44" s="309"/>
       <c r="W44" s="70" t="s">
         <v>8</v>
       </c>
@@ -10076,46 +9826,46 @@
       <c r="AG44" s="232"/>
       <c r="AH44" s="232"/>
       <c r="AI44" s="232"/>
-      <c r="AJ44" s="316"/>
-      <c r="AK44" s="316"/>
-      <c r="AL44" s="316"/>
-      <c r="AM44" s="316"/>
-      <c r="AN44" s="316"/>
-      <c r="AO44" s="316"/>
-      <c r="AP44" s="316"/>
-      <c r="AQ44" s="316"/>
-      <c r="AR44" s="316"/>
-      <c r="AS44" s="316"/>
+      <c r="AJ44" s="315"/>
+      <c r="AK44" s="315"/>
+      <c r="AL44" s="315"/>
+      <c r="AM44" s="315"/>
+      <c r="AN44" s="315"/>
+      <c r="AO44" s="315"/>
+      <c r="AP44" s="315"/>
+      <c r="AQ44" s="315"/>
+      <c r="AR44" s="315"/>
+      <c r="AS44" s="315"/>
     </row>
     <row r="45" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="80"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="248" t="s">
+      <c r="C45" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="250"/>
-      <c r="E45" s="248" t="s">
+      <c r="D45" s="249"/>
+      <c r="E45" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="250"/>
-      <c r="G45" s="248" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="247" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="249"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="248" t="s">
+      <c r="H45" s="248"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="247" t="s">
         <v>192</v>
       </c>
-      <c r="K45" s="250"/>
-      <c r="L45" s="248" t="s">
+      <c r="K45" s="249"/>
+      <c r="L45" s="247" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="249"/>
-      <c r="N45" s="250"/>
-      <c r="O45" s="248" t="s">
+      <c r="M45" s="248"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="247" t="s">
         <v>318</v>
       </c>
-      <c r="P45" s="250"/>
+      <c r="P45" s="249"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="67"/>
       <c r="S45" s="69"/>
@@ -10130,18 +9880,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="127"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
-      <c r="I46" s="257"/>
-      <c r="J46" s="257"/>
-      <c r="K46" s="257"/>
-      <c r="L46" s="257"/>
-      <c r="M46" s="257"/>
-      <c r="N46" s="257"/>
+      <c r="C46" s="256"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="256"/>
+      <c r="J46" s="256"/>
+      <c r="K46" s="256"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="256"/>
+      <c r="N46" s="256"/>
       <c r="O46" s="109"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
@@ -10198,20 +9948,20 @@
       <c r="F48" s="129"/>
       <c r="G48" s="129"/>
       <c r="H48" s="129"/>
-      <c r="I48" s="291"/>
-      <c r="J48" s="291"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="261" t="s">
+      <c r="I48" s="290"/>
+      <c r="J48" s="290"/>
+      <c r="K48" s="290"/>
+      <c r="L48" s="290"/>
+      <c r="M48" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="262"/>
-      <c r="O48" s="262"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="262"/>
-      <c r="R48" s="262"/>
-      <c r="S48" s="262"/>
-      <c r="T48" s="263"/>
+      <c r="N48" s="263"/>
+      <c r="O48" s="263"/>
+      <c r="P48" s="263"/>
+      <c r="Q48" s="263"/>
+      <c r="R48" s="263"/>
+      <c r="S48" s="263"/>
+      <c r="T48" s="264"/>
       <c r="U48" s="132"/>
       <c r="V48" s="132"/>
       <c r="W48" s="132"/>
@@ -10232,22 +9982,22 @@
       <c r="F49" s="135"/>
       <c r="G49" s="135"/>
       <c r="H49" s="136"/>
-      <c r="I49" s="245" t="s">
+      <c r="I49" s="244" t="s">
         <v>252</v>
       </c>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="264" t="s">
+      <c r="J49" s="244"/>
+      <c r="K49" s="244"/>
+      <c r="L49" s="244"/>
+      <c r="M49" s="265" t="s">
         <v>259</v>
       </c>
-      <c r="N49" s="265"/>
-      <c r="O49" s="265"/>
-      <c r="P49" s="265"/>
-      <c r="Q49" s="265"/>
-      <c r="R49" s="265"/>
-      <c r="S49" s="265"/>
-      <c r="T49" s="266"/>
+      <c r="N49" s="266"/>
+      <c r="O49" s="266"/>
+      <c r="P49" s="266"/>
+      <c r="Q49" s="266"/>
+      <c r="R49" s="266"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="267"/>
       <c r="U49" s="132"/>
       <c r="V49" s="132"/>
       <c r="W49" s="132"/>
@@ -10268,20 +10018,20 @@
       <c r="F50" s="135"/>
       <c r="G50" s="135"/>
       <c r="H50" s="136"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="244" t="s">
         <v>253</v>
       </c>
-      <c r="J50" s="245"/>
-      <c r="K50" s="245"/>
-      <c r="L50" s="245"/>
-      <c r="M50" s="267"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="268"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
-      <c r="S50" s="268"/>
-      <c r="T50" s="269"/>
+      <c r="J50" s="244"/>
+      <c r="K50" s="244"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="269"/>
+      <c r="O50" s="269"/>
+      <c r="P50" s="269"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="269"/>
+      <c r="S50" s="269"/>
+      <c r="T50" s="270"/>
       <c r="U50" s="133"/>
       <c r="V50" s="132"/>
       <c r="W50" s="132"/>
@@ -10302,20 +10052,20 @@
       <c r="F51" s="135"/>
       <c r="G51" s="135"/>
       <c r="H51" s="136"/>
-      <c r="I51" s="245" t="s">
+      <c r="I51" s="244" t="s">
         <v>256</v>
       </c>
-      <c r="J51" s="245"/>
-      <c r="K51" s="245"/>
-      <c r="L51" s="245"/>
-      <c r="M51" s="267"/>
-      <c r="N51" s="268"/>
-      <c r="O51" s="268"/>
-      <c r="P51" s="268"/>
-      <c r="Q51" s="268"/>
-      <c r="R51" s="268"/>
-      <c r="S51" s="268"/>
-      <c r="T51" s="269"/>
+      <c r="J51" s="244"/>
+      <c r="K51" s="244"/>
+      <c r="L51" s="244"/>
+      <c r="M51" s="268"/>
+      <c r="N51" s="269"/>
+      <c r="O51" s="269"/>
+      <c r="P51" s="269"/>
+      <c r="Q51" s="269"/>
+      <c r="R51" s="269"/>
+      <c r="S51" s="269"/>
+      <c r="T51" s="270"/>
       <c r="U51" s="133"/>
       <c r="V51" s="132"/>
       <c r="W51" s="132"/>
@@ -10336,20 +10086,20 @@
       <c r="F52" s="135"/>
       <c r="G52" s="135"/>
       <c r="H52" s="136"/>
-      <c r="I52" s="245" t="s">
+      <c r="I52" s="244" t="s">
         <v>255</v>
       </c>
-      <c r="J52" s="245"/>
-      <c r="K52" s="245"/>
-      <c r="L52" s="245"/>
-      <c r="M52" s="267"/>
-      <c r="N52" s="268"/>
-      <c r="O52" s="268"/>
-      <c r="P52" s="268"/>
-      <c r="Q52" s="268"/>
-      <c r="R52" s="268"/>
-      <c r="S52" s="268"/>
-      <c r="T52" s="269"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="244"/>
+      <c r="M52" s="268"/>
+      <c r="N52" s="269"/>
+      <c r="O52" s="269"/>
+      <c r="P52" s="269"/>
+      <c r="Q52" s="269"/>
+      <c r="R52" s="269"/>
+      <c r="S52" s="269"/>
+      <c r="T52" s="270"/>
       <c r="U52" s="133"/>
       <c r="V52" s="132"/>
       <c r="W52" s="132"/>
@@ -10370,20 +10120,20 @@
       <c r="F53" s="135"/>
       <c r="G53" s="135"/>
       <c r="H53" s="136"/>
-      <c r="I53" s="245" t="s">
+      <c r="I53" s="244" t="s">
         <v>254</v>
       </c>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-      <c r="L53" s="245"/>
-      <c r="M53" s="267"/>
-      <c r="N53" s="268"/>
-      <c r="O53" s="268"/>
-      <c r="P53" s="268"/>
-      <c r="Q53" s="268"/>
-      <c r="R53" s="268"/>
-      <c r="S53" s="268"/>
-      <c r="T53" s="269"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="244"/>
+      <c r="L53" s="244"/>
+      <c r="M53" s="268"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="269"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="270"/>
       <c r="U53" s="133"/>
       <c r="V53" s="132"/>
       <c r="W53" s="132"/>
@@ -10395,29 +10145,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="131"/>
-      <c r="B54" s="287" t="s">
+      <c r="B54" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
-      <c r="E54" s="288"/>
-      <c r="F54" s="288"/>
-      <c r="G54" s="288"/>
-      <c r="H54" s="289"/>
-      <c r="I54" s="296" t="s">
+      <c r="C54" s="287"/>
+      <c r="D54" s="287"/>
+      <c r="E54" s="287"/>
+      <c r="F54" s="287"/>
+      <c r="G54" s="287"/>
+      <c r="H54" s="288"/>
+      <c r="I54" s="295" t="s">
         <v>257</v>
       </c>
-      <c r="J54" s="296"/>
-      <c r="K54" s="296"/>
-      <c r="L54" s="296"/>
-      <c r="M54" s="267"/>
-      <c r="N54" s="268"/>
-      <c r="O54" s="268"/>
-      <c r="P54" s="268"/>
-      <c r="Q54" s="268"/>
-      <c r="R54" s="268"/>
-      <c r="S54" s="268"/>
-      <c r="T54" s="269"/>
+      <c r="J54" s="295"/>
+      <c r="K54" s="295"/>
+      <c r="L54" s="295"/>
+      <c r="M54" s="268"/>
+      <c r="N54" s="269"/>
+      <c r="O54" s="269"/>
+      <c r="P54" s="269"/>
+      <c r="Q54" s="269"/>
+      <c r="R54" s="269"/>
+      <c r="S54" s="269"/>
+      <c r="T54" s="270"/>
       <c r="U54" s="133"/>
       <c r="V54" s="132"/>
       <c r="W54" s="132"/>
@@ -10440,18 +10190,18 @@
       <c r="F55" s="139"/>
       <c r="G55" s="139"/>
       <c r="H55" s="140"/>
-      <c r="I55" s="296"/>
-      <c r="J55" s="296"/>
-      <c r="K55" s="296"/>
-      <c r="L55" s="296"/>
-      <c r="M55" s="267"/>
-      <c r="N55" s="268"/>
-      <c r="O55" s="268"/>
-      <c r="P55" s="268"/>
-      <c r="Q55" s="268"/>
-      <c r="R55" s="268"/>
-      <c r="S55" s="268"/>
-      <c r="T55" s="269"/>
+      <c r="I55" s="295"/>
+      <c r="J55" s="295"/>
+      <c r="K55" s="295"/>
+      <c r="L55" s="295"/>
+      <c r="M55" s="268"/>
+      <c r="N55" s="269"/>
+      <c r="O55" s="269"/>
+      <c r="P55" s="269"/>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="269"/>
+      <c r="S55" s="269"/>
+      <c r="T55" s="270"/>
       <c r="U55" s="133"/>
       <c r="V55" s="132"/>
       <c r="W55" s="132"/>
@@ -10474,18 +10224,18 @@
       <c r="F56" s="139"/>
       <c r="G56" s="139"/>
       <c r="H56" s="140"/>
-      <c r="I56" s="296"/>
-      <c r="J56" s="296"/>
-      <c r="K56" s="296"/>
-      <c r="L56" s="296"/>
-      <c r="M56" s="267"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
-      <c r="T56" s="269"/>
+      <c r="I56" s="295"/>
+      <c r="J56" s="295"/>
+      <c r="K56" s="295"/>
+      <c r="L56" s="295"/>
+      <c r="M56" s="268"/>
+      <c r="N56" s="269"/>
+      <c r="O56" s="269"/>
+      <c r="P56" s="269"/>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="269"/>
+      <c r="S56" s="269"/>
+      <c r="T56" s="270"/>
       <c r="U56" s="133"/>
       <c r="V56" s="132"/>
       <c r="W56" s="132"/>
@@ -10508,18 +10258,18 @@
       <c r="F57" s="139"/>
       <c r="G57" s="139"/>
       <c r="H57" s="140"/>
-      <c r="I57" s="296"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="296"/>
-      <c r="L57" s="296"/>
-      <c r="M57" s="267"/>
-      <c r="N57" s="268"/>
-      <c r="O57" s="268"/>
-      <c r="P57" s="268"/>
-      <c r="Q57" s="268"/>
-      <c r="R57" s="268"/>
-      <c r="S57" s="268"/>
-      <c r="T57" s="269"/>
+      <c r="I57" s="295"/>
+      <c r="J57" s="295"/>
+      <c r="K57" s="295"/>
+      <c r="L57" s="295"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="269"/>
+      <c r="O57" s="269"/>
+      <c r="P57" s="269"/>
+      <c r="Q57" s="269"/>
+      <c r="R57" s="269"/>
+      <c r="S57" s="269"/>
+      <c r="T57" s="270"/>
       <c r="U57" s="133"/>
       <c r="V57" s="132"/>
       <c r="W57" s="132"/>
@@ -10542,18 +10292,18 @@
       <c r="F58" s="139"/>
       <c r="G58" s="139"/>
       <c r="H58" s="140"/>
-      <c r="I58" s="296"/>
-      <c r="J58" s="296"/>
-      <c r="K58" s="296"/>
-      <c r="L58" s="296"/>
-      <c r="M58" s="267"/>
-      <c r="N58" s="268"/>
-      <c r="O58" s="268"/>
-      <c r="P58" s="268"/>
-      <c r="Q58" s="268"/>
-      <c r="R58" s="268"/>
-      <c r="S58" s="268"/>
-      <c r="T58" s="269"/>
+      <c r="I58" s="295"/>
+      <c r="J58" s="295"/>
+      <c r="K58" s="295"/>
+      <c r="L58" s="295"/>
+      <c r="M58" s="268"/>
+      <c r="N58" s="269"/>
+      <c r="O58" s="269"/>
+      <c r="P58" s="269"/>
+      <c r="Q58" s="269"/>
+      <c r="R58" s="269"/>
+      <c r="S58" s="269"/>
+      <c r="T58" s="270"/>
       <c r="U58" s="133"/>
       <c r="V58" s="132"/>
       <c r="W58" s="132"/>
@@ -10576,18 +10326,18 @@
       <c r="F59" s="141"/>
       <c r="G59" s="141"/>
       <c r="H59" s="142"/>
-      <c r="I59" s="296"/>
-      <c r="J59" s="296"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="296"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="271"/>
-      <c r="O59" s="271"/>
-      <c r="P59" s="271"/>
-      <c r="Q59" s="271"/>
-      <c r="R59" s="271"/>
-      <c r="S59" s="271"/>
-      <c r="T59" s="272"/>
+      <c r="I59" s="295"/>
+      <c r="J59" s="295"/>
+      <c r="K59" s="295"/>
+      <c r="L59" s="295"/>
+      <c r="M59" s="271"/>
+      <c r="N59" s="272"/>
+      <c r="O59" s="272"/>
+      <c r="P59" s="272"/>
+      <c r="Q59" s="272"/>
+      <c r="R59" s="272"/>
+      <c r="S59" s="272"/>
+      <c r="T59" s="273"/>
       <c r="U59" s="133"/>
       <c r="V59" s="132"/>
       <c r="W59" s="132"/>
@@ -10673,28 +10423,28 @@
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
       <c r="E62" s="148"/>
-      <c r="F62" s="259" t="s">
+      <c r="F62" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="297"/>
-      <c r="L62" s="297"/>
-      <c r="M62" s="297"/>
-      <c r="N62" s="297"/>
-      <c r="O62" s="297"/>
-      <c r="P62" s="258"/>
-      <c r="Q62" s="258"/>
-      <c r="R62" s="258"/>
-      <c r="S62" s="258"/>
-      <c r="T62" s="258"/>
-      <c r="U62" s="258"/>
-      <c r="V62" s="258"/>
-      <c r="W62" s="258"/>
-      <c r="X62" s="258"/>
-      <c r="Y62" s="258"/>
+      <c r="G62" s="260"/>
+      <c r="H62" s="260"/>
+      <c r="I62" s="260"/>
+      <c r="J62" s="260"/>
+      <c r="K62" s="296"/>
+      <c r="L62" s="296"/>
+      <c r="M62" s="296"/>
+      <c r="N62" s="296"/>
+      <c r="O62" s="296"/>
+      <c r="P62" s="259"/>
+      <c r="Q62" s="259"/>
+      <c r="R62" s="259"/>
+      <c r="S62" s="259"/>
+      <c r="T62" s="259"/>
+      <c r="U62" s="259"/>
+      <c r="V62" s="259"/>
+      <c r="W62" s="259"/>
+      <c r="X62" s="259"/>
+      <c r="Y62" s="259"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10707,37 +10457,37 @@
         <v>26</v>
       </c>
       <c r="C63" s="150"/>
-      <c r="D63" s="294" t="s">
+      <c r="D63" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="295"/>
-      <c r="F63" s="259" t="s">
+      <c r="E63" s="294"/>
+      <c r="F63" s="260" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="259"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="259"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="297"/>
-      <c r="M63" s="297"/>
-      <c r="N63" s="297"/>
-      <c r="O63" s="297"/>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
-      <c r="Z63" s="306"/>
-      <c r="AA63" s="306"/>
-      <c r="AB63" s="306"/>
-      <c r="AC63" s="306"/>
-      <c r="AD63" s="306"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="260"/>
+      <c r="I63" s="260"/>
+      <c r="J63" s="260"/>
+      <c r="K63" s="296"/>
+      <c r="L63" s="296"/>
+      <c r="M63" s="296"/>
+      <c r="N63" s="296"/>
+      <c r="O63" s="296"/>
+      <c r="P63" s="296"/>
+      <c r="Q63" s="296"/>
+      <c r="R63" s="296"/>
+      <c r="S63" s="296"/>
+      <c r="T63" s="296"/>
+      <c r="U63" s="296"/>
+      <c r="V63" s="296"/>
+      <c r="W63" s="296"/>
+      <c r="X63" s="296"/>
+      <c r="Y63" s="296"/>
+      <c r="Z63" s="305"/>
+      <c r="AA63" s="305"/>
+      <c r="AB63" s="305"/>
+      <c r="AC63" s="305"/>
+      <c r="AD63" s="305"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="65"/>
@@ -10747,33 +10497,33 @@
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="148"/>
-      <c r="F64" s="259" t="s">
+      <c r="F64" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="297"/>
-      <c r="L64" s="297"/>
-      <c r="M64" s="297"/>
-      <c r="N64" s="297"/>
-      <c r="O64" s="297"/>
-      <c r="P64" s="297"/>
-      <c r="Q64" s="297"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="297"/>
-      <c r="V64" s="297"/>
-      <c r="W64" s="297"/>
-      <c r="X64" s="297"/>
-      <c r="Y64" s="297"/>
-      <c r="Z64" s="306"/>
-      <c r="AA64" s="306"/>
-      <c r="AB64" s="306"/>
-      <c r="AC64" s="306"/>
-      <c r="AD64" s="306"/>
+      <c r="G64" s="260"/>
+      <c r="H64" s="260"/>
+      <c r="I64" s="260"/>
+      <c r="J64" s="260"/>
+      <c r="K64" s="296"/>
+      <c r="L64" s="296"/>
+      <c r="M64" s="296"/>
+      <c r="N64" s="296"/>
+      <c r="O64" s="296"/>
+      <c r="P64" s="296"/>
+      <c r="Q64" s="296"/>
+      <c r="R64" s="296"/>
+      <c r="S64" s="296"/>
+      <c r="T64" s="296"/>
+      <c r="U64" s="296"/>
+      <c r="V64" s="296"/>
+      <c r="W64" s="296"/>
+      <c r="X64" s="296"/>
+      <c r="Y64" s="296"/>
+      <c r="Z64" s="305"/>
+      <c r="AA64" s="305"/>
+      <c r="AB64" s="305"/>
+      <c r="AC64" s="305"/>
+      <c r="AD64" s="305"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="65"/>
@@ -10783,33 +10533,33 @@
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
       <c r="E65" s="148"/>
-      <c r="F65" s="259" t="s">
+      <c r="F65" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="G65" s="259"/>
-      <c r="H65" s="259"/>
-      <c r="I65" s="259"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="308"/>
-      <c r="L65" s="308"/>
-      <c r="M65" s="308"/>
-      <c r="N65" s="308"/>
-      <c r="O65" s="308"/>
-      <c r="P65" s="308"/>
-      <c r="Q65" s="308"/>
-      <c r="R65" s="308"/>
-      <c r="S65" s="308"/>
-      <c r="T65" s="308"/>
-      <c r="U65" s="308"/>
-      <c r="V65" s="308"/>
-      <c r="W65" s="308"/>
-      <c r="X65" s="308"/>
-      <c r="Y65" s="308"/>
-      <c r="Z65" s="306"/>
-      <c r="AA65" s="306"/>
-      <c r="AB65" s="306"/>
-      <c r="AC65" s="306"/>
-      <c r="AD65" s="306"/>
+      <c r="G65" s="260"/>
+      <c r="H65" s="260"/>
+      <c r="I65" s="260"/>
+      <c r="J65" s="260"/>
+      <c r="K65" s="307"/>
+      <c r="L65" s="307"/>
+      <c r="M65" s="307"/>
+      <c r="N65" s="307"/>
+      <c r="O65" s="307"/>
+      <c r="P65" s="307"/>
+      <c r="Q65" s="307"/>
+      <c r="R65" s="307"/>
+      <c r="S65" s="307"/>
+      <c r="T65" s="307"/>
+      <c r="U65" s="307"/>
+      <c r="V65" s="307"/>
+      <c r="W65" s="307"/>
+      <c r="X65" s="307"/>
+      <c r="Y65" s="307"/>
+      <c r="Z65" s="305"/>
+      <c r="AA65" s="305"/>
+      <c r="AB65" s="305"/>
+      <c r="AC65" s="305"/>
+      <c r="AD65" s="305"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="65"/>
@@ -10819,69 +10569,69 @@
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
       <c r="E66" s="148"/>
-      <c r="F66" s="259" t="s">
+      <c r="F66" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="308"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="308"/>
-      <c r="O66" s="308"/>
-      <c r="P66" s="308"/>
-      <c r="Q66" s="308"/>
-      <c r="R66" s="308"/>
-      <c r="S66" s="308"/>
-      <c r="T66" s="308"/>
-      <c r="U66" s="308"/>
-      <c r="V66" s="308"/>
-      <c r="W66" s="308"/>
-      <c r="X66" s="308"/>
-      <c r="Y66" s="308"/>
-      <c r="Z66" s="307"/>
-      <c r="AA66" s="307"/>
-      <c r="AB66" s="307"/>
-      <c r="AC66" s="307"/>
-      <c r="AD66" s="307"/>
+      <c r="G66" s="260"/>
+      <c r="H66" s="260"/>
+      <c r="I66" s="260"/>
+      <c r="J66" s="260"/>
+      <c r="K66" s="307"/>
+      <c r="L66" s="307"/>
+      <c r="M66" s="307"/>
+      <c r="N66" s="307"/>
+      <c r="O66" s="307"/>
+      <c r="P66" s="307"/>
+      <c r="Q66" s="307"/>
+      <c r="R66" s="307"/>
+      <c r="S66" s="307"/>
+      <c r="T66" s="307"/>
+      <c r="U66" s="307"/>
+      <c r="V66" s="307"/>
+      <c r="W66" s="307"/>
+      <c r="X66" s="307"/>
+      <c r="Y66" s="307"/>
+      <c r="Z66" s="306"/>
+      <c r="AA66" s="306"/>
+      <c r="AB66" s="306"/>
+      <c r="AC66" s="306"/>
+      <c r="AD66" s="306"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="65"/>
-      <c r="B67" s="293" t="s">
+      <c r="B67" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="294"/>
-      <c r="D67" s="294"/>
-      <c r="E67" s="295"/>
-      <c r="F67" s="259" t="s">
+      <c r="C67" s="293"/>
+      <c r="D67" s="293"/>
+      <c r="E67" s="294"/>
+      <c r="F67" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="308"/>
-      <c r="L67" s="308"/>
-      <c r="M67" s="308"/>
-      <c r="N67" s="308"/>
-      <c r="O67" s="308"/>
-      <c r="P67" s="308"/>
-      <c r="Q67" s="308"/>
-      <c r="R67" s="308"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="308"/>
-      <c r="U67" s="308"/>
-      <c r="V67" s="308"/>
-      <c r="W67" s="308"/>
-      <c r="X67" s="308"/>
-      <c r="Y67" s="308"/>
-      <c r="Z67" s="307"/>
-      <c r="AA67" s="307"/>
-      <c r="AB67" s="307"/>
-      <c r="AC67" s="307"/>
-      <c r="AD67" s="307"/>
+      <c r="G67" s="260"/>
+      <c r="H67" s="260"/>
+      <c r="I67" s="260"/>
+      <c r="J67" s="260"/>
+      <c r="K67" s="307"/>
+      <c r="L67" s="307"/>
+      <c r="M67" s="307"/>
+      <c r="N67" s="307"/>
+      <c r="O67" s="307"/>
+      <c r="P67" s="307"/>
+      <c r="Q67" s="307"/>
+      <c r="R67" s="307"/>
+      <c r="S67" s="307"/>
+      <c r="T67" s="307"/>
+      <c r="U67" s="307"/>
+      <c r="V67" s="307"/>
+      <c r="W67" s="307"/>
+      <c r="X67" s="307"/>
+      <c r="Y67" s="307"/>
+      <c r="Z67" s="306"/>
+      <c r="AA67" s="306"/>
+      <c r="AB67" s="306"/>
+      <c r="AC67" s="306"/>
+      <c r="AD67" s="306"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="65"/>
@@ -10891,28 +10641,28 @@
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
       <c r="E68" s="148"/>
-      <c r="F68" s="259" t="s">
+      <c r="F68" s="260" t="s">
         <v>247</v>
       </c>
-      <c r="G68" s="259"/>
-      <c r="H68" s="259"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="292"/>
-      <c r="P68" s="292"/>
-      <c r="Q68" s="292"/>
-      <c r="R68" s="292"/>
-      <c r="S68" s="292"/>
-      <c r="T68" s="292"/>
-      <c r="U68" s="292"/>
-      <c r="V68" s="292"/>
-      <c r="W68" s="292"/>
-      <c r="X68" s="292"/>
-      <c r="Y68" s="292"/>
+      <c r="G68" s="260"/>
+      <c r="H68" s="260"/>
+      <c r="I68" s="260"/>
+      <c r="J68" s="260"/>
+      <c r="K68" s="291"/>
+      <c r="L68" s="291"/>
+      <c r="M68" s="291"/>
+      <c r="N68" s="291"/>
+      <c r="O68" s="291"/>
+      <c r="P68" s="291"/>
+      <c r="Q68" s="291"/>
+      <c r="R68" s="291"/>
+      <c r="S68" s="291"/>
+      <c r="T68" s="291"/>
+      <c r="U68" s="291"/>
+      <c r="V68" s="291"/>
+      <c r="W68" s="291"/>
+      <c r="X68" s="291"/>
+      <c r="Y68" s="291"/>
       <c r="Z68" s="151"/>
       <c r="AA68" s="152"/>
       <c r="AB68" s="151"/>
@@ -10927,33 +10677,33 @@
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
       <c r="E69" s="148"/>
-      <c r="F69" s="259" t="s">
+      <c r="F69" s="260" t="s">
         <v>248</v>
       </c>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="259"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="309"/>
-      <c r="P69" s="309"/>
-      <c r="Q69" s="309"/>
-      <c r="R69" s="309"/>
-      <c r="S69" s="309"/>
-      <c r="T69" s="309"/>
-      <c r="U69" s="309"/>
-      <c r="V69" s="309"/>
-      <c r="W69" s="309"/>
-      <c r="X69" s="309"/>
-      <c r="Y69" s="309"/>
-      <c r="Z69" s="306"/>
-      <c r="AA69" s="306"/>
-      <c r="AB69" s="306"/>
-      <c r="AC69" s="306"/>
-      <c r="AD69" s="306"/>
+      <c r="G69" s="260"/>
+      <c r="H69" s="260"/>
+      <c r="I69" s="260"/>
+      <c r="J69" s="260"/>
+      <c r="K69" s="308"/>
+      <c r="L69" s="308"/>
+      <c r="M69" s="308"/>
+      <c r="N69" s="308"/>
+      <c r="O69" s="308"/>
+      <c r="P69" s="308"/>
+      <c r="Q69" s="308"/>
+      <c r="R69" s="308"/>
+      <c r="S69" s="308"/>
+      <c r="T69" s="308"/>
+      <c r="U69" s="308"/>
+      <c r="V69" s="308"/>
+      <c r="W69" s="308"/>
+      <c r="X69" s="308"/>
+      <c r="Y69" s="308"/>
+      <c r="Z69" s="305"/>
+      <c r="AA69" s="305"/>
+      <c r="AB69" s="305"/>
+      <c r="AC69" s="305"/>
+      <c r="AD69" s="305"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="65"/>
@@ -10963,27 +10713,27 @@
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="148"/>
-      <c r="F70" s="313" t="s">
+      <c r="F70" s="312" t="s">
         <v>249</v>
       </c>
-      <c r="G70" s="314"/>
-      <c r="H70" s="314"/>
-      <c r="I70" s="314"/>
-      <c r="J70" s="315"/>
+      <c r="G70" s="313"/>
+      <c r="H70" s="313"/>
+      <c r="I70" s="313"/>
+      <c r="J70" s="314"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="297"/>
-      <c r="M70" s="297"/>
-      <c r="N70" s="297"/>
+      <c r="L70" s="296"/>
+      <c r="M70" s="296"/>
+      <c r="N70" s="296"/>
       <c r="O70" s="110"/>
       <c r="P70" s="110"/>
-      <c r="Q70" s="297"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="297"/>
+      <c r="Q70" s="296"/>
+      <c r="R70" s="296"/>
+      <c r="S70" s="296"/>
       <c r="T70" s="110"/>
       <c r="U70" s="110"/>
-      <c r="V70" s="297"/>
-      <c r="W70" s="297"/>
-      <c r="X70" s="297"/>
+      <c r="V70" s="296"/>
+      <c r="W70" s="296"/>
+      <c r="X70" s="296"/>
       <c r="Y70" s="110"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -11029,10 +10779,10 @@
       <c r="N72" s="156"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="311"/>
-      <c r="K73" s="312"/>
-      <c r="L73" s="312"/>
-      <c r="M73" s="312"/>
+      <c r="J73" s="310"/>
+      <c r="K73" s="311"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="311"/>
       <c r="W73" s="157"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -11090,6 +10840,7 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="P10:W10"/>
     <mergeCell ref="AF20:AF21"/>
     <mergeCell ref="AJ33:AL33"/>
     <mergeCell ref="AM33:AN33"/>
@@ -11250,7 +11001,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P10:W10"/>
     <mergeCell ref="P11:V11"/>
     <mergeCell ref="X10:AA10"/>
     <mergeCell ref="I52:L52"/>
@@ -37698,21 +37448,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -37890,7 +37625,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -37906,28 +37674,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\loading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreemanikandan.k\IdeaProjects\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="4392" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="4395" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="\Z">#REF!</definedName>
     <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD - 021 pg3'!$A$1:$AM$87</definedName>
     <definedName name="SSSN_2NDOF">#REF!</definedName>
     <definedName name="SSSN_3RDOF">#REF!</definedName>
@@ -117,6 +117,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sanal Kumar</author>
+    <author>Sreemanikandan K K</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -130,7 +131,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="AZ72")</t>
+jx:area(lastCell="AZ82")</t>
         </r>
       </text>
     </comment>
@@ -283,6 +284,49 @@
           </rPr>
           <t>Author:
 jx:each(items="sheetOne.cargoTobeLoaded" var="cargoTobeLoadedDetails"  direction ="RIGHT" lastCell="J70")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A71" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:if(condition="sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="F71", areas=["A71:F71"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A72" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:if(condition="!sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="K81", areas=["A72:K81"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetOne.loadingPlanCommingleDetailsList" var="loadingPlanCommingleDetails"  direction ="RIGHT" lastCell="K80")</t>
         </r>
       </text>
     </comment>
@@ -2357,7 +2401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="643">
   <si>
     <t>TRIM</t>
   </si>
@@ -2510,9 +2554,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Difference +/- %</t>
-  </si>
-  <si>
-    <t>Time required for Loading (Hrs)</t>
   </si>
   <si>
     <t>Restricting Load Line Zone for the Voyage:</t>
@@ -4237,6 +4278,72 @@
   <si>
     <t>${bm.frameNumber}/
 ${bm.percentage}%</t>
+  </si>
+  <si>
+    <t>LOADING PLAN COMMINGLE DETAILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Time required for Loading (Hrs)</t>
+  </si>
+  <si>
+    <t>Cargo code</t>
+  </si>
+  <si>
+    <t>Cargo percentage</t>
+  </si>
+  <si>
+    <t>Cargo quantity</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.abbreviation}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.api}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.tankName}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantityMT}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.temperature}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo1Abbreviation}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo1Percentage}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantity1MT}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo2Abbreviation}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo2Percentage}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantity2MT}</t>
+  </si>
+  <si>
+    <t>Composition Breakdown</t>
   </si>
 </sst>
 </file>
@@ -4258,7 +4365,7 @@
     <numFmt numFmtId="175" formatCode="0.0\ &quot;hrs&quot;"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4645,6 +4752,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5030,7 +5144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5620,6 +5734,53 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5688,10 +5849,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5810,15 +5967,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -5875,24 +6023,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -7041,7 +7171,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>610407</xdr:colOff>
+      <xdr:colOff>531966</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>841697</xdr:rowOff>
     </xdr:to>
@@ -7751,44 +7881,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS75"/>
+  <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="45" customWidth="1"/>
     <col min="13" max="13" width="4" style="45" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="45" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="45" customWidth="1"/>
     <col min="18" max="18" width="10" style="45" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="45" customWidth="1"/>
-    <col min="20" max="20" width="2.109375" style="45" customWidth="1"/>
-    <col min="21" max="21" width="4.109375" style="45" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" style="45" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" style="45" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" style="45" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="45" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="45" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="45" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="45" customWidth="1"/>
     <col min="26" max="26" width="4" style="45" customWidth="1"/>
     <col min="27" max="27" width="6" style="45" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" style="45" customWidth="1"/>
-    <col min="29" max="29" width="1.88671875" style="45" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" style="45" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="45" customWidth="1"/>
     <col min="30" max="30" width="4" style="45" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="45" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="45"/>
+    <col min="31" max="31" width="4.7109375" style="45" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="72" customHeight="1">
@@ -7809,12 +7941,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="334" t="s">
-        <v>582</v>
-      </c>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
+      <c r="L3" s="340" t="s">
+        <v>581</v>
+      </c>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="340"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7834,13 +7966,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="336" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="336"/>
-      <c r="H4" s="336"/>
+      <c r="D4" s="342" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="342"/>
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="342"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7867,13 +7999,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="261" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
+      <c r="D5" s="275" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7891,13 +8023,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="325" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="325"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
+      <c r="V5" s="331" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="331"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7927,39 +8059,39 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="326" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="326"/>
-      <c r="X6" s="326"/>
-      <c r="Y6" s="326"/>
-      <c r="Z6" s="326"/>
+      <c r="V6" s="332" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="332"/>
+      <c r="X6" s="332"/>
+      <c r="Y6" s="332"/>
+      <c r="Z6" s="332"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1">
       <c r="A7" s="57"/>
       <c r="B7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="343" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="344" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="337" t="s">
+      <c r="I7" s="344"/>
+      <c r="J7" s="343" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="338" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="338"/>
-      <c r="J7" s="337" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="337"/>
-      <c r="L7" s="337"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
+      <c r="K7" s="343"/>
+      <c r="L7" s="343"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="343"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7971,13 +8103,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="326" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="326"/>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
+      <c r="V7" s="332" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="332"/>
+      <c r="X7" s="332"/>
+      <c r="Y7" s="332"/>
+      <c r="Z7" s="332"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -8057,22 +8189,22 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="333" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="333"/>
-      <c r="R10" s="333"/>
-      <c r="S10" s="333"/>
-      <c r="T10" s="333"/>
-      <c r="U10" s="333"/>
-      <c r="V10" s="333"/>
-      <c r="W10" s="333"/>
-      <c r="X10" s="243" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y10" s="243"/>
-      <c r="Z10" s="243"/>
-      <c r="AA10" s="243"/>
+      <c r="P10" s="339" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="339"/>
+      <c r="S10" s="339"/>
+      <c r="T10" s="339"/>
+      <c r="U10" s="339"/>
+      <c r="V10" s="339"/>
+      <c r="W10" s="339"/>
+      <c r="X10" s="258" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="258"/>
+      <c r="Z10" s="258"/>
+      <c r="AA10" s="258"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8095,21 +8227,21 @@
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
       <c r="O11" s="64"/>
-      <c r="P11" s="242" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="242"/>
-      <c r="R11" s="242"/>
-      <c r="S11" s="242"/>
-      <c r="T11" s="242"/>
-      <c r="U11" s="242"/>
-      <c r="V11" s="242"/>
-      <c r="W11" s="329" t="s">
-        <v>580</v>
-      </c>
-      <c r="X11" s="329"/>
-      <c r="Y11" s="329"/>
-      <c r="Z11" s="329"/>
+      <c r="P11" s="257" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="335" t="s">
+        <v>579</v>
+      </c>
+      <c r="X11" s="335"/>
+      <c r="Y11" s="335"/>
+      <c r="Z11" s="335"/>
       <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
@@ -8128,19 +8260,19 @@
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="328" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="328"/>
-      <c r="R12" s="328"/>
-      <c r="S12" s="328"/>
-      <c r="T12" s="328"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
+      <c r="P12" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="334"/>
+      <c r="R12" s="334"/>
+      <c r="S12" s="334"/>
+      <c r="T12" s="334"/>
+      <c r="U12" s="334"/>
+      <c r="V12" s="334"/>
+      <c r="W12" s="334"/>
+      <c r="X12" s="334"/>
+      <c r="Y12" s="334"/>
+      <c r="Z12" s="334"/>
     </row>
     <row r="13" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="66"/>
@@ -8191,40 +8323,40 @@
       <c r="A15" s="66"/>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" s="74"/>
       <c r="G15" s="219" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="269"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="75" t="s">
         <v>262</v>
-      </c>
-      <c r="H15" s="254"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="75" t="s">
-        <v>263</v>
       </c>
       <c r="K15" s="76"/>
       <c r="L15" s="219" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="269"/>
+      <c r="N15" s="270"/>
+      <c r="O15" s="75" t="s">
         <v>264</v>
-      </c>
-      <c r="M15" s="254"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="75" t="s">
-        <v>265</v>
       </c>
       <c r="P15" s="76"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="67"/>
       <c r="S15" s="67"/>
-      <c r="T15" s="323" t="s">
+      <c r="T15" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="323"/>
-      <c r="V15" s="323"/>
-      <c r="W15" s="323"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="329"/>
+      <c r="W15" s="329"/>
       <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="70"/>
@@ -8232,92 +8364,92 @@
     <row r="16" spans="1:32" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="247" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="247" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="247" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="247" t="s">
-        <v>193</v>
-      </c>
-      <c r="M16" s="248"/>
-      <c r="N16" s="249"/>
-      <c r="O16" s="247" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="249"/>
+      <c r="C16" s="262" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="263"/>
+      <c r="E16" s="262" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="264"/>
+      <c r="G16" s="262" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="263"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="264"/>
+      <c r="L16" s="262" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="263"/>
+      <c r="N16" s="264"/>
+      <c r="O16" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="264"/>
       <c r="Q16" s="81"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="330" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="330"/>
-      <c r="V16" s="330"/>
-      <c r="W16" s="330"/>
+      <c r="T16" s="336" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="336"/>
+      <c r="V16" s="336"/>
+      <c r="W16" s="336"/>
       <c r="X16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="318" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z16" s="318"/>
+      <c r="Y16" s="324" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="324"/>
       <c r="AF16" s="100"/>
     </row>
     <row r="17" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="80"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="216" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="282" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="283"/>
+        <v>277</v>
+      </c>
+      <c r="H17" s="296" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="297"/>
       <c r="J17" s="82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L17" s="216" t="s">
-        <v>284</v>
-      </c>
-      <c r="M17" s="282" t="s">
-        <v>194</v>
-      </c>
-      <c r="N17" s="283"/>
+        <v>283</v>
+      </c>
+      <c r="M17" s="296" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" s="297"/>
       <c r="O17" s="82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P17" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="236" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S17" s="67"/>
       <c r="T17" s="80"/>
@@ -8338,40 +8470,40 @@
     <row r="18" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="245" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="276"/>
-      <c r="E18" s="245" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="246"/>
-      <c r="G18" s="245" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="276"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="276" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="276"/>
-      <c r="L18" s="274" t="s">
-        <v>195</v>
-      </c>
-      <c r="M18" s="300"/>
-      <c r="N18" s="275"/>
-      <c r="O18" s="276" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" s="276"/>
-      <c r="Q18" s="299" t="s">
-        <v>557</v>
+      <c r="C18" s="260" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="290"/>
+      <c r="E18" s="260" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="261"/>
+      <c r="G18" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="290"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="290" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="290"/>
+      <c r="L18" s="288" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" s="311"/>
+      <c r="N18" s="289"/>
+      <c r="O18" s="290" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="310" t="s">
+        <v>556</v>
       </c>
       <c r="S18" s="67"/>
-      <c r="T18" s="327"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="327"/>
-      <c r="W18" s="327"/>
+      <c r="T18" s="333"/>
+      <c r="U18" s="333"/>
+      <c r="V18" s="333"/>
+      <c r="W18" s="333"/>
       <c r="X18" s="78"/>
       <c r="Y18" s="86"/>
       <c r="Z18" s="70"/>
@@ -8383,52 +8515,52 @@
     <row r="19" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="80"/>
       <c r="B19" s="236" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C19" s="220" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="221" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" s="220" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="221" t="s">
-        <v>113</v>
-      </c>
       <c r="G19" s="222" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="265" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="250" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="251"/>
+      <c r="I19" s="266"/>
       <c r="J19" s="220" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="K19" s="221" t="s">
-        <v>169</v>
-      </c>
       <c r="L19" s="220" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="265" t="s">
         <v>196</v>
       </c>
-      <c r="M19" s="250" t="s">
-        <v>197</v>
-      </c>
-      <c r="N19" s="251"/>
+      <c r="N19" s="266"/>
       <c r="O19" s="223" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="221" t="s">
         <v>224</v>
       </c>
-      <c r="P19" s="221" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="299"/>
+      <c r="Q19" s="310"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="327"/>
-      <c r="U19" s="327"/>
-      <c r="V19" s="327"/>
-      <c r="W19" s="327"/>
+      <c r="T19" s="333"/>
+      <c r="U19" s="333"/>
+      <c r="V19" s="333"/>
+      <c r="W19" s="333"/>
       <c r="X19" s="78"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="70"/>
@@ -8439,93 +8571,93 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="239" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="335" t="s">
-        <v>80</v>
+      <c r="B20" s="341" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="331" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="303"/>
-      <c r="F20" s="332"/>
+        <v>272</v>
+      </c>
+      <c r="D20" s="337" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="314"/>
+      <c r="F20" s="338"/>
       <c r="G20" s="217" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="285"/>
+        <v>276</v>
+      </c>
+      <c r="H20" s="298" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="299"/>
       <c r="J20" s="88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K20" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L20" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="M20" s="301" t="s">
-        <v>170</v>
-      </c>
-      <c r="N20" s="302"/>
+        <v>281</v>
+      </c>
+      <c r="M20" s="312" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="313"/>
       <c r="O20" s="91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P20" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="229"/>
       <c r="S20" s="67"/>
-      <c r="T20" s="327"/>
-      <c r="U20" s="327"/>
-      <c r="V20" s="327"/>
-      <c r="W20" s="327"/>
+      <c r="T20" s="333"/>
+      <c r="U20" s="333"/>
+      <c r="V20" s="333"/>
+      <c r="W20" s="333"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="86"/>
       <c r="Z20" s="70"/>
       <c r="AA20" s="80"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="322" t="s">
-        <v>562</v>
+      <c r="AF20" s="328" t="s">
+        <v>561</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="335"/>
-      <c r="C21" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="276"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="245" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="276"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="274" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="275"/>
-      <c r="L21" s="274" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" s="300"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="274" t="s">
-        <v>199</v>
-      </c>
-      <c r="P21" s="275"/>
+      <c r="B21" s="341"/>
+      <c r="C21" s="260" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="260" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="290"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="288" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="289"/>
+      <c r="L21" s="288" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" s="311"/>
+      <c r="N21" s="289"/>
+      <c r="O21" s="288" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="289"/>
       <c r="Q21" s="230"/>
       <c r="S21" s="67"/>
       <c r="T21" s="67"/>
@@ -8538,45 +8670,45 @@
       <c r="AA21" s="80"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="322"/>
+      <c r="AF21" s="328"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="80"/>
       <c r="B22" s="81"/>
       <c r="C22" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="280" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="281"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="295"/>
       <c r="G22" s="225" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="294" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="280" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="281"/>
+      <c r="I22" s="295"/>
       <c r="J22" s="226" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="227" t="s">
-        <v>145</v>
-      </c>
       <c r="L22" s="226" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" s="294" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="280" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" s="281"/>
+      <c r="N22" s="295"/>
       <c r="O22" s="228" t="s">
+        <v>199</v>
+      </c>
+      <c r="P22" s="227" t="s">
         <v>200</v>
-      </c>
-      <c r="P22" s="227" t="s">
-        <v>201</v>
       </c>
       <c r="Q22" s="94"/>
       <c r="S22" s="67"/>
@@ -8596,45 +8728,45 @@
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="217" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="284" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="285"/>
+        <v>279</v>
+      </c>
+      <c r="H23" s="298" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="299"/>
       <c r="J23" s="88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K23" s="85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L23" s="217" t="s">
-        <v>286</v>
-      </c>
-      <c r="M23" s="284" t="s">
-        <v>202</v>
-      </c>
-      <c r="N23" s="285"/>
+        <v>285</v>
+      </c>
+      <c r="M23" s="298" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="299"/>
       <c r="O23" s="88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P23" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="236" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S23" s="67"/>
       <c r="T23" s="69" t="s">
@@ -8656,45 +8788,45 @@
     <row r="24" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
-      <c r="C24" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="276"/>
-      <c r="E24" s="245" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="276"/>
-      <c r="G24" s="277" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="278"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="245" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="276"/>
-      <c r="L24" s="277" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="278"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="245" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" s="276"/>
-      <c r="Q24" s="299" t="s">
-        <v>555</v>
+      <c r="C24" s="260" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="290"/>
+      <c r="E24" s="260" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="290"/>
+      <c r="G24" s="291" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="292"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="260" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="290"/>
+      <c r="L24" s="291" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="292"/>
+      <c r="N24" s="293"/>
+      <c r="O24" s="260" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24" s="290"/>
+      <c r="Q24" s="310" t="s">
+        <v>554</v>
       </c>
       <c r="S24" s="67"/>
-      <c r="T24" s="309" t="s">
-        <v>250</v>
-      </c>
-      <c r="U24" s="309"/>
-      <c r="V24" s="309"/>
-      <c r="W24" s="309"/>
+      <c r="T24" s="320" t="s">
+        <v>249</v>
+      </c>
+      <c r="U24" s="320"/>
+      <c r="V24" s="320"/>
+      <c r="W24" s="320"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z24" s="70"/>
       <c r="AD24"/>
@@ -8708,44 +8840,44 @@
       <c r="A25" s="80"/>
       <c r="B25" s="81"/>
       <c r="C25" s="220" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="221" t="s">
-        <v>93</v>
-      </c>
       <c r="E25" s="220" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="221" t="s">
-        <v>121</v>
-      </c>
       <c r="G25" s="222" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="252" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="253"/>
+      <c r="I25" s="268"/>
       <c r="J25" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="221" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="221" t="s">
-        <v>177</v>
-      </c>
       <c r="L25" s="220" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="297" t="s">
-        <v>205</v>
-      </c>
-      <c r="N25" s="298"/>
+      <c r="N25" s="309"/>
       <c r="O25" s="220" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="P25" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q25" s="299"/>
+      <c r="Q25" s="310"/>
       <c r="S25" s="67"/>
       <c r="T25" s="67"/>
       <c r="U25" s="67"/>
@@ -8765,44 +8897,44 @@
       <c r="A26" s="66"/>
       <c r="B26" s="81"/>
       <c r="C26" s="96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="97"/>
       <c r="E26" s="96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="98"/>
       <c r="G26" s="218" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="272"/>
+      <c r="I26" s="273"/>
+      <c r="J26" s="96" t="s">
         <v>268</v>
-      </c>
-      <c r="H26" s="257"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="96" t="s">
-        <v>269</v>
       </c>
       <c r="K26" s="99"/>
       <c r="L26" s="218" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" s="272"/>
+      <c r="N26" s="273"/>
+      <c r="O26" s="72" t="s">
         <v>270</v>
-      </c>
-      <c r="M26" s="257"/>
-      <c r="N26" s="258"/>
-      <c r="O26" s="72" t="s">
-        <v>271</v>
       </c>
       <c r="P26" s="99"/>
       <c r="Q26" s="81"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="289" t="s">
+      <c r="T26" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="289"/>
-      <c r="V26" s="289"/>
+      <c r="U26" s="303"/>
+      <c r="V26" s="303"/>
       <c r="W26" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X26" s="78"/>
       <c r="Y26" s="95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z26" s="67"/>
       <c r="AD26"/>
@@ -8815,46 +8947,46 @@
     <row r="27" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="80"/>
       <c r="B27" s="71"/>
-      <c r="C27" s="247" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="247" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="248"/>
-      <c r="G27" s="247" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="248"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="247" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="248"/>
-      <c r="L27" s="247" t="s">
-        <v>206</v>
-      </c>
-      <c r="M27" s="248"/>
-      <c r="N27" s="249"/>
-      <c r="O27" s="247" t="s">
-        <v>230</v>
-      </c>
-      <c r="P27" s="249"/>
+      <c r="C27" s="262" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="263"/>
+      <c r="E27" s="262" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="263"/>
+      <c r="G27" s="262" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="263"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="263"/>
+      <c r="L27" s="262" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" s="263"/>
+      <c r="N27" s="264"/>
+      <c r="O27" s="262" t="s">
+        <v>229</v>
+      </c>
+      <c r="P27" s="264"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="67"/>
       <c r="S27" s="69"/>
-      <c r="T27" s="289" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="289"/>
-      <c r="V27" s="289"/>
+      <c r="T27" s="303" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" s="303"/>
+      <c r="V27" s="303"/>
       <c r="W27" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X27" s="78"/>
       <c r="Y27" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z27" s="69"/>
       <c r="AD27"/>
@@ -8884,17 +9016,17 @@
       <c r="Q28" s="100"/>
       <c r="R28" s="67"/>
       <c r="S28" s="69"/>
-      <c r="T28" s="309" t="s">
+      <c r="T28" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="309"/>
-      <c r="V28" s="309"/>
+      <c r="U28" s="320"/>
+      <c r="V28" s="320"/>
       <c r="W28" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X28" s="69"/>
       <c r="Y28" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z28" s="69"/>
       <c r="AD28"/>
@@ -9007,12 +9139,12 @@
       <c r="Q31" s="63"/>
       <c r="R31" s="103"/>
       <c r="S31" s="107"/>
-      <c r="T31" s="323" t="s">
+      <c r="T31" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="323"/>
-      <c r="V31" s="323"/>
-      <c r="W31" s="323"/>
+      <c r="U31" s="329"/>
+      <c r="V31" s="329"/>
+      <c r="W31" s="329"/>
       <c r="X31" s="105"/>
       <c r="Y31" s="106"/>
       <c r="Z31" s="70"/>
@@ -9023,7 +9155,7 @@
       <c r="AH31"/>
       <c r="AI31"/>
     </row>
-    <row r="32" spans="1:45" ht="13.8">
+    <row r="32" spans="1:45" ht="12.75">
       <c r="A32" s="56"/>
       <c r="B32" s="108"/>
       <c r="C32" s="108"/>
@@ -9043,32 +9175,32 @@
       <c r="Q32" s="108"/>
       <c r="R32" s="108"/>
       <c r="S32" s="108"/>
-      <c r="T32" s="324" t="s">
-        <v>77</v>
-      </c>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
+      <c r="T32" s="330" t="s">
+        <v>76</v>
+      </c>
+      <c r="U32" s="330"/>
+      <c r="V32" s="330"/>
+      <c r="W32" s="330"/>
       <c r="X32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="318" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z32" s="318"/>
+      <c r="Y32" s="324" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z32" s="324"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="316"/>
-      <c r="AK32" s="316"/>
+      <c r="AJ32" s="322"/>
+      <c r="AK32" s="322"/>
       <c r="AL32" s="111"/>
       <c r="AM32" s="111"/>
       <c r="AN32" s="111"/>
-      <c r="AO32" s="316"/>
-      <c r="AP32" s="316"/>
+      <c r="AO32" s="322"/>
+      <c r="AP32" s="322"/>
       <c r="AQ32" s="111"/>
       <c r="AR32" s="111"/>
       <c r="AS32" s="111"/>
@@ -9077,29 +9209,29 @@
       <c r="A33" s="66"/>
       <c r="B33" s="71"/>
       <c r="C33" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="73"/>
       <c r="E33" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="219" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" s="269"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="213" t="s">
         <v>291</v>
-      </c>
-      <c r="H33" s="254"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="213" t="s">
-        <v>292</v>
       </c>
       <c r="K33" s="76"/>
       <c r="L33" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" s="269"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="213" t="s">
         <v>293</v>
-      </c>
-      <c r="M33" s="254"/>
-      <c r="N33" s="255"/>
-      <c r="O33" s="213" t="s">
-        <v>294</v>
       </c>
       <c r="P33" s="76"/>
       <c r="Q33" s="77"/>
@@ -9119,46 +9251,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="315"/>
-      <c r="AK33" s="315"/>
-      <c r="AL33" s="315"/>
-      <c r="AM33" s="315"/>
-      <c r="AN33" s="315"/>
-      <c r="AO33" s="315"/>
-      <c r="AP33" s="315"/>
-      <c r="AQ33" s="315"/>
-      <c r="AR33" s="315"/>
-      <c r="AS33" s="315"/>
+      <c r="AJ33" s="321"/>
+      <c r="AK33" s="321"/>
+      <c r="AL33" s="321"/>
+      <c r="AM33" s="321"/>
+      <c r="AN33" s="321"/>
+      <c r="AO33" s="321"/>
+      <c r="AP33" s="321"/>
+      <c r="AQ33" s="321"/>
+      <c r="AR33" s="321"/>
+      <c r="AS33" s="321"/>
     </row>
     <row r="34" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="114"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="247" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="249"/>
-      <c r="E34" s="247" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="249"/>
-      <c r="G34" s="247" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="248"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="247" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" s="249"/>
-      <c r="L34" s="247" t="s">
-        <v>207</v>
-      </c>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="247" t="s">
-        <v>231</v>
-      </c>
-      <c r="P34" s="249"/>
+      <c r="C34" s="262" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="264"/>
+      <c r="E34" s="262" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="264"/>
+      <c r="G34" s="262" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="263"/>
+      <c r="I34" s="264"/>
+      <c r="J34" s="262" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="264"/>
+      <c r="L34" s="262" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" s="263"/>
+      <c r="N34" s="264"/>
+      <c r="O34" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="264"/>
       <c r="Q34" s="81"/>
       <c r="S34" s="112"/>
       <c r="T34" s="113"/>
@@ -9176,13 +9308,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="319"/>
-      <c r="AK34" s="319"/>
+      <c r="AJ34" s="325"/>
+      <c r="AK34" s="325"/>
       <c r="AL34" s="116"/>
       <c r="AM34" s="115"/>
       <c r="AN34" s="116"/>
-      <c r="AO34" s="319"/>
-      <c r="AP34" s="319"/>
+      <c r="AO34" s="325"/>
+      <c r="AP34" s="325"/>
       <c r="AQ34" s="116"/>
       <c r="AR34" s="115"/>
       <c r="AS34" s="116"/>
@@ -9191,45 +9323,45 @@
       <c r="A35" s="114"/>
       <c r="B35" s="81"/>
       <c r="C35" s="216" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="216" t="s">
+      <c r="F35" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="216" t="s">
         <v>296</v>
       </c>
-      <c r="F35" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="216" t="s">
+      <c r="H35" s="296" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="216" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="282" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="283"/>
-      <c r="J35" s="216" t="s">
+      <c r="K35" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="216" t="s">
         <v>298</v>
       </c>
-      <c r="K35" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="L35" s="216" t="s">
+      <c r="M35" s="296" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" s="297"/>
+      <c r="O35" s="216" t="s">
         <v>299</v>
       </c>
-      <c r="M35" s="282" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="283"/>
-      <c r="O35" s="216" t="s">
-        <v>300</v>
-      </c>
       <c r="P35" s="85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="240" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S35" s="112"/>
       <c r="T35" s="113"/>
@@ -9250,48 +9382,48 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="315"/>
-      <c r="AK35" s="315"/>
-      <c r="AL35" s="315"/>
-      <c r="AM35" s="315"/>
-      <c r="AN35" s="315"/>
-      <c r="AO35" s="278"/>
-      <c r="AP35" s="278"/>
-      <c r="AQ35" s="278"/>
-      <c r="AR35" s="320"/>
-      <c r="AS35" s="320"/>
+      <c r="AJ35" s="321"/>
+      <c r="AK35" s="321"/>
+      <c r="AL35" s="321"/>
+      <c r="AM35" s="321"/>
+      <c r="AN35" s="321"/>
+      <c r="AO35" s="292"/>
+      <c r="AP35" s="292"/>
+      <c r="AQ35" s="292"/>
+      <c r="AR35" s="326"/>
+      <c r="AS35" s="326"/>
     </row>
     <row r="36" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="114"/>
       <c r="B36" s="81"/>
-      <c r="C36" s="245" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="246"/>
-      <c r="E36" s="245" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="246"/>
-      <c r="G36" s="245" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="276"/>
-      <c r="I36" s="246"/>
-      <c r="J36" s="245" t="s">
-        <v>181</v>
-      </c>
-      <c r="K36" s="246"/>
-      <c r="L36" s="274" t="s">
-        <v>209</v>
-      </c>
-      <c r="M36" s="300"/>
-      <c r="N36" s="275"/>
-      <c r="O36" s="245" t="s">
-        <v>233</v>
-      </c>
-      <c r="P36" s="246"/>
-      <c r="Q36" s="299" t="s">
-        <v>558</v>
+      <c r="C36" s="260" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="261"/>
+      <c r="E36" s="260" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="261"/>
+      <c r="G36" s="260" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="290"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="260" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" s="261"/>
+      <c r="L36" s="288" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" s="311"/>
+      <c r="N36" s="289"/>
+      <c r="O36" s="260" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="310" t="s">
+        <v>557</v>
       </c>
       <c r="S36" s="112"/>
       <c r="T36" s="113"/>
@@ -9323,47 +9455,47 @@
     <row r="37" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="114"/>
       <c r="B37" s="238" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C37" s="220" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="221" t="s">
-        <v>99</v>
-      </c>
       <c r="E37" s="220" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="221" t="s">
-        <v>127</v>
-      </c>
       <c r="G37" s="220" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="250" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" s="251"/>
+      <c r="I37" s="266"/>
       <c r="J37" s="220" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="221" t="s">
         <v>182</v>
       </c>
-      <c r="K37" s="221" t="s">
-        <v>183</v>
-      </c>
       <c r="L37" s="220" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="265" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="250" t="s">
-        <v>211</v>
-      </c>
-      <c r="N37" s="251"/>
+      <c r="N37" s="266"/>
       <c r="O37" s="223" t="s">
+        <v>233</v>
+      </c>
+      <c r="P37" s="221" t="s">
         <v>234</v>
       </c>
-      <c r="P37" s="221" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q37" s="299"/>
+      <c r="Q37" s="310"/>
       <c r="S37" s="122"/>
       <c r="T37" s="113"/>
       <c r="U37" s="113"/>
@@ -9377,60 +9509,60 @@
         <v>34</v>
       </c>
       <c r="AF37" s="239" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG37" s="233"/>
       <c r="AH37" s="233"/>
       <c r="AI37" s="233"/>
-      <c r="AJ37" s="317"/>
-      <c r="AK37" s="317"/>
+      <c r="AJ37" s="323"/>
+      <c r="AK37" s="323"/>
       <c r="AL37" s="116"/>
       <c r="AM37" s="93"/>
       <c r="AN37" s="117"/>
       <c r="AO37" s="93"/>
-      <c r="AP37" s="321"/>
-      <c r="AQ37" s="321"/>
+      <c r="AP37" s="327"/>
+      <c r="AQ37" s="327"/>
       <c r="AR37" s="93"/>
       <c r="AS37" s="116"/>
     </row>
     <row r="38" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="114"/>
-      <c r="B38" s="335" t="s">
-        <v>240</v>
+      <c r="B38" s="341" t="s">
+        <v>239</v>
       </c>
       <c r="C38" s="214" t="s">
+        <v>300</v>
+      </c>
+      <c r="D38" s="314" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="314"/>
+      <c r="F38" s="315"/>
+      <c r="G38" s="217" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="303" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="303"/>
-      <c r="F38" s="304"/>
-      <c r="G38" s="217" t="s">
+      <c r="H38" s="298" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="299"/>
+      <c r="J38" s="214" t="s">
         <v>302</v>
       </c>
-      <c r="H38" s="284" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="285"/>
-      <c r="J38" s="214" t="s">
+      <c r="K38" s="215" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="K38" s="215" t="s">
-        <v>156</v>
-      </c>
-      <c r="L38" s="91" t="s">
+      <c r="M38" s="312" t="s">
+        <v>183</v>
+      </c>
+      <c r="N38" s="313"/>
+      <c r="O38" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="M38" s="301" t="s">
-        <v>184</v>
-      </c>
-      <c r="N38" s="302"/>
-      <c r="O38" s="91" t="s">
-        <v>305</v>
-      </c>
       <c r="P38" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q38" s="229"/>
       <c r="S38" s="112"/>
@@ -9441,50 +9573,50 @@
       <c r="X38" s="67"/>
       <c r="Y38" s="123"/>
       <c r="Z38" s="67"/>
-      <c r="AF38" s="322" t="s">
-        <v>569</v>
+      <c r="AF38" s="328" t="s">
+        <v>568</v>
       </c>
       <c r="AG38" s="232"/>
       <c r="AH38" s="232"/>
       <c r="AI38" s="232"/>
-      <c r="AJ38" s="315"/>
-      <c r="AK38" s="315"/>
-      <c r="AL38" s="315"/>
-      <c r="AM38" s="278"/>
-      <c r="AN38" s="278"/>
-      <c r="AO38" s="278"/>
-      <c r="AP38" s="278"/>
-      <c r="AQ38" s="278"/>
-      <c r="AR38" s="278"/>
-      <c r="AS38" s="278"/>
+      <c r="AJ38" s="321"/>
+      <c r="AK38" s="321"/>
+      <c r="AL38" s="321"/>
+      <c r="AM38" s="292"/>
+      <c r="AN38" s="292"/>
+      <c r="AO38" s="292"/>
+      <c r="AP38" s="292"/>
+      <c r="AQ38" s="292"/>
+      <c r="AR38" s="292"/>
+      <c r="AS38" s="292"/>
     </row>
     <row r="39" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="114"/>
-      <c r="B39" s="335"/>
-      <c r="C39" s="245" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="276"/>
-      <c r="E39" s="276"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="245" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="276"/>
-      <c r="I39" s="246"/>
-      <c r="J39" s="274" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="275"/>
-      <c r="L39" s="274" t="s">
-        <v>185</v>
-      </c>
-      <c r="M39" s="300"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="274" t="s">
-        <v>213</v>
-      </c>
-      <c r="P39" s="275"/>
+      <c r="B39" s="341"/>
+      <c r="C39" s="260" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="290"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="261"/>
+      <c r="G39" s="260" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="290"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="288" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="289"/>
+      <c r="L39" s="288" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="311"/>
+      <c r="N39" s="289"/>
+      <c r="O39" s="288" t="s">
+        <v>212</v>
+      </c>
+      <c r="P39" s="289"/>
       <c r="Q39" s="230"/>
       <c r="S39" s="122"/>
       <c r="T39" s="69" t="s">
@@ -9496,7 +9628,7 @@
       <c r="X39" s="67"/>
       <c r="Y39" s="123"/>
       <c r="Z39" s="70"/>
-      <c r="AF39" s="322"/>
+      <c r="AF39" s="328"/>
       <c r="AG39" s="234"/>
       <c r="AH39" s="234"/>
       <c r="AI39" s="121"/>
@@ -9515,63 +9647,63 @@
       <c r="A40" s="114"/>
       <c r="B40" s="81"/>
       <c r="C40" s="224" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="280" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="280"/>
-      <c r="F40" s="281"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="295"/>
       <c r="G40" s="225" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="294" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="281"/>
+      <c r="I40" s="295"/>
       <c r="J40" s="226" t="s">
+        <v>157</v>
+      </c>
+      <c r="K40" s="227" t="s">
         <v>158</v>
       </c>
-      <c r="K40" s="227" t="s">
-        <v>159</v>
-      </c>
       <c r="L40" s="226" t="s">
+        <v>185</v>
+      </c>
+      <c r="M40" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="M40" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="N40" s="281"/>
+      <c r="N40" s="295"/>
       <c r="O40" s="228" t="s">
+        <v>213</v>
+      </c>
+      <c r="P40" s="227" t="s">
         <v>214</v>
-      </c>
-      <c r="P40" s="227" t="s">
-        <v>215</v>
       </c>
       <c r="Q40" s="94"/>
       <c r="S40" s="63"/>
-      <c r="T40" s="309" t="s">
-        <v>250</v>
-      </c>
-      <c r="U40" s="309"/>
-      <c r="V40" s="309"/>
-      <c r="W40" s="309"/>
+      <c r="T40" s="320" t="s">
+        <v>249</v>
+      </c>
+      <c r="U40" s="320"/>
+      <c r="V40" s="320"/>
+      <c r="W40" s="320"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z40" s="70"/>
       <c r="AF40" s="237"/>
       <c r="AG40" s="116"/>
       <c r="AH40" s="234"/>
       <c r="AI40" s="233"/>
-      <c r="AJ40" s="317"/>
-      <c r="AK40" s="317"/>
+      <c r="AJ40" s="323"/>
+      <c r="AK40" s="323"/>
       <c r="AL40" s="116"/>
       <c r="AM40" s="93"/>
       <c r="AN40" s="116"/>
-      <c r="AO40" s="317"/>
-      <c r="AP40" s="317"/>
+      <c r="AO40" s="323"/>
+      <c r="AP40" s="323"/>
       <c r="AQ40" s="116"/>
       <c r="AR40" s="93"/>
       <c r="AS40" s="116"/>
@@ -9580,45 +9712,45 @@
       <c r="A41" s="114"/>
       <c r="B41" s="81"/>
       <c r="C41" s="214" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="214" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="214" t="s">
+      <c r="F41" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="217" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="217" t="s">
+      <c r="H41" s="298" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="299"/>
+      <c r="J41" s="214" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="284" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" s="285"/>
-      <c r="J41" s="214" t="s">
+      <c r="K41" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="217" t="s">
         <v>309</v>
       </c>
-      <c r="K41" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" s="217" t="s">
+      <c r="M41" s="298" t="s">
+        <v>215</v>
+      </c>
+      <c r="N41" s="299"/>
+      <c r="O41" s="214" t="s">
         <v>310</v>
       </c>
-      <c r="M41" s="284" t="s">
-        <v>216</v>
-      </c>
-      <c r="N41" s="285"/>
-      <c r="O41" s="214" t="s">
-        <v>311</v>
-      </c>
       <c r="P41" s="85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q41" s="240" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S41" s="108"/>
       <c r="T41" s="67"/>
@@ -9632,61 +9764,61 @@
       <c r="AG41" s="231"/>
       <c r="AH41" s="231"/>
       <c r="AI41" s="231"/>
-      <c r="AJ41" s="278"/>
-      <c r="AK41" s="278"/>
-      <c r="AL41" s="278"/>
-      <c r="AM41" s="315"/>
-      <c r="AN41" s="315"/>
-      <c r="AO41" s="278"/>
-      <c r="AP41" s="278"/>
-      <c r="AQ41" s="278"/>
-      <c r="AR41" s="278"/>
-      <c r="AS41" s="278"/>
+      <c r="AJ41" s="292"/>
+      <c r="AK41" s="292"/>
+      <c r="AL41" s="292"/>
+      <c r="AM41" s="321"/>
+      <c r="AN41" s="321"/>
+      <c r="AO41" s="292"/>
+      <c r="AP41" s="292"/>
+      <c r="AQ41" s="292"/>
+      <c r="AR41" s="292"/>
+      <c r="AS41" s="292"/>
     </row>
     <row r="42" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="114"/>
       <c r="B42" s="81"/>
-      <c r="C42" s="245" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="246"/>
-      <c r="E42" s="245" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="246"/>
-      <c r="G42" s="277" t="s">
-        <v>161</v>
-      </c>
-      <c r="H42" s="278"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="245" t="s">
-        <v>189</v>
-      </c>
-      <c r="K42" s="246"/>
-      <c r="L42" s="277" t="s">
-        <v>217</v>
-      </c>
-      <c r="M42" s="278"/>
-      <c r="N42" s="279"/>
-      <c r="O42" s="245" t="s">
-        <v>237</v>
-      </c>
-      <c r="P42" s="246"/>
-      <c r="Q42" s="299" t="s">
-        <v>556</v>
+      <c r="C42" s="260" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="261"/>
+      <c r="E42" s="260" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="261"/>
+      <c r="G42" s="291" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="292"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="260" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="261"/>
+      <c r="L42" s="291" t="s">
+        <v>216</v>
+      </c>
+      <c r="M42" s="292"/>
+      <c r="N42" s="293"/>
+      <c r="O42" s="260" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" s="261"/>
+      <c r="Q42" s="310" t="s">
+        <v>555</v>
       </c>
       <c r="S42" s="67"/>
-      <c r="T42" s="289" t="s">
+      <c r="T42" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="289"/>
-      <c r="V42" s="289"/>
+      <c r="U42" s="303"/>
+      <c r="V42" s="303"/>
       <c r="W42" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X42" s="78"/>
       <c r="Y42" s="124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z42" s="67"/>
       <c r="AF42" s="100"/>
@@ -9708,69 +9840,69 @@
       <c r="A43" s="114"/>
       <c r="B43" s="81"/>
       <c r="C43" s="220" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="221" t="s">
-        <v>107</v>
-      </c>
       <c r="E43" s="220" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="221" t="s">
-        <v>135</v>
-      </c>
       <c r="G43" s="220" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="267" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="252" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" s="253"/>
+      <c r="I43" s="268"/>
       <c r="J43" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="221" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="221" t="s">
-        <v>191</v>
-      </c>
       <c r="L43" s="220" t="s">
+        <v>217</v>
+      </c>
+      <c r="M43" s="265" t="s">
         <v>218</v>
       </c>
-      <c r="M43" s="250" t="s">
-        <v>219</v>
-      </c>
-      <c r="N43" s="251"/>
+      <c r="N43" s="266"/>
       <c r="O43" s="220" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="P43" s="221" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q43" s="299"/>
+      <c r="Q43" s="310"/>
       <c r="S43" s="67"/>
-      <c r="T43" s="289" t="s">
-        <v>69</v>
-      </c>
-      <c r="U43" s="289"/>
-      <c r="V43" s="289"/>
+      <c r="T43" s="303" t="s">
+        <v>68</v>
+      </c>
+      <c r="U43" s="303"/>
+      <c r="V43" s="303"/>
       <c r="W43" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="78"/>
       <c r="Y43" s="124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z43" s="69"/>
       <c r="AF43" s="100"/>
       <c r="AG43" s="235"/>
       <c r="AH43" s="235"/>
       <c r="AI43" s="235"/>
-      <c r="AJ43" s="316"/>
-      <c r="AK43" s="316"/>
+      <c r="AJ43" s="322"/>
+      <c r="AK43" s="322"/>
       <c r="AL43" s="111"/>
       <c r="AM43" s="111"/>
       <c r="AN43" s="111"/>
-      <c r="AO43" s="316"/>
-      <c r="AP43" s="316"/>
+      <c r="AO43" s="322"/>
+      <c r="AP43" s="322"/>
       <c r="AQ43" s="111"/>
       <c r="AR43" s="111"/>
       <c r="AS43" s="111"/>
@@ -9779,44 +9911,44 @@
       <c r="A44" s="125"/>
       <c r="B44" s="81"/>
       <c r="C44" s="96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D44" s="97"/>
       <c r="E44" s="96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="219" t="s">
+        <v>313</v>
+      </c>
+      <c r="H44" s="269"/>
+      <c r="I44" s="270"/>
+      <c r="J44" s="96" t="s">
         <v>314</v>
-      </c>
-      <c r="H44" s="254"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="96" t="s">
-        <v>315</v>
       </c>
       <c r="K44" s="99"/>
       <c r="L44" s="219" t="s">
+        <v>315</v>
+      </c>
+      <c r="M44" s="269"/>
+      <c r="N44" s="270"/>
+      <c r="O44" s="72" t="s">
         <v>316</v>
-      </c>
-      <c r="M44" s="254"/>
-      <c r="N44" s="255"/>
-      <c r="O44" s="72" t="s">
-        <v>317</v>
       </c>
       <c r="P44" s="99"/>
       <c r="Q44" s="81"/>
       <c r="S44" s="67"/>
-      <c r="T44" s="309" t="s">
+      <c r="T44" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="309"/>
-      <c r="V44" s="309"/>
+      <c r="U44" s="320"/>
+      <c r="V44" s="320"/>
       <c r="W44" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="69"/>
       <c r="Y44" s="124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z44" s="69"/>
       <c r="AC44" s="65" t="s">
@@ -9826,46 +9958,46 @@
       <c r="AG44" s="232"/>
       <c r="AH44" s="232"/>
       <c r="AI44" s="232"/>
-      <c r="AJ44" s="315"/>
-      <c r="AK44" s="315"/>
-      <c r="AL44" s="315"/>
-      <c r="AM44" s="315"/>
-      <c r="AN44" s="315"/>
-      <c r="AO44" s="315"/>
-      <c r="AP44" s="315"/>
-      <c r="AQ44" s="315"/>
-      <c r="AR44" s="315"/>
-      <c r="AS44" s="315"/>
+      <c r="AJ44" s="321"/>
+      <c r="AK44" s="321"/>
+      <c r="AL44" s="321"/>
+      <c r="AM44" s="321"/>
+      <c r="AN44" s="321"/>
+      <c r="AO44" s="321"/>
+      <c r="AP44" s="321"/>
+      <c r="AQ44" s="321"/>
+      <c r="AR44" s="321"/>
+      <c r="AS44" s="321"/>
     </row>
     <row r="45" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="80"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="247" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="249"/>
-      <c r="E45" s="247" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="247" t="s">
-        <v>164</v>
-      </c>
-      <c r="H45" s="248"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="247" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="249"/>
-      <c r="L45" s="247" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="247" t="s">
-        <v>318</v>
-      </c>
-      <c r="P45" s="249"/>
+      <c r="C45" s="262" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="264"/>
+      <c r="E45" s="262" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="264"/>
+      <c r="G45" s="262" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="263"/>
+      <c r="I45" s="264"/>
+      <c r="J45" s="262" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="264"/>
+      <c r="L45" s="262" t="s">
+        <v>219</v>
+      </c>
+      <c r="M45" s="263"/>
+      <c r="N45" s="264"/>
+      <c r="O45" s="262" t="s">
+        <v>317</v>
+      </c>
+      <c r="P45" s="264"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="67"/>
       <c r="S45" s="69"/>
@@ -9880,18 +10012,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="127"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="256"/>
-      <c r="J46" s="256"/>
-      <c r="K46" s="256"/>
-      <c r="L46" s="256"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="256"/>
+      <c r="C46" s="271"/>
+      <c r="D46" s="271"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="271"/>
+      <c r="H46" s="271"/>
+      <c r="I46" s="271"/>
+      <c r="J46" s="271"/>
+      <c r="K46" s="271"/>
+      <c r="L46" s="271"/>
+      <c r="M46" s="271"/>
+      <c r="N46" s="271"/>
       <c r="O46" s="109"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
@@ -9948,20 +10080,20 @@
       <c r="F48" s="129"/>
       <c r="G48" s="129"/>
       <c r="H48" s="129"/>
-      <c r="I48" s="290"/>
-      <c r="J48" s="290"/>
-      <c r="K48" s="290"/>
-      <c r="L48" s="290"/>
-      <c r="M48" s="262" t="s">
+      <c r="I48" s="304"/>
+      <c r="J48" s="304"/>
+      <c r="K48" s="304"/>
+      <c r="L48" s="304"/>
+      <c r="M48" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="263"/>
-      <c r="O48" s="263"/>
-      <c r="P48" s="263"/>
-      <c r="Q48" s="263"/>
-      <c r="R48" s="263"/>
-      <c r="S48" s="263"/>
-      <c r="T48" s="264"/>
+      <c r="N48" s="277"/>
+      <c r="O48" s="277"/>
+      <c r="P48" s="277"/>
+      <c r="Q48" s="277"/>
+      <c r="R48" s="277"/>
+      <c r="S48" s="277"/>
+      <c r="T48" s="278"/>
       <c r="U48" s="132"/>
       <c r="V48" s="132"/>
       <c r="W48" s="132"/>
@@ -9982,22 +10114,22 @@
       <c r="F49" s="135"/>
       <c r="G49" s="135"/>
       <c r="H49" s="136"/>
-      <c r="I49" s="244" t="s">
-        <v>252</v>
-      </c>
-      <c r="J49" s="244"/>
-      <c r="K49" s="244"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="265" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" s="266"/>
-      <c r="O49" s="266"/>
-      <c r="P49" s="266"/>
-      <c r="Q49" s="266"/>
-      <c r="R49" s="266"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="267"/>
+      <c r="I49" s="259" t="s">
+        <v>251</v>
+      </c>
+      <c r="J49" s="259"/>
+      <c r="K49" s="259"/>
+      <c r="L49" s="259"/>
+      <c r="M49" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="280"/>
+      <c r="O49" s="280"/>
+      <c r="P49" s="280"/>
+      <c r="Q49" s="280"/>
+      <c r="R49" s="280"/>
+      <c r="S49" s="280"/>
+      <c r="T49" s="281"/>
       <c r="U49" s="132"/>
       <c r="V49" s="132"/>
       <c r="W49" s="132"/>
@@ -10007,7 +10139,7 @@
       <c r="AA49" s="133"/>
       <c r="AB49" s="56"/>
     </row>
-    <row r="50" spans="1:30" ht="13.8">
+    <row r="50" spans="1:30" ht="12.75">
       <c r="A50" s="131"/>
       <c r="B50" s="137"/>
       <c r="C50" s="135" t="s">
@@ -10018,20 +10150,20 @@
       <c r="F50" s="135"/>
       <c r="G50" s="135"/>
       <c r="H50" s="136"/>
-      <c r="I50" s="244" t="s">
-        <v>253</v>
-      </c>
-      <c r="J50" s="244"/>
-      <c r="K50" s="244"/>
-      <c r="L50" s="244"/>
-      <c r="M50" s="268"/>
-      <c r="N50" s="269"/>
-      <c r="O50" s="269"/>
-      <c r="P50" s="269"/>
-      <c r="Q50" s="269"/>
-      <c r="R50" s="269"/>
-      <c r="S50" s="269"/>
-      <c r="T50" s="270"/>
+      <c r="I50" s="259" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" s="259"/>
+      <c r="K50" s="259"/>
+      <c r="L50" s="259"/>
+      <c r="M50" s="282"/>
+      <c r="N50" s="283"/>
+      <c r="O50" s="283"/>
+      <c r="P50" s="283"/>
+      <c r="Q50" s="283"/>
+      <c r="R50" s="283"/>
+      <c r="S50" s="283"/>
+      <c r="T50" s="284"/>
       <c r="U50" s="133"/>
       <c r="V50" s="132"/>
       <c r="W50" s="132"/>
@@ -10041,31 +10173,31 @@
       <c r="AA50" s="133"/>
       <c r="AB50" s="56"/>
     </row>
-    <row r="51" spans="1:30" ht="13.8">
+    <row r="51" spans="1:30" ht="12.75">
       <c r="A51" s="131"/>
       <c r="B51" s="137"/>
       <c r="C51" s="135" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D51" s="135"/>
       <c r="E51" s="135"/>
       <c r="F51" s="135"/>
       <c r="G51" s="135"/>
       <c r="H51" s="136"/>
-      <c r="I51" s="244" t="s">
-        <v>256</v>
-      </c>
-      <c r="J51" s="244"/>
-      <c r="K51" s="244"/>
-      <c r="L51" s="244"/>
-      <c r="M51" s="268"/>
-      <c r="N51" s="269"/>
-      <c r="O51" s="269"/>
-      <c r="P51" s="269"/>
-      <c r="Q51" s="269"/>
-      <c r="R51" s="269"/>
-      <c r="S51" s="269"/>
-      <c r="T51" s="270"/>
+      <c r="I51" s="259" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" s="259"/>
+      <c r="K51" s="259"/>
+      <c r="L51" s="259"/>
+      <c r="M51" s="282"/>
+      <c r="N51" s="283"/>
+      <c r="O51" s="283"/>
+      <c r="P51" s="283"/>
+      <c r="Q51" s="283"/>
+      <c r="R51" s="283"/>
+      <c r="S51" s="283"/>
+      <c r="T51" s="284"/>
       <c r="U51" s="133"/>
       <c r="V51" s="132"/>
       <c r="W51" s="132"/>
@@ -10075,7 +10207,7 @@
       <c r="AA51" s="133"/>
       <c r="AB51" s="56"/>
     </row>
-    <row r="52" spans="1:30" ht="13.8">
+    <row r="52" spans="1:30" ht="12.75">
       <c r="A52" s="131"/>
       <c r="B52" s="137"/>
       <c r="C52" s="135" t="s">
@@ -10086,20 +10218,20 @@
       <c r="F52" s="135"/>
       <c r="G52" s="135"/>
       <c r="H52" s="136"/>
-      <c r="I52" s="244" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244"/>
-      <c r="L52" s="244"/>
-      <c r="M52" s="268"/>
-      <c r="N52" s="269"/>
-      <c r="O52" s="269"/>
-      <c r="P52" s="269"/>
-      <c r="Q52" s="269"/>
-      <c r="R52" s="269"/>
-      <c r="S52" s="269"/>
-      <c r="T52" s="270"/>
+      <c r="I52" s="259" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="259"/>
+      <c r="K52" s="259"/>
+      <c r="L52" s="259"/>
+      <c r="M52" s="282"/>
+      <c r="N52" s="283"/>
+      <c r="O52" s="283"/>
+      <c r="P52" s="283"/>
+      <c r="Q52" s="283"/>
+      <c r="R52" s="283"/>
+      <c r="S52" s="283"/>
+      <c r="T52" s="284"/>
       <c r="U52" s="133"/>
       <c r="V52" s="132"/>
       <c r="W52" s="132"/>
@@ -10109,7 +10241,7 @@
       <c r="AA52" s="133"/>
       <c r="AB52" s="56"/>
     </row>
-    <row r="53" spans="1:30" ht="13.8">
+    <row r="53" spans="1:30" ht="12.75">
       <c r="A53" s="131"/>
       <c r="B53" s="137"/>
       <c r="C53" s="135" t="s">
@@ -10120,20 +10252,20 @@
       <c r="F53" s="135"/>
       <c r="G53" s="135"/>
       <c r="H53" s="136"/>
-      <c r="I53" s="244" t="s">
-        <v>254</v>
-      </c>
-      <c r="J53" s="244"/>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="268"/>
-      <c r="N53" s="269"/>
-      <c r="O53" s="269"/>
-      <c r="P53" s="269"/>
-      <c r="Q53" s="269"/>
-      <c r="R53" s="269"/>
-      <c r="S53" s="269"/>
-      <c r="T53" s="270"/>
+      <c r="I53" s="259" t="s">
+        <v>253</v>
+      </c>
+      <c r="J53" s="259"/>
+      <c r="K53" s="259"/>
+      <c r="L53" s="259"/>
+      <c r="M53" s="282"/>
+      <c r="N53" s="283"/>
+      <c r="O53" s="283"/>
+      <c r="P53" s="283"/>
+      <c r="Q53" s="283"/>
+      <c r="R53" s="283"/>
+      <c r="S53" s="283"/>
+      <c r="T53" s="284"/>
       <c r="U53" s="133"/>
       <c r="V53" s="132"/>
       <c r="W53" s="132"/>
@@ -10143,31 +10275,31 @@
       <c r="AA53" s="133"/>
       <c r="AB53" s="56"/>
     </row>
-    <row r="54" spans="1:30" ht="13.2" customHeight="1">
+    <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="131"/>
-      <c r="B54" s="286" t="s">
+      <c r="B54" s="300" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="287"/>
-      <c r="D54" s="287"/>
-      <c r="E54" s="287"/>
-      <c r="F54" s="287"/>
-      <c r="G54" s="287"/>
-      <c r="H54" s="288"/>
-      <c r="I54" s="295" t="s">
-        <v>257</v>
-      </c>
-      <c r="J54" s="295"/>
-      <c r="K54" s="295"/>
-      <c r="L54" s="295"/>
-      <c r="M54" s="268"/>
-      <c r="N54" s="269"/>
-      <c r="O54" s="269"/>
-      <c r="P54" s="269"/>
-      <c r="Q54" s="269"/>
-      <c r="R54" s="269"/>
-      <c r="S54" s="269"/>
-      <c r="T54" s="270"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="301"/>
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
+      <c r="H54" s="302"/>
+      <c r="I54" s="306" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" s="306"/>
+      <c r="K54" s="306"/>
+      <c r="L54" s="306"/>
+      <c r="M54" s="282"/>
+      <c r="N54" s="283"/>
+      <c r="O54" s="283"/>
+      <c r="P54" s="283"/>
+      <c r="Q54" s="283"/>
+      <c r="R54" s="283"/>
+      <c r="S54" s="283"/>
+      <c r="T54" s="284"/>
       <c r="U54" s="133"/>
       <c r="V54" s="132"/>
       <c r="W54" s="132"/>
@@ -10177,7 +10309,7 @@
       <c r="AA54" s="133"/>
       <c r="AB54" s="56"/>
     </row>
-    <row r="55" spans="1:30" ht="13.95" customHeight="1">
+    <row r="55" spans="1:30" ht="13.9" customHeight="1">
       <c r="A55" s="131"/>
       <c r="B55" s="138">
         <v>1</v>
@@ -10190,18 +10322,18 @@
       <c r="F55" s="139"/>
       <c r="G55" s="139"/>
       <c r="H55" s="140"/>
-      <c r="I55" s="295"/>
-      <c r="J55" s="295"/>
-      <c r="K55" s="295"/>
-      <c r="L55" s="295"/>
-      <c r="M55" s="268"/>
-      <c r="N55" s="269"/>
-      <c r="O55" s="269"/>
-      <c r="P55" s="269"/>
-      <c r="Q55" s="269"/>
-      <c r="R55" s="269"/>
-      <c r="S55" s="269"/>
-      <c r="T55" s="270"/>
+      <c r="I55" s="306"/>
+      <c r="J55" s="306"/>
+      <c r="K55" s="306"/>
+      <c r="L55" s="306"/>
+      <c r="M55" s="282"/>
+      <c r="N55" s="283"/>
+      <c r="O55" s="283"/>
+      <c r="P55" s="283"/>
+      <c r="Q55" s="283"/>
+      <c r="R55" s="283"/>
+      <c r="S55" s="283"/>
+      <c r="T55" s="284"/>
       <c r="U55" s="133"/>
       <c r="V55" s="132"/>
       <c r="W55" s="132"/>
@@ -10211,7 +10343,7 @@
       <c r="AA55" s="133"/>
       <c r="AB55" s="56"/>
     </row>
-    <row r="56" spans="1:30" ht="13.8">
+    <row r="56" spans="1:30" ht="12.75">
       <c r="A56" s="131"/>
       <c r="B56" s="138">
         <v>2</v>
@@ -10224,18 +10356,18 @@
       <c r="F56" s="139"/>
       <c r="G56" s="139"/>
       <c r="H56" s="140"/>
-      <c r="I56" s="295"/>
-      <c r="J56" s="295"/>
-      <c r="K56" s="295"/>
-      <c r="L56" s="295"/>
-      <c r="M56" s="268"/>
-      <c r="N56" s="269"/>
-      <c r="O56" s="269"/>
-      <c r="P56" s="269"/>
-      <c r="Q56" s="269"/>
-      <c r="R56" s="269"/>
-      <c r="S56" s="269"/>
-      <c r="T56" s="270"/>
+      <c r="I56" s="306"/>
+      <c r="J56" s="306"/>
+      <c r="K56" s="306"/>
+      <c r="L56" s="306"/>
+      <c r="M56" s="282"/>
+      <c r="N56" s="283"/>
+      <c r="O56" s="283"/>
+      <c r="P56" s="283"/>
+      <c r="Q56" s="283"/>
+      <c r="R56" s="283"/>
+      <c r="S56" s="283"/>
+      <c r="T56" s="284"/>
       <c r="U56" s="133"/>
       <c r="V56" s="132"/>
       <c r="W56" s="132"/>
@@ -10245,7 +10377,7 @@
       <c r="AA56" s="133"/>
       <c r="AB56" s="56"/>
     </row>
-    <row r="57" spans="1:30" ht="13.8">
+    <row r="57" spans="1:30" ht="12.75">
       <c r="A57" s="131"/>
       <c r="B57" s="138">
         <v>3</v>
@@ -10258,18 +10390,18 @@
       <c r="F57" s="139"/>
       <c r="G57" s="139"/>
       <c r="H57" s="140"/>
-      <c r="I57" s="295"/>
-      <c r="J57" s="295"/>
-      <c r="K57" s="295"/>
-      <c r="L57" s="295"/>
-      <c r="M57" s="268"/>
-      <c r="N57" s="269"/>
-      <c r="O57" s="269"/>
-      <c r="P57" s="269"/>
-      <c r="Q57" s="269"/>
-      <c r="R57" s="269"/>
-      <c r="S57" s="269"/>
-      <c r="T57" s="270"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
+      <c r="K57" s="306"/>
+      <c r="L57" s="306"/>
+      <c r="M57" s="282"/>
+      <c r="N57" s="283"/>
+      <c r="O57" s="283"/>
+      <c r="P57" s="283"/>
+      <c r="Q57" s="283"/>
+      <c r="R57" s="283"/>
+      <c r="S57" s="283"/>
+      <c r="T57" s="284"/>
       <c r="U57" s="133"/>
       <c r="V57" s="132"/>
       <c r="W57" s="132"/>
@@ -10279,31 +10411,31 @@
       <c r="AA57" s="133"/>
       <c r="AB57" s="56"/>
     </row>
-    <row r="58" spans="1:30" ht="13.8">
+    <row r="58" spans="1:30" ht="12.75">
       <c r="A58" s="131"/>
       <c r="B58" s="138">
         <v>4</v>
       </c>
       <c r="C58" s="139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="139"/>
       <c r="E58" s="139"/>
       <c r="F58" s="139"/>
       <c r="G58" s="139"/>
       <c r="H58" s="140"/>
-      <c r="I58" s="295"/>
-      <c r="J58" s="295"/>
-      <c r="K58" s="295"/>
-      <c r="L58" s="295"/>
-      <c r="M58" s="268"/>
-      <c r="N58" s="269"/>
-      <c r="O58" s="269"/>
-      <c r="P58" s="269"/>
-      <c r="Q58" s="269"/>
-      <c r="R58" s="269"/>
-      <c r="S58" s="269"/>
-      <c r="T58" s="270"/>
+      <c r="I58" s="306"/>
+      <c r="J58" s="306"/>
+      <c r="K58" s="306"/>
+      <c r="L58" s="306"/>
+      <c r="M58" s="282"/>
+      <c r="N58" s="283"/>
+      <c r="O58" s="283"/>
+      <c r="P58" s="283"/>
+      <c r="Q58" s="283"/>
+      <c r="R58" s="283"/>
+      <c r="S58" s="283"/>
+      <c r="T58" s="284"/>
       <c r="U58" s="133"/>
       <c r="V58" s="132"/>
       <c r="W58" s="132"/>
@@ -10313,7 +10445,7 @@
       <c r="AA58" s="133"/>
       <c r="AB58" s="56"/>
     </row>
-    <row r="59" spans="1:30" ht="13.8">
+    <row r="59" spans="1:30" ht="12.75">
       <c r="A59" s="131"/>
       <c r="B59" s="137">
         <v>5</v>
@@ -10326,18 +10458,18 @@
       <c r="F59" s="141"/>
       <c r="G59" s="141"/>
       <c r="H59" s="142"/>
-      <c r="I59" s="295"/>
-      <c r="J59" s="295"/>
-      <c r="K59" s="295"/>
-      <c r="L59" s="295"/>
-      <c r="M59" s="271"/>
-      <c r="N59" s="272"/>
-      <c r="O59" s="272"/>
-      <c r="P59" s="272"/>
-      <c r="Q59" s="272"/>
-      <c r="R59" s="272"/>
-      <c r="S59" s="272"/>
-      <c r="T59" s="273"/>
+      <c r="I59" s="306"/>
+      <c r="J59" s="306"/>
+      <c r="K59" s="306"/>
+      <c r="L59" s="306"/>
+      <c r="M59" s="285"/>
+      <c r="N59" s="286"/>
+      <c r="O59" s="286"/>
+      <c r="P59" s="286"/>
+      <c r="Q59" s="286"/>
+      <c r="R59" s="286"/>
+      <c r="S59" s="286"/>
+      <c r="T59" s="287"/>
       <c r="U59" s="133"/>
       <c r="V59" s="132"/>
       <c r="W59" s="132"/>
@@ -10384,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61" s="144"/>
       <c r="D61" s="144"/>
@@ -10423,28 +10555,28 @@
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
       <c r="E62" s="148"/>
-      <c r="F62" s="260" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" s="260"/>
-      <c r="H62" s="260"/>
-      <c r="I62" s="260"/>
-      <c r="J62" s="260"/>
-      <c r="K62" s="296"/>
-      <c r="L62" s="296"/>
-      <c r="M62" s="296"/>
-      <c r="N62" s="296"/>
-      <c r="O62" s="296"/>
-      <c r="P62" s="259"/>
-      <c r="Q62" s="259"/>
-      <c r="R62" s="259"/>
-      <c r="S62" s="259"/>
-      <c r="T62" s="259"/>
-      <c r="U62" s="259"/>
-      <c r="V62" s="259"/>
-      <c r="W62" s="259"/>
-      <c r="X62" s="259"/>
-      <c r="Y62" s="259"/>
+      <c r="F62" s="253" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="307"/>
+      <c r="L62" s="307"/>
+      <c r="M62" s="307"/>
+      <c r="N62" s="307"/>
+      <c r="O62" s="307"/>
+      <c r="P62" s="274"/>
+      <c r="Q62" s="274"/>
+      <c r="R62" s="274"/>
+      <c r="S62" s="274"/>
+      <c r="T62" s="274"/>
+      <c r="U62" s="274"/>
+      <c r="V62" s="274"/>
+      <c r="W62" s="274"/>
+      <c r="X62" s="274"/>
+      <c r="Y62" s="274"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10457,37 +10589,37 @@
         <v>26</v>
       </c>
       <c r="C63" s="150"/>
-      <c r="D63" s="293" t="s">
+      <c r="D63" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="294"/>
-      <c r="F63" s="260" t="s">
-        <v>242</v>
-      </c>
-      <c r="G63" s="260"/>
-      <c r="H63" s="260"/>
-      <c r="I63" s="260"/>
-      <c r="J63" s="260"/>
-      <c r="K63" s="296"/>
-      <c r="L63" s="296"/>
-      <c r="M63" s="296"/>
-      <c r="N63" s="296"/>
-      <c r="O63" s="296"/>
-      <c r="P63" s="296"/>
-      <c r="Q63" s="296"/>
-      <c r="R63" s="296"/>
-      <c r="S63" s="296"/>
-      <c r="T63" s="296"/>
-      <c r="U63" s="296"/>
-      <c r="V63" s="296"/>
-      <c r="W63" s="296"/>
-      <c r="X63" s="296"/>
-      <c r="Y63" s="296"/>
-      <c r="Z63" s="305"/>
-      <c r="AA63" s="305"/>
-      <c r="AB63" s="305"/>
-      <c r="AC63" s="305"/>
-      <c r="AD63" s="305"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="253" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="253"/>
+      <c r="H63" s="253"/>
+      <c r="I63" s="253"/>
+      <c r="J63" s="253"/>
+      <c r="K63" s="307"/>
+      <c r="L63" s="307"/>
+      <c r="M63" s="307"/>
+      <c r="N63" s="307"/>
+      <c r="O63" s="307"/>
+      <c r="P63" s="307"/>
+      <c r="Q63" s="307"/>
+      <c r="R63" s="307"/>
+      <c r="S63" s="307"/>
+      <c r="T63" s="307"/>
+      <c r="U63" s="307"/>
+      <c r="V63" s="307"/>
+      <c r="W63" s="307"/>
+      <c r="X63" s="307"/>
+      <c r="Y63" s="307"/>
+      <c r="Z63" s="316"/>
+      <c r="AA63" s="316"/>
+      <c r="AB63" s="316"/>
+      <c r="AC63" s="316"/>
+      <c r="AD63" s="316"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="65"/>
@@ -10497,33 +10629,33 @@
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="148"/>
-      <c r="F64" s="260" t="s">
-        <v>243</v>
-      </c>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="260"/>
-      <c r="J64" s="260"/>
-      <c r="K64" s="296"/>
-      <c r="L64" s="296"/>
-      <c r="M64" s="296"/>
-      <c r="N64" s="296"/>
-      <c r="O64" s="296"/>
-      <c r="P64" s="296"/>
-      <c r="Q64" s="296"/>
-      <c r="R64" s="296"/>
-      <c r="S64" s="296"/>
-      <c r="T64" s="296"/>
-      <c r="U64" s="296"/>
-      <c r="V64" s="296"/>
-      <c r="W64" s="296"/>
-      <c r="X64" s="296"/>
-      <c r="Y64" s="296"/>
-      <c r="Z64" s="305"/>
-      <c r="AA64" s="305"/>
-      <c r="AB64" s="305"/>
-      <c r="AC64" s="305"/>
-      <c r="AD64" s="305"/>
+      <c r="F64" s="253" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="253"/>
+      <c r="H64" s="253"/>
+      <c r="I64" s="253"/>
+      <c r="J64" s="253"/>
+      <c r="K64" s="307"/>
+      <c r="L64" s="307"/>
+      <c r="M64" s="307"/>
+      <c r="N64" s="307"/>
+      <c r="O64" s="307"/>
+      <c r="P64" s="307"/>
+      <c r="Q64" s="307"/>
+      <c r="R64" s="307"/>
+      <c r="S64" s="307"/>
+      <c r="T64" s="307"/>
+      <c r="U64" s="307"/>
+      <c r="V64" s="307"/>
+      <c r="W64" s="307"/>
+      <c r="X64" s="307"/>
+      <c r="Y64" s="307"/>
+      <c r="Z64" s="316"/>
+      <c r="AA64" s="316"/>
+      <c r="AB64" s="316"/>
+      <c r="AC64" s="316"/>
+      <c r="AD64" s="316"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="65"/>
@@ -10533,33 +10665,33 @@
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
       <c r="E65" s="148"/>
-      <c r="F65" s="260" t="s">
-        <v>244</v>
-      </c>
-      <c r="G65" s="260"/>
-      <c r="H65" s="260"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="260"/>
-      <c r="K65" s="307"/>
-      <c r="L65" s="307"/>
-      <c r="M65" s="307"/>
-      <c r="N65" s="307"/>
-      <c r="O65" s="307"/>
-      <c r="P65" s="307"/>
-      <c r="Q65" s="307"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="307"/>
-      <c r="T65" s="307"/>
-      <c r="U65" s="307"/>
-      <c r="V65" s="307"/>
-      <c r="W65" s="307"/>
-      <c r="X65" s="307"/>
-      <c r="Y65" s="307"/>
-      <c r="Z65" s="305"/>
-      <c r="AA65" s="305"/>
-      <c r="AB65" s="305"/>
-      <c r="AC65" s="305"/>
-      <c r="AD65" s="305"/>
+      <c r="F65" s="253" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="253"/>
+      <c r="H65" s="253"/>
+      <c r="I65" s="253"/>
+      <c r="J65" s="253"/>
+      <c r="K65" s="318"/>
+      <c r="L65" s="318"/>
+      <c r="M65" s="318"/>
+      <c r="N65" s="318"/>
+      <c r="O65" s="318"/>
+      <c r="P65" s="318"/>
+      <c r="Q65" s="318"/>
+      <c r="R65" s="318"/>
+      <c r="S65" s="318"/>
+      <c r="T65" s="318"/>
+      <c r="U65" s="318"/>
+      <c r="V65" s="318"/>
+      <c r="W65" s="318"/>
+      <c r="X65" s="318"/>
+      <c r="Y65" s="318"/>
+      <c r="Z65" s="316"/>
+      <c r="AA65" s="316"/>
+      <c r="AB65" s="316"/>
+      <c r="AC65" s="316"/>
+      <c r="AD65" s="316"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="65"/>
@@ -10569,69 +10701,69 @@
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
       <c r="E66" s="148"/>
-      <c r="F66" s="260" t="s">
-        <v>245</v>
-      </c>
-      <c r="G66" s="260"/>
-      <c r="H66" s="260"/>
-      <c r="I66" s="260"/>
-      <c r="J66" s="260"/>
-      <c r="K66" s="307"/>
-      <c r="L66" s="307"/>
-      <c r="M66" s="307"/>
-      <c r="N66" s="307"/>
-      <c r="O66" s="307"/>
-      <c r="P66" s="307"/>
-      <c r="Q66" s="307"/>
-      <c r="R66" s="307"/>
-      <c r="S66" s="307"/>
-      <c r="T66" s="307"/>
-      <c r="U66" s="307"/>
-      <c r="V66" s="307"/>
-      <c r="W66" s="307"/>
-      <c r="X66" s="307"/>
-      <c r="Y66" s="307"/>
-      <c r="Z66" s="306"/>
-      <c r="AA66" s="306"/>
-      <c r="AB66" s="306"/>
-      <c r="AC66" s="306"/>
-      <c r="AD66" s="306"/>
+      <c r="F66" s="253" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="253"/>
+      <c r="H66" s="253"/>
+      <c r="I66" s="253"/>
+      <c r="J66" s="253"/>
+      <c r="K66" s="318"/>
+      <c r="L66" s="318"/>
+      <c r="M66" s="318"/>
+      <c r="N66" s="318"/>
+      <c r="O66" s="318"/>
+      <c r="P66" s="318"/>
+      <c r="Q66" s="318"/>
+      <c r="R66" s="318"/>
+      <c r="S66" s="318"/>
+      <c r="T66" s="318"/>
+      <c r="U66" s="318"/>
+      <c r="V66" s="318"/>
+      <c r="W66" s="318"/>
+      <c r="X66" s="318"/>
+      <c r="Y66" s="318"/>
+      <c r="Z66" s="317"/>
+      <c r="AA66" s="317"/>
+      <c r="AB66" s="317"/>
+      <c r="AC66" s="317"/>
+      <c r="AD66" s="317"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="65"/>
-      <c r="B67" s="292" t="s">
+      <c r="B67" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="293"/>
-      <c r="D67" s="293"/>
-      <c r="E67" s="294"/>
-      <c r="F67" s="260" t="s">
-        <v>246</v>
-      </c>
-      <c r="G67" s="260"/>
-      <c r="H67" s="260"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="260"/>
-      <c r="K67" s="307"/>
-      <c r="L67" s="307"/>
-      <c r="M67" s="307"/>
-      <c r="N67" s="307"/>
-      <c r="O67" s="307"/>
-      <c r="P67" s="307"/>
-      <c r="Q67" s="307"/>
-      <c r="R67" s="307"/>
-      <c r="S67" s="307"/>
-      <c r="T67" s="307"/>
-      <c r="U67" s="307"/>
-      <c r="V67" s="307"/>
-      <c r="W67" s="307"/>
-      <c r="X67" s="307"/>
-      <c r="Y67" s="307"/>
-      <c r="Z67" s="306"/>
-      <c r="AA67" s="306"/>
-      <c r="AB67" s="306"/>
-      <c r="AC67" s="306"/>
-      <c r="AD67" s="306"/>
+      <c r="C67" s="245"/>
+      <c r="D67" s="245"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="253" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" s="253"/>
+      <c r="H67" s="253"/>
+      <c r="I67" s="253"/>
+      <c r="J67" s="253"/>
+      <c r="K67" s="318"/>
+      <c r="L67" s="318"/>
+      <c r="M67" s="318"/>
+      <c r="N67" s="318"/>
+      <c r="O67" s="318"/>
+      <c r="P67" s="318"/>
+      <c r="Q67" s="318"/>
+      <c r="R67" s="318"/>
+      <c r="S67" s="318"/>
+      <c r="T67" s="318"/>
+      <c r="U67" s="318"/>
+      <c r="V67" s="318"/>
+      <c r="W67" s="318"/>
+      <c r="X67" s="318"/>
+      <c r="Y67" s="318"/>
+      <c r="Z67" s="317"/>
+      <c r="AA67" s="317"/>
+      <c r="AB67" s="317"/>
+      <c r="AC67" s="317"/>
+      <c r="AD67" s="317"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="65"/>
@@ -10641,28 +10773,28 @@
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
       <c r="E68" s="148"/>
-      <c r="F68" s="260" t="s">
-        <v>247</v>
-      </c>
-      <c r="G68" s="260"/>
-      <c r="H68" s="260"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
-      <c r="K68" s="291"/>
-      <c r="L68" s="291"/>
-      <c r="M68" s="291"/>
-      <c r="N68" s="291"/>
-      <c r="O68" s="291"/>
-      <c r="P68" s="291"/>
-      <c r="Q68" s="291"/>
-      <c r="R68" s="291"/>
-      <c r="S68" s="291"/>
-      <c r="T68" s="291"/>
-      <c r="U68" s="291"/>
-      <c r="V68" s="291"/>
-      <c r="W68" s="291"/>
-      <c r="X68" s="291"/>
-      <c r="Y68" s="291"/>
+      <c r="F68" s="253" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="253"/>
+      <c r="H68" s="253"/>
+      <c r="I68" s="253"/>
+      <c r="J68" s="253"/>
+      <c r="K68" s="305"/>
+      <c r="L68" s="305"/>
+      <c r="M68" s="305"/>
+      <c r="N68" s="305"/>
+      <c r="O68" s="305"/>
+      <c r="P68" s="305"/>
+      <c r="Q68" s="305"/>
+      <c r="R68" s="305"/>
+      <c r="S68" s="305"/>
+      <c r="T68" s="305"/>
+      <c r="U68" s="305"/>
+      <c r="V68" s="305"/>
+      <c r="W68" s="305"/>
+      <c r="X68" s="305"/>
+      <c r="Y68" s="305"/>
       <c r="Z68" s="151"/>
       <c r="AA68" s="152"/>
       <c r="AB68" s="151"/>
@@ -10672,38 +10804,38 @@
     <row r="69" spans="1:30" ht="17.25" customHeight="1">
       <c r="A69" s="65"/>
       <c r="B69" s="146" t="s">
-        <v>51</v>
+        <v>627</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
       <c r="E69" s="148"/>
-      <c r="F69" s="260" t="s">
-        <v>248</v>
-      </c>
-      <c r="G69" s="260"/>
-      <c r="H69" s="260"/>
-      <c r="I69" s="260"/>
-      <c r="J69" s="260"/>
-      <c r="K69" s="308"/>
-      <c r="L69" s="308"/>
-      <c r="M69" s="308"/>
-      <c r="N69" s="308"/>
-      <c r="O69" s="308"/>
-      <c r="P69" s="308"/>
-      <c r="Q69" s="308"/>
-      <c r="R69" s="308"/>
-      <c r="S69" s="308"/>
-      <c r="T69" s="308"/>
-      <c r="U69" s="308"/>
-      <c r="V69" s="308"/>
-      <c r="W69" s="308"/>
-      <c r="X69" s="308"/>
-      <c r="Y69" s="308"/>
-      <c r="Z69" s="305"/>
-      <c r="AA69" s="305"/>
-      <c r="AB69" s="305"/>
-      <c r="AC69" s="305"/>
-      <c r="AD69" s="305"/>
+      <c r="F69" s="253" t="s">
+        <v>247</v>
+      </c>
+      <c r="G69" s="253"/>
+      <c r="H69" s="253"/>
+      <c r="I69" s="253"/>
+      <c r="J69" s="253"/>
+      <c r="K69" s="319"/>
+      <c r="L69" s="319"/>
+      <c r="M69" s="319"/>
+      <c r="N69" s="319"/>
+      <c r="O69" s="319"/>
+      <c r="P69" s="319"/>
+      <c r="Q69" s="319"/>
+      <c r="R69" s="319"/>
+      <c r="S69" s="319"/>
+      <c r="T69" s="319"/>
+      <c r="U69" s="319"/>
+      <c r="V69" s="319"/>
+      <c r="W69" s="319"/>
+      <c r="X69" s="319"/>
+      <c r="Y69" s="319"/>
+      <c r="Z69" s="316"/>
+      <c r="AA69" s="316"/>
+      <c r="AB69" s="316"/>
+      <c r="AC69" s="316"/>
+      <c r="AD69" s="316"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="65"/>
@@ -10713,27 +10845,27 @@
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="148"/>
-      <c r="F70" s="312" t="s">
-        <v>249</v>
-      </c>
-      <c r="G70" s="313"/>
-      <c r="H70" s="313"/>
-      <c r="I70" s="313"/>
-      <c r="J70" s="314"/>
+      <c r="F70" s="254" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="255"/>
+      <c r="H70" s="255"/>
+      <c r="I70" s="255"/>
+      <c r="J70" s="256"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="296"/>
-      <c r="M70" s="296"/>
-      <c r="N70" s="296"/>
+      <c r="L70" s="307"/>
+      <c r="M70" s="307"/>
+      <c r="N70" s="307"/>
       <c r="O70" s="110"/>
       <c r="P70" s="110"/>
-      <c r="Q70" s="296"/>
-      <c r="R70" s="296"/>
-      <c r="S70" s="296"/>
+      <c r="Q70" s="307"/>
+      <c r="R70" s="307"/>
+      <c r="S70" s="307"/>
       <c r="T70" s="110"/>
       <c r="U70" s="110"/>
-      <c r="V70" s="296"/>
-      <c r="W70" s="296"/>
-      <c r="X70" s="296"/>
+      <c r="V70" s="307"/>
+      <c r="W70" s="307"/>
+      <c r="X70" s="307"/>
       <c r="Y70" s="110"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10743,7 +10875,7 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1">
       <c r="A71" s="153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="65"/>
       <c r="C71" s="154"/>
@@ -10776,23 +10908,195 @@
       <c r="AD71" s="56"/>
     </row>
     <row r="72" spans="1:30" ht="17.25" customHeight="1">
+      <c r="A72" s="243"/>
+      <c r="B72" s="242" t="s">
+        <v>621</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
       <c r="N72" s="156"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="310"/>
-      <c r="K73" s="311"/>
-      <c r="L73" s="311"/>
-      <c r="M73" s="311"/>
+      <c r="B73" s="244" t="s">
+        <v>622</v>
+      </c>
+      <c r="C73" s="245"/>
+      <c r="D73" s="245"/>
+      <c r="E73" s="246"/>
+      <c r="F73" s="253" t="s">
+        <v>631</v>
+      </c>
+      <c r="G73" s="253"/>
+      <c r="H73" s="253"/>
+      <c r="I73" s="253"/>
+      <c r="J73" s="253"/>
+      <c r="K73" s="253"/>
+      <c r="L73" s="242"/>
+      <c r="M73" s="242"/>
       <c r="W73" s="157"/>
     </row>
+    <row r="74" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B74" s="244" t="s">
+        <v>623</v>
+      </c>
+      <c r="C74" s="245"/>
+      <c r="D74" s="245"/>
+      <c r="E74" s="246"/>
+      <c r="F74" s="253" t="s">
+        <v>633</v>
+      </c>
+      <c r="G74" s="253"/>
+      <c r="H74" s="253"/>
+      <c r="I74" s="253"/>
+      <c r="J74" s="253"/>
+      <c r="K74" s="253"/>
+    </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B75" s="244" t="s">
+        <v>626</v>
+      </c>
+      <c r="C75" s="245"/>
+      <c r="D75" s="245"/>
+      <c r="E75" s="246"/>
+      <c r="F75" s="253" t="s">
+        <v>634</v>
+      </c>
+      <c r="G75" s="253"/>
+      <c r="H75" s="253"/>
+      <c r="I75" s="253"/>
+      <c r="J75" s="253"/>
+      <c r="K75" s="253"/>
       <c r="R75" s="45" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="76" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B76" s="244" t="s">
+        <v>624</v>
+      </c>
+      <c r="C76" s="245"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="246"/>
+      <c r="F76" s="253" t="s">
+        <v>632</v>
+      </c>
+      <c r="G76" s="253"/>
+      <c r="H76" s="253"/>
+      <c r="I76" s="253"/>
+      <c r="J76" s="253"/>
+      <c r="K76" s="253"/>
+    </row>
+    <row r="77" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B77" s="244" t="s">
+        <v>625</v>
+      </c>
+      <c r="C77" s="245"/>
+      <c r="D77" s="245" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="246"/>
+      <c r="F77" s="253" t="s">
+        <v>635</v>
+      </c>
+      <c r="G77" s="253"/>
+      <c r="H77" s="253"/>
+      <c r="I77" s="253"/>
+      <c r="J77" s="253"/>
+      <c r="K77" s="253"/>
+    </row>
+    <row r="78" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B78" s="247" t="s">
+        <v>642</v>
+      </c>
+      <c r="C78" s="248"/>
+      <c r="D78" s="245" t="s">
+        <v>628</v>
+      </c>
+      <c r="E78" s="246"/>
+      <c r="F78" s="253" t="s">
+        <v>636</v>
+      </c>
+      <c r="G78" s="253"/>
+      <c r="H78" s="253"/>
+      <c r="I78" s="253" t="s">
+        <v>639</v>
+      </c>
+      <c r="J78" s="253"/>
+      <c r="K78" s="253"/>
+    </row>
+    <row r="79" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B79" s="249"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="245" t="s">
+        <v>629</v>
+      </c>
+      <c r="E79" s="246"/>
+      <c r="F79" s="254" t="s">
+        <v>637</v>
+      </c>
+      <c r="G79" s="255"/>
+      <c r="H79" s="256"/>
+      <c r="I79" s="254" t="s">
+        <v>640</v>
+      </c>
+      <c r="J79" s="255"/>
+      <c r="K79" s="256"/>
+    </row>
+    <row r="80" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B80" s="251"/>
+      <c r="C80" s="252"/>
+      <c r="D80" s="245" t="s">
+        <v>630</v>
+      </c>
+      <c r="E80" s="246"/>
+      <c r="F80" s="254" t="s">
+        <v>638</v>
+      </c>
+      <c r="G80" s="255"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="254" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" s="255"/>
+      <c r="K80" s="256"/>
+    </row>
+    <row r="81" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A81" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="154"/>
+      <c r="D81" s="154"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="155"/>
+      <c r="J81" s="155"/>
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="155"/>
+      <c r="P81" s="155"/>
+      <c r="Q81" s="155"/>
+      <c r="R81" s="155"/>
+      <c r="S81" s="155"/>
+      <c r="T81" s="155"/>
+      <c r="U81" s="155"/>
+      <c r="V81" s="155"/>
+      <c r="W81" s="155"/>
+      <c r="X81" s="155"/>
+      <c r="Y81" s="155"/>
+      <c r="Z81" s="145"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="223">
+  <mergeCells count="243">
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B38:B39"/>
@@ -10894,7 +11198,6 @@
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="T43:V43"/>
     <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
     <mergeCell ref="U68:Y68"/>
     <mergeCell ref="U62:Y62"/>
     <mergeCell ref="U63:Y63"/>
@@ -10915,6 +11218,7 @@
     <mergeCell ref="F68:J68"/>
     <mergeCell ref="K68:O68"/>
     <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K63:O63"/>
     <mergeCell ref="Z64:AD64"/>
     <mergeCell ref="U64:Y64"/>
     <mergeCell ref="P64:T64"/>
@@ -10929,9 +11233,6 @@
     <mergeCell ref="U69:Y69"/>
     <mergeCell ref="U67:Y67"/>
     <mergeCell ref="P67:T67"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M22:N22"/>
@@ -11016,6 +11317,29 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -11043,30 +11367,30 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:28"/>
     <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -11101,7 +11425,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -11123,72 +11447,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="367" t="s">
+      <c r="B8" s="373" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="373"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="373"/>
+      <c r="F8" s="366" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" s="367"/>
+      <c r="J8" s="373" t="s">
         <v>475</v>
       </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="360" t="s">
-        <v>576</v>
-      </c>
-      <c r="G8" s="361"/>
-      <c r="J8" s="367" t="s">
+      <c r="K8" s="373"/>
+      <c r="L8" s="373"/>
+      <c r="M8" s="374"/>
+      <c r="N8" s="366" t="s">
+        <v>491</v>
+      </c>
+      <c r="O8" s="367"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="373" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
+      <c r="E9" s="373"/>
+      <c r="F9" s="366" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="367"/>
+      <c r="J9" s="373" t="s">
+        <v>493</v>
+      </c>
+      <c r="K9" s="373"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="366" t="s">
+        <v>495</v>
+      </c>
+      <c r="O9" s="367"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="373" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="373"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="366" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="367"/>
+      <c r="J10" s="373" t="s">
         <v>476</v>
       </c>
-      <c r="K8" s="367"/>
-      <c r="L8" s="367"/>
-      <c r="M8" s="368"/>
-      <c r="N8" s="360" t="s">
-        <v>492</v>
-      </c>
-      <c r="O8" s="361"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="B9" s="367" t="s">
-        <v>493</v>
-      </c>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="360" t="s">
-        <v>499</v>
-      </c>
-      <c r="G9" s="361"/>
-      <c r="J9" s="367" t="s">
-        <v>494</v>
-      </c>
-      <c r="K9" s="367"/>
-      <c r="L9" s="367"/>
-      <c r="M9" s="368"/>
-      <c r="N9" s="360" t="s">
+      <c r="K10" s="373"/>
+      <c r="L10" s="373"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="366" t="s">
         <v>496</v>
       </c>
-      <c r="O9" s="361"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="B10" s="367" t="s">
-        <v>495</v>
-      </c>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="360" t="s">
-        <v>498</v>
-      </c>
-      <c r="G10" s="361"/>
-      <c r="J10" s="367" t="s">
-        <v>477</v>
-      </c>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="368"/>
-      <c r="N10" s="360" t="s">
-        <v>497</v>
-      </c>
-      <c r="O10" s="361"/>
+      <c r="O10" s="367"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -11220,108 +11544,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="368" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="366" t="s">
+        <v>499</v>
+      </c>
+      <c r="F13" s="367"/>
+      <c r="H13" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="C13" s="362"/>
-      <c r="D13" s="362"/>
-      <c r="E13" s="360" t="s">
-        <v>500</v>
-      </c>
-      <c r="F13" s="361"/>
-      <c r="H13" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="L13" s="363" t="s">
-        <v>447</v>
+      <c r="K13" s="369" t="s">
+        <v>500</v>
+      </c>
+      <c r="L13" s="369" t="s">
+        <v>446</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="362" t="s">
-        <v>450</v>
-      </c>
-      <c r="O13" s="362"/>
-      <c r="P13" s="362"/>
-      <c r="Q13" s="360" t="s">
-        <v>570</v>
-      </c>
-      <c r="R13" s="361"/>
+      <c r="N13" s="368" t="s">
+        <v>449</v>
+      </c>
+      <c r="O13" s="368"/>
+      <c r="P13" s="368"/>
+      <c r="Q13" s="366" t="s">
+        <v>569</v>
+      </c>
+      <c r="R13" s="367"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="362" t="s">
+      <c r="B14" s="368" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="366" t="s">
+        <v>501</v>
+      </c>
+      <c r="F14" s="367"/>
+      <c r="H14" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="C14" s="362"/>
-      <c r="D14" s="362"/>
-      <c r="E14" s="360" t="s">
-        <v>502</v>
-      </c>
-      <c r="F14" s="361"/>
-      <c r="H14" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="363" t="s">
+      <c r="K14" s="369" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" s="369"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="368" t="s">
+        <v>452</v>
+      </c>
+      <c r="O14" s="368"/>
+      <c r="P14" s="368"/>
+      <c r="Q14" s="366" t="s">
         <v>503</v>
       </c>
-      <c r="L14" s="363"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="362" t="s">
+      <c r="R14" s="367"/>
+      <c r="T14" s="368" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="360" t="s">
+      <c r="U14" s="368"/>
+      <c r="V14" s="366" t="s">
+        <v>576</v>
+      </c>
+      <c r="W14" s="367"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="368" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="366" t="s">
         <v>504</v>
       </c>
-      <c r="R14" s="361"/>
-      <c r="T14" s="362" t="s">
-        <v>454</v>
-      </c>
-      <c r="U14" s="362"/>
-      <c r="V14" s="360" t="s">
-        <v>577</v>
-      </c>
-      <c r="W14" s="361"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="B15" s="362" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" s="362"/>
-      <c r="D15" s="362"/>
-      <c r="E15" s="360" t="s">
-        <v>505</v>
-      </c>
-      <c r="F15" s="361"/>
+      <c r="F15" s="367"/>
       <c r="H15" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="363" t="s">
+      <c r="K15" s="369" t="s">
+        <v>505</v>
+      </c>
+      <c r="L15" s="369" t="s">
+        <v>455</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="368" t="s">
+        <v>457</v>
+      </c>
+      <c r="O15" s="368"/>
+      <c r="P15" s="368"/>
+      <c r="Q15" s="366" t="s">
         <v>506</v>
       </c>
-      <c r="L15" s="363" t="s">
-        <v>456</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="362" t="s">
-        <v>458</v>
-      </c>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="360" t="s">
-        <v>507</v>
-      </c>
-      <c r="R15" s="361"/>
+      <c r="R15" s="367"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -11332,7 +11656,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11350,59 +11674,59 @@
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
       <c r="B18" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="369" t="s">
+      <c r="F18" s="375" t="s">
+        <v>460</v>
+      </c>
+      <c r="G18" s="376"/>
+      <c r="H18" s="366" t="s">
+        <v>507</v>
+      </c>
+      <c r="I18" s="367"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="375" t="s">
         <v>461</v>
       </c>
-      <c r="G18" s="370"/>
-      <c r="H18" s="360" t="s">
+      <c r="L18" s="376"/>
+      <c r="M18" s="366" t="s">
         <v>508</v>
       </c>
-      <c r="I18" s="361"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="369" t="s">
-        <v>462</v>
-      </c>
-      <c r="L18" s="370"/>
-      <c r="M18" s="360" t="s">
-        <v>509</v>
-      </c>
-      <c r="N18" s="361"/>
+      <c r="N18" s="367"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="369" t="s">
+      <c r="F19" s="375" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="376"/>
+      <c r="H19" s="366" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" s="367"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="375" t="s">
         <v>461</v>
       </c>
-      <c r="G19" s="370"/>
-      <c r="H19" s="360" t="s">
+      <c r="L19" s="376"/>
+      <c r="M19" s="366" t="s">
         <v>510</v>
       </c>
-      <c r="I19" s="361"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="369" t="s">
-        <v>462</v>
-      </c>
-      <c r="L19" s="370"/>
-      <c r="M19" s="360" t="s">
-        <v>511</v>
-      </c>
-      <c r="N19" s="361"/>
+      <c r="N19" s="367"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -11420,7 +11744,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11445,27 +11769,27 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="363" t="s">
-        <v>571</v>
-      </c>
-      <c r="I23" s="363" t="s">
-        <v>447</v>
+      <c r="H23" s="369" t="s">
+        <v>570</v>
+      </c>
+      <c r="I23" s="369" t="s">
+        <v>446</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="375" t="s">
-        <v>465</v>
-      </c>
-      <c r="M23" s="376"/>
-      <c r="N23" s="364"/>
-      <c r="O23" s="366"/>
+      <c r="L23" s="381" t="s">
+        <v>464</v>
+      </c>
+      <c r="M23" s="382"/>
+      <c r="N23" s="370"/>
+      <c r="O23" s="372"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11475,22 +11799,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="371" t="s">
-        <v>466</v>
-      </c>
-      <c r="C24" s="371"/>
-      <c r="D24" s="371"/>
-      <c r="E24" s="371"/>
-      <c r="F24" s="371"/>
-      <c r="G24" s="371"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="366"/>
+      <c r="B24" s="377" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" s="377"/>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="377"/>
+      <c r="G24" s="377"/>
+      <c r="H24" s="370"/>
+      <c r="I24" s="371"/>
+      <c r="J24" s="371"/>
+      <c r="K24" s="371"/>
+      <c r="L24" s="371"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="371"/>
+      <c r="O24" s="372"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11501,7 +11825,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -11525,31 +11849,31 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="372"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
-      <c r="G26" s="373"/>
-      <c r="H26" s="373"/>
-      <c r="I26" s="373"/>
-      <c r="J26" s="373"/>
-      <c r="K26" s="373"/>
-      <c r="L26" s="373"/>
-      <c r="M26" s="373"/>
-      <c r="N26" s="373"/>
-      <c r="O26" s="373"/>
-      <c r="P26" s="373"/>
-      <c r="Q26" s="373"/>
-      <c r="R26" s="373"/>
-      <c r="S26" s="373"/>
-      <c r="T26" s="374"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="379"/>
+      <c r="E26" s="379"/>
+      <c r="F26" s="379"/>
+      <c r="G26" s="379"/>
+      <c r="H26" s="379"/>
+      <c r="I26" s="379"/>
+      <c r="J26" s="379"/>
+      <c r="K26" s="379"/>
+      <c r="L26" s="379"/>
+      <c r="M26" s="379"/>
+      <c r="N26" s="379"/>
+      <c r="O26" s="379"/>
+      <c r="P26" s="379"/>
+      <c r="Q26" s="379"/>
+      <c r="R26" s="379"/>
+      <c r="S26" s="379"/>
+      <c r="T26" s="380"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -11569,21 +11893,21 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="370" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="371"/>
+      <c r="E29" s="371"/>
+      <c r="F29" s="372"/>
+      <c r="H29" s="358" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="364" t="s">
-        <v>559</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="365"/>
-      <c r="F29" s="366"/>
-      <c r="H29" s="352" t="s">
+      <c r="I29" s="358"/>
+      <c r="J29" s="358"/>
+      <c r="K29" s="27" t="s">
         <v>470</v>
-      </c>
-      <c r="I29" s="352"/>
-      <c r="J29" s="352"/>
-      <c r="K29" s="27" t="s">
-        <v>471</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="27"/>
@@ -11591,7 +11915,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -11611,7 +11935,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -11631,7 +11955,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -11669,7 +11993,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11698,39 +12022,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="339" t="s">
+      <c r="B35" s="345" t="s">
+        <v>512</v>
+      </c>
+      <c r="C35" s="346"/>
+      <c r="D35" s="346"/>
+      <c r="E35" s="346"/>
+      <c r="F35" s="347"/>
+      <c r="G35" s="356" t="s">
+        <v>571</v>
+      </c>
+      <c r="H35" s="356"/>
+      <c r="I35" s="356"/>
+      <c r="J35" s="356"/>
+      <c r="K35" s="356"/>
+      <c r="L35" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
-      <c r="F35" s="341"/>
-      <c r="G35" s="350" t="s">
+      <c r="M35" s="363"/>
+      <c r="N35" s="364"/>
+      <c r="O35" s="365"/>
+      <c r="P35" s="349" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q35" s="350"/>
+      <c r="R35" s="350"/>
+      <c r="S35" s="351"/>
+      <c r="T35" s="353" t="s">
         <v>572</v>
       </c>
-      <c r="H35" s="350"/>
-      <c r="I35" s="350"/>
-      <c r="J35" s="350"/>
-      <c r="K35" s="350"/>
-      <c r="L35" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="M35" s="357"/>
-      <c r="N35" s="358"/>
-      <c r="O35" s="359"/>
-      <c r="P35" s="343" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q35" s="344"/>
-      <c r="R35" s="344"/>
-      <c r="S35" s="345"/>
-      <c r="T35" s="347" t="s">
-        <v>573</v>
-      </c>
-      <c r="U35" s="348"/>
-      <c r="V35" s="348"/>
-      <c r="W35" s="348"/>
-      <c r="X35" s="349"/>
+      <c r="U35" s="354"/>
+      <c r="V35" s="354"/>
+      <c r="W35" s="354"/>
+      <c r="X35" s="355"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11742,78 +12066,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="353"/>
-      <c r="H36" s="354"/>
-      <c r="I36" s="354"/>
-      <c r="J36" s="354"/>
-      <c r="K36" s="354"/>
-      <c r="L36" s="354"/>
-      <c r="M36" s="354"/>
-      <c r="N36" s="354"/>
-      <c r="O36" s="355"/>
-      <c r="P36" s="343" t="s">
+      <c r="G36" s="359"/>
+      <c r="H36" s="360"/>
+      <c r="I36" s="360"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="360"/>
+      <c r="L36" s="360"/>
+      <c r="M36" s="360"/>
+      <c r="N36" s="360"/>
+      <c r="O36" s="361"/>
+      <c r="P36" s="349" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q36" s="350"/>
+      <c r="R36" s="350"/>
+      <c r="S36" s="351"/>
+      <c r="T36" s="356" t="s">
+        <v>573</v>
+      </c>
+      <c r="U36" s="356"/>
+      <c r="V36" s="356"/>
+      <c r="W36" s="356"/>
+      <c r="X36" s="356"/>
+      <c r="Y36" s="40"/>
+    </row>
+    <row r="37" spans="1:25" ht="14.45" customHeight="1">
+      <c r="A37" s="41"/>
+      <c r="B37" s="348" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="348"/>
+      <c r="D37" s="348"/>
+      <c r="E37" s="348"/>
+      <c r="F37" s="348"/>
+      <c r="G37" s="357" t="s">
+        <v>574</v>
+      </c>
+      <c r="H37" s="357"/>
+      <c r="I37" s="357"/>
+      <c r="J37" s="357"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="357"/>
+      <c r="M37" s="357"/>
+      <c r="N37" s="357"/>
+      <c r="O37" s="357"/>
+      <c r="P37" s="352" t="s">
         <v>516</v>
       </c>
-      <c r="Q36" s="344"/>
-      <c r="R36" s="344"/>
-      <c r="S36" s="345"/>
-      <c r="T36" s="350" t="s">
-        <v>574</v>
-      </c>
-      <c r="U36" s="350"/>
-      <c r="V36" s="350"/>
-      <c r="W36" s="350"/>
-      <c r="X36" s="350"/>
-      <c r="Y36" s="40"/>
-    </row>
-    <row r="37" spans="1:25" ht="14.4" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="342" t="s">
-        <v>519</v>
-      </c>
-      <c r="C37" s="342"/>
-      <c r="D37" s="342"/>
-      <c r="E37" s="342"/>
-      <c r="F37" s="342"/>
-      <c r="G37" s="351" t="s">
-        <v>575</v>
-      </c>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="346" t="s">
+      <c r="Q37" s="352"/>
+      <c r="R37" s="352"/>
+      <c r="S37" s="352"/>
+      <c r="T37" s="362" t="s">
         <v>517</v>
       </c>
-      <c r="Q37" s="346"/>
-      <c r="R37" s="346"/>
-      <c r="S37" s="346"/>
-      <c r="T37" s="356" t="s">
-        <v>518</v>
-      </c>
-      <c r="U37" s="356"/>
-      <c r="V37" s="356"/>
-      <c r="W37" s="356"/>
-      <c r="X37" s="356"/>
+      <c r="U37" s="362"/>
+      <c r="V37" s="362"/>
+      <c r="W37" s="362"/>
+      <c r="X37" s="362"/>
       <c r="Y37" s="40"/>
     </row>
-    <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="38" spans="1:25" customFormat="1" ht="14.45" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="379" t="s">
-        <v>481</v>
-      </c>
-      <c r="C39" s="379"/>
-      <c r="D39" s="380" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="380"/>
-      <c r="F39" s="380"/>
-      <c r="G39" s="380"/>
-      <c r="H39" s="380"/>
+      <c r="B39" s="385" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="385"/>
+      <c r="D39" s="386" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="386"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="386"/>
+      <c r="H39" s="386"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11823,15 +12147,15 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="R39" s="380" t="s">
-        <v>62</v>
-      </c>
-      <c r="S39" s="380"/>
-      <c r="T39" s="380"/>
-      <c r="U39" s="380"/>
-      <c r="V39" s="380"/>
+        <v>481</v>
+      </c>
+      <c r="R39" s="386" t="s">
+        <v>61</v>
+      </c>
+      <c r="S39" s="386"/>
+      <c r="T39" s="386"/>
+      <c r="U39" s="386"/>
+      <c r="V39" s="386"/>
       <c r="W39" s="212"/>
       <c r="X39" s="19"/>
     </row>
@@ -11862,95 +12186,95 @@
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="C41" s="377"/>
-      <c r="D41" s="377"/>
-      <c r="E41" s="377"/>
-      <c r="F41" s="377"/>
-      <c r="G41" s="377"/>
+        <v>482</v>
+      </c>
+      <c r="C41" s="383"/>
+      <c r="D41" s="383"/>
+      <c r="E41" s="383"/>
+      <c r="F41" s="383"/>
+      <c r="G41" s="383"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J41" s="377"/>
-      <c r="K41" s="377"/>
-      <c r="L41" s="377"/>
-      <c r="M41" s="377"/>
-      <c r="N41" s="377"/>
-      <c r="O41" s="377"/>
+        <v>483</v>
+      </c>
+      <c r="J41" s="383"/>
+      <c r="K41" s="383"/>
+      <c r="L41" s="383"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="383"/>
+      <c r="O41" s="383"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="R41" s="378"/>
-      <c r="S41" s="378"/>
-      <c r="T41" s="378"/>
-      <c r="U41" s="378"/>
-      <c r="V41" s="378"/>
-      <c r="W41" s="378"/>
+        <v>484</v>
+      </c>
+      <c r="R41" s="384"/>
+      <c r="S41" s="384"/>
+      <c r="T41" s="384"/>
+      <c r="U41" s="384"/>
+      <c r="V41" s="384"/>
+      <c r="W41" s="384"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C42" s="377"/>
-      <c r="D42" s="377"/>
-      <c r="E42" s="377"/>
-      <c r="F42" s="377"/>
-      <c r="G42" s="377"/>
+        <v>485</v>
+      </c>
+      <c r="C42" s="383"/>
+      <c r="D42" s="383"/>
+      <c r="E42" s="383"/>
+      <c r="F42" s="383"/>
+      <c r="G42" s="383"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J42" s="377"/>
-      <c r="K42" s="377"/>
-      <c r="L42" s="377"/>
-      <c r="M42" s="377"/>
-      <c r="N42" s="377"/>
-      <c r="O42" s="377"/>
+        <v>486</v>
+      </c>
+      <c r="J42" s="383"/>
+      <c r="K42" s="383"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="R42" s="378"/>
-      <c r="S42" s="378"/>
-      <c r="T42" s="378"/>
-      <c r="U42" s="378"/>
-      <c r="V42" s="378"/>
-      <c r="W42" s="378"/>
+        <v>487</v>
+      </c>
+      <c r="R42" s="384"/>
+      <c r="S42" s="384"/>
+      <c r="T42" s="384"/>
+      <c r="U42" s="384"/>
+      <c r="V42" s="384"/>
+      <c r="W42" s="384"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="C43" s="377"/>
-      <c r="D43" s="377"/>
-      <c r="E43" s="377"/>
-      <c r="F43" s="377"/>
-      <c r="G43" s="377"/>
+        <v>488</v>
+      </c>
+      <c r="C43" s="383"/>
+      <c r="D43" s="383"/>
+      <c r="E43" s="383"/>
+      <c r="F43" s="383"/>
+      <c r="G43" s="383"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J43" s="377"/>
-      <c r="K43" s="377"/>
-      <c r="L43" s="377"/>
-      <c r="M43" s="377"/>
-      <c r="N43" s="377"/>
-      <c r="O43" s="377"/>
+        <v>489</v>
+      </c>
+      <c r="J43" s="383"/>
+      <c r="K43" s="383"/>
+      <c r="L43" s="383"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
+      <c r="O43" s="383"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="R43" s="378"/>
-      <c r="S43" s="378"/>
-      <c r="T43" s="378"/>
-      <c r="U43" s="378"/>
-      <c r="V43" s="378"/>
-      <c r="W43" s="378"/>
+        <v>490</v>
+      </c>
+      <c r="R43" s="384"/>
+      <c r="S43" s="384"/>
+      <c r="T43" s="384"/>
+      <c r="U43" s="384"/>
+      <c r="V43" s="384"/>
+      <c r="W43" s="384"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -12094,31 +12418,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="158" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="158" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="158" customWidth="1"/>
-    <col min="5" max="10" width="12.6640625" style="158" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="159" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="160" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="207" customWidth="1"/>
-    <col min="14" max="18" width="12.6640625" style="158" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="159" customWidth="1"/>
-    <col min="20" max="28" width="12.6640625" style="158" customWidth="1"/>
-    <col min="29" max="30" width="5.6640625" style="160" customWidth="1"/>
-    <col min="31" max="33" width="4.33203125" style="160" customWidth="1"/>
-    <col min="34" max="34" width="4.33203125" style="207" customWidth="1"/>
-    <col min="35" max="38" width="4.33203125" style="160" customWidth="1"/>
-    <col min="39" max="41" width="3.88671875" style="160" customWidth="1"/>
-    <col min="42" max="42" width="3.88671875" style="207" customWidth="1"/>
-    <col min="43" max="67" width="3.88671875" style="160" customWidth="1"/>
-    <col min="68" max="75" width="3.88671875" style="158" customWidth="1"/>
-    <col min="76" max="16384" width="10.33203125" style="158"/>
+    <col min="1" max="1" width="13.7109375" style="158" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="158" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="158" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="158" customWidth="1"/>
+    <col min="5" max="10" width="12.7109375" style="158" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="159" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="160" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="207" customWidth="1"/>
+    <col min="14" max="18" width="12.7109375" style="158" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="159" customWidth="1"/>
+    <col min="20" max="28" width="12.7109375" style="158" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" style="160" customWidth="1"/>
+    <col min="31" max="33" width="4.28515625" style="160" customWidth="1"/>
+    <col min="34" max="34" width="4.28515625" style="207" customWidth="1"/>
+    <col min="35" max="38" width="4.28515625" style="160" customWidth="1"/>
+    <col min="39" max="41" width="3.85546875" style="160" customWidth="1"/>
+    <col min="42" max="42" width="3.85546875" style="207" customWidth="1"/>
+    <col min="43" max="67" width="3.85546875" style="160" customWidth="1"/>
+    <col min="68" max="75" width="3.85546875" style="158" customWidth="1"/>
+    <col min="76" max="16384" width="10.28515625" style="158"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="16.2" thickBot="1">
+    <row r="1" spans="1:75" ht="16.5" thickBot="1">
       <c r="M1" s="160"/>
       <c r="AH1" s="160"/>
       <c r="AP1" s="160"/>
@@ -12127,37 +12451,37 @@
       <c r="A2" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="428" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="440" t="s">
-        <v>581</v>
-      </c>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
-      <c r="K2" s="441"/>
-      <c r="L2" s="441"/>
-      <c r="M2" s="441"/>
-      <c r="N2" s="441"/>
-      <c r="O2" s="441"/>
-      <c r="P2" s="441"/>
-      <c r="Q2" s="441"/>
-      <c r="R2" s="441"/>
-      <c r="S2" s="441"/>
-      <c r="T2" s="441"/>
-      <c r="U2" s="441"/>
-      <c r="V2" s="441"/>
-      <c r="W2" s="441"/>
-      <c r="X2" s="441"/>
-      <c r="Y2" s="441"/>
-      <c r="Z2" s="441"/>
-      <c r="AA2" s="441"/>
-      <c r="AB2" s="442"/>
+      <c r="B2" s="434" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="446" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="447"/>
+      <c r="J2" s="447"/>
+      <c r="K2" s="447"/>
+      <c r="L2" s="447"/>
+      <c r="M2" s="447"/>
+      <c r="N2" s="447"/>
+      <c r="O2" s="447"/>
+      <c r="P2" s="447"/>
+      <c r="Q2" s="447"/>
+      <c r="R2" s="447"/>
+      <c r="S2" s="447"/>
+      <c r="T2" s="447"/>
+      <c r="U2" s="447"/>
+      <c r="V2" s="447"/>
+      <c r="W2" s="447"/>
+      <c r="X2" s="447"/>
+      <c r="Y2" s="447"/>
+      <c r="Z2" s="447"/>
+      <c r="AA2" s="447"/>
+      <c r="AB2" s="448"/>
       <c r="AC2" s="162"/>
       <c r="AD2" s="162"/>
       <c r="AE2" s="162"/>
@@ -12167,54 +12491,54 @@
       <c r="AI2" s="163"/>
       <c r="AJ2" s="163"/>
       <c r="AP2" s="160"/>
-      <c r="BF2" s="429"/>
-      <c r="BG2" s="429"/>
-      <c r="BH2" s="429"/>
-      <c r="BI2" s="429"/>
-      <c r="BJ2" s="429"/>
-      <c r="BK2" s="429"/>
-      <c r="BL2" s="429"/>
-      <c r="BM2" s="429"/>
-      <c r="BN2" s="429"/>
-      <c r="BO2" s="429"/>
-      <c r="BP2" s="429"/>
-      <c r="BQ2" s="429"/>
-      <c r="BR2" s="429"/>
-      <c r="BS2" s="429"/>
-    </row>
-    <row r="3" spans="1:75" ht="46.95" customHeight="1" thickBot="1">
+      <c r="BF2" s="435"/>
+      <c r="BG2" s="435"/>
+      <c r="BH2" s="435"/>
+      <c r="BI2" s="435"/>
+      <c r="BJ2" s="435"/>
+      <c r="BK2" s="435"/>
+      <c r="BL2" s="435"/>
+      <c r="BM2" s="435"/>
+      <c r="BN2" s="435"/>
+      <c r="BO2" s="435"/>
+      <c r="BP2" s="435"/>
+      <c r="BQ2" s="435"/>
+      <c r="BR2" s="435"/>
+      <c r="BS2" s="435"/>
+    </row>
+    <row r="3" spans="1:75" ht="46.9" customHeight="1" thickBot="1">
       <c r="A3" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="428" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="444"/>
-      <c r="G3" s="444"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="444"/>
-      <c r="M3" s="444"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="444"/>
-      <c r="P3" s="444"/>
-      <c r="Q3" s="444"/>
-      <c r="R3" s="444"/>
-      <c r="S3" s="444"/>
-      <c r="T3" s="444"/>
-      <c r="U3" s="444"/>
-      <c r="V3" s="444"/>
-      <c r="W3" s="444"/>
-      <c r="X3" s="444"/>
-      <c r="Y3" s="444"/>
-      <c r="Z3" s="444"/>
-      <c r="AA3" s="444"/>
-      <c r="AB3" s="445"/>
+      <c r="B3" s="434" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="449"/>
+      <c r="F3" s="450"/>
+      <c r="G3" s="450"/>
+      <c r="H3" s="450"/>
+      <c r="I3" s="450"/>
+      <c r="J3" s="450"/>
+      <c r="K3" s="450"/>
+      <c r="L3" s="450"/>
+      <c r="M3" s="450"/>
+      <c r="N3" s="450"/>
+      <c r="O3" s="450"/>
+      <c r="P3" s="450"/>
+      <c r="Q3" s="450"/>
+      <c r="R3" s="450"/>
+      <c r="S3" s="450"/>
+      <c r="T3" s="450"/>
+      <c r="U3" s="450"/>
+      <c r="V3" s="450"/>
+      <c r="W3" s="450"/>
+      <c r="X3" s="450"/>
+      <c r="Y3" s="450"/>
+      <c r="Z3" s="450"/>
+      <c r="AA3" s="450"/>
+      <c r="AB3" s="451"/>
       <c r="AC3" s="162"/>
       <c r="AD3" s="162"/>
       <c r="AE3" s="162"/>
@@ -12323,22 +12647,22 @@
       <c r="BO4" s="158"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="426" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="446" t="s">
+      <c r="A5" s="432" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="452" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="438" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="454" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="432" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="448" t="s">
-        <v>412</v>
-      </c>
-      <c r="E5" s="450" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5" s="451"/>
+      <c r="E5" s="456" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="457"/>
       <c r="G5" s="168"/>
       <c r="H5" s="168"/>
       <c r="I5" s="168"/>
@@ -12365,10 +12689,10 @@
       <c r="AD5" s="172"/>
       <c r="AE5" s="173"/>
       <c r="AF5" s="173"/>
-      <c r="AG5" s="430"/>
-      <c r="AH5" s="430"/>
-      <c r="AI5" s="430"/>
-      <c r="AJ5" s="430"/>
+      <c r="AG5" s="436"/>
+      <c r="AH5" s="436"/>
+      <c r="AI5" s="436"/>
+      <c r="AJ5" s="436"/>
       <c r="AK5" s="174"/>
       <c r="AL5" s="175"/>
       <c r="AM5" s="176"/>
@@ -12410,12 +12734,12 @@
       <c r="BW5" s="176"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="427"/>
-      <c r="B6" s="447"/>
-      <c r="C6" s="433"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="452"/>
-      <c r="F6" s="453"/>
+      <c r="A6" s="433"/>
+      <c r="B6" s="453"/>
+      <c r="C6" s="439"/>
+      <c r="D6" s="455"/>
+      <c r="E6" s="458"/>
+      <c r="F6" s="459"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -12440,12 +12764,12 @@
       <c r="AB6" s="113"/>
       <c r="AC6" s="113"/>
       <c r="AD6" s="113"/>
-      <c r="AE6" s="431"/>
-      <c r="AF6" s="431"/>
+      <c r="AE6" s="437"/>
+      <c r="AF6" s="437"/>
       <c r="AG6" s="177"/>
       <c r="AH6" s="178"/>
-      <c r="AI6" s="431"/>
-      <c r="AJ6" s="431"/>
+      <c r="AI6" s="437"/>
+      <c r="AJ6" s="437"/>
       <c r="AK6" s="178"/>
       <c r="AL6" s="179"/>
       <c r="AM6" s="179"/>
@@ -12487,22 +12811,22 @@
       <c r="BW6" s="180"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="424" t="s">
+      <c r="A7" s="430" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="387" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="381" t="s">
+      <c r="C7" s="430" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="424" t="s">
+      <c r="D7" s="431" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="425" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="385" t="s">
-        <v>523</v>
-      </c>
-      <c r="F7" s="386"/>
+      <c r="E7" s="391" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="392"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -12552,14 +12876,14 @@
       <c r="BW7" s="187"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="424"/>
-      <c r="B8" s="382"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="385" t="s">
-        <v>413</v>
-      </c>
-      <c r="F8" s="386"/>
+      <c r="A8" s="430"/>
+      <c r="B8" s="388"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="431"/>
+      <c r="E8" s="391" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="392"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -12606,22 +12930,22 @@
       <c r="BW8" s="187"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="424" t="s">
+      <c r="A9" s="430" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="387" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="381" t="s">
+      <c r="C9" s="430" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="424" t="s">
+      <c r="D9" s="431" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="425" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="385" t="s">
-        <v>524</v>
-      </c>
-      <c r="F9" s="386"/>
+      <c r="E9" s="391" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="392"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -12668,14 +12992,14 @@
       <c r="BW9" s="187"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="424"/>
-      <c r="B10" s="382"/>
-      <c r="C10" s="424"/>
-      <c r="D10" s="425"/>
-      <c r="E10" s="385" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="386"/>
+      <c r="A10" s="430"/>
+      <c r="B10" s="388"/>
+      <c r="C10" s="430"/>
+      <c r="D10" s="431"/>
+      <c r="E10" s="391" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="392"/>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
       <c r="I10" s="113"/>
@@ -12726,22 +13050,22 @@
       <c r="BW10" s="187"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="424" t="s">
+      <c r="A11" s="430" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="387" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="381" t="s">
+      <c r="C11" s="430" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="424" t="s">
+      <c r="D11" s="431" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="425" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="385" t="s">
-        <v>525</v>
-      </c>
-      <c r="F11" s="386"/>
+      <c r="E11" s="391" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="392"/>
       <c r="G11" s="113"/>
       <c r="H11" s="113"/>
       <c r="I11" s="113"/>
@@ -12793,14 +13117,14 @@
       <c r="BW11" s="187"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="424"/>
-      <c r="B12" s="382"/>
-      <c r="C12" s="424"/>
-      <c r="D12" s="425"/>
-      <c r="E12" s="385" t="s">
-        <v>415</v>
-      </c>
-      <c r="F12" s="386"/>
+      <c r="A12" s="430"/>
+      <c r="B12" s="388"/>
+      <c r="C12" s="430"/>
+      <c r="D12" s="431"/>
+      <c r="E12" s="391" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="392"/>
       <c r="G12" s="113"/>
       <c r="H12" s="113"/>
       <c r="I12" s="113"/>
@@ -12852,22 +13176,22 @@
       <c r="BW12" s="187"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="424" t="s">
+      <c r="A13" s="430" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="387" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="381" t="s">
+      <c r="C13" s="430" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="424" t="s">
+      <c r="D13" s="431" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="425" t="s">
-        <v>340</v>
-      </c>
-      <c r="E13" s="385" t="s">
-        <v>526</v>
-      </c>
-      <c r="F13" s="386"/>
+      <c r="E13" s="391" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="392"/>
       <c r="G13" s="113"/>
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
@@ -12919,14 +13243,14 @@
       <c r="BW13" s="187"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="424"/>
-      <c r="B14" s="382"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="425"/>
-      <c r="E14" s="385" t="s">
-        <v>416</v>
-      </c>
-      <c r="F14" s="386"/>
+      <c r="A14" s="430"/>
+      <c r="B14" s="388"/>
+      <c r="C14" s="430"/>
+      <c r="D14" s="431"/>
+      <c r="E14" s="391" t="s">
+        <v>415</v>
+      </c>
+      <c r="F14" s="392"/>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -12978,22 +13302,22 @@
       <c r="BW14" s="187"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="424" t="s">
+      <c r="A15" s="430" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="387" t="s">
         <v>341</v>
       </c>
-      <c r="B15" s="381" t="s">
+      <c r="C15" s="430" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="424" t="s">
+      <c r="D15" s="431" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="425" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="385" t="s">
-        <v>527</v>
-      </c>
-      <c r="F15" s="386"/>
+      <c r="E15" s="391" t="s">
+        <v>526</v>
+      </c>
+      <c r="F15" s="392"/>
       <c r="G15" s="113"/>
       <c r="H15" s="113"/>
       <c r="I15" s="113"/>
@@ -13045,14 +13369,14 @@
       <c r="BW15" s="187"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="424"/>
-      <c r="B16" s="382"/>
-      <c r="C16" s="424"/>
-      <c r="D16" s="425"/>
-      <c r="E16" s="385" t="s">
-        <v>417</v>
-      </c>
-      <c r="F16" s="386"/>
+      <c r="A16" s="430"/>
+      <c r="B16" s="388"/>
+      <c r="C16" s="430"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="391" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="392"/>
       <c r="G16" s="113"/>
       <c r="H16" s="113"/>
       <c r="I16" s="113"/>
@@ -13099,22 +13423,22 @@
       <c r="BW16" s="187"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="424" t="s">
+      <c r="A17" s="430" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="387" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="381" t="s">
+      <c r="C17" s="430" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="424" t="s">
+      <c r="D17" s="431" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="425" t="s">
-        <v>348</v>
-      </c>
-      <c r="E17" s="385" t="s">
-        <v>528</v>
-      </c>
-      <c r="F17" s="386"/>
+      <c r="E17" s="391" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="392"/>
       <c r="G17" s="113"/>
       <c r="H17" s="113"/>
       <c r="I17" s="113"/>
@@ -13161,14 +13485,14 @@
       <c r="BW17" s="187"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="424"/>
-      <c r="B18" s="382"/>
-      <c r="C18" s="424"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="385" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" s="386"/>
+      <c r="A18" s="430"/>
+      <c r="B18" s="388"/>
+      <c r="C18" s="430"/>
+      <c r="D18" s="431"/>
+      <c r="E18" s="391" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="392"/>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
       <c r="I18" s="113"/>
@@ -13223,22 +13547,22 @@
       <c r="BW18" s="187"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="424" t="s">
+      <c r="A19" s="430" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="387" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="381" t="s">
+      <c r="C19" s="430" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="424" t="s">
+      <c r="D19" s="431" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="425" t="s">
-        <v>352</v>
-      </c>
-      <c r="E19" s="385" t="s">
-        <v>529</v>
-      </c>
-      <c r="F19" s="386"/>
+      <c r="E19" s="391" t="s">
+        <v>528</v>
+      </c>
+      <c r="F19" s="392"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
@@ -13285,14 +13609,14 @@
       <c r="BW19" s="187"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="424"/>
-      <c r="B20" s="382"/>
-      <c r="C20" s="424"/>
-      <c r="D20" s="425"/>
-      <c r="E20" s="385" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="386"/>
+      <c r="A20" s="430"/>
+      <c r="B20" s="388"/>
+      <c r="C20" s="430"/>
+      <c r="D20" s="431"/>
+      <c r="E20" s="391" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="392"/>
       <c r="G20" s="113"/>
       <c r="H20" s="113"/>
       <c r="I20" s="113"/>
@@ -13339,22 +13663,22 @@
       <c r="BW20" s="187"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="424" t="s">
+      <c r="A21" s="430" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="387" t="s">
         <v>353</v>
       </c>
-      <c r="B21" s="381" t="s">
+      <c r="C21" s="430" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="424" t="s">
+      <c r="D21" s="431" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="425" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21" s="385" t="s">
-        <v>530</v>
-      </c>
-      <c r="F21" s="386"/>
+      <c r="E21" s="391" t="s">
+        <v>529</v>
+      </c>
+      <c r="F21" s="392"/>
       <c r="G21" s="113"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
@@ -13401,14 +13725,14 @@
       <c r="BW21" s="187"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="424"/>
-      <c r="B22" s="382"/>
-      <c r="C22" s="424"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="385" t="s">
-        <v>420</v>
-      </c>
-      <c r="F22" s="386"/>
+      <c r="A22" s="430"/>
+      <c r="B22" s="388"/>
+      <c r="C22" s="430"/>
+      <c r="D22" s="431"/>
+      <c r="E22" s="391" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="392"/>
       <c r="G22" s="113"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
@@ -13455,22 +13779,22 @@
       <c r="BW22" s="187"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="424" t="s">
+      <c r="A23" s="430" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="387" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="381" t="s">
+      <c r="C23" s="430" t="s">
         <v>358</v>
       </c>
-      <c r="C23" s="424" t="s">
+      <c r="D23" s="431" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="425" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="385" t="s">
-        <v>531</v>
-      </c>
-      <c r="F23" s="386"/>
+      <c r="E23" s="391" t="s">
+        <v>530</v>
+      </c>
+      <c r="F23" s="392"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
@@ -13517,14 +13841,14 @@
       <c r="BW23" s="187"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="424"/>
-      <c r="B24" s="382"/>
-      <c r="C24" s="424"/>
-      <c r="D24" s="425"/>
-      <c r="E24" s="385" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="386"/>
+      <c r="A24" s="430"/>
+      <c r="B24" s="388"/>
+      <c r="C24" s="430"/>
+      <c r="D24" s="431"/>
+      <c r="E24" s="391" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" s="392"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
       <c r="I24" s="113"/>
@@ -13571,22 +13895,22 @@
       <c r="BW24" s="187"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="424" t="s">
+      <c r="A25" s="430" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="387" t="s">
         <v>361</v>
       </c>
-      <c r="B25" s="381" t="s">
+      <c r="C25" s="430" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="424" t="s">
+      <c r="D25" s="431" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="425" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="385" t="s">
-        <v>532</v>
-      </c>
-      <c r="F25" s="386"/>
+      <c r="E25" s="391" t="s">
+        <v>531</v>
+      </c>
+      <c r="F25" s="392"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
@@ -13633,14 +13957,14 @@
       <c r="BW25" s="187"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="424"/>
-      <c r="B26" s="382"/>
-      <c r="C26" s="424"/>
-      <c r="D26" s="425"/>
-      <c r="E26" s="385" t="s">
-        <v>422</v>
-      </c>
-      <c r="F26" s="386"/>
+      <c r="A26" s="430"/>
+      <c r="B26" s="388"/>
+      <c r="C26" s="430"/>
+      <c r="D26" s="431"/>
+      <c r="E26" s="391" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="392"/>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
@@ -13687,22 +14011,22 @@
       <c r="BW26" s="187"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="424" t="s">
+      <c r="A27" s="430" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="387" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="381" t="s">
+      <c r="C27" s="430" t="s">
         <v>366</v>
       </c>
-      <c r="C27" s="424" t="s">
+      <c r="D27" s="431" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="425" t="s">
-        <v>368</v>
-      </c>
-      <c r="E27" s="385" t="s">
-        <v>533</v>
-      </c>
-      <c r="F27" s="386"/>
+      <c r="E27" s="391" t="s">
+        <v>532</v>
+      </c>
+      <c r="F27" s="392"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
@@ -13749,14 +14073,14 @@
       <c r="BW27" s="187"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="424"/>
-      <c r="B28" s="382"/>
-      <c r="C28" s="424"/>
-      <c r="D28" s="425"/>
-      <c r="E28" s="385" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="386"/>
+      <c r="A28" s="430"/>
+      <c r="B28" s="388"/>
+      <c r="C28" s="430"/>
+      <c r="D28" s="431"/>
+      <c r="E28" s="391" t="s">
+        <v>422</v>
+      </c>
+      <c r="F28" s="392"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
@@ -13803,22 +14127,22 @@
       <c r="BW28" s="187"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="424" t="s">
+      <c r="A29" s="430" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="387" t="s">
         <v>369</v>
       </c>
-      <c r="B29" s="381" t="s">
+      <c r="C29" s="430" t="s">
         <v>370</v>
       </c>
-      <c r="C29" s="424" t="s">
+      <c r="D29" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="D29" s="425" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="385" t="s">
-        <v>534</v>
-      </c>
-      <c r="F29" s="386"/>
+      <c r="E29" s="391" t="s">
+        <v>533</v>
+      </c>
+      <c r="F29" s="392"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
@@ -13865,14 +14189,14 @@
       <c r="BW29" s="187"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="424"/>
-      <c r="B30" s="382"/>
-      <c r="C30" s="424"/>
-      <c r="D30" s="425"/>
-      <c r="E30" s="385" t="s">
-        <v>424</v>
-      </c>
-      <c r="F30" s="386"/>
+      <c r="A30" s="430"/>
+      <c r="B30" s="388"/>
+      <c r="C30" s="430"/>
+      <c r="D30" s="431"/>
+      <c r="E30" s="391" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" s="392"/>
       <c r="G30" s="113"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
@@ -13919,22 +14243,22 @@
       <c r="BW30" s="187"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="424" t="s">
+      <c r="A31" s="430" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="387" t="s">
         <v>373</v>
       </c>
-      <c r="B31" s="381" t="s">
+      <c r="C31" s="430" t="s">
         <v>374</v>
       </c>
-      <c r="C31" s="424" t="s">
+      <c r="D31" s="431" t="s">
         <v>375</v>
       </c>
-      <c r="D31" s="425" t="s">
-        <v>376</v>
-      </c>
-      <c r="E31" s="385" t="s">
-        <v>535</v>
-      </c>
-      <c r="F31" s="386"/>
+      <c r="E31" s="391" t="s">
+        <v>534</v>
+      </c>
+      <c r="F31" s="392"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
@@ -13981,14 +14305,14 @@
       <c r="BW31" s="187"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="424"/>
-      <c r="B32" s="382"/>
-      <c r="C32" s="424"/>
-      <c r="D32" s="425"/>
-      <c r="E32" s="385" t="s">
-        <v>425</v>
-      </c>
-      <c r="F32" s="386"/>
+      <c r="A32" s="430"/>
+      <c r="B32" s="388"/>
+      <c r="C32" s="430"/>
+      <c r="D32" s="431"/>
+      <c r="E32" s="391" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="392"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
@@ -14035,22 +14359,22 @@
       <c r="BW32" s="187"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="424" t="s">
+      <c r="A33" s="430" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="387" t="s">
         <v>377</v>
       </c>
-      <c r="B33" s="381" t="s">
+      <c r="C33" s="430" t="s">
         <v>378</v>
       </c>
-      <c r="C33" s="424" t="s">
+      <c r="D33" s="431" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="425" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" s="385" t="s">
-        <v>536</v>
-      </c>
-      <c r="F33" s="386"/>
+      <c r="E33" s="391" t="s">
+        <v>535</v>
+      </c>
+      <c r="F33" s="392"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
@@ -14097,14 +14421,14 @@
       <c r="BW33" s="187"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="424"/>
-      <c r="B34" s="382"/>
-      <c r="C34" s="424"/>
-      <c r="D34" s="425"/>
-      <c r="E34" s="385" t="s">
-        <v>426</v>
-      </c>
-      <c r="F34" s="386"/>
+      <c r="A34" s="430"/>
+      <c r="B34" s="388"/>
+      <c r="C34" s="430"/>
+      <c r="D34" s="431"/>
+      <c r="E34" s="391" t="s">
+        <v>425</v>
+      </c>
+      <c r="F34" s="392"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -14151,22 +14475,22 @@
       <c r="BW34" s="187"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="424" t="s">
+      <c r="A35" s="430" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="387" t="s">
         <v>381</v>
       </c>
-      <c r="B35" s="381" t="s">
+      <c r="C35" s="430" t="s">
         <v>382</v>
       </c>
-      <c r="C35" s="424" t="s">
+      <c r="D35" s="431" t="s">
         <v>383</v>
       </c>
-      <c r="D35" s="425" t="s">
-        <v>384</v>
-      </c>
-      <c r="E35" s="385" t="s">
-        <v>537</v>
-      </c>
-      <c r="F35" s="386"/>
+      <c r="E35" s="391" t="s">
+        <v>536</v>
+      </c>
+      <c r="F35" s="392"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -14213,14 +14537,14 @@
       <c r="BW35" s="187"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="424"/>
-      <c r="B36" s="382"/>
-      <c r="C36" s="424"/>
-      <c r="D36" s="425"/>
-      <c r="E36" s="385" t="s">
-        <v>427</v>
-      </c>
-      <c r="F36" s="386"/>
+      <c r="A36" s="430"/>
+      <c r="B36" s="388"/>
+      <c r="C36" s="430"/>
+      <c r="D36" s="431"/>
+      <c r="E36" s="391" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="392"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -14267,22 +14591,22 @@
       <c r="BW36" s="187"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="424" t="s">
+      <c r="A37" s="430" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" s="387" t="s">
         <v>385</v>
       </c>
-      <c r="B37" s="381" t="s">
+      <c r="C37" s="430" t="s">
         <v>386</v>
       </c>
-      <c r="C37" s="424" t="s">
+      <c r="D37" s="431" t="s">
         <v>387</v>
       </c>
-      <c r="D37" s="425" t="s">
-        <v>388</v>
-      </c>
-      <c r="E37" s="385" t="s">
-        <v>538</v>
-      </c>
-      <c r="F37" s="386"/>
+      <c r="E37" s="391" t="s">
+        <v>537</v>
+      </c>
+      <c r="F37" s="392"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -14329,14 +14653,14 @@
       <c r="BW37" s="187"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="424"/>
-      <c r="B38" s="382"/>
-      <c r="C38" s="424"/>
-      <c r="D38" s="425"/>
-      <c r="E38" s="385" t="s">
-        <v>428</v>
-      </c>
-      <c r="F38" s="386"/>
+      <c r="A38" s="430"/>
+      <c r="B38" s="388"/>
+      <c r="C38" s="430"/>
+      <c r="D38" s="431"/>
+      <c r="E38" s="391" t="s">
+        <v>427</v>
+      </c>
+      <c r="F38" s="392"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
@@ -14383,22 +14707,22 @@
       <c r="BW38" s="187"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="424" t="s">
+      <c r="A39" s="430" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="387" t="s">
         <v>389</v>
       </c>
-      <c r="B39" s="381" t="s">
+      <c r="C39" s="430" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="424" t="s">
+      <c r="D39" s="431" t="s">
         <v>391</v>
       </c>
-      <c r="D39" s="425" t="s">
-        <v>392</v>
-      </c>
-      <c r="E39" s="385" t="s">
-        <v>539</v>
-      </c>
-      <c r="F39" s="386"/>
+      <c r="E39" s="391" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" s="392"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
@@ -14445,14 +14769,14 @@
       <c r="BW39" s="187"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="424"/>
-      <c r="B40" s="382"/>
-      <c r="C40" s="424"/>
-      <c r="D40" s="425"/>
-      <c r="E40" s="385" t="s">
-        <v>429</v>
-      </c>
-      <c r="F40" s="386"/>
+      <c r="A40" s="430"/>
+      <c r="B40" s="388"/>
+      <c r="C40" s="430"/>
+      <c r="D40" s="431"/>
+      <c r="E40" s="391" t="s">
+        <v>428</v>
+      </c>
+      <c r="F40" s="392"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
@@ -14523,18 +14847,18 @@
       <c r="BW40" s="189"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="436" t="s">
-        <v>408</v>
-      </c>
-      <c r="B41" s="437"/>
-      <c r="C41" s="438"/>
-      <c r="D41" s="438"/>
-      <c r="E41" s="438"/>
-      <c r="F41" s="439"/>
-      <c r="G41" s="434" t="s">
-        <v>578</v>
-      </c>
-      <c r="H41" s="435"/>
+      <c r="A41" s="442" t="s">
+        <v>407</v>
+      </c>
+      <c r="B41" s="443"/>
+      <c r="C41" s="444"/>
+      <c r="D41" s="444"/>
+      <c r="E41" s="444"/>
+      <c r="F41" s="445"/>
+      <c r="G41" s="440" t="s">
+        <v>577</v>
+      </c>
+      <c r="H41" s="441"/>
       <c r="I41" s="113"/>
       <c r="J41" s="113"/>
       <c r="K41" s="113"/>
@@ -14602,18 +14926,18 @@
       <c r="BW41" s="160"/>
     </row>
     <row r="42" spans="1:75" s="191" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="398" t="s">
-        <v>324</v>
-      </c>
-      <c r="B42" s="399"/>
-      <c r="C42" s="402" t="s">
-        <v>393</v>
-      </c>
-      <c r="D42" s="403"/>
-      <c r="E42" s="385" t="s">
-        <v>540</v>
-      </c>
-      <c r="F42" s="386"/>
+      <c r="A42" s="404" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="405"/>
+      <c r="C42" s="408" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="409"/>
+      <c r="E42" s="391" t="s">
+        <v>539</v>
+      </c>
+      <c r="F42" s="392"/>
       <c r="G42" s="113"/>
       <c r="H42" s="113"/>
       <c r="I42" s="113"/>
@@ -14683,14 +15007,14 @@
       <c r="BW42" s="192"/>
     </row>
     <row r="43" spans="1:75" s="191" customFormat="1">
-      <c r="A43" s="398"/>
-      <c r="B43" s="399"/>
-      <c r="C43" s="389"/>
-      <c r="D43" s="390"/>
-      <c r="E43" s="383" t="s">
-        <v>430</v>
-      </c>
-      <c r="F43" s="384"/>
+      <c r="A43" s="404"/>
+      <c r="B43" s="405"/>
+      <c r="C43" s="395"/>
+      <c r="D43" s="396"/>
+      <c r="E43" s="389" t="s">
+        <v>429</v>
+      </c>
+      <c r="F43" s="390"/>
       <c r="G43" s="113"/>
       <c r="H43" s="113"/>
       <c r="I43" s="113"/>
@@ -14760,16 +15084,16 @@
       <c r="BW43" s="192"/>
     </row>
     <row r="44" spans="1:75" s="191" customFormat="1">
-      <c r="A44" s="398"/>
-      <c r="B44" s="399"/>
-      <c r="C44" s="387" t="s">
-        <v>394</v>
-      </c>
-      <c r="D44" s="388"/>
-      <c r="E44" s="385" t="s">
-        <v>541</v>
-      </c>
-      <c r="F44" s="386"/>
+      <c r="A44" s="404"/>
+      <c r="B44" s="405"/>
+      <c r="C44" s="393" t="s">
+        <v>393</v>
+      </c>
+      <c r="D44" s="394"/>
+      <c r="E44" s="391" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" s="392"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>
       <c r="I44" s="113"/>
@@ -14839,14 +15163,14 @@
       <c r="BW44" s="192"/>
     </row>
     <row r="45" spans="1:75" s="191" customFormat="1">
-      <c r="A45" s="398"/>
-      <c r="B45" s="399"/>
-      <c r="C45" s="389"/>
-      <c r="D45" s="390"/>
-      <c r="E45" s="383" t="s">
-        <v>431</v>
-      </c>
-      <c r="F45" s="384"/>
+      <c r="A45" s="404"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="395"/>
+      <c r="D45" s="396"/>
+      <c r="E45" s="389" t="s">
+        <v>430</v>
+      </c>
+      <c r="F45" s="390"/>
       <c r="G45" s="113"/>
       <c r="H45" s="113"/>
       <c r="I45" s="113"/>
@@ -14916,16 +15240,16 @@
       <c r="BW45" s="192"/>
     </row>
     <row r="46" spans="1:75" s="191" customFormat="1">
-      <c r="A46" s="398"/>
-      <c r="B46" s="399"/>
-      <c r="C46" s="387" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="388"/>
-      <c r="E46" s="385" t="s">
-        <v>542</v>
-      </c>
-      <c r="F46" s="386"/>
+      <c r="A46" s="404"/>
+      <c r="B46" s="405"/>
+      <c r="C46" s="393" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="394"/>
+      <c r="E46" s="391" t="s">
+        <v>541</v>
+      </c>
+      <c r="F46" s="392"/>
       <c r="G46" s="113"/>
       <c r="H46" s="113"/>
       <c r="I46" s="113"/>
@@ -14950,10 +15274,10 @@
       <c r="AD46" s="113"/>
       <c r="AE46" s="113"/>
       <c r="AF46" s="113"/>
-      <c r="AG46" s="404"/>
-      <c r="AH46" s="404"/>
-      <c r="AI46" s="404"/>
-      <c r="AJ46" s="404"/>
+      <c r="AG46" s="410"/>
+      <c r="AH46" s="410"/>
+      <c r="AI46" s="410"/>
+      <c r="AJ46" s="410"/>
       <c r="AK46" s="192"/>
       <c r="AL46" s="192"/>
       <c r="AM46" s="192"/>
@@ -14995,14 +15319,14 @@
       <c r="BW46" s="192"/>
     </row>
     <row r="47" spans="1:75" s="191" customFormat="1">
-      <c r="A47" s="398"/>
-      <c r="B47" s="399"/>
-      <c r="C47" s="389"/>
-      <c r="D47" s="390"/>
-      <c r="E47" s="383" t="s">
-        <v>432</v>
-      </c>
-      <c r="F47" s="384"/>
+      <c r="A47" s="404"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="395"/>
+      <c r="D47" s="396"/>
+      <c r="E47" s="389" t="s">
+        <v>431</v>
+      </c>
+      <c r="F47" s="390"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
       <c r="I47" s="113"/>
@@ -15072,16 +15396,16 @@
       <c r="BW47" s="192"/>
     </row>
     <row r="48" spans="1:75" s="191" customFormat="1">
-      <c r="A48" s="398"/>
-      <c r="B48" s="399"/>
-      <c r="C48" s="387" t="s">
-        <v>396</v>
-      </c>
-      <c r="D48" s="388"/>
-      <c r="E48" s="385" t="s">
-        <v>543</v>
-      </c>
-      <c r="F48" s="386"/>
+      <c r="A48" s="404"/>
+      <c r="B48" s="405"/>
+      <c r="C48" s="393" t="s">
+        <v>395</v>
+      </c>
+      <c r="D48" s="394"/>
+      <c r="E48" s="391" t="s">
+        <v>542</v>
+      </c>
+      <c r="F48" s="392"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
       <c r="I48" s="113"/>
@@ -15106,10 +15430,10 @@
       <c r="AD48" s="113"/>
       <c r="AE48" s="113"/>
       <c r="AF48" s="113"/>
-      <c r="AG48" s="404"/>
-      <c r="AH48" s="404"/>
-      <c r="AI48" s="404"/>
-      <c r="AJ48" s="404"/>
+      <c r="AG48" s="410"/>
+      <c r="AH48" s="410"/>
+      <c r="AI48" s="410"/>
+      <c r="AJ48" s="410"/>
       <c r="AK48" s="192"/>
       <c r="AL48" s="192"/>
       <c r="AM48" s="192"/>
@@ -15151,14 +15475,14 @@
       <c r="BW48" s="192"/>
     </row>
     <row r="49" spans="1:75" s="191" customFormat="1">
-      <c r="A49" s="398"/>
-      <c r="B49" s="399"/>
-      <c r="C49" s="389"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="383" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49" s="384"/>
+      <c r="A49" s="404"/>
+      <c r="B49" s="405"/>
+      <c r="C49" s="395"/>
+      <c r="D49" s="396"/>
+      <c r="E49" s="389" t="s">
+        <v>432</v>
+      </c>
+      <c r="F49" s="390"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
       <c r="I49" s="113"/>
@@ -15228,16 +15552,16 @@
       <c r="BW49" s="192"/>
     </row>
     <row r="50" spans="1:75" s="191" customFormat="1">
-      <c r="A50" s="398"/>
-      <c r="B50" s="399"/>
-      <c r="C50" s="387" t="s">
-        <v>397</v>
-      </c>
-      <c r="D50" s="388"/>
-      <c r="E50" s="385" t="s">
-        <v>544</v>
-      </c>
-      <c r="F50" s="386"/>
+      <c r="A50" s="404"/>
+      <c r="B50" s="405"/>
+      <c r="C50" s="393" t="s">
+        <v>396</v>
+      </c>
+      <c r="D50" s="394"/>
+      <c r="E50" s="391" t="s">
+        <v>543</v>
+      </c>
+      <c r="F50" s="392"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
       <c r="I50" s="113"/>
@@ -15262,10 +15586,10 @@
       <c r="AD50" s="113"/>
       <c r="AE50" s="113"/>
       <c r="AF50" s="113"/>
-      <c r="AG50" s="404"/>
-      <c r="AH50" s="404"/>
-      <c r="AI50" s="404"/>
-      <c r="AJ50" s="404"/>
+      <c r="AG50" s="410"/>
+      <c r="AH50" s="410"/>
+      <c r="AI50" s="410"/>
+      <c r="AJ50" s="410"/>
       <c r="AK50" s="192"/>
       <c r="AL50" s="192"/>
       <c r="AM50" s="192"/>
@@ -15307,14 +15631,14 @@
       <c r="BW50" s="192"/>
     </row>
     <row r="51" spans="1:75" s="191" customFormat="1">
-      <c r="A51" s="398"/>
-      <c r="B51" s="399"/>
-      <c r="C51" s="389"/>
-      <c r="D51" s="390"/>
-      <c r="E51" s="383" t="s">
-        <v>434</v>
-      </c>
-      <c r="F51" s="384"/>
+      <c r="A51" s="404"/>
+      <c r="B51" s="405"/>
+      <c r="C51" s="395"/>
+      <c r="D51" s="396"/>
+      <c r="E51" s="389" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" s="390"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
       <c r="I51" s="113"/>
@@ -15384,16 +15708,16 @@
       <c r="BW51" s="192"/>
     </row>
     <row r="52" spans="1:75" s="191" customFormat="1">
-      <c r="A52" s="398"/>
-      <c r="B52" s="399"/>
-      <c r="C52" s="387" t="s">
-        <v>398</v>
-      </c>
-      <c r="D52" s="388"/>
-      <c r="E52" s="385" t="s">
-        <v>545</v>
-      </c>
-      <c r="F52" s="386"/>
+      <c r="A52" s="404"/>
+      <c r="B52" s="405"/>
+      <c r="C52" s="393" t="s">
+        <v>397</v>
+      </c>
+      <c r="D52" s="394"/>
+      <c r="E52" s="391" t="s">
+        <v>544</v>
+      </c>
+      <c r="F52" s="392"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
       <c r="I52" s="113"/>
@@ -15418,10 +15742,10 @@
       <c r="AD52" s="113"/>
       <c r="AE52" s="113"/>
       <c r="AF52" s="113"/>
-      <c r="AG52" s="404"/>
-      <c r="AH52" s="404"/>
-      <c r="AI52" s="404"/>
-      <c r="AJ52" s="404"/>
+      <c r="AG52" s="410"/>
+      <c r="AH52" s="410"/>
+      <c r="AI52" s="410"/>
+      <c r="AJ52" s="410"/>
       <c r="AK52" s="192"/>
       <c r="AL52" s="192"/>
       <c r="AM52" s="192"/>
@@ -15463,14 +15787,14 @@
       <c r="BW52" s="192"/>
     </row>
     <row r="53" spans="1:75" s="191" customFormat="1">
-      <c r="A53" s="398"/>
-      <c r="B53" s="399"/>
-      <c r="C53" s="389"/>
-      <c r="D53" s="390"/>
-      <c r="E53" s="383" t="s">
-        <v>435</v>
-      </c>
-      <c r="F53" s="384"/>
+      <c r="A53" s="404"/>
+      <c r="B53" s="405"/>
+      <c r="C53" s="395"/>
+      <c r="D53" s="396"/>
+      <c r="E53" s="389" t="s">
+        <v>434</v>
+      </c>
+      <c r="F53" s="390"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
       <c r="I53" s="113"/>
@@ -15540,16 +15864,16 @@
       <c r="BW53" s="192"/>
     </row>
     <row r="54" spans="1:75" s="191" customFormat="1">
-      <c r="A54" s="398"/>
-      <c r="B54" s="399"/>
-      <c r="C54" s="387" t="s">
-        <v>399</v>
-      </c>
-      <c r="D54" s="388"/>
-      <c r="E54" s="385" t="s">
-        <v>546</v>
-      </c>
-      <c r="F54" s="386"/>
+      <c r="A54" s="404"/>
+      <c r="B54" s="405"/>
+      <c r="C54" s="393" t="s">
+        <v>398</v>
+      </c>
+      <c r="D54" s="394"/>
+      <c r="E54" s="391" t="s">
+        <v>545</v>
+      </c>
+      <c r="F54" s="392"/>
       <c r="G54" s="113"/>
       <c r="H54" s="113"/>
       <c r="I54" s="113"/>
@@ -15574,10 +15898,10 @@
       <c r="AD54" s="113"/>
       <c r="AE54" s="113"/>
       <c r="AF54" s="113"/>
-      <c r="AG54" s="404"/>
-      <c r="AH54" s="404"/>
-      <c r="AI54" s="404"/>
-      <c r="AJ54" s="404"/>
+      <c r="AG54" s="410"/>
+      <c r="AH54" s="410"/>
+      <c r="AI54" s="410"/>
+      <c r="AJ54" s="410"/>
       <c r="AK54" s="192"/>
       <c r="AL54" s="192"/>
       <c r="AM54" s="192"/>
@@ -15619,14 +15943,14 @@
       <c r="BW54" s="192"/>
     </row>
     <row r="55" spans="1:75" s="191" customFormat="1">
-      <c r="A55" s="398"/>
-      <c r="B55" s="399"/>
-      <c r="C55" s="389"/>
-      <c r="D55" s="390"/>
-      <c r="E55" s="383" t="s">
-        <v>436</v>
-      </c>
-      <c r="F55" s="384"/>
+      <c r="A55" s="404"/>
+      <c r="B55" s="405"/>
+      <c r="C55" s="395"/>
+      <c r="D55" s="396"/>
+      <c r="E55" s="389" t="s">
+        <v>435</v>
+      </c>
+      <c r="F55" s="390"/>
       <c r="G55" s="113"/>
       <c r="H55" s="113"/>
       <c r="I55" s="113"/>
@@ -15696,16 +16020,16 @@
       <c r="BW55" s="192"/>
     </row>
     <row r="56" spans="1:75" s="191" customFormat="1">
-      <c r="A56" s="398"/>
-      <c r="B56" s="399"/>
-      <c r="C56" s="387" t="s">
-        <v>400</v>
-      </c>
-      <c r="D56" s="388"/>
-      <c r="E56" s="383" t="s">
-        <v>547</v>
-      </c>
-      <c r="F56" s="384"/>
+      <c r="A56" s="404"/>
+      <c r="B56" s="405"/>
+      <c r="C56" s="393" t="s">
+        <v>399</v>
+      </c>
+      <c r="D56" s="394"/>
+      <c r="E56" s="389" t="s">
+        <v>546</v>
+      </c>
+      <c r="F56" s="390"/>
       <c r="G56" s="113"/>
       <c r="H56" s="113"/>
       <c r="I56" s="113"/>
@@ -15730,10 +16054,10 @@
       <c r="AD56" s="113"/>
       <c r="AE56" s="113"/>
       <c r="AF56" s="113"/>
-      <c r="AG56" s="404"/>
-      <c r="AH56" s="404"/>
-      <c r="AI56" s="404"/>
-      <c r="AJ56" s="404"/>
+      <c r="AG56" s="410"/>
+      <c r="AH56" s="410"/>
+      <c r="AI56" s="410"/>
+      <c r="AJ56" s="410"/>
       <c r="AK56" s="192"/>
       <c r="AL56" s="192"/>
       <c r="AM56" s="192"/>
@@ -15775,14 +16099,14 @@
       <c r="BW56" s="192"/>
     </row>
     <row r="57" spans="1:75" s="191" customFormat="1">
-      <c r="A57" s="398"/>
-      <c r="B57" s="399"/>
-      <c r="C57" s="389"/>
-      <c r="D57" s="390"/>
-      <c r="E57" s="383" t="s">
-        <v>437</v>
-      </c>
-      <c r="F57" s="384"/>
+      <c r="A57" s="404"/>
+      <c r="B57" s="405"/>
+      <c r="C57" s="395"/>
+      <c r="D57" s="396"/>
+      <c r="E57" s="389" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" s="390"/>
       <c r="G57" s="113"/>
       <c r="H57" s="113"/>
       <c r="I57" s="113"/>
@@ -15852,16 +16176,16 @@
       <c r="BW57" s="192"/>
     </row>
     <row r="58" spans="1:75" s="191" customFormat="1">
-      <c r="A58" s="398"/>
-      <c r="B58" s="399"/>
-      <c r="C58" s="387" t="s">
-        <v>401</v>
-      </c>
-      <c r="D58" s="388"/>
-      <c r="E58" s="385" t="s">
-        <v>548</v>
-      </c>
-      <c r="F58" s="386"/>
+      <c r="A58" s="404"/>
+      <c r="B58" s="405"/>
+      <c r="C58" s="393" t="s">
+        <v>400</v>
+      </c>
+      <c r="D58" s="394"/>
+      <c r="E58" s="391" t="s">
+        <v>547</v>
+      </c>
+      <c r="F58" s="392"/>
       <c r="G58" s="113"/>
       <c r="H58" s="113"/>
       <c r="I58" s="113"/>
@@ -15886,10 +16210,10 @@
       <c r="AD58" s="113"/>
       <c r="AE58" s="113"/>
       <c r="AF58" s="113"/>
-      <c r="AG58" s="404"/>
-      <c r="AH58" s="404"/>
-      <c r="AI58" s="404"/>
-      <c r="AJ58" s="404"/>
+      <c r="AG58" s="410"/>
+      <c r="AH58" s="410"/>
+      <c r="AI58" s="410"/>
+      <c r="AJ58" s="410"/>
       <c r="AK58" s="192"/>
       <c r="AL58" s="194"/>
       <c r="AM58" s="192"/>
@@ -15931,14 +16255,14 @@
       <c r="BW58" s="192"/>
     </row>
     <row r="59" spans="1:75" s="191" customFormat="1">
-      <c r="A59" s="398"/>
-      <c r="B59" s="399"/>
-      <c r="C59" s="389"/>
-      <c r="D59" s="390"/>
-      <c r="E59" s="383" t="s">
-        <v>438</v>
-      </c>
-      <c r="F59" s="384"/>
+      <c r="A59" s="404"/>
+      <c r="B59" s="405"/>
+      <c r="C59" s="395"/>
+      <c r="D59" s="396"/>
+      <c r="E59" s="389" t="s">
+        <v>437</v>
+      </c>
+      <c r="F59" s="390"/>
       <c r="G59" s="113"/>
       <c r="H59" s="113"/>
       <c r="I59" s="113"/>
@@ -16008,16 +16332,16 @@
       <c r="BW59" s="192"/>
     </row>
     <row r="60" spans="1:75" s="191" customFormat="1">
-      <c r="A60" s="398"/>
-      <c r="B60" s="399"/>
-      <c r="C60" s="387" t="s">
-        <v>402</v>
-      </c>
-      <c r="D60" s="388"/>
-      <c r="E60" s="385" t="s">
-        <v>549</v>
-      </c>
-      <c r="F60" s="386"/>
+      <c r="A60" s="404"/>
+      <c r="B60" s="405"/>
+      <c r="C60" s="393" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="394"/>
+      <c r="E60" s="391" t="s">
+        <v>548</v>
+      </c>
+      <c r="F60" s="392"/>
       <c r="G60" s="113"/>
       <c r="H60" s="113"/>
       <c r="I60" s="113"/>
@@ -16042,10 +16366,10 @@
       <c r="AD60" s="113"/>
       <c r="AE60" s="113"/>
       <c r="AF60" s="113"/>
-      <c r="AG60" s="404"/>
-      <c r="AH60" s="404"/>
-      <c r="AI60" s="404"/>
-      <c r="AJ60" s="404"/>
+      <c r="AG60" s="410"/>
+      <c r="AH60" s="410"/>
+      <c r="AI60" s="410"/>
+      <c r="AJ60" s="410"/>
       <c r="AK60" s="192"/>
       <c r="AL60" s="193"/>
       <c r="AM60" s="192"/>
@@ -16087,14 +16411,14 @@
       <c r="BW60" s="192"/>
     </row>
     <row r="61" spans="1:75" s="191" customFormat="1">
-      <c r="A61" s="398"/>
-      <c r="B61" s="399"/>
-      <c r="C61" s="389"/>
-      <c r="D61" s="390"/>
-      <c r="E61" s="383" t="s">
-        <v>439</v>
-      </c>
-      <c r="F61" s="384"/>
+      <c r="A61" s="404"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="395"/>
+      <c r="D61" s="396"/>
+      <c r="E61" s="389" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" s="390"/>
       <c r="G61" s="113"/>
       <c r="H61" s="113"/>
       <c r="I61" s="113"/>
@@ -16164,16 +16488,16 @@
       <c r="BW61" s="192"/>
     </row>
     <row r="62" spans="1:75" s="191" customFormat="1">
-      <c r="A62" s="398"/>
-      <c r="B62" s="399"/>
-      <c r="C62" s="387" t="s">
-        <v>403</v>
-      </c>
-      <c r="D62" s="388"/>
-      <c r="E62" s="385" t="s">
-        <v>550</v>
-      </c>
-      <c r="F62" s="386"/>
+      <c r="A62" s="404"/>
+      <c r="B62" s="405"/>
+      <c r="C62" s="393" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="394"/>
+      <c r="E62" s="391" t="s">
+        <v>549</v>
+      </c>
+      <c r="F62" s="392"/>
       <c r="G62" s="113"/>
       <c r="H62" s="113"/>
       <c r="I62" s="113"/>
@@ -16198,10 +16522,10 @@
       <c r="AD62" s="113"/>
       <c r="AE62" s="113"/>
       <c r="AF62" s="113"/>
-      <c r="AG62" s="404"/>
-      <c r="AH62" s="404"/>
-      <c r="AI62" s="404"/>
-      <c r="AJ62" s="404"/>
+      <c r="AG62" s="410"/>
+      <c r="AH62" s="410"/>
+      <c r="AI62" s="410"/>
+      <c r="AJ62" s="410"/>
       <c r="AK62" s="198"/>
       <c r="AL62" s="194"/>
       <c r="AM62" s="192"/>
@@ -16243,14 +16567,14 @@
       <c r="BW62" s="192"/>
     </row>
     <row r="63" spans="1:75" s="191" customFormat="1">
-      <c r="A63" s="398"/>
-      <c r="B63" s="399"/>
-      <c r="C63" s="389"/>
-      <c r="D63" s="390"/>
-      <c r="E63" s="383" t="s">
-        <v>440</v>
-      </c>
-      <c r="F63" s="384"/>
+      <c r="A63" s="404"/>
+      <c r="B63" s="405"/>
+      <c r="C63" s="395"/>
+      <c r="D63" s="396"/>
+      <c r="E63" s="389" t="s">
+        <v>439</v>
+      </c>
+      <c r="F63" s="390"/>
       <c r="G63" s="113"/>
       <c r="H63" s="113"/>
       <c r="I63" s="113"/>
@@ -16320,16 +16644,16 @@
       <c r="BW63" s="192"/>
     </row>
     <row r="64" spans="1:75" s="191" customFormat="1">
-      <c r="A64" s="398"/>
-      <c r="B64" s="399"/>
-      <c r="C64" s="387" t="s">
-        <v>404</v>
-      </c>
-      <c r="D64" s="388"/>
-      <c r="E64" s="385" t="s">
-        <v>551</v>
-      </c>
-      <c r="F64" s="386"/>
+      <c r="A64" s="404"/>
+      <c r="B64" s="405"/>
+      <c r="C64" s="393" t="s">
+        <v>403</v>
+      </c>
+      <c r="D64" s="394"/>
+      <c r="E64" s="391" t="s">
+        <v>550</v>
+      </c>
+      <c r="F64" s="392"/>
       <c r="G64" s="113"/>
       <c r="H64" s="113"/>
       <c r="I64" s="113"/>
@@ -16354,10 +16678,10 @@
       <c r="AD64" s="113"/>
       <c r="AE64" s="113"/>
       <c r="AF64" s="113"/>
-      <c r="AG64" s="404"/>
-      <c r="AH64" s="404"/>
-      <c r="AI64" s="404"/>
-      <c r="AJ64" s="404"/>
+      <c r="AG64" s="410"/>
+      <c r="AH64" s="410"/>
+      <c r="AI64" s="410"/>
+      <c r="AJ64" s="410"/>
       <c r="AK64" s="192"/>
       <c r="AL64" s="193"/>
       <c r="AM64" s="192"/>
@@ -16399,14 +16723,14 @@
       <c r="BW64" s="192"/>
     </row>
     <row r="65" spans="1:75" s="191" customFormat="1">
-      <c r="A65" s="398"/>
-      <c r="B65" s="399"/>
-      <c r="C65" s="389"/>
-      <c r="D65" s="390"/>
-      <c r="E65" s="383" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="384"/>
+      <c r="A65" s="404"/>
+      <c r="B65" s="405"/>
+      <c r="C65" s="395"/>
+      <c r="D65" s="396"/>
+      <c r="E65" s="389" t="s">
+        <v>440</v>
+      </c>
+      <c r="F65" s="390"/>
       <c r="G65" s="113"/>
       <c r="H65" s="113"/>
       <c r="I65" s="113"/>
@@ -16476,16 +16800,16 @@
       <c r="BW65" s="192"/>
     </row>
     <row r="66" spans="1:75" s="191" customFormat="1">
-      <c r="A66" s="398"/>
-      <c r="B66" s="399"/>
-      <c r="C66" s="387" t="s">
-        <v>405</v>
-      </c>
-      <c r="D66" s="388"/>
-      <c r="E66" s="385" t="s">
-        <v>552</v>
-      </c>
-      <c r="F66" s="386"/>
+      <c r="A66" s="404"/>
+      <c r="B66" s="405"/>
+      <c r="C66" s="393" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="394"/>
+      <c r="E66" s="391" t="s">
+        <v>551</v>
+      </c>
+      <c r="F66" s="392"/>
       <c r="G66" s="113"/>
       <c r="H66" s="113"/>
       <c r="I66" s="113"/>
@@ -16510,10 +16834,10 @@
       <c r="AD66" s="113"/>
       <c r="AE66" s="113"/>
       <c r="AF66" s="113"/>
-      <c r="AG66" s="404"/>
-      <c r="AH66" s="404"/>
-      <c r="AI66" s="404"/>
-      <c r="AJ66" s="404"/>
+      <c r="AG66" s="410"/>
+      <c r="AH66" s="410"/>
+      <c r="AI66" s="410"/>
+      <c r="AJ66" s="410"/>
       <c r="AK66" s="198"/>
       <c r="AL66" s="194"/>
       <c r="AM66" s="192"/>
@@ -16555,14 +16879,14 @@
       <c r="BW66" s="192"/>
     </row>
     <row r="67" spans="1:75" s="191" customFormat="1">
-      <c r="A67" s="398"/>
-      <c r="B67" s="399"/>
-      <c r="C67" s="389"/>
-      <c r="D67" s="390"/>
-      <c r="E67" s="383" t="s">
-        <v>442</v>
-      </c>
-      <c r="F67" s="384"/>
+      <c r="A67" s="404"/>
+      <c r="B67" s="405"/>
+      <c r="C67" s="395"/>
+      <c r="D67" s="396"/>
+      <c r="E67" s="389" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" s="390"/>
       <c r="G67" s="113"/>
       <c r="H67" s="113"/>
       <c r="I67" s="113"/>
@@ -16632,16 +16956,16 @@
       <c r="BW67" s="192"/>
     </row>
     <row r="68" spans="1:75" s="191" customFormat="1">
-      <c r="A68" s="398"/>
-      <c r="B68" s="399"/>
-      <c r="C68" s="387" t="s">
-        <v>406</v>
-      </c>
-      <c r="D68" s="388"/>
-      <c r="E68" s="385" t="s">
-        <v>553</v>
-      </c>
-      <c r="F68" s="386"/>
+      <c r="A68" s="404"/>
+      <c r="B68" s="405"/>
+      <c r="C68" s="393" t="s">
+        <v>405</v>
+      </c>
+      <c r="D68" s="394"/>
+      <c r="E68" s="391" t="s">
+        <v>552</v>
+      </c>
+      <c r="F68" s="392"/>
       <c r="G68" s="113"/>
       <c r="H68" s="113"/>
       <c r="I68" s="113"/>
@@ -16668,10 +16992,10 @@
       <c r="AD68" s="113"/>
       <c r="AE68" s="113"/>
       <c r="AF68" s="113"/>
-      <c r="AG68" s="404"/>
-      <c r="AH68" s="404"/>
-      <c r="AI68" s="404"/>
-      <c r="AJ68" s="404"/>
+      <c r="AG68" s="410"/>
+      <c r="AH68" s="410"/>
+      <c r="AI68" s="410"/>
+      <c r="AJ68" s="410"/>
       <c r="AK68" s="193"/>
       <c r="AL68" s="193"/>
       <c r="AM68" s="192"/>
@@ -16713,14 +17037,14 @@
       <c r="BW68" s="192"/>
     </row>
     <row r="69" spans="1:75" s="191" customFormat="1">
-      <c r="A69" s="398"/>
-      <c r="B69" s="399"/>
-      <c r="C69" s="389"/>
-      <c r="D69" s="390"/>
-      <c r="E69" s="383" t="s">
-        <v>443</v>
-      </c>
-      <c r="F69" s="384"/>
+      <c r="A69" s="404"/>
+      <c r="B69" s="405"/>
+      <c r="C69" s="395"/>
+      <c r="D69" s="396"/>
+      <c r="E69" s="389" t="s">
+        <v>442</v>
+      </c>
+      <c r="F69" s="390"/>
       <c r="G69" s="113"/>
       <c r="H69" s="113"/>
       <c r="I69" s="113"/>
@@ -16792,16 +17116,16 @@
       <c r="BW69" s="192"/>
     </row>
     <row r="70" spans="1:75" s="191" customFormat="1">
-      <c r="A70" s="398"/>
-      <c r="B70" s="399"/>
-      <c r="C70" s="387" t="s">
-        <v>409</v>
-      </c>
-      <c r="D70" s="388"/>
-      <c r="E70" s="385" t="s">
-        <v>554</v>
-      </c>
-      <c r="F70" s="386"/>
+      <c r="A70" s="404"/>
+      <c r="B70" s="405"/>
+      <c r="C70" s="393" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" s="394"/>
+      <c r="E70" s="391" t="s">
+        <v>553</v>
+      </c>
+      <c r="F70" s="392"/>
       <c r="G70" s="113"/>
       <c r="H70" s="113"/>
       <c r="I70" s="113"/>
@@ -16873,14 +17197,14 @@
       <c r="BW70" s="192"/>
     </row>
     <row r="71" spans="1:75" s="191" customFormat="1">
-      <c r="A71" s="398"/>
-      <c r="B71" s="399"/>
-      <c r="C71" s="389"/>
-      <c r="D71" s="390"/>
-      <c r="E71" s="383" t="s">
-        <v>444</v>
-      </c>
-      <c r="F71" s="384"/>
+      <c r="A71" s="404"/>
+      <c r="B71" s="405"/>
+      <c r="C71" s="395"/>
+      <c r="D71" s="396"/>
+      <c r="E71" s="389" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="390"/>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
       <c r="I71" s="113"/>
@@ -16952,16 +17276,16 @@
       <c r="BW71" s="192"/>
     </row>
     <row r="72" spans="1:75" s="191" customFormat="1">
-      <c r="A72" s="398"/>
-      <c r="B72" s="399"/>
-      <c r="C72" s="392" t="s">
+      <c r="A72" s="404"/>
+      <c r="B72" s="405"/>
+      <c r="C72" s="398" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="393"/>
-      <c r="E72" s="383" t="s">
-        <v>583</v>
-      </c>
-      <c r="F72" s="384"/>
+      <c r="D72" s="399"/>
+      <c r="E72" s="389" t="s">
+        <v>582</v>
+      </c>
+      <c r="F72" s="390"/>
       <c r="G72" s="113"/>
       <c r="H72" s="113"/>
       <c r="I72" s="113"/>
@@ -16988,10 +17312,10 @@
       <c r="AD72" s="113"/>
       <c r="AE72" s="113"/>
       <c r="AF72" s="113"/>
-      <c r="AG72" s="423"/>
-      <c r="AH72" s="423"/>
-      <c r="AI72" s="423"/>
-      <c r="AJ72" s="423"/>
+      <c r="AG72" s="429"/>
+      <c r="AH72" s="429"/>
+      <c r="AI72" s="429"/>
+      <c r="AJ72" s="429"/>
       <c r="AK72" s="198"/>
       <c r="AL72" s="192"/>
       <c r="AM72" s="192"/>
@@ -17033,16 +17357,16 @@
       <c r="BW72" s="192"/>
     </row>
     <row r="73" spans="1:75" s="191" customFormat="1">
-      <c r="A73" s="398"/>
-      <c r="B73" s="399"/>
-      <c r="C73" s="394" t="s">
+      <c r="A73" s="404"/>
+      <c r="B73" s="405"/>
+      <c r="C73" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="395"/>
-      <c r="E73" s="383" t="s">
-        <v>584</v>
-      </c>
-      <c r="F73" s="384"/>
+      <c r="D73" s="401"/>
+      <c r="E73" s="389" t="s">
+        <v>583</v>
+      </c>
+      <c r="F73" s="390"/>
       <c r="G73" s="113"/>
       <c r="H73" s="113"/>
       <c r="I73" s="113"/>
@@ -17114,16 +17438,16 @@
       <c r="BW73" s="192"/>
     </row>
     <row r="74" spans="1:75" s="191" customFormat="1">
-      <c r="A74" s="400"/>
-      <c r="B74" s="401"/>
-      <c r="C74" s="394" t="s">
+      <c r="A74" s="406"/>
+      <c r="B74" s="407"/>
+      <c r="C74" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="395"/>
-      <c r="E74" s="383" t="s">
-        <v>585</v>
-      </c>
-      <c r="F74" s="384"/>
+      <c r="D74" s="401"/>
+      <c r="E74" s="389" t="s">
+        <v>584</v>
+      </c>
+      <c r="F74" s="390"/>
       <c r="G74" s="113"/>
       <c r="H74" s="113"/>
       <c r="I74" s="113"/>
@@ -17195,18 +17519,18 @@
       <c r="BW74" s="192"/>
     </row>
     <row r="75" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="419" t="s">
+      <c r="A75" s="425" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="420"/>
-      <c r="C75" s="417" t="s">
+      <c r="B75" s="426"/>
+      <c r="C75" s="423" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="418"/>
-      <c r="E75" s="383" t="s">
-        <v>320</v>
-      </c>
-      <c r="F75" s="384"/>
+      <c r="D75" s="424"/>
+      <c r="E75" s="389" t="s">
+        <v>319</v>
+      </c>
+      <c r="F75" s="390"/>
       <c r="G75" s="113"/>
       <c r="H75" s="113"/>
       <c r="I75" s="113"/>
@@ -17233,10 +17557,10 @@
       <c r="AD75" s="113"/>
       <c r="AE75" s="113"/>
       <c r="AF75" s="113"/>
-      <c r="AG75" s="415"/>
-      <c r="AH75" s="415"/>
-      <c r="AI75" s="415"/>
-      <c r="AJ75" s="415"/>
+      <c r="AG75" s="421"/>
+      <c r="AH75" s="421"/>
+      <c r="AI75" s="421"/>
+      <c r="AJ75" s="421"/>
       <c r="AK75" s="198"/>
       <c r="AL75" s="192"/>
       <c r="AM75" s="192"/>
@@ -17278,16 +17602,16 @@
       <c r="BW75" s="192"/>
     </row>
     <row r="76" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="421"/>
-      <c r="B76" s="422"/>
-      <c r="C76" s="417" t="s">
+      <c r="A76" s="427"/>
+      <c r="B76" s="428"/>
+      <c r="C76" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="418"/>
-      <c r="E76" s="383" t="s">
-        <v>321</v>
-      </c>
-      <c r="F76" s="384"/>
+      <c r="D76" s="424"/>
+      <c r="E76" s="389" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" s="390"/>
       <c r="G76" s="113"/>
       <c r="H76" s="113"/>
       <c r="I76" s="113"/>
@@ -17314,10 +17638,10 @@
       <c r="AD76" s="113"/>
       <c r="AE76" s="113"/>
       <c r="AF76" s="113"/>
-      <c r="AG76" s="415"/>
-      <c r="AH76" s="415"/>
-      <c r="AI76" s="415"/>
-      <c r="AJ76" s="415"/>
+      <c r="AG76" s="421"/>
+      <c r="AH76" s="421"/>
+      <c r="AI76" s="421"/>
+      <c r="AJ76" s="421"/>
       <c r="AK76" s="198"/>
       <c r="AL76" s="192"/>
       <c r="AM76" s="192"/>
@@ -17359,16 +17683,16 @@
       <c r="BW76" s="192"/>
     </row>
     <row r="77" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="421"/>
-      <c r="B77" s="422"/>
-      <c r="C77" s="417" t="s">
+      <c r="A77" s="427"/>
+      <c r="B77" s="428"/>
+      <c r="C77" s="423" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="418"/>
-      <c r="E77" s="383" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" s="384"/>
+      <c r="D77" s="424"/>
+      <c r="E77" s="389" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="390"/>
       <c r="G77" s="113"/>
       <c r="H77" s="113"/>
       <c r="I77" s="113"/>
@@ -17395,10 +17719,10 @@
       <c r="AD77" s="113"/>
       <c r="AE77" s="113"/>
       <c r="AF77" s="113"/>
-      <c r="AG77" s="416"/>
-      <c r="AH77" s="416"/>
-      <c r="AI77" s="416"/>
-      <c r="AJ77" s="416"/>
+      <c r="AG77" s="422"/>
+      <c r="AH77" s="422"/>
+      <c r="AI77" s="422"/>
+      <c r="AJ77" s="422"/>
       <c r="AK77" s="198"/>
       <c r="AL77" s="192"/>
       <c r="AM77" s="192"/>
@@ -17440,16 +17764,16 @@
       <c r="BW77" s="192"/>
     </row>
     <row r="78" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="421"/>
-      <c r="B78" s="422"/>
-      <c r="C78" s="417" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="418"/>
-      <c r="E78" s="383" t="s">
-        <v>323</v>
-      </c>
-      <c r="F78" s="384"/>
+      <c r="A78" s="427"/>
+      <c r="B78" s="428"/>
+      <c r="C78" s="423" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="424"/>
+      <c r="E78" s="389" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" s="390"/>
       <c r="G78" s="113"/>
       <c r="H78" s="113"/>
       <c r="I78" s="113"/>
@@ -17521,16 +17845,16 @@
       <c r="BW78" s="192"/>
     </row>
     <row r="79" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="421"/>
-      <c r="B79" s="422"/>
-      <c r="C79" s="417" t="s">
+      <c r="A79" s="427"/>
+      <c r="B79" s="428"/>
+      <c r="C79" s="423" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="418"/>
-      <c r="E79" s="383" t="s">
-        <v>410</v>
-      </c>
-      <c r="F79" s="384"/>
+      <c r="D79" s="424"/>
+      <c r="E79" s="389" t="s">
+        <v>409</v>
+      </c>
+      <c r="F79" s="390"/>
       <c r="G79" s="113"/>
       <c r="H79" s="113"/>
       <c r="I79" s="113"/>
@@ -17557,10 +17881,10 @@
       <c r="AD79" s="113"/>
       <c r="AE79" s="113"/>
       <c r="AF79" s="113"/>
-      <c r="AG79" s="416"/>
-      <c r="AH79" s="416"/>
-      <c r="AI79" s="416"/>
-      <c r="AJ79" s="416"/>
+      <c r="AG79" s="422"/>
+      <c r="AH79" s="422"/>
+      <c r="AI79" s="422"/>
+      <c r="AJ79" s="422"/>
       <c r="AK79" s="198"/>
       <c r="AL79" s="192"/>
       <c r="AM79" s="192"/>
@@ -17602,16 +17926,16 @@
       <c r="BW79" s="192"/>
     </row>
     <row r="80" spans="1:75" s="191" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="397" t="s">
+      <c r="A80" s="403" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="397"/>
-      <c r="C80" s="397"/>
-      <c r="D80" s="397"/>
-      <c r="E80" s="396" t="s">
-        <v>620</v>
-      </c>
-      <c r="F80" s="384"/>
+      <c r="B80" s="403"/>
+      <c r="C80" s="403"/>
+      <c r="D80" s="403"/>
+      <c r="E80" s="402" t="s">
+        <v>619</v>
+      </c>
+      <c r="F80" s="390"/>
       <c r="G80" s="113"/>
       <c r="H80" s="113"/>
       <c r="I80" s="113"/>
@@ -17638,10 +17962,10 @@
       <c r="AD80" s="113"/>
       <c r="AE80" s="113"/>
       <c r="AF80" s="113"/>
-      <c r="AG80" s="391"/>
-      <c r="AH80" s="391"/>
-      <c r="AI80" s="391"/>
-      <c r="AJ80" s="391"/>
+      <c r="AG80" s="397"/>
+      <c r="AH80" s="397"/>
+      <c r="AI80" s="397"/>
+      <c r="AJ80" s="397"/>
       <c r="AK80" s="198"/>
       <c r="AL80" s="192"/>
       <c r="AM80" s="192"/>
@@ -17683,16 +18007,16 @@
       <c r="BW80" s="192"/>
     </row>
     <row r="81" spans="1:75" s="191" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="397" t="s">
+      <c r="A81" s="403" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="397"/>
-      <c r="C81" s="397"/>
-      <c r="D81" s="397"/>
-      <c r="E81" s="396" t="s">
-        <v>621</v>
-      </c>
-      <c r="F81" s="384"/>
+      <c r="B81" s="403"/>
+      <c r="C81" s="403"/>
+      <c r="D81" s="403"/>
+      <c r="E81" s="402" t="s">
+        <v>620</v>
+      </c>
+      <c r="F81" s="390"/>
       <c r="G81" s="113"/>
       <c r="H81" s="113"/>
       <c r="I81" s="113"/>
@@ -17719,10 +18043,10 @@
       <c r="AD81" s="113"/>
       <c r="AE81" s="113"/>
       <c r="AF81" s="113"/>
-      <c r="AG81" s="391"/>
-      <c r="AH81" s="391"/>
-      <c r="AI81" s="391"/>
-      <c r="AJ81" s="391"/>
+      <c r="AG81" s="397"/>
+      <c r="AH81" s="397"/>
+      <c r="AI81" s="397"/>
+      <c r="AJ81" s="397"/>
       <c r="AK81" s="198"/>
       <c r="AL81" s="192"/>
       <c r="AM81" s="192"/>
@@ -17770,17 +18094,17 @@
       <c r="D82" s="202"/>
       <c r="E82" s="202"/>
       <c r="F82" s="202"/>
-      <c r="G82" s="405"/>
-      <c r="H82" s="405"/>
-      <c r="I82" s="405"/>
+      <c r="G82" s="411"/>
+      <c r="H82" s="411"/>
+      <c r="I82" s="411"/>
       <c r="J82" s="202"/>
       <c r="K82" s="202"/>
       <c r="L82" s="202"/>
       <c r="M82" s="202"/>
       <c r="N82" s="202"/>
-      <c r="O82" s="405"/>
-      <c r="P82" s="405"/>
-      <c r="Q82" s="405"/>
+      <c r="O82" s="411"/>
+      <c r="P82" s="411"/>
+      <c r="Q82" s="411"/>
       <c r="R82" s="202"/>
       <c r="S82" s="202"/>
       <c r="T82" s="202"/>
@@ -17806,13 +18130,13 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="201"/>
       <c r="B83" s="210" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C83" s="209"/>
-      <c r="D83" s="414" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="414"/>
+      <c r="D83" s="420" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="420"/>
       <c r="F83" s="202"/>
       <c r="G83" s="208"/>
       <c r="H83" s="208"/>
@@ -17847,16 +18171,16 @@
       <c r="BV83" s="160"/>
       <c r="BW83" s="160"/>
     </row>
-    <row r="84" spans="1:75" ht="13.95" customHeight="1" thickBot="1">
+    <row r="84" spans="1:75" ht="13.9" customHeight="1" thickBot="1">
       <c r="A84" s="201"/>
       <c r="B84" s="211" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C84" s="209"/>
-      <c r="D84" s="414" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="414"/>
+      <c r="D84" s="420" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="420"/>
       <c r="F84" s="202"/>
       <c r="G84" s="208"/>
       <c r="H84" s="208"/>
@@ -17898,9 +18222,9 @@
       <c r="D85" s="202"/>
       <c r="E85" s="202"/>
       <c r="F85" s="202"/>
-      <c r="G85" s="407"/>
-      <c r="H85" s="407"/>
-      <c r="I85" s="407"/>
+      <c r="G85" s="413"/>
+      <c r="H85" s="413"/>
+      <c r="I85" s="413"/>
       <c r="J85" s="202"/>
       <c r="K85" s="202"/>
       <c r="L85" s="202"/>
@@ -17933,35 +18257,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="201"/>
-      <c r="B86" s="406" t="s">
+      <c r="B86" s="412" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="408"/>
-      <c r="D86" s="409"/>
-      <c r="E86" s="409"/>
-      <c r="F86" s="409"/>
-      <c r="G86" s="409"/>
-      <c r="H86" s="409"/>
-      <c r="I86" s="409"/>
-      <c r="J86" s="409"/>
-      <c r="K86" s="409"/>
-      <c r="L86" s="409"/>
-      <c r="M86" s="409"/>
-      <c r="N86" s="409"/>
-      <c r="O86" s="409"/>
-      <c r="P86" s="409"/>
-      <c r="Q86" s="409"/>
-      <c r="R86" s="409"/>
-      <c r="S86" s="409"/>
-      <c r="T86" s="409"/>
-      <c r="U86" s="409"/>
-      <c r="V86" s="409"/>
-      <c r="W86" s="409"/>
-      <c r="X86" s="409"/>
-      <c r="Y86" s="409"/>
-      <c r="Z86" s="409"/>
-      <c r="AA86" s="409"/>
-      <c r="AB86" s="410"/>
+      <c r="C86" s="414"/>
+      <c r="D86" s="415"/>
+      <c r="E86" s="415"/>
+      <c r="F86" s="415"/>
+      <c r="G86" s="415"/>
+      <c r="H86" s="415"/>
+      <c r="I86" s="415"/>
+      <c r="J86" s="415"/>
+      <c r="K86" s="415"/>
+      <c r="L86" s="415"/>
+      <c r="M86" s="415"/>
+      <c r="N86" s="415"/>
+      <c r="O86" s="415"/>
+      <c r="P86" s="415"/>
+      <c r="Q86" s="415"/>
+      <c r="R86" s="415"/>
+      <c r="S86" s="415"/>
+      <c r="T86" s="415"/>
+      <c r="U86" s="415"/>
+      <c r="V86" s="415"/>
+      <c r="W86" s="415"/>
+      <c r="X86" s="415"/>
+      <c r="Y86" s="415"/>
+      <c r="Z86" s="415"/>
+      <c r="AA86" s="415"/>
+      <c r="AB86" s="416"/>
       <c r="AC86" s="204"/>
       <c r="AD86" s="204"/>
       <c r="AE86" s="204"/>
@@ -17982,33 +18306,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="201"/>
-      <c r="B87" s="406"/>
-      <c r="C87" s="411"/>
-      <c r="D87" s="412"/>
-      <c r="E87" s="412"/>
-      <c r="F87" s="412"/>
-      <c r="G87" s="412"/>
-      <c r="H87" s="412"/>
-      <c r="I87" s="412"/>
-      <c r="J87" s="412"/>
-      <c r="K87" s="412"/>
-      <c r="L87" s="412"/>
-      <c r="M87" s="412"/>
-      <c r="N87" s="412"/>
-      <c r="O87" s="412"/>
-      <c r="P87" s="412"/>
-      <c r="Q87" s="412"/>
-      <c r="R87" s="412"/>
-      <c r="S87" s="412"/>
-      <c r="T87" s="412"/>
-      <c r="U87" s="412"/>
-      <c r="V87" s="412"/>
-      <c r="W87" s="412"/>
-      <c r="X87" s="412"/>
-      <c r="Y87" s="412"/>
-      <c r="Z87" s="412"/>
-      <c r="AA87" s="412"/>
-      <c r="AB87" s="413"/>
+      <c r="B87" s="412"/>
+      <c r="C87" s="417"/>
+      <c r="D87" s="418"/>
+      <c r="E87" s="418"/>
+      <c r="F87" s="418"/>
+      <c r="G87" s="418"/>
+      <c r="H87" s="418"/>
+      <c r="I87" s="418"/>
+      <c r="J87" s="418"/>
+      <c r="K87" s="418"/>
+      <c r="L87" s="418"/>
+      <c r="M87" s="418"/>
+      <c r="N87" s="418"/>
+      <c r="O87" s="418"/>
+      <c r="P87" s="418"/>
+      <c r="Q87" s="418"/>
+      <c r="R87" s="418"/>
+      <c r="S87" s="418"/>
+      <c r="T87" s="418"/>
+      <c r="U87" s="418"/>
+      <c r="V87" s="418"/>
+      <c r="W87" s="418"/>
+      <c r="X87" s="418"/>
+      <c r="Y87" s="418"/>
+      <c r="Z87" s="418"/>
+      <c r="AA87" s="418"/>
+      <c r="AB87" s="419"/>
       <c r="AC87" s="204"/>
       <c r="AD87" s="204"/>
       <c r="AE87" s="204"/>
@@ -18141,7 +18465,7 @@
     </row>
     <row r="94" spans="1:75" ht="14.1" customHeight="1">
       <c r="B94" s="241" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M94" s="160"/>
       <c r="N94" s="160"/>
@@ -18164,7 +18488,7 @@
     </row>
     <row r="95" spans="1:75">
       <c r="B95" s="241" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M95" s="160"/>
       <c r="N95" s="160"/>
@@ -18187,7 +18511,7 @@
     </row>
     <row r="96" spans="1:75">
       <c r="B96" s="241" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M96" s="160"/>
       <c r="N96" s="160"/>
@@ -18210,7 +18534,7 @@
     </row>
     <row r="97" spans="2:42">
       <c r="B97" s="241" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M97" s="160"/>
       <c r="N97" s="160"/>
@@ -18233,7 +18557,7 @@
     </row>
     <row r="98" spans="2:42">
       <c r="B98" s="241" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M98" s="160"/>
       <c r="N98" s="160"/>
@@ -18256,7 +18580,7 @@
     </row>
     <row r="99" spans="2:42">
       <c r="B99" s="241" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M99" s="160"/>
       <c r="N99" s="160"/>
@@ -18279,7 +18603,7 @@
     </row>
     <row r="100" spans="2:42">
       <c r="B100" s="241" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M100" s="160"/>
       <c r="N100" s="160"/>
@@ -18302,7 +18626,7 @@
     </row>
     <row r="101" spans="2:42">
       <c r="B101" s="241" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M101" s="160"/>
       <c r="N101" s="160"/>
@@ -18325,7 +18649,7 @@
     </row>
     <row r="102" spans="2:42">
       <c r="B102" s="241" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M102" s="160"/>
       <c r="N102" s="160"/>
@@ -18348,7 +18672,7 @@
     </row>
     <row r="103" spans="2:42">
       <c r="B103" s="241" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M103" s="160"/>
       <c r="N103" s="160"/>
@@ -18371,7 +18695,7 @@
     </row>
     <row r="104" spans="2:42">
       <c r="B104" s="241" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M104" s="160"/>
       <c r="N104" s="160"/>
@@ -18394,7 +18718,7 @@
     </row>
     <row r="105" spans="2:42">
       <c r="B105" s="241" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M105" s="160"/>
       <c r="N105" s="160"/>
@@ -18417,7 +18741,7 @@
     </row>
     <row r="106" spans="2:42">
       <c r="B106" s="241" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M106" s="160"/>
       <c r="N106" s="160"/>
@@ -18440,7 +18764,7 @@
     </row>
     <row r="107" spans="2:42">
       <c r="B107" s="241" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M107" s="160"/>
       <c r="N107" s="160"/>
@@ -18463,7 +18787,7 @@
     </row>
     <row r="108" spans="2:42">
       <c r="B108" s="241" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M108" s="160"/>
       <c r="N108" s="160"/>
@@ -18486,7 +18810,7 @@
     </row>
     <row r="109" spans="2:42">
       <c r="B109" s="241" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M109" s="160"/>
       <c r="N109" s="160"/>
@@ -18509,7 +18833,7 @@
     </row>
     <row r="110" spans="2:42">
       <c r="B110" s="241" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M110" s="160"/>
       <c r="N110" s="160"/>
@@ -18532,7 +18856,7 @@
     </row>
     <row r="111" spans="2:42">
       <c r="B111" s="241" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M111" s="160"/>
       <c r="N111" s="160"/>
@@ -18555,7 +18879,7 @@
     </row>
     <row r="112" spans="2:42">
       <c r="B112" s="241" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M112" s="160"/>
       <c r="N112" s="160"/>
@@ -18578,7 +18902,7 @@
     </row>
     <row r="113" spans="2:42">
       <c r="B113" s="241" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M113" s="160"/>
       <c r="N113" s="160"/>
@@ -18601,7 +18925,7 @@
     </row>
     <row r="114" spans="2:42">
       <c r="B114" s="241" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M114" s="160"/>
       <c r="N114" s="160"/>
@@ -18624,7 +18948,7 @@
     </row>
     <row r="115" spans="2:42">
       <c r="B115" s="241" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M115" s="160"/>
       <c r="N115" s="160"/>
@@ -18647,7 +18971,7 @@
     </row>
     <row r="116" spans="2:42">
       <c r="B116" s="241" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M116" s="160"/>
       <c r="N116" s="160"/>
@@ -18670,7 +18994,7 @@
     </row>
     <row r="117" spans="2:42">
       <c r="B117" s="241" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M117" s="160"/>
       <c r="N117" s="160"/>
@@ -18693,7 +19017,7 @@
     </row>
     <row r="118" spans="2:42">
       <c r="B118" s="241" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M118" s="160"/>
       <c r="N118" s="160"/>
@@ -18716,7 +19040,7 @@
     </row>
     <row r="119" spans="2:42">
       <c r="B119" s="241" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M119" s="160"/>
       <c r="N119" s="160"/>
@@ -18739,7 +19063,7 @@
     </row>
     <row r="120" spans="2:42">
       <c r="B120" s="241" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M120" s="160"/>
       <c r="N120" s="160"/>
@@ -18762,7 +19086,7 @@
     </row>
     <row r="121" spans="2:42">
       <c r="B121" s="241" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M121" s="160"/>
       <c r="N121" s="160"/>
@@ -18785,7 +19109,7 @@
     </row>
     <row r="122" spans="2:42">
       <c r="B122" s="241" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M122" s="160"/>
       <c r="N122" s="160"/>
@@ -18808,7 +19132,7 @@
     </row>
     <row r="123" spans="2:42">
       <c r="B123" s="241" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M123" s="160"/>
       <c r="N123" s="160"/>
@@ -18831,7 +19155,7 @@
     </row>
     <row r="124" spans="2:42">
       <c r="B124" s="241" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M124" s="160"/>
       <c r="N124" s="160"/>
@@ -18854,7 +19178,7 @@
     </row>
     <row r="125" spans="2:42">
       <c r="B125" s="241" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M125" s="160"/>
       <c r="N125" s="160"/>
@@ -18877,7 +19201,7 @@
     </row>
     <row r="126" spans="2:42">
       <c r="B126" s="241" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M126" s="160"/>
       <c r="N126" s="160"/>
@@ -18900,7 +19224,7 @@
     </row>
     <row r="127" spans="2:42">
       <c r="B127" s="241" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M127" s="160"/>
       <c r="N127" s="160"/>
@@ -37661,13 +37985,13 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -146,7 +146,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="Z22")</t>
+jx:area(lastCell="Z21")</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="Z38")</t>
+jx:area(lastCell="Z36")</t>
         </r>
       </text>
     </comment>
@@ -5738,35 +5738,208 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5781,74 +5954,74 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5900,247 +6073,115 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6185,73 +6226,114 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6259,6 +6341,43 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -6268,76 +6387,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6406,116 +6459,63 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6640,7 +6640,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6694,7 +6694,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6748,7 +6748,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6802,7 +6802,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6856,7 +6856,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,7 +6910,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6964,7 +6964,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,7 +7018,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7072,7 +7072,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7126,7 +7126,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7180,7 +7180,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7230,7 +7230,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7284,7 +7284,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7338,7 +7338,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7392,7 +7392,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7446,7 +7446,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7500,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7554,7 +7554,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7883,9 +7883,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -7941,12 +7939,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="340" t="s">
+      <c r="L3" s="244" t="s">
         <v>581</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7966,13 +7964,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7999,13 +7997,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="275" t="s">
+      <c r="D5" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -8023,13 +8021,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="331" t="s">
+      <c r="V5" s="267" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -8059,13 +8057,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="332" t="s">
+      <c r="V6" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="332"/>
-      <c r="X6" s="332"/>
-      <c r="Y6" s="332"/>
-      <c r="Z6" s="332"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -8074,24 +8072,24 @@
       <c r="B7" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="344" t="s">
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="344"/>
-      <c r="J7" s="343" t="s">
+      <c r="I7" s="258"/>
+      <c r="J7" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="343"/>
-      <c r="L7" s="343"/>
-      <c r="M7" s="343"/>
-      <c r="N7" s="343"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -8103,13 +8101,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="332" t="s">
+      <c r="V7" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="332"/>
-      <c r="X7" s="332"/>
-      <c r="Y7" s="332"/>
-      <c r="Z7" s="332"/>
+      <c r="W7" s="268"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="268"/>
+      <c r="Z7" s="268"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -8189,22 +8187,22 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="339" t="s">
+      <c r="P10" s="281" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="339"/>
-      <c r="S10" s="339"/>
-      <c r="T10" s="339"/>
-      <c r="U10" s="339"/>
-      <c r="V10" s="339"/>
-      <c r="W10" s="339"/>
-      <c r="X10" s="258" t="s">
+      <c r="Q10" s="281"/>
+      <c r="R10" s="281"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="281"/>
+      <c r="X10" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="Y10" s="258"/>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="258"/>
+      <c r="Y10" s="338"/>
+      <c r="Z10" s="338"/>
+      <c r="AA10" s="338"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8227,21 +8225,21 @@
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
       <c r="O11" s="64"/>
-      <c r="P11" s="257" t="s">
+      <c r="P11" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="335" t="s">
+      <c r="Q11" s="337"/>
+      <c r="R11" s="337"/>
+      <c r="S11" s="337"/>
+      <c r="T11" s="337"/>
+      <c r="U11" s="337"/>
+      <c r="V11" s="337"/>
+      <c r="W11" s="272" t="s">
         <v>579</v>
       </c>
-      <c r="X11" s="335"/>
-      <c r="Y11" s="335"/>
-      <c r="Z11" s="335"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
       <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
@@ -8260,19 +8258,19 @@
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="334" t="s">
+      <c r="P12" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="334"/>
-      <c r="R12" s="334"/>
-      <c r="S12" s="334"/>
-      <c r="T12" s="334"/>
-      <c r="U12" s="334"/>
-      <c r="V12" s="334"/>
-      <c r="W12" s="334"/>
-      <c r="X12" s="334"/>
-      <c r="Y12" s="334"/>
-      <c r="Z12" s="334"/>
+      <c r="Q12" s="271"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="271"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
     </row>
     <row r="13" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="66"/>
@@ -8333,8 +8331,8 @@
       <c r="G15" s="219" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="269"/>
-      <c r="I15" s="270"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="334"/>
       <c r="J15" s="75" t="s">
         <v>262</v>
       </c>
@@ -8342,8 +8340,8 @@
       <c r="L15" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="M15" s="269"/>
-      <c r="N15" s="270"/>
+      <c r="M15" s="333"/>
+      <c r="N15" s="334"/>
       <c r="O15" s="75" t="s">
         <v>264</v>
       </c>
@@ -8351,12 +8349,12 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="67"/>
       <c r="S15" s="67"/>
-      <c r="T15" s="329" t="s">
+      <c r="T15" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="329"/>
-      <c r="V15" s="329"/>
-      <c r="W15" s="329"/>
+      <c r="U15" s="270"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="270"/>
       <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="70"/>
@@ -8364,47 +8362,47 @@
     <row r="16" spans="1:32" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="262" t="s">
+      <c r="C16" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="263"/>
-      <c r="E16" s="262" t="s">
+      <c r="D16" s="247"/>
+      <c r="E16" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="264"/>
-      <c r="G16" s="262" t="s">
+      <c r="F16" s="248"/>
+      <c r="G16" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="263"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="262" t="s">
+      <c r="H16" s="247"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="246" t="s">
         <v>164</v>
       </c>
-      <c r="K16" s="264"/>
-      <c r="L16" s="262" t="s">
+      <c r="K16" s="248"/>
+      <c r="L16" s="246" t="s">
         <v>192</v>
       </c>
-      <c r="M16" s="263"/>
-      <c r="N16" s="264"/>
-      <c r="O16" s="262" t="s">
+      <c r="M16" s="247"/>
+      <c r="N16" s="248"/>
+      <c r="O16" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="264"/>
+      <c r="P16" s="248"/>
       <c r="Q16" s="81"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="336" t="s">
+      <c r="T16" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="336"/>
-      <c r="V16" s="336"/>
-      <c r="W16" s="336"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
       <c r="X16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="324" t="s">
+      <c r="Y16" s="275" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" s="324"/>
+      <c r="Z16" s="275"/>
       <c r="AF16" s="100"/>
     </row>
     <row r="17" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8425,10 +8423,10 @@
       <c r="G17" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="296" t="s">
+      <c r="H17" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="297"/>
+      <c r="I17" s="285"/>
       <c r="J17" s="82" t="s">
         <v>280</v>
       </c>
@@ -8438,10 +8436,10 @@
       <c r="L17" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="M17" s="296" t="s">
+      <c r="M17" s="284" t="s">
         <v>193</v>
       </c>
-      <c r="N17" s="297"/>
+      <c r="N17" s="285"/>
       <c r="O17" s="82" t="s">
         <v>286</v>
       </c>
@@ -8470,40 +8468,40 @@
     <row r="18" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="260" t="s">
+      <c r="C18" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="290"/>
-      <c r="E18" s="260" t="s">
+      <c r="D18" s="249"/>
+      <c r="E18" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="261"/>
-      <c r="G18" s="260" t="s">
+      <c r="F18" s="260"/>
+      <c r="G18" s="259" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="290"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="290" t="s">
+      <c r="H18" s="249"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="290"/>
-      <c r="L18" s="288" t="s">
+      <c r="K18" s="249"/>
+      <c r="L18" s="252" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="311"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="290" t="s">
+      <c r="M18" s="253"/>
+      <c r="N18" s="254"/>
+      <c r="O18" s="249" t="s">
         <v>222</v>
       </c>
-      <c r="P18" s="290"/>
-      <c r="Q18" s="310" t="s">
+      <c r="P18" s="249"/>
+      <c r="Q18" s="274" t="s">
         <v>556</v>
       </c>
       <c r="S18" s="67"/>
-      <c r="T18" s="333"/>
-      <c r="U18" s="333"/>
-      <c r="V18" s="333"/>
-      <c r="W18" s="333"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
       <c r="X18" s="78"/>
       <c r="Y18" s="86"/>
       <c r="Z18" s="70"/>
@@ -8532,10 +8530,10 @@
       <c r="G19" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="265" t="s">
+      <c r="H19" s="261" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="266"/>
+      <c r="I19" s="262"/>
       <c r="J19" s="220" t="s">
         <v>167</v>
       </c>
@@ -8545,22 +8543,22 @@
       <c r="L19" s="220" t="s">
         <v>195</v>
       </c>
-      <c r="M19" s="265" t="s">
+      <c r="M19" s="261" t="s">
         <v>196</v>
       </c>
-      <c r="N19" s="266"/>
+      <c r="N19" s="262"/>
       <c r="O19" s="223" t="s">
         <v>223</v>
       </c>
       <c r="P19" s="221" t="s">
         <v>224</v>
       </c>
-      <c r="Q19" s="310"/>
+      <c r="Q19" s="274"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="333"/>
-      <c r="U19" s="333"/>
-      <c r="V19" s="333"/>
-      <c r="W19" s="333"/>
+      <c r="T19" s="269"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="269"/>
       <c r="X19" s="78"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="70"/>
@@ -8577,24 +8575,24 @@
     </row>
     <row r="20" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="245" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="337" t="s">
+      <c r="D20" s="276" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="314"/>
-      <c r="F20" s="338"/>
+      <c r="E20" s="277"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="217" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="298" t="s">
+      <c r="H20" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="299"/>
+      <c r="I20" s="264"/>
       <c r="J20" s="88" t="s">
         <v>278</v>
       </c>
@@ -8604,10 +8602,10 @@
       <c r="L20" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="M20" s="312" t="s">
+      <c r="M20" s="279" t="s">
         <v>169</v>
       </c>
-      <c r="N20" s="313"/>
+      <c r="N20" s="280"/>
       <c r="O20" s="91" t="s">
         <v>284</v>
       </c>
@@ -8616,48 +8614,48 @@
       </c>
       <c r="Q20" s="229"/>
       <c r="S20" s="67"/>
-      <c r="T20" s="333"/>
-      <c r="U20" s="333"/>
-      <c r="V20" s="333"/>
-      <c r="W20" s="333"/>
+      <c r="T20" s="269"/>
+      <c r="U20" s="269"/>
+      <c r="V20" s="269"/>
+      <c r="W20" s="269"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="86"/>
       <c r="Z20" s="70"/>
       <c r="AA20" s="80"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="328" t="s">
+      <c r="AF20" s="282" t="s">
         <v>561</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="341"/>
-      <c r="C21" s="260" t="s">
+      <c r="B21" s="245"/>
+      <c r="C21" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="260" t="s">
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="290"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="288" t="s">
+      <c r="H21" s="249"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="289"/>
-      <c r="L21" s="288" t="s">
+      <c r="K21" s="254"/>
+      <c r="L21" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="M21" s="311"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="288" t="s">
+      <c r="M21" s="253"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="252" t="s">
         <v>198</v>
       </c>
-      <c r="P21" s="289"/>
+      <c r="P21" s="254"/>
       <c r="Q21" s="230"/>
       <c r="S21" s="67"/>
       <c r="T21" s="67"/>
@@ -8670,7 +8668,7 @@
       <c r="AA21" s="80"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="328"/>
+      <c r="AF21" s="282"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8679,18 +8677,18 @@
       <c r="C22" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="294" t="s">
+      <c r="D22" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="294"/>
-      <c r="F22" s="295"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="306"/>
       <c r="G22" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="294" t="s">
+      <c r="H22" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="295"/>
+      <c r="I22" s="306"/>
       <c r="J22" s="226" t="s">
         <v>143</v>
       </c>
@@ -8700,10 +8698,10 @@
       <c r="L22" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="M22" s="294" t="s">
+      <c r="M22" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="N22" s="295"/>
+      <c r="N22" s="306"/>
       <c r="O22" s="228" t="s">
         <v>199</v>
       </c>
@@ -8742,10 +8740,10 @@
       <c r="G23" s="217" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="298" t="s">
+      <c r="H23" s="263" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="299"/>
+      <c r="I23" s="264"/>
       <c r="J23" s="88" t="s">
         <v>282</v>
       </c>
@@ -8755,10 +8753,10 @@
       <c r="L23" s="217" t="s">
         <v>285</v>
       </c>
-      <c r="M23" s="298" t="s">
+      <c r="M23" s="263" t="s">
         <v>201</v>
       </c>
-      <c r="N23" s="299"/>
+      <c r="N23" s="264"/>
       <c r="O23" s="88" t="s">
         <v>287</v>
       </c>
@@ -8788,42 +8786,42 @@
     <row r="24" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="290"/>
-      <c r="E24" s="260" t="s">
+      <c r="D24" s="249"/>
+      <c r="E24" s="259" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="290"/>
-      <c r="G24" s="291" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="292"/>
-      <c r="I24" s="293"/>
-      <c r="J24" s="260" t="s">
+      <c r="H24" s="256"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="259" t="s">
         <v>174</v>
       </c>
-      <c r="K24" s="290"/>
-      <c r="L24" s="291" t="s">
+      <c r="K24" s="249"/>
+      <c r="L24" s="255" t="s">
         <v>202</v>
       </c>
-      <c r="M24" s="292"/>
-      <c r="N24" s="293"/>
-      <c r="O24" s="260" t="s">
+      <c r="M24" s="256"/>
+      <c r="N24" s="257"/>
+      <c r="O24" s="259" t="s">
         <v>226</v>
       </c>
-      <c r="P24" s="290"/>
-      <c r="Q24" s="310" t="s">
+      <c r="P24" s="249"/>
+      <c r="Q24" s="274" t="s">
         <v>554</v>
       </c>
       <c r="S24" s="67"/>
-      <c r="T24" s="320" t="s">
+      <c r="T24" s="287" t="s">
         <v>249</v>
       </c>
-      <c r="U24" s="320"/>
-      <c r="V24" s="320"/>
-      <c r="W24" s="320"/>
+      <c r="U24" s="287"/>
+      <c r="V24" s="287"/>
+      <c r="W24" s="287"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="95" t="s">
         <v>257</v>
@@ -8854,10 +8852,10 @@
       <c r="G25" s="222" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="267" t="s">
+      <c r="H25" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="268"/>
+      <c r="I25" s="266"/>
       <c r="J25" s="220" t="s">
         <v>175</v>
       </c>
@@ -8867,17 +8865,17 @@
       <c r="L25" s="220" t="s">
         <v>203</v>
       </c>
-      <c r="M25" s="308" t="s">
+      <c r="M25" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="N25" s="309"/>
+      <c r="N25" s="308"/>
       <c r="O25" s="220" t="s">
         <v>227</v>
       </c>
       <c r="P25" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="Q25" s="310"/>
+      <c r="Q25" s="274"/>
       <c r="S25" s="67"/>
       <c r="T25" s="67"/>
       <c r="U25" s="67"/>
@@ -8907,8 +8905,8 @@
       <c r="G26" s="218" t="s">
         <v>267</v>
       </c>
-      <c r="H26" s="272"/>
-      <c r="I26" s="273"/>
+      <c r="H26" s="335"/>
+      <c r="I26" s="336"/>
       <c r="J26" s="96" t="s">
         <v>268</v>
       </c>
@@ -8916,19 +8914,19 @@
       <c r="L26" s="218" t="s">
         <v>269</v>
       </c>
-      <c r="M26" s="272"/>
-      <c r="N26" s="273"/>
+      <c r="M26" s="335"/>
+      <c r="N26" s="336"/>
       <c r="O26" s="72" t="s">
         <v>270</v>
       </c>
       <c r="P26" s="99"/>
       <c r="Q26" s="81"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="303" t="s">
+      <c r="T26" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="303"/>
-      <c r="V26" s="303"/>
+      <c r="U26" s="286"/>
+      <c r="V26" s="286"/>
       <c r="W26" s="70" t="s">
         <v>8</v>
       </c>
@@ -8947,40 +8945,40 @@
     <row r="27" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="80"/>
       <c r="B27" s="71"/>
-      <c r="C27" s="262" t="s">
+      <c r="C27" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="263"/>
-      <c r="E27" s="262" t="s">
+      <c r="D27" s="247"/>
+      <c r="E27" s="246" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="263"/>
-      <c r="G27" s="262" t="s">
+      <c r="F27" s="247"/>
+      <c r="G27" s="246" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="263"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="262" t="s">
+      <c r="H27" s="247"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="263"/>
-      <c r="L27" s="262" t="s">
+      <c r="K27" s="247"/>
+      <c r="L27" s="246" t="s">
         <v>205</v>
       </c>
-      <c r="M27" s="263"/>
-      <c r="N27" s="264"/>
-      <c r="O27" s="262" t="s">
+      <c r="M27" s="247"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="246" t="s">
         <v>229</v>
       </c>
-      <c r="P27" s="264"/>
+      <c r="P27" s="248"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="67"/>
       <c r="S27" s="69"/>
-      <c r="T27" s="303" t="s">
+      <c r="T27" s="286" t="s">
         <v>68</v>
       </c>
-      <c r="U27" s="303"/>
-      <c r="V27" s="303"/>
+      <c r="U27" s="286"/>
+      <c r="V27" s="286"/>
       <c r="W27" s="70" t="s">
         <v>8</v>
       </c>
@@ -9016,11 +9014,11 @@
       <c r="Q28" s="100"/>
       <c r="R28" s="67"/>
       <c r="S28" s="69"/>
-      <c r="T28" s="320" t="s">
+      <c r="T28" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="320"/>
-      <c r="V28" s="320"/>
+      <c r="U28" s="287"/>
+      <c r="V28" s="287"/>
       <c r="W28" s="70" t="s">
         <v>8</v>
       </c>
@@ -9139,12 +9137,12 @@
       <c r="Q31" s="63"/>
       <c r="R31" s="103"/>
       <c r="S31" s="107"/>
-      <c r="T31" s="329" t="s">
+      <c r="T31" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="329"/>
-      <c r="V31" s="329"/>
-      <c r="W31" s="329"/>
+      <c r="U31" s="270"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="270"/>
       <c r="X31" s="105"/>
       <c r="Y31" s="106"/>
       <c r="Z31" s="70"/>
@@ -9175,32 +9173,32 @@
       <c r="Q32" s="108"/>
       <c r="R32" s="108"/>
       <c r="S32" s="108"/>
-      <c r="T32" s="330" t="s">
+      <c r="T32" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="U32" s="330"/>
-      <c r="V32" s="330"/>
-      <c r="W32" s="330"/>
+      <c r="U32" s="288"/>
+      <c r="V32" s="288"/>
+      <c r="W32" s="288"/>
       <c r="X32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="324" t="s">
+      <c r="Y32" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="Z32" s="324"/>
+      <c r="Z32" s="275"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="322"/>
-      <c r="AK32" s="322"/>
+      <c r="AJ32" s="290"/>
+      <c r="AK32" s="290"/>
       <c r="AL32" s="111"/>
       <c r="AM32" s="111"/>
       <c r="AN32" s="111"/>
-      <c r="AO32" s="322"/>
-      <c r="AP32" s="322"/>
+      <c r="AO32" s="290"/>
+      <c r="AP32" s="290"/>
       <c r="AQ32" s="111"/>
       <c r="AR32" s="111"/>
       <c r="AS32" s="111"/>
@@ -9219,8 +9217,8 @@
       <c r="G33" s="219" t="s">
         <v>290</v>
       </c>
-      <c r="H33" s="269"/>
-      <c r="I33" s="270"/>
+      <c r="H33" s="333"/>
+      <c r="I33" s="334"/>
       <c r="J33" s="213" t="s">
         <v>291</v>
       </c>
@@ -9228,8 +9226,8 @@
       <c r="L33" s="219" t="s">
         <v>292</v>
       </c>
-      <c r="M33" s="269"/>
-      <c r="N33" s="270"/>
+      <c r="M33" s="333"/>
+      <c r="N33" s="334"/>
       <c r="O33" s="213" t="s">
         <v>293</v>
       </c>
@@ -9251,46 +9249,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="321"/>
-      <c r="AK33" s="321"/>
-      <c r="AL33" s="321"/>
-      <c r="AM33" s="321"/>
-      <c r="AN33" s="321"/>
-      <c r="AO33" s="321"/>
-      <c r="AP33" s="321"/>
-      <c r="AQ33" s="321"/>
-      <c r="AR33" s="321"/>
-      <c r="AS33" s="321"/>
+      <c r="AJ33" s="283"/>
+      <c r="AK33" s="283"/>
+      <c r="AL33" s="283"/>
+      <c r="AM33" s="283"/>
+      <c r="AN33" s="283"/>
+      <c r="AO33" s="283"/>
+      <c r="AP33" s="283"/>
+      <c r="AQ33" s="283"/>
+      <c r="AR33" s="283"/>
+      <c r="AS33" s="283"/>
     </row>
     <row r="34" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="114"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="262" t="s">
+      <c r="C34" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="264"/>
-      <c r="E34" s="262" t="s">
+      <c r="D34" s="248"/>
+      <c r="E34" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="264"/>
-      <c r="G34" s="262" t="s">
+      <c r="F34" s="248"/>
+      <c r="G34" s="246" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="263"/>
-      <c r="I34" s="264"/>
-      <c r="J34" s="262" t="s">
+      <c r="H34" s="247"/>
+      <c r="I34" s="248"/>
+      <c r="J34" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="264"/>
-      <c r="L34" s="262" t="s">
+      <c r="K34" s="248"/>
+      <c r="L34" s="246" t="s">
         <v>206</v>
       </c>
-      <c r="M34" s="263"/>
-      <c r="N34" s="264"/>
-      <c r="O34" s="262" t="s">
+      <c r="M34" s="247"/>
+      <c r="N34" s="248"/>
+      <c r="O34" s="246" t="s">
         <v>230</v>
       </c>
-      <c r="P34" s="264"/>
+      <c r="P34" s="248"/>
       <c r="Q34" s="81"/>
       <c r="S34" s="112"/>
       <c r="T34" s="113"/>
@@ -9308,13 +9306,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="325"/>
-      <c r="AK34" s="325"/>
+      <c r="AJ34" s="291"/>
+      <c r="AK34" s="291"/>
       <c r="AL34" s="116"/>
       <c r="AM34" s="115"/>
       <c r="AN34" s="116"/>
-      <c r="AO34" s="325"/>
-      <c r="AP34" s="325"/>
+      <c r="AO34" s="291"/>
+      <c r="AP34" s="291"/>
       <c r="AQ34" s="116"/>
       <c r="AR34" s="115"/>
       <c r="AS34" s="116"/>
@@ -9337,10 +9335,10 @@
       <c r="G35" s="216" t="s">
         <v>296</v>
       </c>
-      <c r="H35" s="296" t="s">
+      <c r="H35" s="284" t="s">
         <v>151</v>
       </c>
-      <c r="I35" s="297"/>
+      <c r="I35" s="285"/>
       <c r="J35" s="216" t="s">
         <v>297</v>
       </c>
@@ -9350,10 +9348,10 @@
       <c r="L35" s="216" t="s">
         <v>298</v>
       </c>
-      <c r="M35" s="296" t="s">
+      <c r="M35" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="N35" s="297"/>
+      <c r="N35" s="285"/>
       <c r="O35" s="216" t="s">
         <v>299</v>
       </c>
@@ -9382,47 +9380,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="321"/>
-      <c r="AK35" s="321"/>
-      <c r="AL35" s="321"/>
-      <c r="AM35" s="321"/>
-      <c r="AN35" s="321"/>
-      <c r="AO35" s="292"/>
-      <c r="AP35" s="292"/>
-      <c r="AQ35" s="292"/>
-      <c r="AR35" s="326"/>
-      <c r="AS35" s="326"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="256"/>
+      <c r="AP35" s="256"/>
+      <c r="AQ35" s="256"/>
+      <c r="AR35" s="292"/>
+      <c r="AS35" s="292"/>
     </row>
     <row r="36" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="114"/>
       <c r="B36" s="81"/>
-      <c r="C36" s="260" t="s">
+      <c r="C36" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="261"/>
-      <c r="E36" s="260" t="s">
+      <c r="D36" s="260"/>
+      <c r="E36" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="261"/>
-      <c r="G36" s="260" t="s">
+      <c r="F36" s="260"/>
+      <c r="G36" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="290"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="260" t="s">
+      <c r="H36" s="249"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="259" t="s">
         <v>180</v>
       </c>
-      <c r="K36" s="261"/>
-      <c r="L36" s="288" t="s">
+      <c r="K36" s="260"/>
+      <c r="L36" s="252" t="s">
         <v>208</v>
       </c>
-      <c r="M36" s="311"/>
-      <c r="N36" s="289"/>
-      <c r="O36" s="260" t="s">
+      <c r="M36" s="253"/>
+      <c r="N36" s="254"/>
+      <c r="O36" s="259" t="s">
         <v>232</v>
       </c>
-      <c r="P36" s="261"/>
-      <c r="Q36" s="310" t="s">
+      <c r="P36" s="260"/>
+      <c r="Q36" s="274" t="s">
         <v>557</v>
       </c>
       <c r="S36" s="112"/>
@@ -9472,10 +9470,10 @@
       <c r="G37" s="220" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="265" t="s">
+      <c r="H37" s="261" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="266"/>
+      <c r="I37" s="262"/>
       <c r="J37" s="220" t="s">
         <v>181</v>
       </c>
@@ -9485,17 +9483,17 @@
       <c r="L37" s="220" t="s">
         <v>209</v>
       </c>
-      <c r="M37" s="265" t="s">
+      <c r="M37" s="261" t="s">
         <v>210</v>
       </c>
-      <c r="N37" s="266"/>
+      <c r="N37" s="262"/>
       <c r="O37" s="223" t="s">
         <v>233</v>
       </c>
       <c r="P37" s="221" t="s">
         <v>234</v>
       </c>
-      <c r="Q37" s="310"/>
+      <c r="Q37" s="274"/>
       <c r="S37" s="122"/>
       <c r="T37" s="113"/>
       <c r="U37" s="113"/>
@@ -9514,37 +9512,37 @@
       <c r="AG37" s="233"/>
       <c r="AH37" s="233"/>
       <c r="AI37" s="233"/>
-      <c r="AJ37" s="323"/>
-      <c r="AK37" s="323"/>
+      <c r="AJ37" s="289"/>
+      <c r="AK37" s="289"/>
       <c r="AL37" s="116"/>
       <c r="AM37" s="93"/>
       <c r="AN37" s="117"/>
       <c r="AO37" s="93"/>
-      <c r="AP37" s="327"/>
-      <c r="AQ37" s="327"/>
+      <c r="AP37" s="293"/>
+      <c r="AQ37" s="293"/>
       <c r="AR37" s="93"/>
       <c r="AS37" s="116"/>
     </row>
     <row r="38" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="114"/>
-      <c r="B38" s="341" t="s">
+      <c r="B38" s="245" t="s">
         <v>239</v>
       </c>
       <c r="C38" s="214" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="314" t="s">
+      <c r="D38" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="314"/>
-      <c r="F38" s="315"/>
+      <c r="E38" s="277"/>
+      <c r="F38" s="309"/>
       <c r="G38" s="217" t="s">
         <v>301</v>
       </c>
-      <c r="H38" s="298" t="s">
+      <c r="H38" s="263" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="299"/>
+      <c r="I38" s="264"/>
       <c r="J38" s="214" t="s">
         <v>302</v>
       </c>
@@ -9554,10 +9552,10 @@
       <c r="L38" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="M38" s="312" t="s">
+      <c r="M38" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="N38" s="313"/>
+      <c r="N38" s="280"/>
       <c r="O38" s="91" t="s">
         <v>304</v>
       </c>
@@ -9573,50 +9571,50 @@
       <c r="X38" s="67"/>
       <c r="Y38" s="123"/>
       <c r="Z38" s="67"/>
-      <c r="AF38" s="328" t="s">
+      <c r="AF38" s="282" t="s">
         <v>568</v>
       </c>
       <c r="AG38" s="232"/>
       <c r="AH38" s="232"/>
       <c r="AI38" s="232"/>
-      <c r="AJ38" s="321"/>
-      <c r="AK38" s="321"/>
-      <c r="AL38" s="321"/>
-      <c r="AM38" s="292"/>
-      <c r="AN38" s="292"/>
-      <c r="AO38" s="292"/>
-      <c r="AP38" s="292"/>
-      <c r="AQ38" s="292"/>
-      <c r="AR38" s="292"/>
-      <c r="AS38" s="292"/>
+      <c r="AJ38" s="283"/>
+      <c r="AK38" s="283"/>
+      <c r="AL38" s="283"/>
+      <c r="AM38" s="256"/>
+      <c r="AN38" s="256"/>
+      <c r="AO38" s="256"/>
+      <c r="AP38" s="256"/>
+      <c r="AQ38" s="256"/>
+      <c r="AR38" s="256"/>
+      <c r="AS38" s="256"/>
     </row>
     <row r="39" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="114"/>
-      <c r="B39" s="341"/>
-      <c r="C39" s="260" t="s">
+      <c r="B39" s="245"/>
+      <c r="C39" s="259" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="290"/>
-      <c r="E39" s="290"/>
-      <c r="F39" s="261"/>
-      <c r="G39" s="260" t="s">
+      <c r="D39" s="249"/>
+      <c r="E39" s="249"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="290"/>
-      <c r="I39" s="261"/>
-      <c r="J39" s="288" t="s">
+      <c r="H39" s="249"/>
+      <c r="I39" s="260"/>
+      <c r="J39" s="252" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="289"/>
-      <c r="L39" s="288" t="s">
+      <c r="K39" s="254"/>
+      <c r="L39" s="252" t="s">
         <v>184</v>
       </c>
-      <c r="M39" s="311"/>
-      <c r="N39" s="289"/>
-      <c r="O39" s="288" t="s">
+      <c r="M39" s="253"/>
+      <c r="N39" s="254"/>
+      <c r="O39" s="252" t="s">
         <v>212</v>
       </c>
-      <c r="P39" s="289"/>
+      <c r="P39" s="254"/>
       <c r="Q39" s="230"/>
       <c r="S39" s="122"/>
       <c r="T39" s="69" t="s">
@@ -9628,7 +9626,7 @@
       <c r="X39" s="67"/>
       <c r="Y39" s="123"/>
       <c r="Z39" s="70"/>
-      <c r="AF39" s="328"/>
+      <c r="AF39" s="282"/>
       <c r="AG39" s="234"/>
       <c r="AH39" s="234"/>
       <c r="AI39" s="121"/>
@@ -9649,18 +9647,18 @@
       <c r="C40" s="224" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="294" t="s">
+      <c r="D40" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="294"/>
-      <c r="F40" s="295"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="306"/>
       <c r="G40" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="294" t="s">
+      <c r="H40" s="305" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="295"/>
+      <c r="I40" s="306"/>
       <c r="J40" s="226" t="s">
         <v>157</v>
       </c>
@@ -9670,10 +9668,10 @@
       <c r="L40" s="226" t="s">
         <v>185</v>
       </c>
-      <c r="M40" s="294" t="s">
+      <c r="M40" s="305" t="s">
         <v>186</v>
       </c>
-      <c r="N40" s="295"/>
+      <c r="N40" s="306"/>
       <c r="O40" s="228" t="s">
         <v>213</v>
       </c>
@@ -9682,12 +9680,12 @@
       </c>
       <c r="Q40" s="94"/>
       <c r="S40" s="63"/>
-      <c r="T40" s="320" t="s">
+      <c r="T40" s="287" t="s">
         <v>249</v>
       </c>
-      <c r="U40" s="320"/>
-      <c r="V40" s="320"/>
-      <c r="W40" s="320"/>
+      <c r="U40" s="287"/>
+      <c r="V40" s="287"/>
+      <c r="W40" s="287"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="124" t="s">
         <v>78</v>
@@ -9697,13 +9695,13 @@
       <c r="AG40" s="116"/>
       <c r="AH40" s="234"/>
       <c r="AI40" s="233"/>
-      <c r="AJ40" s="323"/>
-      <c r="AK40" s="323"/>
+      <c r="AJ40" s="289"/>
+      <c r="AK40" s="289"/>
       <c r="AL40" s="116"/>
       <c r="AM40" s="93"/>
       <c r="AN40" s="116"/>
-      <c r="AO40" s="323"/>
-      <c r="AP40" s="323"/>
+      <c r="AO40" s="289"/>
+      <c r="AP40" s="289"/>
       <c r="AQ40" s="116"/>
       <c r="AR40" s="93"/>
       <c r="AS40" s="116"/>
@@ -9726,10 +9724,10 @@
       <c r="G41" s="217" t="s">
         <v>307</v>
       </c>
-      <c r="H41" s="298" t="s">
+      <c r="H41" s="263" t="s">
         <v>159</v>
       </c>
-      <c r="I41" s="299"/>
+      <c r="I41" s="264"/>
       <c r="J41" s="214" t="s">
         <v>308</v>
       </c>
@@ -9739,10 +9737,10 @@
       <c r="L41" s="217" t="s">
         <v>309</v>
       </c>
-      <c r="M41" s="298" t="s">
+      <c r="M41" s="263" t="s">
         <v>215</v>
       </c>
-      <c r="N41" s="299"/>
+      <c r="N41" s="264"/>
       <c r="O41" s="214" t="s">
         <v>310</v>
       </c>
@@ -9764,55 +9762,55 @@
       <c r="AG41" s="231"/>
       <c r="AH41" s="231"/>
       <c r="AI41" s="231"/>
-      <c r="AJ41" s="292"/>
-      <c r="AK41" s="292"/>
-      <c r="AL41" s="292"/>
-      <c r="AM41" s="321"/>
-      <c r="AN41" s="321"/>
-      <c r="AO41" s="292"/>
-      <c r="AP41" s="292"/>
-      <c r="AQ41" s="292"/>
-      <c r="AR41" s="292"/>
-      <c r="AS41" s="292"/>
+      <c r="AJ41" s="256"/>
+      <c r="AK41" s="256"/>
+      <c r="AL41" s="256"/>
+      <c r="AM41" s="283"/>
+      <c r="AN41" s="283"/>
+      <c r="AO41" s="256"/>
+      <c r="AP41" s="256"/>
+      <c r="AQ41" s="256"/>
+      <c r="AR41" s="256"/>
+      <c r="AS41" s="256"/>
     </row>
     <row r="42" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="114"/>
       <c r="B42" s="81"/>
-      <c r="C42" s="260" t="s">
+      <c r="C42" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="261"/>
-      <c r="E42" s="260" t="s">
+      <c r="D42" s="260"/>
+      <c r="E42" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="261"/>
-      <c r="G42" s="291" t="s">
+      <c r="F42" s="260"/>
+      <c r="G42" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="292"/>
-      <c r="I42" s="293"/>
-      <c r="J42" s="260" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="257"/>
+      <c r="J42" s="259" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="261"/>
-      <c r="L42" s="291" t="s">
+      <c r="K42" s="260"/>
+      <c r="L42" s="255" t="s">
         <v>216</v>
       </c>
-      <c r="M42" s="292"/>
-      <c r="N42" s="293"/>
-      <c r="O42" s="260" t="s">
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="P42" s="261"/>
-      <c r="Q42" s="310" t="s">
+      <c r="P42" s="260"/>
+      <c r="Q42" s="274" t="s">
         <v>555</v>
       </c>
       <c r="S42" s="67"/>
-      <c r="T42" s="303" t="s">
+      <c r="T42" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="303"/>
-      <c r="V42" s="303"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
       <c r="W42" s="70" t="s">
         <v>8</v>
       </c>
@@ -9854,10 +9852,10 @@
       <c r="G43" s="220" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="267" t="s">
+      <c r="H43" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="268"/>
+      <c r="I43" s="266"/>
       <c r="J43" s="220" t="s">
         <v>189</v>
       </c>
@@ -9867,23 +9865,23 @@
       <c r="L43" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="M43" s="265" t="s">
+      <c r="M43" s="261" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="266"/>
+      <c r="N43" s="262"/>
       <c r="O43" s="220" t="s">
         <v>237</v>
       </c>
       <c r="P43" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="Q43" s="310"/>
+      <c r="Q43" s="274"/>
       <c r="S43" s="67"/>
-      <c r="T43" s="303" t="s">
+      <c r="T43" s="286" t="s">
         <v>68</v>
       </c>
-      <c r="U43" s="303"/>
-      <c r="V43" s="303"/>
+      <c r="U43" s="286"/>
+      <c r="V43" s="286"/>
       <c r="W43" s="70" t="s">
         <v>8</v>
       </c>
@@ -9896,13 +9894,13 @@
       <c r="AG43" s="235"/>
       <c r="AH43" s="235"/>
       <c r="AI43" s="235"/>
-      <c r="AJ43" s="322"/>
-      <c r="AK43" s="322"/>
+      <c r="AJ43" s="290"/>
+      <c r="AK43" s="290"/>
       <c r="AL43" s="111"/>
       <c r="AM43" s="111"/>
       <c r="AN43" s="111"/>
-      <c r="AO43" s="322"/>
-      <c r="AP43" s="322"/>
+      <c r="AO43" s="290"/>
+      <c r="AP43" s="290"/>
       <c r="AQ43" s="111"/>
       <c r="AR43" s="111"/>
       <c r="AS43" s="111"/>
@@ -9921,8 +9919,8 @@
       <c r="G44" s="219" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="269"/>
-      <c r="I44" s="270"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="334"/>
       <c r="J44" s="96" t="s">
         <v>314</v>
       </c>
@@ -9930,19 +9928,19 @@
       <c r="L44" s="219" t="s">
         <v>315</v>
       </c>
-      <c r="M44" s="269"/>
-      <c r="N44" s="270"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="334"/>
       <c r="O44" s="72" t="s">
         <v>316</v>
       </c>
       <c r="P44" s="99"/>
       <c r="Q44" s="81"/>
       <c r="S44" s="67"/>
-      <c r="T44" s="320" t="s">
+      <c r="T44" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="320"/>
-      <c r="V44" s="320"/>
+      <c r="U44" s="287"/>
+      <c r="V44" s="287"/>
       <c r="W44" s="70" t="s">
         <v>8</v>
       </c>
@@ -9958,46 +9956,46 @@
       <c r="AG44" s="232"/>
       <c r="AH44" s="232"/>
       <c r="AI44" s="232"/>
-      <c r="AJ44" s="321"/>
-      <c r="AK44" s="321"/>
-      <c r="AL44" s="321"/>
-      <c r="AM44" s="321"/>
-      <c r="AN44" s="321"/>
-      <c r="AO44" s="321"/>
-      <c r="AP44" s="321"/>
-      <c r="AQ44" s="321"/>
-      <c r="AR44" s="321"/>
-      <c r="AS44" s="321"/>
+      <c r="AJ44" s="283"/>
+      <c r="AK44" s="283"/>
+      <c r="AL44" s="283"/>
+      <c r="AM44" s="283"/>
+      <c r="AN44" s="283"/>
+      <c r="AO44" s="283"/>
+      <c r="AP44" s="283"/>
+      <c r="AQ44" s="283"/>
+      <c r="AR44" s="283"/>
+      <c r="AS44" s="283"/>
     </row>
     <row r="45" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="80"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="262" t="s">
+      <c r="C45" s="246" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="264"/>
-      <c r="E45" s="262" t="s">
+      <c r="D45" s="248"/>
+      <c r="E45" s="246" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="264"/>
-      <c r="G45" s="262" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="246" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="263"/>
-      <c r="I45" s="264"/>
-      <c r="J45" s="262" t="s">
+      <c r="H45" s="247"/>
+      <c r="I45" s="248"/>
+      <c r="J45" s="246" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="264"/>
-      <c r="L45" s="262" t="s">
+      <c r="K45" s="248"/>
+      <c r="L45" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="M45" s="263"/>
-      <c r="N45" s="264"/>
-      <c r="O45" s="262" t="s">
+      <c r="M45" s="247"/>
+      <c r="N45" s="248"/>
+      <c r="O45" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="P45" s="264"/>
+      <c r="P45" s="248"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="67"/>
       <c r="S45" s="69"/>
@@ -10012,18 +10010,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="127"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="271"/>
-      <c r="G46" s="271"/>
-      <c r="H46" s="271"/>
-      <c r="I46" s="271"/>
-      <c r="J46" s="271"/>
-      <c r="K46" s="271"/>
-      <c r="L46" s="271"/>
-      <c r="M46" s="271"/>
-      <c r="N46" s="271"/>
+      <c r="C46" s="314"/>
+      <c r="D46" s="314"/>
+      <c r="E46" s="314"/>
+      <c r="F46" s="314"/>
+      <c r="G46" s="314"/>
+      <c r="H46" s="314"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="314"/>
+      <c r="K46" s="314"/>
+      <c r="L46" s="314"/>
+      <c r="M46" s="314"/>
+      <c r="N46" s="314"/>
       <c r="O46" s="109"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
@@ -10080,20 +10078,20 @@
       <c r="F48" s="129"/>
       <c r="G48" s="129"/>
       <c r="H48" s="129"/>
-      <c r="I48" s="304"/>
-      <c r="J48" s="304"/>
-      <c r="K48" s="304"/>
-      <c r="L48" s="304"/>
-      <c r="M48" s="276" t="s">
+      <c r="I48" s="313"/>
+      <c r="J48" s="313"/>
+      <c r="K48" s="313"/>
+      <c r="L48" s="313"/>
+      <c r="M48" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="277"/>
-      <c r="O48" s="277"/>
-      <c r="P48" s="277"/>
-      <c r="Q48" s="277"/>
-      <c r="R48" s="277"/>
-      <c r="S48" s="277"/>
-      <c r="T48" s="278"/>
+      <c r="N48" s="322"/>
+      <c r="O48" s="322"/>
+      <c r="P48" s="322"/>
+      <c r="Q48" s="322"/>
+      <c r="R48" s="322"/>
+      <c r="S48" s="322"/>
+      <c r="T48" s="323"/>
       <c r="U48" s="132"/>
       <c r="V48" s="132"/>
       <c r="W48" s="132"/>
@@ -10114,22 +10112,22 @@
       <c r="F49" s="135"/>
       <c r="G49" s="135"/>
       <c r="H49" s="136"/>
-      <c r="I49" s="259" t="s">
+      <c r="I49" s="319" t="s">
         <v>251</v>
       </c>
-      <c r="J49" s="259"/>
-      <c r="K49" s="259"/>
-      <c r="L49" s="259"/>
-      <c r="M49" s="279" t="s">
+      <c r="J49" s="319"/>
+      <c r="K49" s="319"/>
+      <c r="L49" s="319"/>
+      <c r="M49" s="324" t="s">
         <v>258</v>
       </c>
-      <c r="N49" s="280"/>
-      <c r="O49" s="280"/>
-      <c r="P49" s="280"/>
-      <c r="Q49" s="280"/>
-      <c r="R49" s="280"/>
-      <c r="S49" s="280"/>
-      <c r="T49" s="281"/>
+      <c r="N49" s="325"/>
+      <c r="O49" s="325"/>
+      <c r="P49" s="325"/>
+      <c r="Q49" s="325"/>
+      <c r="R49" s="325"/>
+      <c r="S49" s="325"/>
+      <c r="T49" s="326"/>
       <c r="U49" s="132"/>
       <c r="V49" s="132"/>
       <c r="W49" s="132"/>
@@ -10150,20 +10148,20 @@
       <c r="F50" s="135"/>
       <c r="G50" s="135"/>
       <c r="H50" s="136"/>
-      <c r="I50" s="259" t="s">
+      <c r="I50" s="319" t="s">
         <v>252</v>
       </c>
-      <c r="J50" s="259"/>
-      <c r="K50" s="259"/>
-      <c r="L50" s="259"/>
-      <c r="M50" s="282"/>
-      <c r="N50" s="283"/>
-      <c r="O50" s="283"/>
-      <c r="P50" s="283"/>
-      <c r="Q50" s="283"/>
-      <c r="R50" s="283"/>
-      <c r="S50" s="283"/>
-      <c r="T50" s="284"/>
+      <c r="J50" s="319"/>
+      <c r="K50" s="319"/>
+      <c r="L50" s="319"/>
+      <c r="M50" s="327"/>
+      <c r="N50" s="328"/>
+      <c r="O50" s="328"/>
+      <c r="P50" s="328"/>
+      <c r="Q50" s="328"/>
+      <c r="R50" s="328"/>
+      <c r="S50" s="328"/>
+      <c r="T50" s="329"/>
       <c r="U50" s="133"/>
       <c r="V50" s="132"/>
       <c r="W50" s="132"/>
@@ -10184,20 +10182,20 @@
       <c r="F51" s="135"/>
       <c r="G51" s="135"/>
       <c r="H51" s="136"/>
-      <c r="I51" s="259" t="s">
+      <c r="I51" s="319" t="s">
         <v>255</v>
       </c>
-      <c r="J51" s="259"/>
-      <c r="K51" s="259"/>
-      <c r="L51" s="259"/>
-      <c r="M51" s="282"/>
-      <c r="N51" s="283"/>
-      <c r="O51" s="283"/>
-      <c r="P51" s="283"/>
-      <c r="Q51" s="283"/>
-      <c r="R51" s="283"/>
-      <c r="S51" s="283"/>
-      <c r="T51" s="284"/>
+      <c r="J51" s="319"/>
+      <c r="K51" s="319"/>
+      <c r="L51" s="319"/>
+      <c r="M51" s="327"/>
+      <c r="N51" s="328"/>
+      <c r="O51" s="328"/>
+      <c r="P51" s="328"/>
+      <c r="Q51" s="328"/>
+      <c r="R51" s="328"/>
+      <c r="S51" s="328"/>
+      <c r="T51" s="329"/>
       <c r="U51" s="133"/>
       <c r="V51" s="132"/>
       <c r="W51" s="132"/>
@@ -10218,20 +10216,20 @@
       <c r="F52" s="135"/>
       <c r="G52" s="135"/>
       <c r="H52" s="136"/>
-      <c r="I52" s="259" t="s">
+      <c r="I52" s="319" t="s">
         <v>254</v>
       </c>
-      <c r="J52" s="259"/>
-      <c r="K52" s="259"/>
-      <c r="L52" s="259"/>
-      <c r="M52" s="282"/>
-      <c r="N52" s="283"/>
-      <c r="O52" s="283"/>
-      <c r="P52" s="283"/>
-      <c r="Q52" s="283"/>
-      <c r="R52" s="283"/>
-      <c r="S52" s="283"/>
-      <c r="T52" s="284"/>
+      <c r="J52" s="319"/>
+      <c r="K52" s="319"/>
+      <c r="L52" s="319"/>
+      <c r="M52" s="327"/>
+      <c r="N52" s="328"/>
+      <c r="O52" s="328"/>
+      <c r="P52" s="328"/>
+      <c r="Q52" s="328"/>
+      <c r="R52" s="328"/>
+      <c r="S52" s="328"/>
+      <c r="T52" s="329"/>
       <c r="U52" s="133"/>
       <c r="V52" s="132"/>
       <c r="W52" s="132"/>
@@ -10252,20 +10250,20 @@
       <c r="F53" s="135"/>
       <c r="G53" s="135"/>
       <c r="H53" s="136"/>
-      <c r="I53" s="259" t="s">
+      <c r="I53" s="319" t="s">
         <v>253</v>
       </c>
-      <c r="J53" s="259"/>
-      <c r="K53" s="259"/>
-      <c r="L53" s="259"/>
-      <c r="M53" s="282"/>
-      <c r="N53" s="283"/>
-      <c r="O53" s="283"/>
-      <c r="P53" s="283"/>
-      <c r="Q53" s="283"/>
-      <c r="R53" s="283"/>
-      <c r="S53" s="283"/>
-      <c r="T53" s="284"/>
+      <c r="J53" s="319"/>
+      <c r="K53" s="319"/>
+      <c r="L53" s="319"/>
+      <c r="M53" s="327"/>
+      <c r="N53" s="328"/>
+      <c r="O53" s="328"/>
+      <c r="P53" s="328"/>
+      <c r="Q53" s="328"/>
+      <c r="R53" s="328"/>
+      <c r="S53" s="328"/>
+      <c r="T53" s="329"/>
       <c r="U53" s="133"/>
       <c r="V53" s="132"/>
       <c r="W53" s="132"/>
@@ -10277,29 +10275,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="131"/>
-      <c r="B54" s="300" t="s">
+      <c r="B54" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="301"/>
-      <c r="D54" s="301"/>
-      <c r="E54" s="301"/>
-      <c r="F54" s="301"/>
-      <c r="G54" s="301"/>
-      <c r="H54" s="302"/>
-      <c r="I54" s="306" t="s">
+      <c r="C54" s="311"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="311"/>
+      <c r="G54" s="311"/>
+      <c r="H54" s="312"/>
+      <c r="I54" s="318" t="s">
         <v>256</v>
       </c>
-      <c r="J54" s="306"/>
-      <c r="K54" s="306"/>
-      <c r="L54" s="306"/>
-      <c r="M54" s="282"/>
-      <c r="N54" s="283"/>
-      <c r="O54" s="283"/>
-      <c r="P54" s="283"/>
-      <c r="Q54" s="283"/>
-      <c r="R54" s="283"/>
-      <c r="S54" s="283"/>
-      <c r="T54" s="284"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="318"/>
+      <c r="L54" s="318"/>
+      <c r="M54" s="327"/>
+      <c r="N54" s="328"/>
+      <c r="O54" s="328"/>
+      <c r="P54" s="328"/>
+      <c r="Q54" s="328"/>
+      <c r="R54" s="328"/>
+      <c r="S54" s="328"/>
+      <c r="T54" s="329"/>
       <c r="U54" s="133"/>
       <c r="V54" s="132"/>
       <c r="W54" s="132"/>
@@ -10322,18 +10320,18 @@
       <c r="F55" s="139"/>
       <c r="G55" s="139"/>
       <c r="H55" s="140"/>
-      <c r="I55" s="306"/>
-      <c r="J55" s="306"/>
-      <c r="K55" s="306"/>
-      <c r="L55" s="306"/>
-      <c r="M55" s="282"/>
-      <c r="N55" s="283"/>
-      <c r="O55" s="283"/>
-      <c r="P55" s="283"/>
-      <c r="Q55" s="283"/>
-      <c r="R55" s="283"/>
-      <c r="S55" s="283"/>
-      <c r="T55" s="284"/>
+      <c r="I55" s="318"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="318"/>
+      <c r="L55" s="318"/>
+      <c r="M55" s="327"/>
+      <c r="N55" s="328"/>
+      <c r="O55" s="328"/>
+      <c r="P55" s="328"/>
+      <c r="Q55" s="328"/>
+      <c r="R55" s="328"/>
+      <c r="S55" s="328"/>
+      <c r="T55" s="329"/>
       <c r="U55" s="133"/>
       <c r="V55" s="132"/>
       <c r="W55" s="132"/>
@@ -10356,18 +10354,18 @@
       <c r="F56" s="139"/>
       <c r="G56" s="139"/>
       <c r="H56" s="140"/>
-      <c r="I56" s="306"/>
-      <c r="J56" s="306"/>
-      <c r="K56" s="306"/>
-      <c r="L56" s="306"/>
-      <c r="M56" s="282"/>
-      <c r="N56" s="283"/>
-      <c r="O56" s="283"/>
-      <c r="P56" s="283"/>
-      <c r="Q56" s="283"/>
-      <c r="R56" s="283"/>
-      <c r="S56" s="283"/>
-      <c r="T56" s="284"/>
+      <c r="I56" s="318"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
+      <c r="M56" s="327"/>
+      <c r="N56" s="328"/>
+      <c r="O56" s="328"/>
+      <c r="P56" s="328"/>
+      <c r="Q56" s="328"/>
+      <c r="R56" s="328"/>
+      <c r="S56" s="328"/>
+      <c r="T56" s="329"/>
       <c r="U56" s="133"/>
       <c r="V56" s="132"/>
       <c r="W56" s="132"/>
@@ -10390,18 +10388,18 @@
       <c r="F57" s="139"/>
       <c r="G57" s="139"/>
       <c r="H57" s="140"/>
-      <c r="I57" s="306"/>
-      <c r="J57" s="306"/>
-      <c r="K57" s="306"/>
-      <c r="L57" s="306"/>
-      <c r="M57" s="282"/>
-      <c r="N57" s="283"/>
-      <c r="O57" s="283"/>
-      <c r="P57" s="283"/>
-      <c r="Q57" s="283"/>
-      <c r="R57" s="283"/>
-      <c r="S57" s="283"/>
-      <c r="T57" s="284"/>
+      <c r="I57" s="318"/>
+      <c r="J57" s="318"/>
+      <c r="K57" s="318"/>
+      <c r="L57" s="318"/>
+      <c r="M57" s="327"/>
+      <c r="N57" s="328"/>
+      <c r="O57" s="328"/>
+      <c r="P57" s="328"/>
+      <c r="Q57" s="328"/>
+      <c r="R57" s="328"/>
+      <c r="S57" s="328"/>
+      <c r="T57" s="329"/>
       <c r="U57" s="133"/>
       <c r="V57" s="132"/>
       <c r="W57" s="132"/>
@@ -10424,18 +10422,18 @@
       <c r="F58" s="139"/>
       <c r="G58" s="139"/>
       <c r="H58" s="140"/>
-      <c r="I58" s="306"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="306"/>
-      <c r="L58" s="306"/>
-      <c r="M58" s="282"/>
-      <c r="N58" s="283"/>
-      <c r="O58" s="283"/>
-      <c r="P58" s="283"/>
-      <c r="Q58" s="283"/>
-      <c r="R58" s="283"/>
-      <c r="S58" s="283"/>
-      <c r="T58" s="284"/>
+      <c r="I58" s="318"/>
+      <c r="J58" s="318"/>
+      <c r="K58" s="318"/>
+      <c r="L58" s="318"/>
+      <c r="M58" s="327"/>
+      <c r="N58" s="328"/>
+      <c r="O58" s="328"/>
+      <c r="P58" s="328"/>
+      <c r="Q58" s="328"/>
+      <c r="R58" s="328"/>
+      <c r="S58" s="328"/>
+      <c r="T58" s="329"/>
       <c r="U58" s="133"/>
       <c r="V58" s="132"/>
       <c r="W58" s="132"/>
@@ -10458,18 +10456,18 @@
       <c r="F59" s="141"/>
       <c r="G59" s="141"/>
       <c r="H59" s="142"/>
-      <c r="I59" s="306"/>
-      <c r="J59" s="306"/>
-      <c r="K59" s="306"/>
-      <c r="L59" s="306"/>
-      <c r="M59" s="285"/>
-      <c r="N59" s="286"/>
-      <c r="O59" s="286"/>
-      <c r="P59" s="286"/>
-      <c r="Q59" s="286"/>
-      <c r="R59" s="286"/>
-      <c r="S59" s="286"/>
-      <c r="T59" s="287"/>
+      <c r="I59" s="318"/>
+      <c r="J59" s="318"/>
+      <c r="K59" s="318"/>
+      <c r="L59" s="318"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="331"/>
+      <c r="O59" s="331"/>
+      <c r="P59" s="331"/>
+      <c r="Q59" s="331"/>
+      <c r="R59" s="331"/>
+      <c r="S59" s="331"/>
+      <c r="T59" s="332"/>
       <c r="U59" s="133"/>
       <c r="V59" s="132"/>
       <c r="W59" s="132"/>
@@ -10555,28 +10553,28 @@
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
       <c r="E62" s="148"/>
-      <c r="F62" s="253" t="s">
+      <c r="F62" s="300" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="307"/>
-      <c r="L62" s="307"/>
-      <c r="M62" s="307"/>
-      <c r="N62" s="307"/>
-      <c r="O62" s="307"/>
-      <c r="P62" s="274"/>
-      <c r="Q62" s="274"/>
-      <c r="R62" s="274"/>
-      <c r="S62" s="274"/>
-      <c r="T62" s="274"/>
-      <c r="U62" s="274"/>
-      <c r="V62" s="274"/>
-      <c r="W62" s="274"/>
-      <c r="X62" s="274"/>
-      <c r="Y62" s="274"/>
+      <c r="G62" s="300"/>
+      <c r="H62" s="300"/>
+      <c r="I62" s="300"/>
+      <c r="J62" s="300"/>
+      <c r="K62" s="294"/>
+      <c r="L62" s="294"/>
+      <c r="M62" s="294"/>
+      <c r="N62" s="294"/>
+      <c r="O62" s="294"/>
+      <c r="P62" s="296"/>
+      <c r="Q62" s="296"/>
+      <c r="R62" s="296"/>
+      <c r="S62" s="296"/>
+      <c r="T62" s="296"/>
+      <c r="U62" s="296"/>
+      <c r="V62" s="296"/>
+      <c r="W62" s="296"/>
+      <c r="X62" s="296"/>
+      <c r="Y62" s="296"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10589,37 +10587,37 @@
         <v>26</v>
       </c>
       <c r="C63" s="150"/>
-      <c r="D63" s="245" t="s">
+      <c r="D63" s="316" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="246"/>
-      <c r="F63" s="253" t="s">
+      <c r="E63" s="317"/>
+      <c r="F63" s="300" t="s">
         <v>241</v>
       </c>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253"/>
-      <c r="I63" s="253"/>
-      <c r="J63" s="253"/>
-      <c r="K63" s="307"/>
-      <c r="L63" s="307"/>
-      <c r="M63" s="307"/>
-      <c r="N63" s="307"/>
-      <c r="O63" s="307"/>
-      <c r="P63" s="307"/>
-      <c r="Q63" s="307"/>
-      <c r="R63" s="307"/>
-      <c r="S63" s="307"/>
-      <c r="T63" s="307"/>
-      <c r="U63" s="307"/>
-      <c r="V63" s="307"/>
-      <c r="W63" s="307"/>
-      <c r="X63" s="307"/>
-      <c r="Y63" s="307"/>
-      <c r="Z63" s="316"/>
-      <c r="AA63" s="316"/>
-      <c r="AB63" s="316"/>
-      <c r="AC63" s="316"/>
-      <c r="AD63" s="316"/>
+      <c r="G63" s="300"/>
+      <c r="H63" s="300"/>
+      <c r="I63" s="300"/>
+      <c r="J63" s="300"/>
+      <c r="K63" s="294"/>
+      <c r="L63" s="294"/>
+      <c r="M63" s="294"/>
+      <c r="N63" s="294"/>
+      <c r="O63" s="294"/>
+      <c r="P63" s="294"/>
+      <c r="Q63" s="294"/>
+      <c r="R63" s="294"/>
+      <c r="S63" s="294"/>
+      <c r="T63" s="294"/>
+      <c r="U63" s="294"/>
+      <c r="V63" s="294"/>
+      <c r="W63" s="294"/>
+      <c r="X63" s="294"/>
+      <c r="Y63" s="294"/>
+      <c r="Z63" s="303"/>
+      <c r="AA63" s="303"/>
+      <c r="AB63" s="303"/>
+      <c r="AC63" s="303"/>
+      <c r="AD63" s="303"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="65"/>
@@ -10629,33 +10627,33 @@
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
       <c r="E64" s="148"/>
-      <c r="F64" s="253" t="s">
+      <c r="F64" s="300" t="s">
         <v>242</v>
       </c>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253"/>
-      <c r="I64" s="253"/>
-      <c r="J64" s="253"/>
-      <c r="K64" s="307"/>
-      <c r="L64" s="307"/>
-      <c r="M64" s="307"/>
-      <c r="N64" s="307"/>
-      <c r="O64" s="307"/>
-      <c r="P64" s="307"/>
-      <c r="Q64" s="307"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="307"/>
-      <c r="T64" s="307"/>
-      <c r="U64" s="307"/>
-      <c r="V64" s="307"/>
-      <c r="W64" s="307"/>
-      <c r="X64" s="307"/>
-      <c r="Y64" s="307"/>
-      <c r="Z64" s="316"/>
-      <c r="AA64" s="316"/>
-      <c r="AB64" s="316"/>
-      <c r="AC64" s="316"/>
-      <c r="AD64" s="316"/>
+      <c r="G64" s="300"/>
+      <c r="H64" s="300"/>
+      <c r="I64" s="300"/>
+      <c r="J64" s="300"/>
+      <c r="K64" s="294"/>
+      <c r="L64" s="294"/>
+      <c r="M64" s="294"/>
+      <c r="N64" s="294"/>
+      <c r="O64" s="294"/>
+      <c r="P64" s="294"/>
+      <c r="Q64" s="294"/>
+      <c r="R64" s="294"/>
+      <c r="S64" s="294"/>
+      <c r="T64" s="294"/>
+      <c r="U64" s="294"/>
+      <c r="V64" s="294"/>
+      <c r="W64" s="294"/>
+      <c r="X64" s="294"/>
+      <c r="Y64" s="294"/>
+      <c r="Z64" s="303"/>
+      <c r="AA64" s="303"/>
+      <c r="AB64" s="303"/>
+      <c r="AC64" s="303"/>
+      <c r="AD64" s="303"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="65"/>
@@ -10665,33 +10663,33 @@
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
       <c r="E65" s="148"/>
-      <c r="F65" s="253" t="s">
+      <c r="F65" s="300" t="s">
         <v>243</v>
       </c>
-      <c r="G65" s="253"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="253"/>
-      <c r="J65" s="253"/>
-      <c r="K65" s="318"/>
-      <c r="L65" s="318"/>
-      <c r="M65" s="318"/>
-      <c r="N65" s="318"/>
-      <c r="O65" s="318"/>
-      <c r="P65" s="318"/>
-      <c r="Q65" s="318"/>
-      <c r="R65" s="318"/>
-      <c r="S65" s="318"/>
-      <c r="T65" s="318"/>
-      <c r="U65" s="318"/>
-      <c r="V65" s="318"/>
-      <c r="W65" s="318"/>
-      <c r="X65" s="318"/>
-      <c r="Y65" s="318"/>
-      <c r="Z65" s="316"/>
-      <c r="AA65" s="316"/>
-      <c r="AB65" s="316"/>
-      <c r="AC65" s="316"/>
-      <c r="AD65" s="316"/>
+      <c r="G65" s="300"/>
+      <c r="H65" s="300"/>
+      <c r="I65" s="300"/>
+      <c r="J65" s="300"/>
+      <c r="K65" s="301"/>
+      <c r="L65" s="301"/>
+      <c r="M65" s="301"/>
+      <c r="N65" s="301"/>
+      <c r="O65" s="301"/>
+      <c r="P65" s="301"/>
+      <c r="Q65" s="301"/>
+      <c r="R65" s="301"/>
+      <c r="S65" s="301"/>
+      <c r="T65" s="301"/>
+      <c r="U65" s="301"/>
+      <c r="V65" s="301"/>
+      <c r="W65" s="301"/>
+      <c r="X65" s="301"/>
+      <c r="Y65" s="301"/>
+      <c r="Z65" s="303"/>
+      <c r="AA65" s="303"/>
+      <c r="AB65" s="303"/>
+      <c r="AC65" s="303"/>
+      <c r="AD65" s="303"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="65"/>
@@ -10701,69 +10699,69 @@
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
       <c r="E66" s="148"/>
-      <c r="F66" s="253" t="s">
+      <c r="F66" s="300" t="s">
         <v>244</v>
       </c>
-      <c r="G66" s="253"/>
-      <c r="H66" s="253"/>
-      <c r="I66" s="253"/>
-      <c r="J66" s="253"/>
-      <c r="K66" s="318"/>
-      <c r="L66" s="318"/>
-      <c r="M66" s="318"/>
-      <c r="N66" s="318"/>
-      <c r="O66" s="318"/>
-      <c r="P66" s="318"/>
-      <c r="Q66" s="318"/>
-      <c r="R66" s="318"/>
-      <c r="S66" s="318"/>
-      <c r="T66" s="318"/>
-      <c r="U66" s="318"/>
-      <c r="V66" s="318"/>
-      <c r="W66" s="318"/>
-      <c r="X66" s="318"/>
-      <c r="Y66" s="318"/>
-      <c r="Z66" s="317"/>
-      <c r="AA66" s="317"/>
-      <c r="AB66" s="317"/>
-      <c r="AC66" s="317"/>
-      <c r="AD66" s="317"/>
+      <c r="G66" s="300"/>
+      <c r="H66" s="300"/>
+      <c r="I66" s="300"/>
+      <c r="J66" s="300"/>
+      <c r="K66" s="301"/>
+      <c r="L66" s="301"/>
+      <c r="M66" s="301"/>
+      <c r="N66" s="301"/>
+      <c r="O66" s="301"/>
+      <c r="P66" s="301"/>
+      <c r="Q66" s="301"/>
+      <c r="R66" s="301"/>
+      <c r="S66" s="301"/>
+      <c r="T66" s="301"/>
+      <c r="U66" s="301"/>
+      <c r="V66" s="301"/>
+      <c r="W66" s="301"/>
+      <c r="X66" s="301"/>
+      <c r="Y66" s="301"/>
+      <c r="Z66" s="304"/>
+      <c r="AA66" s="304"/>
+      <c r="AB66" s="304"/>
+      <c r="AC66" s="304"/>
+      <c r="AD66" s="304"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="65"/>
-      <c r="B67" s="244" t="s">
+      <c r="B67" s="315" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="245"/>
-      <c r="D67" s="245"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="253" t="s">
+      <c r="C67" s="316"/>
+      <c r="D67" s="316"/>
+      <c r="E67" s="317"/>
+      <c r="F67" s="300" t="s">
         <v>245</v>
       </c>
-      <c r="G67" s="253"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="253"/>
-      <c r="J67" s="253"/>
-      <c r="K67" s="318"/>
-      <c r="L67" s="318"/>
-      <c r="M67" s="318"/>
-      <c r="N67" s="318"/>
-      <c r="O67" s="318"/>
-      <c r="P67" s="318"/>
-      <c r="Q67" s="318"/>
-      <c r="R67" s="318"/>
-      <c r="S67" s="318"/>
-      <c r="T67" s="318"/>
-      <c r="U67" s="318"/>
-      <c r="V67" s="318"/>
-      <c r="W67" s="318"/>
-      <c r="X67" s="318"/>
-      <c r="Y67" s="318"/>
-      <c r="Z67" s="317"/>
-      <c r="AA67" s="317"/>
-      <c r="AB67" s="317"/>
-      <c r="AC67" s="317"/>
-      <c r="AD67" s="317"/>
+      <c r="G67" s="300"/>
+      <c r="H67" s="300"/>
+      <c r="I67" s="300"/>
+      <c r="J67" s="300"/>
+      <c r="K67" s="301"/>
+      <c r="L67" s="301"/>
+      <c r="M67" s="301"/>
+      <c r="N67" s="301"/>
+      <c r="O67" s="301"/>
+      <c r="P67" s="301"/>
+      <c r="Q67" s="301"/>
+      <c r="R67" s="301"/>
+      <c r="S67" s="301"/>
+      <c r="T67" s="301"/>
+      <c r="U67" s="301"/>
+      <c r="V67" s="301"/>
+      <c r="W67" s="301"/>
+      <c r="X67" s="301"/>
+      <c r="Y67" s="301"/>
+      <c r="Z67" s="304"/>
+      <c r="AA67" s="304"/>
+      <c r="AB67" s="304"/>
+      <c r="AC67" s="304"/>
+      <c r="AD67" s="304"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="65"/>
@@ -10773,28 +10771,28 @@
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
       <c r="E68" s="148"/>
-      <c r="F68" s="253" t="s">
+      <c r="F68" s="300" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="253"/>
-      <c r="H68" s="253"/>
-      <c r="I68" s="253"/>
-      <c r="J68" s="253"/>
-      <c r="K68" s="305"/>
-      <c r="L68" s="305"/>
-      <c r="M68" s="305"/>
-      <c r="N68" s="305"/>
-      <c r="O68" s="305"/>
-      <c r="P68" s="305"/>
-      <c r="Q68" s="305"/>
-      <c r="R68" s="305"/>
-      <c r="S68" s="305"/>
-      <c r="T68" s="305"/>
-      <c r="U68" s="305"/>
-      <c r="V68" s="305"/>
-      <c r="W68" s="305"/>
-      <c r="X68" s="305"/>
-      <c r="Y68" s="305"/>
+      <c r="G68" s="300"/>
+      <c r="H68" s="300"/>
+      <c r="I68" s="300"/>
+      <c r="J68" s="300"/>
+      <c r="K68" s="295"/>
+      <c r="L68" s="295"/>
+      <c r="M68" s="295"/>
+      <c r="N68" s="295"/>
+      <c r="O68" s="295"/>
+      <c r="P68" s="295"/>
+      <c r="Q68" s="295"/>
+      <c r="R68" s="295"/>
+      <c r="S68" s="295"/>
+      <c r="T68" s="295"/>
+      <c r="U68" s="295"/>
+      <c r="V68" s="295"/>
+      <c r="W68" s="295"/>
+      <c r="X68" s="295"/>
+      <c r="Y68" s="295"/>
       <c r="Z68" s="151"/>
       <c r="AA68" s="152"/>
       <c r="AB68" s="151"/>
@@ -10809,33 +10807,33 @@
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
       <c r="E69" s="148"/>
-      <c r="F69" s="253" t="s">
+      <c r="F69" s="300" t="s">
         <v>247</v>
       </c>
-      <c r="G69" s="253"/>
-      <c r="H69" s="253"/>
-      <c r="I69" s="253"/>
-      <c r="J69" s="253"/>
-      <c r="K69" s="319"/>
-      <c r="L69" s="319"/>
-      <c r="M69" s="319"/>
-      <c r="N69" s="319"/>
-      <c r="O69" s="319"/>
-      <c r="P69" s="319"/>
-      <c r="Q69" s="319"/>
-      <c r="R69" s="319"/>
-      <c r="S69" s="319"/>
-      <c r="T69" s="319"/>
-      <c r="U69" s="319"/>
-      <c r="V69" s="319"/>
-      <c r="W69" s="319"/>
-      <c r="X69" s="319"/>
-      <c r="Y69" s="319"/>
-      <c r="Z69" s="316"/>
-      <c r="AA69" s="316"/>
-      <c r="AB69" s="316"/>
-      <c r="AC69" s="316"/>
-      <c r="AD69" s="316"/>
+      <c r="G69" s="300"/>
+      <c r="H69" s="300"/>
+      <c r="I69" s="300"/>
+      <c r="J69" s="300"/>
+      <c r="K69" s="302"/>
+      <c r="L69" s="302"/>
+      <c r="M69" s="302"/>
+      <c r="N69" s="302"/>
+      <c r="O69" s="302"/>
+      <c r="P69" s="302"/>
+      <c r="Q69" s="302"/>
+      <c r="R69" s="302"/>
+      <c r="S69" s="302"/>
+      <c r="T69" s="302"/>
+      <c r="U69" s="302"/>
+      <c r="V69" s="302"/>
+      <c r="W69" s="302"/>
+      <c r="X69" s="302"/>
+      <c r="Y69" s="302"/>
+      <c r="Z69" s="303"/>
+      <c r="AA69" s="303"/>
+      <c r="AB69" s="303"/>
+      <c r="AC69" s="303"/>
+      <c r="AD69" s="303"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="65"/>
@@ -10845,27 +10843,27 @@
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="148"/>
-      <c r="F70" s="254" t="s">
+      <c r="F70" s="297" t="s">
         <v>248</v>
       </c>
-      <c r="G70" s="255"/>
-      <c r="H70" s="255"/>
-      <c r="I70" s="255"/>
-      <c r="J70" s="256"/>
+      <c r="G70" s="298"/>
+      <c r="H70" s="298"/>
+      <c r="I70" s="298"/>
+      <c r="J70" s="299"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="307"/>
-      <c r="M70" s="307"/>
-      <c r="N70" s="307"/>
+      <c r="L70" s="294"/>
+      <c r="M70" s="294"/>
+      <c r="N70" s="294"/>
       <c r="O70" s="110"/>
       <c r="P70" s="110"/>
-      <c r="Q70" s="307"/>
-      <c r="R70" s="307"/>
-      <c r="S70" s="307"/>
+      <c r="Q70" s="294"/>
+      <c r="R70" s="294"/>
+      <c r="S70" s="294"/>
       <c r="T70" s="110"/>
       <c r="U70" s="110"/>
-      <c r="V70" s="307"/>
-      <c r="W70" s="307"/>
-      <c r="X70" s="307"/>
+      <c r="V70" s="294"/>
+      <c r="W70" s="294"/>
+      <c r="X70" s="294"/>
       <c r="Y70" s="110"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10917,148 +10915,148 @@
       <c r="N72" s="156"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B73" s="244" t="s">
+      <c r="B73" s="315" t="s">
         <v>622</v>
       </c>
-      <c r="C73" s="245"/>
-      <c r="D73" s="245"/>
-      <c r="E73" s="246"/>
-      <c r="F73" s="253" t="s">
+      <c r="C73" s="316"/>
+      <c r="D73" s="316"/>
+      <c r="E73" s="317"/>
+      <c r="F73" s="300" t="s">
         <v>631</v>
       </c>
-      <c r="G73" s="253"/>
-      <c r="H73" s="253"/>
-      <c r="I73" s="253"/>
-      <c r="J73" s="253"/>
-      <c r="K73" s="253"/>
+      <c r="G73" s="300"/>
+      <c r="H73" s="300"/>
+      <c r="I73" s="300"/>
+      <c r="J73" s="300"/>
+      <c r="K73" s="300"/>
       <c r="L73" s="242"/>
       <c r="M73" s="242"/>
       <c r="W73" s="157"/>
     </row>
     <row r="74" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B74" s="244" t="s">
+      <c r="B74" s="315" t="s">
         <v>623</v>
       </c>
-      <c r="C74" s="245"/>
-      <c r="D74" s="245"/>
-      <c r="E74" s="246"/>
-      <c r="F74" s="253" t="s">
+      <c r="C74" s="316"/>
+      <c r="D74" s="316"/>
+      <c r="E74" s="317"/>
+      <c r="F74" s="300" t="s">
         <v>633</v>
       </c>
-      <c r="G74" s="253"/>
-      <c r="H74" s="253"/>
-      <c r="I74" s="253"/>
-      <c r="J74" s="253"/>
-      <c r="K74" s="253"/>
+      <c r="G74" s="300"/>
+      <c r="H74" s="300"/>
+      <c r="I74" s="300"/>
+      <c r="J74" s="300"/>
+      <c r="K74" s="300"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B75" s="244" t="s">
+      <c r="B75" s="315" t="s">
         <v>626</v>
       </c>
-      <c r="C75" s="245"/>
-      <c r="D75" s="245"/>
-      <c r="E75" s="246"/>
-      <c r="F75" s="253" t="s">
+      <c r="C75" s="316"/>
+      <c r="D75" s="316"/>
+      <c r="E75" s="317"/>
+      <c r="F75" s="300" t="s">
         <v>634</v>
       </c>
-      <c r="G75" s="253"/>
-      <c r="H75" s="253"/>
-      <c r="I75" s="253"/>
-      <c r="J75" s="253"/>
-      <c r="K75" s="253"/>
+      <c r="G75" s="300"/>
+      <c r="H75" s="300"/>
+      <c r="I75" s="300"/>
+      <c r="J75" s="300"/>
+      <c r="K75" s="300"/>
       <c r="R75" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B76" s="244" t="s">
+      <c r="B76" s="315" t="s">
         <v>624</v>
       </c>
-      <c r="C76" s="245"/>
-      <c r="D76" s="245"/>
-      <c r="E76" s="246"/>
-      <c r="F76" s="253" t="s">
+      <c r="C76" s="316"/>
+      <c r="D76" s="316"/>
+      <c r="E76" s="317"/>
+      <c r="F76" s="300" t="s">
         <v>632</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="253"/>
-      <c r="I76" s="253"/>
-      <c r="J76" s="253"/>
-      <c r="K76" s="253"/>
+      <c r="G76" s="300"/>
+      <c r="H76" s="300"/>
+      <c r="I76" s="300"/>
+      <c r="J76" s="300"/>
+      <c r="K76" s="300"/>
     </row>
     <row r="77" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B77" s="244" t="s">
+      <c r="B77" s="315" t="s">
         <v>625</v>
       </c>
-      <c r="C77" s="245"/>
-      <c r="D77" s="245" t="s">
+      <c r="C77" s="316"/>
+      <c r="D77" s="316" t="s">
         <v>27</v>
       </c>
-      <c r="E77" s="246"/>
-      <c r="F77" s="253" t="s">
+      <c r="E77" s="317"/>
+      <c r="F77" s="300" t="s">
         <v>635</v>
       </c>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253"/>
-      <c r="I77" s="253"/>
-      <c r="J77" s="253"/>
-      <c r="K77" s="253"/>
+      <c r="G77" s="300"/>
+      <c r="H77" s="300"/>
+      <c r="I77" s="300"/>
+      <c r="J77" s="300"/>
+      <c r="K77" s="300"/>
     </row>
     <row r="78" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B78" s="247" t="s">
+      <c r="B78" s="339" t="s">
         <v>642</v>
       </c>
-      <c r="C78" s="248"/>
-      <c r="D78" s="245" t="s">
+      <c r="C78" s="340"/>
+      <c r="D78" s="316" t="s">
         <v>628</v>
       </c>
-      <c r="E78" s="246"/>
-      <c r="F78" s="253" t="s">
+      <c r="E78" s="317"/>
+      <c r="F78" s="300" t="s">
         <v>636</v>
       </c>
-      <c r="G78" s="253"/>
-      <c r="H78" s="253"/>
-      <c r="I78" s="253" t="s">
+      <c r="G78" s="300"/>
+      <c r="H78" s="300"/>
+      <c r="I78" s="300" t="s">
         <v>639</v>
       </c>
-      <c r="J78" s="253"/>
-      <c r="K78" s="253"/>
+      <c r="J78" s="300"/>
+      <c r="K78" s="300"/>
     </row>
     <row r="79" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B79" s="249"/>
-      <c r="C79" s="250"/>
-      <c r="D79" s="245" t="s">
+      <c r="B79" s="341"/>
+      <c r="C79" s="342"/>
+      <c r="D79" s="316" t="s">
         <v>629</v>
       </c>
-      <c r="E79" s="246"/>
-      <c r="F79" s="254" t="s">
+      <c r="E79" s="317"/>
+      <c r="F79" s="297" t="s">
         <v>637</v>
       </c>
-      <c r="G79" s="255"/>
-      <c r="H79" s="256"/>
-      <c r="I79" s="254" t="s">
+      <c r="G79" s="298"/>
+      <c r="H79" s="299"/>
+      <c r="I79" s="297" t="s">
         <v>640</v>
       </c>
-      <c r="J79" s="255"/>
-      <c r="K79" s="256"/>
+      <c r="J79" s="298"/>
+      <c r="K79" s="299"/>
     </row>
     <row r="80" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B80" s="251"/>
-      <c r="C80" s="252"/>
-      <c r="D80" s="245" t="s">
+      <c r="B80" s="343"/>
+      <c r="C80" s="344"/>
+      <c r="D80" s="316" t="s">
         <v>630</v>
       </c>
-      <c r="E80" s="246"/>
-      <c r="F80" s="254" t="s">
+      <c r="E80" s="317"/>
+      <c r="F80" s="297" t="s">
         <v>638</v>
       </c>
-      <c r="G80" s="255"/>
-      <c r="H80" s="256"/>
-      <c r="I80" s="254" t="s">
+      <c r="G80" s="298"/>
+      <c r="H80" s="299"/>
+      <c r="I80" s="297" t="s">
         <v>641</v>
       </c>
-      <c r="J80" s="255"/>
-      <c r="K80" s="256"/>
+      <c r="J80" s="298"/>
+      <c r="K80" s="299"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" customHeight="1">
       <c r="A81" s="153" t="s">
@@ -11097,6 +11095,225 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="243">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="P10:W10"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B38:B39"/>
@@ -11121,228 +11338,9 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F77:K77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Decimal Value" prompt="Decimal Value" sqref="Y17:Y20">
       <formula1>0</formula1>
     </dataValidation>
@@ -11447,72 +11445,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="373" t="s">
+      <c r="B8" s="351" t="s">
         <v>474</v>
       </c>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="366" t="s">
+      <c r="C8" s="351"/>
+      <c r="D8" s="351"/>
+      <c r="E8" s="351"/>
+      <c r="F8" s="349" t="s">
         <v>575</v>
       </c>
-      <c r="G8" s="367"/>
-      <c r="J8" s="373" t="s">
+      <c r="G8" s="350"/>
+      <c r="J8" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="K8" s="373"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="374"/>
-      <c r="N8" s="366" t="s">
+      <c r="K8" s="351"/>
+      <c r="L8" s="351"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="349" t="s">
         <v>491</v>
       </c>
-      <c r="O8" s="367"/>
+      <c r="O8" s="350"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="373" t="s">
+      <c r="B9" s="351" t="s">
         <v>492</v>
       </c>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="366" t="s">
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="349" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="367"/>
-      <c r="J9" s="373" t="s">
+      <c r="G9" s="350"/>
+      <c r="J9" s="351" t="s">
         <v>493</v>
       </c>
-      <c r="K9" s="373"/>
-      <c r="L9" s="373"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="366" t="s">
+      <c r="K9" s="351"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="352"/>
+      <c r="N9" s="349" t="s">
         <v>495</v>
       </c>
-      <c r="O9" s="367"/>
+      <c r="O9" s="350"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="373" t="s">
+      <c r="B10" s="351" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="373"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="366" t="s">
+      <c r="C10" s="351"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="349" t="s">
         <v>497</v>
       </c>
-      <c r="G10" s="367"/>
-      <c r="J10" s="373" t="s">
+      <c r="G10" s="350"/>
+      <c r="J10" s="351" t="s">
         <v>476</v>
       </c>
-      <c r="K10" s="373"/>
-      <c r="L10" s="373"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="366" t="s">
+      <c r="K10" s="351"/>
+      <c r="L10" s="351"/>
+      <c r="M10" s="352"/>
+      <c r="N10" s="349" t="s">
         <v>496</v>
       </c>
-      <c r="O10" s="367"/>
+      <c r="O10" s="350"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -11544,108 +11542,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="368" t="s">
+      <c r="B13" s="363" t="s">
         <v>447</v>
       </c>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="366" t="s">
+      <c r="C13" s="363"/>
+      <c r="D13" s="363"/>
+      <c r="E13" s="349" t="s">
         <v>499</v>
       </c>
-      <c r="F13" s="367"/>
+      <c r="F13" s="350"/>
       <c r="H13" s="12" t="s">
         <v>448</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="369" t="s">
+      <c r="K13" s="358" t="s">
         <v>500</v>
       </c>
-      <c r="L13" s="369" t="s">
+      <c r="L13" s="358" t="s">
         <v>446</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="368" t="s">
+      <c r="N13" s="363" t="s">
         <v>449</v>
       </c>
-      <c r="O13" s="368"/>
-      <c r="P13" s="368"/>
-      <c r="Q13" s="366" t="s">
+      <c r="O13" s="363"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="349" t="s">
         <v>569</v>
       </c>
-      <c r="R13" s="367"/>
+      <c r="R13" s="350"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="368" t="s">
+      <c r="B14" s="363" t="s">
         <v>450</v>
       </c>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="366" t="s">
+      <c r="C14" s="363"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="349" t="s">
         <v>501</v>
       </c>
-      <c r="F14" s="367"/>
+      <c r="F14" s="350"/>
       <c r="H14" s="12" t="s">
         <v>451</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="369" t="s">
+      <c r="K14" s="358" t="s">
         <v>502</v>
       </c>
-      <c r="L14" s="369"/>
+      <c r="L14" s="358"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="368" t="s">
+      <c r="N14" s="363" t="s">
         <v>452</v>
       </c>
-      <c r="O14" s="368"/>
-      <c r="P14" s="368"/>
-      <c r="Q14" s="366" t="s">
+      <c r="O14" s="363"/>
+      <c r="P14" s="363"/>
+      <c r="Q14" s="349" t="s">
         <v>503</v>
       </c>
-      <c r="R14" s="367"/>
-      <c r="T14" s="368" t="s">
+      <c r="R14" s="350"/>
+      <c r="T14" s="363" t="s">
         <v>453</v>
       </c>
-      <c r="U14" s="368"/>
-      <c r="V14" s="366" t="s">
+      <c r="U14" s="363"/>
+      <c r="V14" s="349" t="s">
         <v>576</v>
       </c>
-      <c r="W14" s="367"/>
+      <c r="W14" s="350"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="368" t="s">
+      <c r="B15" s="363" t="s">
         <v>454</v>
       </c>
-      <c r="C15" s="368"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="366" t="s">
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="349" t="s">
         <v>504</v>
       </c>
-      <c r="F15" s="367"/>
+      <c r="F15" s="350"/>
       <c r="H15" s="12" t="s">
         <v>456</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="369" t="s">
+      <c r="K15" s="358" t="s">
         <v>505</v>
       </c>
-      <c r="L15" s="369" t="s">
+      <c r="L15" s="358" t="s">
         <v>455</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="368" t="s">
+      <c r="N15" s="363" t="s">
         <v>457</v>
       </c>
-      <c r="O15" s="368"/>
-      <c r="P15" s="368"/>
-      <c r="Q15" s="366" t="s">
+      <c r="O15" s="363"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="349" t="s">
         <v>506</v>
       </c>
-      <c r="R15" s="367"/>
+      <c r="R15" s="350"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -11679,23 +11677,23 @@
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="375" t="s">
+      <c r="F18" s="356" t="s">
         <v>460</v>
       </c>
-      <c r="G18" s="376"/>
-      <c r="H18" s="366" t="s">
+      <c r="G18" s="357"/>
+      <c r="H18" s="349" t="s">
         <v>507</v>
       </c>
-      <c r="I18" s="367"/>
+      <c r="I18" s="350"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="375" t="s">
+      <c r="K18" s="356" t="s">
         <v>461</v>
       </c>
-      <c r="L18" s="376"/>
-      <c r="M18" s="366" t="s">
+      <c r="L18" s="357"/>
+      <c r="M18" s="349" t="s">
         <v>508</v>
       </c>
-      <c r="N18" s="367"/>
+      <c r="N18" s="350"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
@@ -11705,23 +11703,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="375" t="s">
+      <c r="F19" s="356" t="s">
         <v>460</v>
       </c>
-      <c r="G19" s="376"/>
-      <c r="H19" s="366" t="s">
+      <c r="G19" s="357"/>
+      <c r="H19" s="349" t="s">
         <v>509</v>
       </c>
-      <c r="I19" s="367"/>
+      <c r="I19" s="350"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="375" t="s">
+      <c r="K19" s="356" t="s">
         <v>461</v>
       </c>
-      <c r="L19" s="376"/>
-      <c r="M19" s="366" t="s">
+      <c r="L19" s="357"/>
+      <c r="M19" s="349" t="s">
         <v>510</v>
       </c>
-      <c r="N19" s="367"/>
+      <c r="N19" s="350"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
@@ -11776,20 +11774,20 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="369" t="s">
+      <c r="H23" s="358" t="s">
         <v>570</v>
       </c>
-      <c r="I23" s="369" t="s">
+      <c r="I23" s="358" t="s">
         <v>446</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="381" t="s">
+      <c r="L23" s="359" t="s">
         <v>464</v>
       </c>
-      <c r="M23" s="382"/>
-      <c r="N23" s="370"/>
-      <c r="O23" s="372"/>
+      <c r="M23" s="360"/>
+      <c r="N23" s="361"/>
+      <c r="O23" s="362"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11799,22 +11797,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="377" t="s">
+      <c r="B24" s="365" t="s">
         <v>465</v>
       </c>
-      <c r="C24" s="377"/>
-      <c r="D24" s="377"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="377"/>
-      <c r="G24" s="377"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="371"/>
-      <c r="J24" s="371"/>
-      <c r="K24" s="371"/>
-      <c r="L24" s="371"/>
-      <c r="M24" s="371"/>
-      <c r="N24" s="371"/>
-      <c r="O24" s="372"/>
+      <c r="C24" s="365"/>
+      <c r="D24" s="365"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365"/>
+      <c r="G24" s="365"/>
+      <c r="H24" s="361"/>
+      <c r="I24" s="364"/>
+      <c r="J24" s="364"/>
+      <c r="K24" s="364"/>
+      <c r="L24" s="364"/>
+      <c r="M24" s="364"/>
+      <c r="N24" s="364"/>
+      <c r="O24" s="362"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11849,25 +11847,25 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="378"/>
-      <c r="C26" s="379"/>
-      <c r="D26" s="379"/>
-      <c r="E26" s="379"/>
-      <c r="F26" s="379"/>
-      <c r="G26" s="379"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="379"/>
-      <c r="J26" s="379"/>
-      <c r="K26" s="379"/>
-      <c r="L26" s="379"/>
-      <c r="M26" s="379"/>
-      <c r="N26" s="379"/>
-      <c r="O26" s="379"/>
-      <c r="P26" s="379"/>
-      <c r="Q26" s="379"/>
-      <c r="R26" s="379"/>
-      <c r="S26" s="379"/>
-      <c r="T26" s="380"/>
+      <c r="B26" s="353"/>
+      <c r="C26" s="354"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="354"/>
+      <c r="F26" s="354"/>
+      <c r="G26" s="354"/>
+      <c r="H26" s="354"/>
+      <c r="I26" s="354"/>
+      <c r="J26" s="354"/>
+      <c r="K26" s="354"/>
+      <c r="L26" s="354"/>
+      <c r="M26" s="354"/>
+      <c r="N26" s="354"/>
+      <c r="O26" s="354"/>
+      <c r="P26" s="354"/>
+      <c r="Q26" s="354"/>
+      <c r="R26" s="354"/>
+      <c r="S26" s="354"/>
+      <c r="T26" s="355"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
@@ -11895,17 +11893,17 @@
       <c r="B29" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C29" s="370" t="s">
+      <c r="C29" s="361" t="s">
         <v>558</v>
       </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="371"/>
-      <c r="F29" s="372"/>
-      <c r="H29" s="358" t="s">
+      <c r="D29" s="364"/>
+      <c r="E29" s="364"/>
+      <c r="F29" s="362"/>
+      <c r="H29" s="371" t="s">
         <v>469</v>
       </c>
-      <c r="I29" s="358"/>
-      <c r="J29" s="358"/>
+      <c r="I29" s="371"/>
+      <c r="J29" s="371"/>
       <c r="K29" s="27" t="s">
         <v>470</v>
       </c>
@@ -12022,39 +12020,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="345" t="s">
+      <c r="B35" s="379" t="s">
         <v>512</v>
       </c>
-      <c r="C35" s="346"/>
-      <c r="D35" s="346"/>
-      <c r="E35" s="346"/>
-      <c r="F35" s="347"/>
-      <c r="G35" s="356" t="s">
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="381"/>
+      <c r="G35" s="369" t="s">
         <v>571</v>
       </c>
-      <c r="H35" s="356"/>
-      <c r="I35" s="356"/>
-      <c r="J35" s="356"/>
-      <c r="K35" s="356"/>
+      <c r="H35" s="369"/>
+      <c r="I35" s="369"/>
+      <c r="J35" s="369"/>
+      <c r="K35" s="369"/>
       <c r="L35" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="M35" s="363"/>
-      <c r="N35" s="364"/>
-      <c r="O35" s="365"/>
-      <c r="P35" s="349" t="s">
+      <c r="M35" s="376"/>
+      <c r="N35" s="377"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="383" t="s">
         <v>514</v>
       </c>
-      <c r="Q35" s="350"/>
-      <c r="R35" s="350"/>
-      <c r="S35" s="351"/>
-      <c r="T35" s="353" t="s">
+      <c r="Q35" s="384"/>
+      <c r="R35" s="384"/>
+      <c r="S35" s="385"/>
+      <c r="T35" s="366" t="s">
         <v>572</v>
       </c>
-      <c r="U35" s="354"/>
-      <c r="V35" s="354"/>
-      <c r="W35" s="354"/>
-      <c r="X35" s="355"/>
+      <c r="U35" s="367"/>
+      <c r="V35" s="367"/>
+      <c r="W35" s="367"/>
+      <c r="X35" s="368"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -12066,78 +12064,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="359"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="360"/>
-      <c r="L36" s="360"/>
-      <c r="M36" s="360"/>
-      <c r="N36" s="360"/>
-      <c r="O36" s="361"/>
-      <c r="P36" s="349" t="s">
+      <c r="G36" s="372"/>
+      <c r="H36" s="373"/>
+      <c r="I36" s="373"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="373"/>
+      <c r="L36" s="373"/>
+      <c r="M36" s="373"/>
+      <c r="N36" s="373"/>
+      <c r="O36" s="374"/>
+      <c r="P36" s="383" t="s">
         <v>515</v>
       </c>
-      <c r="Q36" s="350"/>
-      <c r="R36" s="350"/>
-      <c r="S36" s="351"/>
-      <c r="T36" s="356" t="s">
+      <c r="Q36" s="384"/>
+      <c r="R36" s="384"/>
+      <c r="S36" s="385"/>
+      <c r="T36" s="369" t="s">
         <v>573</v>
       </c>
-      <c r="U36" s="356"/>
-      <c r="V36" s="356"/>
-      <c r="W36" s="356"/>
-      <c r="X36" s="356"/>
+      <c r="U36" s="369"/>
+      <c r="V36" s="369"/>
+      <c r="W36" s="369"/>
+      <c r="X36" s="369"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.45" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="348" t="s">
+      <c r="B37" s="382" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="348"/>
-      <c r="D37" s="348"/>
-      <c r="E37" s="348"/>
-      <c r="F37" s="348"/>
-      <c r="G37" s="357" t="s">
+      <c r="C37" s="382"/>
+      <c r="D37" s="382"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="370" t="s">
         <v>574</v>
       </c>
-      <c r="H37" s="357"/>
-      <c r="I37" s="357"/>
-      <c r="J37" s="357"/>
-      <c r="K37" s="357"/>
-      <c r="L37" s="357"/>
-      <c r="M37" s="357"/>
-      <c r="N37" s="357"/>
-      <c r="O37" s="357"/>
-      <c r="P37" s="352" t="s">
+      <c r="H37" s="370"/>
+      <c r="I37" s="370"/>
+      <c r="J37" s="370"/>
+      <c r="K37" s="370"/>
+      <c r="L37" s="370"/>
+      <c r="M37" s="370"/>
+      <c r="N37" s="370"/>
+      <c r="O37" s="370"/>
+      <c r="P37" s="386" t="s">
         <v>516</v>
       </c>
-      <c r="Q37" s="352"/>
-      <c r="R37" s="352"/>
-      <c r="S37" s="352"/>
-      <c r="T37" s="362" t="s">
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
+      <c r="S37" s="386"/>
+      <c r="T37" s="375" t="s">
         <v>517</v>
       </c>
-      <c r="U37" s="362"/>
-      <c r="V37" s="362"/>
-      <c r="W37" s="362"/>
-      <c r="X37" s="362"/>
+      <c r="U37" s="375"/>
+      <c r="V37" s="375"/>
+      <c r="W37" s="375"/>
+      <c r="X37" s="375"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.45" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="385" t="s">
+      <c r="B39" s="347" t="s">
         <v>480</v>
       </c>
-      <c r="C39" s="385"/>
-      <c r="D39" s="386" t="s">
+      <c r="C39" s="347"/>
+      <c r="D39" s="348" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="386"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="386"/>
-      <c r="H39" s="386"/>
+      <c r="E39" s="348"/>
+      <c r="F39" s="348"/>
+      <c r="G39" s="348"/>
+      <c r="H39" s="348"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -12149,13 +12147,13 @@
       <c r="Q39" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="R39" s="386" t="s">
+      <c r="R39" s="348" t="s">
         <v>61</v>
       </c>
-      <c r="S39" s="386"/>
-      <c r="T39" s="386"/>
-      <c r="U39" s="386"/>
-      <c r="V39" s="386"/>
+      <c r="S39" s="348"/>
+      <c r="T39" s="348"/>
+      <c r="U39" s="348"/>
+      <c r="V39" s="348"/>
       <c r="W39" s="212"/>
       <c r="X39" s="19"/>
     </row>
@@ -12188,93 +12186,93 @@
       <c r="B41" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="C41" s="383"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
+      <c r="C41" s="345"/>
+      <c r="D41" s="345"/>
+      <c r="E41" s="345"/>
+      <c r="F41" s="345"/>
+      <c r="G41" s="345"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="J41" s="383"/>
-      <c r="K41" s="383"/>
-      <c r="L41" s="383"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="383"/>
-      <c r="O41" s="383"/>
+      <c r="J41" s="345"/>
+      <c r="K41" s="345"/>
+      <c r="L41" s="345"/>
+      <c r="M41" s="345"/>
+      <c r="N41" s="345"/>
+      <c r="O41" s="345"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="R41" s="384"/>
-      <c r="S41" s="384"/>
-      <c r="T41" s="384"/>
-      <c r="U41" s="384"/>
-      <c r="V41" s="384"/>
-      <c r="W41" s="384"/>
+      <c r="R41" s="346"/>
+      <c r="S41" s="346"/>
+      <c r="T41" s="346"/>
+      <c r="U41" s="346"/>
+      <c r="V41" s="346"/>
+      <c r="W41" s="346"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="383"/>
-      <c r="D42" s="383"/>
-      <c r="E42" s="383"/>
-      <c r="F42" s="383"/>
-      <c r="G42" s="383"/>
+      <c r="C42" s="345"/>
+      <c r="D42" s="345"/>
+      <c r="E42" s="345"/>
+      <c r="F42" s="345"/>
+      <c r="G42" s="345"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="J42" s="383"/>
-      <c r="K42" s="383"/>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="J42" s="345"/>
+      <c r="K42" s="345"/>
+      <c r="L42" s="345"/>
+      <c r="M42" s="345"/>
+      <c r="N42" s="345"/>
+      <c r="O42" s="345"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="R42" s="384"/>
-      <c r="S42" s="384"/>
-      <c r="T42" s="384"/>
-      <c r="U42" s="384"/>
-      <c r="V42" s="384"/>
-      <c r="W42" s="384"/>
+      <c r="R42" s="346"/>
+      <c r="S42" s="346"/>
+      <c r="T42" s="346"/>
+      <c r="U42" s="346"/>
+      <c r="V42" s="346"/>
+      <c r="W42" s="346"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="C43" s="383"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="383"/>
-      <c r="G43" s="383"/>
+      <c r="C43" s="345"/>
+      <c r="D43" s="345"/>
+      <c r="E43" s="345"/>
+      <c r="F43" s="345"/>
+      <c r="G43" s="345"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J43" s="383"/>
-      <c r="K43" s="383"/>
-      <c r="L43" s="383"/>
-      <c r="M43" s="383"/>
-      <c r="N43" s="383"/>
-      <c r="O43" s="383"/>
+      <c r="J43" s="345"/>
+      <c r="K43" s="345"/>
+      <c r="L43" s="345"/>
+      <c r="M43" s="345"/>
+      <c r="N43" s="345"/>
+      <c r="O43" s="345"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="R43" s="384"/>
-      <c r="S43" s="384"/>
-      <c r="T43" s="384"/>
-      <c r="U43" s="384"/>
-      <c r="V43" s="384"/>
-      <c r="W43" s="384"/>
+      <c r="R43" s="346"/>
+      <c r="S43" s="346"/>
+      <c r="T43" s="346"/>
+      <c r="U43" s="346"/>
+      <c r="V43" s="346"/>
+      <c r="W43" s="346"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -12329,18 +12327,47 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:O24"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
@@ -12357,47 +12384,18 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R39:V39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H25:I25">
@@ -12451,37 +12449,37 @@
       <c r="A2" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="434" t="s">
+      <c r="B2" s="413" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="446" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="393" t="s">
         <v>580</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="447"/>
-      <c r="I2" s="447"/>
-      <c r="J2" s="447"/>
-      <c r="K2" s="447"/>
-      <c r="L2" s="447"/>
-      <c r="M2" s="447"/>
-      <c r="N2" s="447"/>
-      <c r="O2" s="447"/>
-      <c r="P2" s="447"/>
-      <c r="Q2" s="447"/>
-      <c r="R2" s="447"/>
-      <c r="S2" s="447"/>
-      <c r="T2" s="447"/>
-      <c r="U2" s="447"/>
-      <c r="V2" s="447"/>
-      <c r="W2" s="447"/>
-      <c r="X2" s="447"/>
-      <c r="Y2" s="447"/>
-      <c r="Z2" s="447"/>
-      <c r="AA2" s="447"/>
-      <c r="AB2" s="448"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="394"/>
+      <c r="P2" s="394"/>
+      <c r="Q2" s="394"/>
+      <c r="R2" s="394"/>
+      <c r="S2" s="394"/>
+      <c r="T2" s="394"/>
+      <c r="U2" s="394"/>
+      <c r="V2" s="394"/>
+      <c r="W2" s="394"/>
+      <c r="X2" s="394"/>
+      <c r="Y2" s="394"/>
+      <c r="Z2" s="394"/>
+      <c r="AA2" s="394"/>
+      <c r="AB2" s="395"/>
       <c r="AC2" s="162"/>
       <c r="AD2" s="162"/>
       <c r="AE2" s="162"/>
@@ -12491,54 +12489,54 @@
       <c r="AI2" s="163"/>
       <c r="AJ2" s="163"/>
       <c r="AP2" s="160"/>
-      <c r="BF2" s="435"/>
-      <c r="BG2" s="435"/>
-      <c r="BH2" s="435"/>
-      <c r="BI2" s="435"/>
-      <c r="BJ2" s="435"/>
-      <c r="BK2" s="435"/>
-      <c r="BL2" s="435"/>
-      <c r="BM2" s="435"/>
-      <c r="BN2" s="435"/>
-      <c r="BO2" s="435"/>
-      <c r="BP2" s="435"/>
-      <c r="BQ2" s="435"/>
-      <c r="BR2" s="435"/>
-      <c r="BS2" s="435"/>
+      <c r="BF2" s="414"/>
+      <c r="BG2" s="414"/>
+      <c r="BH2" s="414"/>
+      <c r="BI2" s="414"/>
+      <c r="BJ2" s="414"/>
+      <c r="BK2" s="414"/>
+      <c r="BL2" s="414"/>
+      <c r="BM2" s="414"/>
+      <c r="BN2" s="414"/>
+      <c r="BO2" s="414"/>
+      <c r="BP2" s="414"/>
+      <c r="BQ2" s="414"/>
+      <c r="BR2" s="414"/>
+      <c r="BS2" s="414"/>
     </row>
     <row r="3" spans="1:75" ht="46.9" customHeight="1" thickBot="1">
       <c r="A3" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="413" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="449"/>
-      <c r="F3" s="450"/>
-      <c r="G3" s="450"/>
-      <c r="H3" s="450"/>
-      <c r="I3" s="450"/>
-      <c r="J3" s="450"/>
-      <c r="K3" s="450"/>
-      <c r="L3" s="450"/>
-      <c r="M3" s="450"/>
-      <c r="N3" s="450"/>
-      <c r="O3" s="450"/>
-      <c r="P3" s="450"/>
-      <c r="Q3" s="450"/>
-      <c r="R3" s="450"/>
-      <c r="S3" s="450"/>
-      <c r="T3" s="450"/>
-      <c r="U3" s="450"/>
-      <c r="V3" s="450"/>
-      <c r="W3" s="450"/>
-      <c r="X3" s="450"/>
-      <c r="Y3" s="450"/>
-      <c r="Z3" s="450"/>
-      <c r="AA3" s="450"/>
-      <c r="AB3" s="451"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="396"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="397"/>
+      <c r="I3" s="397"/>
+      <c r="J3" s="397"/>
+      <c r="K3" s="397"/>
+      <c r="L3" s="397"/>
+      <c r="M3" s="397"/>
+      <c r="N3" s="397"/>
+      <c r="O3" s="397"/>
+      <c r="P3" s="397"/>
+      <c r="Q3" s="397"/>
+      <c r="R3" s="397"/>
+      <c r="S3" s="397"/>
+      <c r="T3" s="397"/>
+      <c r="U3" s="397"/>
+      <c r="V3" s="397"/>
+      <c r="W3" s="397"/>
+      <c r="X3" s="397"/>
+      <c r="Y3" s="397"/>
+      <c r="Z3" s="397"/>
+      <c r="AA3" s="397"/>
+      <c r="AB3" s="398"/>
       <c r="AC3" s="162"/>
       <c r="AD3" s="162"/>
       <c r="AE3" s="162"/>
@@ -12647,22 +12645,22 @@
       <c r="BO4" s="158"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="432" t="s">
+      <c r="A5" s="419" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="399" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="438" t="s">
+      <c r="C5" s="417" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="454" t="s">
+      <c r="D5" s="401" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="456" t="s">
+      <c r="E5" s="405" t="s">
         <v>406</v>
       </c>
-      <c r="F5" s="457"/>
+      <c r="F5" s="406"/>
       <c r="G5" s="168"/>
       <c r="H5" s="168"/>
       <c r="I5" s="168"/>
@@ -12689,10 +12687,10 @@
       <c r="AD5" s="172"/>
       <c r="AE5" s="173"/>
       <c r="AF5" s="173"/>
-      <c r="AG5" s="436"/>
-      <c r="AH5" s="436"/>
-      <c r="AI5" s="436"/>
-      <c r="AJ5" s="436"/>
+      <c r="AG5" s="415"/>
+      <c r="AH5" s="415"/>
+      <c r="AI5" s="415"/>
+      <c r="AJ5" s="415"/>
       <c r="AK5" s="174"/>
       <c r="AL5" s="175"/>
       <c r="AM5" s="176"/>
@@ -12734,12 +12732,12 @@
       <c r="BW5" s="176"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="433"/>
-      <c r="B6" s="453"/>
-      <c r="C6" s="439"/>
-      <c r="D6" s="455"/>
-      <c r="E6" s="458"/>
-      <c r="F6" s="459"/>
+      <c r="A6" s="420"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="418"/>
+      <c r="D6" s="402"/>
+      <c r="E6" s="407"/>
+      <c r="F6" s="408"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -12764,12 +12762,12 @@
       <c r="AB6" s="113"/>
       <c r="AC6" s="113"/>
       <c r="AD6" s="113"/>
-      <c r="AE6" s="437"/>
-      <c r="AF6" s="437"/>
+      <c r="AE6" s="416"/>
+      <c r="AF6" s="416"/>
       <c r="AG6" s="177"/>
       <c r="AH6" s="178"/>
-      <c r="AI6" s="437"/>
-      <c r="AJ6" s="437"/>
+      <c r="AI6" s="416"/>
+      <c r="AJ6" s="416"/>
       <c r="AK6" s="178"/>
       <c r="AL6" s="179"/>
       <c r="AM6" s="179"/>
@@ -12811,22 +12809,22 @@
       <c r="BW6" s="180"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="430" t="s">
+      <c r="A7" s="403" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="387" t="s">
+      <c r="B7" s="409" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="430" t="s">
+      <c r="C7" s="403" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="431" t="s">
+      <c r="D7" s="404" t="s">
         <v>327</v>
       </c>
-      <c r="E7" s="391" t="s">
+      <c r="E7" s="411" t="s">
         <v>522</v>
       </c>
-      <c r="F7" s="392"/>
+      <c r="F7" s="412"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -12876,14 +12874,14 @@
       <c r="BW7" s="187"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="430"/>
-      <c r="B8" s="388"/>
-      <c r="C8" s="430"/>
-      <c r="D8" s="431"/>
-      <c r="E8" s="391" t="s">
+      <c r="A8" s="403"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="403"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="411" t="s">
         <v>412</v>
       </c>
-      <c r="F8" s="392"/>
+      <c r="F8" s="412"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -12930,22 +12928,22 @@
       <c r="BW8" s="187"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="430" t="s">
+      <c r="A9" s="403" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="387" t="s">
+      <c r="B9" s="409" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="430" t="s">
+      <c r="C9" s="403" t="s">
         <v>330</v>
       </c>
-      <c r="D9" s="431" t="s">
+      <c r="D9" s="404" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="391" t="s">
+      <c r="E9" s="411" t="s">
         <v>523</v>
       </c>
-      <c r="F9" s="392"/>
+      <c r="F9" s="412"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -12992,14 +12990,14 @@
       <c r="BW9" s="187"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="430"/>
-      <c r="B10" s="388"/>
-      <c r="C10" s="430"/>
-      <c r="D10" s="431"/>
-      <c r="E10" s="391" t="s">
+      <c r="A10" s="403"/>
+      <c r="B10" s="410"/>
+      <c r="C10" s="403"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="411" t="s">
         <v>413</v>
       </c>
-      <c r="F10" s="392"/>
+      <c r="F10" s="412"/>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
       <c r="I10" s="113"/>
@@ -13050,22 +13048,22 @@
       <c r="BW10" s="187"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="430" t="s">
+      <c r="A11" s="403" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="387" t="s">
+      <c r="B11" s="409" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="430" t="s">
+      <c r="C11" s="403" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="431" t="s">
+      <c r="D11" s="404" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="391" t="s">
+      <c r="E11" s="411" t="s">
         <v>524</v>
       </c>
-      <c r="F11" s="392"/>
+      <c r="F11" s="412"/>
       <c r="G11" s="113"/>
       <c r="H11" s="113"/>
       <c r="I11" s="113"/>
@@ -13117,14 +13115,14 @@
       <c r="BW11" s="187"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="430"/>
-      <c r="B12" s="388"/>
-      <c r="C12" s="430"/>
-      <c r="D12" s="431"/>
-      <c r="E12" s="391" t="s">
+      <c r="A12" s="403"/>
+      <c r="B12" s="410"/>
+      <c r="C12" s="403"/>
+      <c r="D12" s="404"/>
+      <c r="E12" s="411" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="392"/>
+      <c r="F12" s="412"/>
       <c r="G12" s="113"/>
       <c r="H12" s="113"/>
       <c r="I12" s="113"/>
@@ -13176,22 +13174,22 @@
       <c r="BW12" s="187"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="430" t="s">
+      <c r="A13" s="403" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="387" t="s">
+      <c r="B13" s="409" t="s">
         <v>337</v>
       </c>
-      <c r="C13" s="430" t="s">
+      <c r="C13" s="403" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="431" t="s">
+      <c r="D13" s="404" t="s">
         <v>339</v>
       </c>
-      <c r="E13" s="391" t="s">
+      <c r="E13" s="411" t="s">
         <v>525</v>
       </c>
-      <c r="F13" s="392"/>
+      <c r="F13" s="412"/>
       <c r="G13" s="113"/>
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
@@ -13243,14 +13241,14 @@
       <c r="BW13" s="187"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="430"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="430"/>
-      <c r="D14" s="431"/>
-      <c r="E14" s="391" t="s">
+      <c r="A14" s="403"/>
+      <c r="B14" s="410"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="404"/>
+      <c r="E14" s="411" t="s">
         <v>415</v>
       </c>
-      <c r="F14" s="392"/>
+      <c r="F14" s="412"/>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -13302,22 +13300,22 @@
       <c r="BW14" s="187"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="430" t="s">
+      <c r="A15" s="403" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="387" t="s">
+      <c r="B15" s="409" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="430" t="s">
+      <c r="C15" s="403" t="s">
         <v>342</v>
       </c>
-      <c r="D15" s="431" t="s">
+      <c r="D15" s="404" t="s">
         <v>343</v>
       </c>
-      <c r="E15" s="391" t="s">
+      <c r="E15" s="411" t="s">
         <v>526</v>
       </c>
-      <c r="F15" s="392"/>
+      <c r="F15" s="412"/>
       <c r="G15" s="113"/>
       <c r="H15" s="113"/>
       <c r="I15" s="113"/>
@@ -13369,14 +13367,14 @@
       <c r="BW15" s="187"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="430"/>
-      <c r="B16" s="388"/>
-      <c r="C16" s="430"/>
-      <c r="D16" s="431"/>
-      <c r="E16" s="391" t="s">
+      <c r="A16" s="403"/>
+      <c r="B16" s="410"/>
+      <c r="C16" s="403"/>
+      <c r="D16" s="404"/>
+      <c r="E16" s="411" t="s">
         <v>416</v>
       </c>
-      <c r="F16" s="392"/>
+      <c r="F16" s="412"/>
       <c r="G16" s="113"/>
       <c r="H16" s="113"/>
       <c r="I16" s="113"/>
@@ -13423,22 +13421,22 @@
       <c r="BW16" s="187"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="430" t="s">
+      <c r="A17" s="403" t="s">
         <v>344</v>
       </c>
-      <c r="B17" s="387" t="s">
+      <c r="B17" s="409" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="430" t="s">
+      <c r="C17" s="403" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="431" t="s">
+      <c r="D17" s="404" t="s">
         <v>347</v>
       </c>
-      <c r="E17" s="391" t="s">
+      <c r="E17" s="411" t="s">
         <v>527</v>
       </c>
-      <c r="F17" s="392"/>
+      <c r="F17" s="412"/>
       <c r="G17" s="113"/>
       <c r="H17" s="113"/>
       <c r="I17" s="113"/>
@@ -13485,14 +13483,14 @@
       <c r="BW17" s="187"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="430"/>
-      <c r="B18" s="388"/>
-      <c r="C18" s="430"/>
-      <c r="D18" s="431"/>
-      <c r="E18" s="391" t="s">
+      <c r="A18" s="403"/>
+      <c r="B18" s="410"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="404"/>
+      <c r="E18" s="411" t="s">
         <v>417</v>
       </c>
-      <c r="F18" s="392"/>
+      <c r="F18" s="412"/>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
       <c r="I18" s="113"/>
@@ -13547,22 +13545,22 @@
       <c r="BW18" s="187"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="430" t="s">
+      <c r="A19" s="403" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="387" t="s">
+      <c r="B19" s="409" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="430" t="s">
+      <c r="C19" s="403" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="431" t="s">
+      <c r="D19" s="404" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="391" t="s">
+      <c r="E19" s="411" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="392"/>
+      <c r="F19" s="412"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
@@ -13609,14 +13607,14 @@
       <c r="BW19" s="187"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="430"/>
-      <c r="B20" s="388"/>
-      <c r="C20" s="430"/>
-      <c r="D20" s="431"/>
-      <c r="E20" s="391" t="s">
+      <c r="A20" s="403"/>
+      <c r="B20" s="410"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="404"/>
+      <c r="E20" s="411" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="392"/>
+      <c r="F20" s="412"/>
       <c r="G20" s="113"/>
       <c r="H20" s="113"/>
       <c r="I20" s="113"/>
@@ -13663,22 +13661,22 @@
       <c r="BW20" s="187"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="430" t="s">
+      <c r="A21" s="403" t="s">
         <v>352</v>
       </c>
-      <c r="B21" s="387" t="s">
+      <c r="B21" s="409" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="430" t="s">
+      <c r="C21" s="403" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="431" t="s">
+      <c r="D21" s="404" t="s">
         <v>355</v>
       </c>
-      <c r="E21" s="391" t="s">
+      <c r="E21" s="411" t="s">
         <v>529</v>
       </c>
-      <c r="F21" s="392"/>
+      <c r="F21" s="412"/>
       <c r="G21" s="113"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
@@ -13725,14 +13723,14 @@
       <c r="BW21" s="187"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="430"/>
-      <c r="B22" s="388"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="391" t="s">
+      <c r="A22" s="403"/>
+      <c r="B22" s="410"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="404"/>
+      <c r="E22" s="411" t="s">
         <v>419</v>
       </c>
-      <c r="F22" s="392"/>
+      <c r="F22" s="412"/>
       <c r="G22" s="113"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
@@ -13779,22 +13777,22 @@
       <c r="BW22" s="187"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="430" t="s">
+      <c r="A23" s="403" t="s">
         <v>356</v>
       </c>
-      <c r="B23" s="387" t="s">
+      <c r="B23" s="409" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="430" t="s">
+      <c r="C23" s="403" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="431" t="s">
+      <c r="D23" s="404" t="s">
         <v>359</v>
       </c>
-      <c r="E23" s="391" t="s">
+      <c r="E23" s="411" t="s">
         <v>530</v>
       </c>
-      <c r="F23" s="392"/>
+      <c r="F23" s="412"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
@@ -13841,14 +13839,14 @@
       <c r="BW23" s="187"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="430"/>
-      <c r="B24" s="388"/>
-      <c r="C24" s="430"/>
-      <c r="D24" s="431"/>
-      <c r="E24" s="391" t="s">
+      <c r="A24" s="403"/>
+      <c r="B24" s="410"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="404"/>
+      <c r="E24" s="411" t="s">
         <v>420</v>
       </c>
-      <c r="F24" s="392"/>
+      <c r="F24" s="412"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
       <c r="I24" s="113"/>
@@ -13895,22 +13893,22 @@
       <c r="BW24" s="187"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="430" t="s">
+      <c r="A25" s="403" t="s">
         <v>360</v>
       </c>
-      <c r="B25" s="387" t="s">
+      <c r="B25" s="409" t="s">
         <v>361</v>
       </c>
-      <c r="C25" s="430" t="s">
+      <c r="C25" s="403" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="431" t="s">
+      <c r="D25" s="404" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="391" t="s">
+      <c r="E25" s="411" t="s">
         <v>531</v>
       </c>
-      <c r="F25" s="392"/>
+      <c r="F25" s="412"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
@@ -13957,14 +13955,14 @@
       <c r="BW25" s="187"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="430"/>
-      <c r="B26" s="388"/>
-      <c r="C26" s="430"/>
-      <c r="D26" s="431"/>
-      <c r="E26" s="391" t="s">
+      <c r="A26" s="403"/>
+      <c r="B26" s="410"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="404"/>
+      <c r="E26" s="411" t="s">
         <v>421</v>
       </c>
-      <c r="F26" s="392"/>
+      <c r="F26" s="412"/>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
@@ -14011,22 +14009,22 @@
       <c r="BW26" s="187"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="430" t="s">
+      <c r="A27" s="403" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="387" t="s">
+      <c r="B27" s="409" t="s">
         <v>365</v>
       </c>
-      <c r="C27" s="430" t="s">
+      <c r="C27" s="403" t="s">
         <v>366</v>
       </c>
-      <c r="D27" s="431" t="s">
+      <c r="D27" s="404" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="391" t="s">
+      <c r="E27" s="411" t="s">
         <v>532</v>
       </c>
-      <c r="F27" s="392"/>
+      <c r="F27" s="412"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
@@ -14073,14 +14071,14 @@
       <c r="BW27" s="187"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="430"/>
-      <c r="B28" s="388"/>
-      <c r="C28" s="430"/>
-      <c r="D28" s="431"/>
-      <c r="E28" s="391" t="s">
+      <c r="A28" s="403"/>
+      <c r="B28" s="410"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="404"/>
+      <c r="E28" s="411" t="s">
         <v>422</v>
       </c>
-      <c r="F28" s="392"/>
+      <c r="F28" s="412"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
@@ -14127,22 +14125,22 @@
       <c r="BW28" s="187"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="430" t="s">
+      <c r="A29" s="403" t="s">
         <v>368</v>
       </c>
-      <c r="B29" s="387" t="s">
+      <c r="B29" s="409" t="s">
         <v>369</v>
       </c>
-      <c r="C29" s="430" t="s">
+      <c r="C29" s="403" t="s">
         <v>370</v>
       </c>
-      <c r="D29" s="431" t="s">
+      <c r="D29" s="404" t="s">
         <v>371</v>
       </c>
-      <c r="E29" s="391" t="s">
+      <c r="E29" s="411" t="s">
         <v>533</v>
       </c>
-      <c r="F29" s="392"/>
+      <c r="F29" s="412"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
@@ -14189,14 +14187,14 @@
       <c r="BW29" s="187"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="430"/>
-      <c r="B30" s="388"/>
-      <c r="C30" s="430"/>
-      <c r="D30" s="431"/>
-      <c r="E30" s="391" t="s">
+      <c r="A30" s="403"/>
+      <c r="B30" s="410"/>
+      <c r="C30" s="403"/>
+      <c r="D30" s="404"/>
+      <c r="E30" s="411" t="s">
         <v>423</v>
       </c>
-      <c r="F30" s="392"/>
+      <c r="F30" s="412"/>
       <c r="G30" s="113"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
@@ -14243,22 +14241,22 @@
       <c r="BW30" s="187"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="430" t="s">
+      <c r="A31" s="403" t="s">
         <v>372</v>
       </c>
-      <c r="B31" s="387" t="s">
+      <c r="B31" s="409" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="430" t="s">
+      <c r="C31" s="403" t="s">
         <v>374</v>
       </c>
-      <c r="D31" s="431" t="s">
+      <c r="D31" s="404" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="391" t="s">
+      <c r="E31" s="411" t="s">
         <v>534</v>
       </c>
-      <c r="F31" s="392"/>
+      <c r="F31" s="412"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
@@ -14305,14 +14303,14 @@
       <c r="BW31" s="187"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="430"/>
-      <c r="B32" s="388"/>
-      <c r="C32" s="430"/>
-      <c r="D32" s="431"/>
-      <c r="E32" s="391" t="s">
+      <c r="A32" s="403"/>
+      <c r="B32" s="410"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="404"/>
+      <c r="E32" s="411" t="s">
         <v>424</v>
       </c>
-      <c r="F32" s="392"/>
+      <c r="F32" s="412"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
@@ -14359,22 +14357,22 @@
       <c r="BW32" s="187"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="430" t="s">
+      <c r="A33" s="403" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="387" t="s">
+      <c r="B33" s="409" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="430" t="s">
+      <c r="C33" s="403" t="s">
         <v>378</v>
       </c>
-      <c r="D33" s="431" t="s">
+      <c r="D33" s="404" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="391" t="s">
+      <c r="E33" s="411" t="s">
         <v>535</v>
       </c>
-      <c r="F33" s="392"/>
+      <c r="F33" s="412"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
@@ -14421,14 +14419,14 @@
       <c r="BW33" s="187"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="430"/>
-      <c r="B34" s="388"/>
-      <c r="C34" s="430"/>
-      <c r="D34" s="431"/>
-      <c r="E34" s="391" t="s">
+      <c r="A34" s="403"/>
+      <c r="B34" s="410"/>
+      <c r="C34" s="403"/>
+      <c r="D34" s="404"/>
+      <c r="E34" s="411" t="s">
         <v>425</v>
       </c>
-      <c r="F34" s="392"/>
+      <c r="F34" s="412"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -14475,22 +14473,22 @@
       <c r="BW34" s="187"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="430" t="s">
+      <c r="A35" s="403" t="s">
         <v>380</v>
       </c>
-      <c r="B35" s="387" t="s">
+      <c r="B35" s="409" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="430" t="s">
+      <c r="C35" s="403" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="431" t="s">
+      <c r="D35" s="404" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="391" t="s">
+      <c r="E35" s="411" t="s">
         <v>536</v>
       </c>
-      <c r="F35" s="392"/>
+      <c r="F35" s="412"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -14537,14 +14535,14 @@
       <c r="BW35" s="187"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="430"/>
-      <c r="B36" s="388"/>
-      <c r="C36" s="430"/>
-      <c r="D36" s="431"/>
-      <c r="E36" s="391" t="s">
+      <c r="A36" s="403"/>
+      <c r="B36" s="410"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="411" t="s">
         <v>426</v>
       </c>
-      <c r="F36" s="392"/>
+      <c r="F36" s="412"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -14591,22 +14589,22 @@
       <c r="BW36" s="187"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="430" t="s">
+      <c r="A37" s="403" t="s">
         <v>384</v>
       </c>
-      <c r="B37" s="387" t="s">
+      <c r="B37" s="409" t="s">
         <v>385</v>
       </c>
-      <c r="C37" s="430" t="s">
+      <c r="C37" s="403" t="s">
         <v>386</v>
       </c>
-      <c r="D37" s="431" t="s">
+      <c r="D37" s="404" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="391" t="s">
+      <c r="E37" s="411" t="s">
         <v>537</v>
       </c>
-      <c r="F37" s="392"/>
+      <c r="F37" s="412"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -14653,14 +14651,14 @@
       <c r="BW37" s="187"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="430"/>
-      <c r="B38" s="388"/>
-      <c r="C38" s="430"/>
-      <c r="D38" s="431"/>
-      <c r="E38" s="391" t="s">
+      <c r="A38" s="403"/>
+      <c r="B38" s="410"/>
+      <c r="C38" s="403"/>
+      <c r="D38" s="404"/>
+      <c r="E38" s="411" t="s">
         <v>427</v>
       </c>
-      <c r="F38" s="392"/>
+      <c r="F38" s="412"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
@@ -14707,22 +14705,22 @@
       <c r="BW38" s="187"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="430" t="s">
+      <c r="A39" s="403" t="s">
         <v>388</v>
       </c>
-      <c r="B39" s="387" t="s">
+      <c r="B39" s="409" t="s">
         <v>389</v>
       </c>
-      <c r="C39" s="430" t="s">
+      <c r="C39" s="403" t="s">
         <v>390</v>
       </c>
-      <c r="D39" s="431" t="s">
+      <c r="D39" s="404" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="391" t="s">
+      <c r="E39" s="411" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="392"/>
+      <c r="F39" s="412"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
@@ -14769,14 +14767,14 @@
       <c r="BW39" s="187"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="430"/>
-      <c r="B40" s="388"/>
-      <c r="C40" s="430"/>
-      <c r="D40" s="431"/>
-      <c r="E40" s="391" t="s">
+      <c r="A40" s="403"/>
+      <c r="B40" s="410"/>
+      <c r="C40" s="403"/>
+      <c r="D40" s="404"/>
+      <c r="E40" s="411" t="s">
         <v>428</v>
       </c>
-      <c r="F40" s="392"/>
+      <c r="F40" s="412"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
@@ -14847,18 +14845,18 @@
       <c r="BW40" s="189"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="442" t="s">
+      <c r="A41" s="389" t="s">
         <v>407</v>
       </c>
-      <c r="B41" s="443"/>
-      <c r="C41" s="444"/>
-      <c r="D41" s="444"/>
-      <c r="E41" s="444"/>
-      <c r="F41" s="445"/>
-      <c r="G41" s="440" t="s">
+      <c r="B41" s="390"/>
+      <c r="C41" s="391"/>
+      <c r="D41" s="391"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="387" t="s">
         <v>577</v>
       </c>
-      <c r="H41" s="441"/>
+      <c r="H41" s="388"/>
       <c r="I41" s="113"/>
       <c r="J41" s="113"/>
       <c r="K41" s="113"/>
@@ -14926,18 +14924,18 @@
       <c r="BW41" s="160"/>
     </row>
     <row r="42" spans="1:75" s="191" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="404" t="s">
+      <c r="A42" s="450" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="405"/>
-      <c r="C42" s="408" t="s">
+      <c r="B42" s="451"/>
+      <c r="C42" s="454" t="s">
         <v>392</v>
       </c>
-      <c r="D42" s="409"/>
-      <c r="E42" s="391" t="s">
+      <c r="D42" s="455"/>
+      <c r="E42" s="411" t="s">
         <v>539</v>
       </c>
-      <c r="F42" s="392"/>
+      <c r="F42" s="412"/>
       <c r="G42" s="113"/>
       <c r="H42" s="113"/>
       <c r="I42" s="113"/>
@@ -15007,14 +15005,14 @@
       <c r="BW42" s="192"/>
     </row>
     <row r="43" spans="1:75" s="191" customFormat="1">
-      <c r="A43" s="404"/>
-      <c r="B43" s="405"/>
-      <c r="C43" s="395"/>
-      <c r="D43" s="396"/>
-      <c r="E43" s="389" t="s">
+      <c r="A43" s="450"/>
+      <c r="B43" s="451"/>
+      <c r="C43" s="456"/>
+      <c r="D43" s="457"/>
+      <c r="E43" s="422" t="s">
         <v>429</v>
       </c>
-      <c r="F43" s="390"/>
+      <c r="F43" s="423"/>
       <c r="G43" s="113"/>
       <c r="H43" s="113"/>
       <c r="I43" s="113"/>
@@ -15084,16 +15082,16 @@
       <c r="BW43" s="192"/>
     </row>
     <row r="44" spans="1:75" s="191" customFormat="1">
-      <c r="A44" s="404"/>
-      <c r="B44" s="405"/>
-      <c r="C44" s="393" t="s">
+      <c r="A44" s="450"/>
+      <c r="B44" s="451"/>
+      <c r="C44" s="458" t="s">
         <v>393</v>
       </c>
-      <c r="D44" s="394"/>
-      <c r="E44" s="391" t="s">
+      <c r="D44" s="459"/>
+      <c r="E44" s="411" t="s">
         <v>540</v>
       </c>
-      <c r="F44" s="392"/>
+      <c r="F44" s="412"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>
       <c r="I44" s="113"/>
@@ -15163,14 +15161,14 @@
       <c r="BW44" s="192"/>
     </row>
     <row r="45" spans="1:75" s="191" customFormat="1">
-      <c r="A45" s="404"/>
-      <c r="B45" s="405"/>
-      <c r="C45" s="395"/>
-      <c r="D45" s="396"/>
-      <c r="E45" s="389" t="s">
+      <c r="A45" s="450"/>
+      <c r="B45" s="451"/>
+      <c r="C45" s="456"/>
+      <c r="D45" s="457"/>
+      <c r="E45" s="422" t="s">
         <v>430</v>
       </c>
-      <c r="F45" s="390"/>
+      <c r="F45" s="423"/>
       <c r="G45" s="113"/>
       <c r="H45" s="113"/>
       <c r="I45" s="113"/>
@@ -15240,16 +15238,16 @@
       <c r="BW45" s="192"/>
     </row>
     <row r="46" spans="1:75" s="191" customFormat="1">
-      <c r="A46" s="404"/>
-      <c r="B46" s="405"/>
-      <c r="C46" s="393" t="s">
+      <c r="A46" s="450"/>
+      <c r="B46" s="451"/>
+      <c r="C46" s="458" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="394"/>
-      <c r="E46" s="391" t="s">
+      <c r="D46" s="459"/>
+      <c r="E46" s="411" t="s">
         <v>541</v>
       </c>
-      <c r="F46" s="392"/>
+      <c r="F46" s="412"/>
       <c r="G46" s="113"/>
       <c r="H46" s="113"/>
       <c r="I46" s="113"/>
@@ -15274,10 +15272,10 @@
       <c r="AD46" s="113"/>
       <c r="AE46" s="113"/>
       <c r="AF46" s="113"/>
-      <c r="AG46" s="410"/>
-      <c r="AH46" s="410"/>
-      <c r="AI46" s="410"/>
-      <c r="AJ46" s="410"/>
+      <c r="AG46" s="421"/>
+      <c r="AH46" s="421"/>
+      <c r="AI46" s="421"/>
+      <c r="AJ46" s="421"/>
       <c r="AK46" s="192"/>
       <c r="AL46" s="192"/>
       <c r="AM46" s="192"/>
@@ -15319,14 +15317,14 @@
       <c r="BW46" s="192"/>
     </row>
     <row r="47" spans="1:75" s="191" customFormat="1">
-      <c r="A47" s="404"/>
-      <c r="B47" s="405"/>
-      <c r="C47" s="395"/>
-      <c r="D47" s="396"/>
-      <c r="E47" s="389" t="s">
+      <c r="A47" s="450"/>
+      <c r="B47" s="451"/>
+      <c r="C47" s="456"/>
+      <c r="D47" s="457"/>
+      <c r="E47" s="422" t="s">
         <v>431</v>
       </c>
-      <c r="F47" s="390"/>
+      <c r="F47" s="423"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
       <c r="I47" s="113"/>
@@ -15396,16 +15394,16 @@
       <c r="BW47" s="192"/>
     </row>
     <row r="48" spans="1:75" s="191" customFormat="1">
-      <c r="A48" s="404"/>
-      <c r="B48" s="405"/>
-      <c r="C48" s="393" t="s">
+      <c r="A48" s="450"/>
+      <c r="B48" s="451"/>
+      <c r="C48" s="458" t="s">
         <v>395</v>
       </c>
-      <c r="D48" s="394"/>
-      <c r="E48" s="391" t="s">
+      <c r="D48" s="459"/>
+      <c r="E48" s="411" t="s">
         <v>542</v>
       </c>
-      <c r="F48" s="392"/>
+      <c r="F48" s="412"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
       <c r="I48" s="113"/>
@@ -15430,10 +15428,10 @@
       <c r="AD48" s="113"/>
       <c r="AE48" s="113"/>
       <c r="AF48" s="113"/>
-      <c r="AG48" s="410"/>
-      <c r="AH48" s="410"/>
-      <c r="AI48" s="410"/>
-      <c r="AJ48" s="410"/>
+      <c r="AG48" s="421"/>
+      <c r="AH48" s="421"/>
+      <c r="AI48" s="421"/>
+      <c r="AJ48" s="421"/>
       <c r="AK48" s="192"/>
       <c r="AL48" s="192"/>
       <c r="AM48" s="192"/>
@@ -15475,14 +15473,14 @@
       <c r="BW48" s="192"/>
     </row>
     <row r="49" spans="1:75" s="191" customFormat="1">
-      <c r="A49" s="404"/>
-      <c r="B49" s="405"/>
-      <c r="C49" s="395"/>
-      <c r="D49" s="396"/>
-      <c r="E49" s="389" t="s">
+      <c r="A49" s="450"/>
+      <c r="B49" s="451"/>
+      <c r="C49" s="456"/>
+      <c r="D49" s="457"/>
+      <c r="E49" s="422" t="s">
         <v>432</v>
       </c>
-      <c r="F49" s="390"/>
+      <c r="F49" s="423"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
       <c r="I49" s="113"/>
@@ -15552,16 +15550,16 @@
       <c r="BW49" s="192"/>
     </row>
     <row r="50" spans="1:75" s="191" customFormat="1">
-      <c r="A50" s="404"/>
-      <c r="B50" s="405"/>
-      <c r="C50" s="393" t="s">
+      <c r="A50" s="450"/>
+      <c r="B50" s="451"/>
+      <c r="C50" s="458" t="s">
         <v>396</v>
       </c>
-      <c r="D50" s="394"/>
-      <c r="E50" s="391" t="s">
+      <c r="D50" s="459"/>
+      <c r="E50" s="411" t="s">
         <v>543</v>
       </c>
-      <c r="F50" s="392"/>
+      <c r="F50" s="412"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
       <c r="I50" s="113"/>
@@ -15586,10 +15584,10 @@
       <c r="AD50" s="113"/>
       <c r="AE50" s="113"/>
       <c r="AF50" s="113"/>
-      <c r="AG50" s="410"/>
-      <c r="AH50" s="410"/>
-      <c r="AI50" s="410"/>
-      <c r="AJ50" s="410"/>
+      <c r="AG50" s="421"/>
+      <c r="AH50" s="421"/>
+      <c r="AI50" s="421"/>
+      <c r="AJ50" s="421"/>
       <c r="AK50" s="192"/>
       <c r="AL50" s="192"/>
       <c r="AM50" s="192"/>
@@ -15631,14 +15629,14 @@
       <c r="BW50" s="192"/>
     </row>
     <row r="51" spans="1:75" s="191" customFormat="1">
-      <c r="A51" s="404"/>
-      <c r="B51" s="405"/>
-      <c r="C51" s="395"/>
-      <c r="D51" s="396"/>
-      <c r="E51" s="389" t="s">
+      <c r="A51" s="450"/>
+      <c r="B51" s="451"/>
+      <c r="C51" s="456"/>
+      <c r="D51" s="457"/>
+      <c r="E51" s="422" t="s">
         <v>433</v>
       </c>
-      <c r="F51" s="390"/>
+      <c r="F51" s="423"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
       <c r="I51" s="113"/>
@@ -15708,16 +15706,16 @@
       <c r="BW51" s="192"/>
     </row>
     <row r="52" spans="1:75" s="191" customFormat="1">
-      <c r="A52" s="404"/>
-      <c r="B52" s="405"/>
-      <c r="C52" s="393" t="s">
+      <c r="A52" s="450"/>
+      <c r="B52" s="451"/>
+      <c r="C52" s="458" t="s">
         <v>397</v>
       </c>
-      <c r="D52" s="394"/>
-      <c r="E52" s="391" t="s">
+      <c r="D52" s="459"/>
+      <c r="E52" s="411" t="s">
         <v>544</v>
       </c>
-      <c r="F52" s="392"/>
+      <c r="F52" s="412"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
       <c r="I52" s="113"/>
@@ -15742,10 +15740,10 @@
       <c r="AD52" s="113"/>
       <c r="AE52" s="113"/>
       <c r="AF52" s="113"/>
-      <c r="AG52" s="410"/>
-      <c r="AH52" s="410"/>
-      <c r="AI52" s="410"/>
-      <c r="AJ52" s="410"/>
+      <c r="AG52" s="421"/>
+      <c r="AH52" s="421"/>
+      <c r="AI52" s="421"/>
+      <c r="AJ52" s="421"/>
       <c r="AK52" s="192"/>
       <c r="AL52" s="192"/>
       <c r="AM52" s="192"/>
@@ -15787,14 +15785,14 @@
       <c r="BW52" s="192"/>
     </row>
     <row r="53" spans="1:75" s="191" customFormat="1">
-      <c r="A53" s="404"/>
-      <c r="B53" s="405"/>
-      <c r="C53" s="395"/>
-      <c r="D53" s="396"/>
-      <c r="E53" s="389" t="s">
+      <c r="A53" s="450"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="456"/>
+      <c r="D53" s="457"/>
+      <c r="E53" s="422" t="s">
         <v>434</v>
       </c>
-      <c r="F53" s="390"/>
+      <c r="F53" s="423"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
       <c r="I53" s="113"/>
@@ -15864,16 +15862,16 @@
       <c r="BW53" s="192"/>
     </row>
     <row r="54" spans="1:75" s="191" customFormat="1">
-      <c r="A54" s="404"/>
-      <c r="B54" s="405"/>
-      <c r="C54" s="393" t="s">
+      <c r="A54" s="450"/>
+      <c r="B54" s="451"/>
+      <c r="C54" s="458" t="s">
         <v>398</v>
       </c>
-      <c r="D54" s="394"/>
-      <c r="E54" s="391" t="s">
+      <c r="D54" s="459"/>
+      <c r="E54" s="411" t="s">
         <v>545</v>
       </c>
-      <c r="F54" s="392"/>
+      <c r="F54" s="412"/>
       <c r="G54" s="113"/>
       <c r="H54" s="113"/>
       <c r="I54" s="113"/>
@@ -15898,10 +15896,10 @@
       <c r="AD54" s="113"/>
       <c r="AE54" s="113"/>
       <c r="AF54" s="113"/>
-      <c r="AG54" s="410"/>
-      <c r="AH54" s="410"/>
-      <c r="AI54" s="410"/>
-      <c r="AJ54" s="410"/>
+      <c r="AG54" s="421"/>
+      <c r="AH54" s="421"/>
+      <c r="AI54" s="421"/>
+      <c r="AJ54" s="421"/>
       <c r="AK54" s="192"/>
       <c r="AL54" s="192"/>
       <c r="AM54" s="192"/>
@@ -15943,14 +15941,14 @@
       <c r="BW54" s="192"/>
     </row>
     <row r="55" spans="1:75" s="191" customFormat="1">
-      <c r="A55" s="404"/>
-      <c r="B55" s="405"/>
-      <c r="C55" s="395"/>
-      <c r="D55" s="396"/>
-      <c r="E55" s="389" t="s">
+      <c r="A55" s="450"/>
+      <c r="B55" s="451"/>
+      <c r="C55" s="456"/>
+      <c r="D55" s="457"/>
+      <c r="E55" s="422" t="s">
         <v>435</v>
       </c>
-      <c r="F55" s="390"/>
+      <c r="F55" s="423"/>
       <c r="G55" s="113"/>
       <c r="H55" s="113"/>
       <c r="I55" s="113"/>
@@ -16020,16 +16018,16 @@
       <c r="BW55" s="192"/>
     </row>
     <row r="56" spans="1:75" s="191" customFormat="1">
-      <c r="A56" s="404"/>
-      <c r="B56" s="405"/>
-      <c r="C56" s="393" t="s">
+      <c r="A56" s="450"/>
+      <c r="B56" s="451"/>
+      <c r="C56" s="458" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="394"/>
-      <c r="E56" s="389" t="s">
+      <c r="D56" s="459"/>
+      <c r="E56" s="422" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="390"/>
+      <c r="F56" s="423"/>
       <c r="G56" s="113"/>
       <c r="H56" s="113"/>
       <c r="I56" s="113"/>
@@ -16054,10 +16052,10 @@
       <c r="AD56" s="113"/>
       <c r="AE56" s="113"/>
       <c r="AF56" s="113"/>
-      <c r="AG56" s="410"/>
-      <c r="AH56" s="410"/>
-      <c r="AI56" s="410"/>
-      <c r="AJ56" s="410"/>
+      <c r="AG56" s="421"/>
+      <c r="AH56" s="421"/>
+      <c r="AI56" s="421"/>
+      <c r="AJ56" s="421"/>
       <c r="AK56" s="192"/>
       <c r="AL56" s="192"/>
       <c r="AM56" s="192"/>
@@ -16099,14 +16097,14 @@
       <c r="BW56" s="192"/>
     </row>
     <row r="57" spans="1:75" s="191" customFormat="1">
-      <c r="A57" s="404"/>
-      <c r="B57" s="405"/>
-      <c r="C57" s="395"/>
-      <c r="D57" s="396"/>
-      <c r="E57" s="389" t="s">
+      <c r="A57" s="450"/>
+      <c r="B57" s="451"/>
+      <c r="C57" s="456"/>
+      <c r="D57" s="457"/>
+      <c r="E57" s="422" t="s">
         <v>436</v>
       </c>
-      <c r="F57" s="390"/>
+      <c r="F57" s="423"/>
       <c r="G57" s="113"/>
       <c r="H57" s="113"/>
       <c r="I57" s="113"/>
@@ -16176,16 +16174,16 @@
       <c r="BW57" s="192"/>
     </row>
     <row r="58" spans="1:75" s="191" customFormat="1">
-      <c r="A58" s="404"/>
-      <c r="B58" s="405"/>
-      <c r="C58" s="393" t="s">
+      <c r="A58" s="450"/>
+      <c r="B58" s="451"/>
+      <c r="C58" s="458" t="s">
         <v>400</v>
       </c>
-      <c r="D58" s="394"/>
-      <c r="E58" s="391" t="s">
+      <c r="D58" s="459"/>
+      <c r="E58" s="411" t="s">
         <v>547</v>
       </c>
-      <c r="F58" s="392"/>
+      <c r="F58" s="412"/>
       <c r="G58" s="113"/>
       <c r="H58" s="113"/>
       <c r="I58" s="113"/>
@@ -16210,10 +16208,10 @@
       <c r="AD58" s="113"/>
       <c r="AE58" s="113"/>
       <c r="AF58" s="113"/>
-      <c r="AG58" s="410"/>
-      <c r="AH58" s="410"/>
-      <c r="AI58" s="410"/>
-      <c r="AJ58" s="410"/>
+      <c r="AG58" s="421"/>
+      <c r="AH58" s="421"/>
+      <c r="AI58" s="421"/>
+      <c r="AJ58" s="421"/>
       <c r="AK58" s="192"/>
       <c r="AL58" s="194"/>
       <c r="AM58" s="192"/>
@@ -16255,14 +16253,14 @@
       <c r="BW58" s="192"/>
     </row>
     <row r="59" spans="1:75" s="191" customFormat="1">
-      <c r="A59" s="404"/>
-      <c r="B59" s="405"/>
-      <c r="C59" s="395"/>
-      <c r="D59" s="396"/>
-      <c r="E59" s="389" t="s">
+      <c r="A59" s="450"/>
+      <c r="B59" s="451"/>
+      <c r="C59" s="456"/>
+      <c r="D59" s="457"/>
+      <c r="E59" s="422" t="s">
         <v>437</v>
       </c>
-      <c r="F59" s="390"/>
+      <c r="F59" s="423"/>
       <c r="G59" s="113"/>
       <c r="H59" s="113"/>
       <c r="I59" s="113"/>
@@ -16332,16 +16330,16 @@
       <c r="BW59" s="192"/>
     </row>
     <row r="60" spans="1:75" s="191" customFormat="1">
-      <c r="A60" s="404"/>
-      <c r="B60" s="405"/>
-      <c r="C60" s="393" t="s">
+      <c r="A60" s="450"/>
+      <c r="B60" s="451"/>
+      <c r="C60" s="458" t="s">
         <v>401</v>
       </c>
-      <c r="D60" s="394"/>
-      <c r="E60" s="391" t="s">
+      <c r="D60" s="459"/>
+      <c r="E60" s="411" t="s">
         <v>548</v>
       </c>
-      <c r="F60" s="392"/>
+      <c r="F60" s="412"/>
       <c r="G60" s="113"/>
       <c r="H60" s="113"/>
       <c r="I60" s="113"/>
@@ -16366,10 +16364,10 @@
       <c r="AD60" s="113"/>
       <c r="AE60" s="113"/>
       <c r="AF60" s="113"/>
-      <c r="AG60" s="410"/>
-      <c r="AH60" s="410"/>
-      <c r="AI60" s="410"/>
-      <c r="AJ60" s="410"/>
+      <c r="AG60" s="421"/>
+      <c r="AH60" s="421"/>
+      <c r="AI60" s="421"/>
+      <c r="AJ60" s="421"/>
       <c r="AK60" s="192"/>
       <c r="AL60" s="193"/>
       <c r="AM60" s="192"/>
@@ -16411,14 +16409,14 @@
       <c r="BW60" s="192"/>
     </row>
     <row r="61" spans="1:75" s="191" customFormat="1">
-      <c r="A61" s="404"/>
-      <c r="B61" s="405"/>
-      <c r="C61" s="395"/>
-      <c r="D61" s="396"/>
-      <c r="E61" s="389" t="s">
+      <c r="A61" s="450"/>
+      <c r="B61" s="451"/>
+      <c r="C61" s="456"/>
+      <c r="D61" s="457"/>
+      <c r="E61" s="422" t="s">
         <v>438</v>
       </c>
-      <c r="F61" s="390"/>
+      <c r="F61" s="423"/>
       <c r="G61" s="113"/>
       <c r="H61" s="113"/>
       <c r="I61" s="113"/>
@@ -16488,16 +16486,16 @@
       <c r="BW61" s="192"/>
     </row>
     <row r="62" spans="1:75" s="191" customFormat="1">
-      <c r="A62" s="404"/>
-      <c r="B62" s="405"/>
-      <c r="C62" s="393" t="s">
+      <c r="A62" s="450"/>
+      <c r="B62" s="451"/>
+      <c r="C62" s="458" t="s">
         <v>402</v>
       </c>
-      <c r="D62" s="394"/>
-      <c r="E62" s="391" t="s">
+      <c r="D62" s="459"/>
+      <c r="E62" s="411" t="s">
         <v>549</v>
       </c>
-      <c r="F62" s="392"/>
+      <c r="F62" s="412"/>
       <c r="G62" s="113"/>
       <c r="H62" s="113"/>
       <c r="I62" s="113"/>
@@ -16522,10 +16520,10 @@
       <c r="AD62" s="113"/>
       <c r="AE62" s="113"/>
       <c r="AF62" s="113"/>
-      <c r="AG62" s="410"/>
-      <c r="AH62" s="410"/>
-      <c r="AI62" s="410"/>
-      <c r="AJ62" s="410"/>
+      <c r="AG62" s="421"/>
+      <c r="AH62" s="421"/>
+      <c r="AI62" s="421"/>
+      <c r="AJ62" s="421"/>
       <c r="AK62" s="198"/>
       <c r="AL62" s="194"/>
       <c r="AM62" s="192"/>
@@ -16567,14 +16565,14 @@
       <c r="BW62" s="192"/>
     </row>
     <row r="63" spans="1:75" s="191" customFormat="1">
-      <c r="A63" s="404"/>
-      <c r="B63" s="405"/>
-      <c r="C63" s="395"/>
-      <c r="D63" s="396"/>
-      <c r="E63" s="389" t="s">
+      <c r="A63" s="450"/>
+      <c r="B63" s="451"/>
+      <c r="C63" s="456"/>
+      <c r="D63" s="457"/>
+      <c r="E63" s="422" t="s">
         <v>439</v>
       </c>
-      <c r="F63" s="390"/>
+      <c r="F63" s="423"/>
       <c r="G63" s="113"/>
       <c r="H63" s="113"/>
       <c r="I63" s="113"/>
@@ -16644,16 +16642,16 @@
       <c r="BW63" s="192"/>
     </row>
     <row r="64" spans="1:75" s="191" customFormat="1">
-      <c r="A64" s="404"/>
-      <c r="B64" s="405"/>
-      <c r="C64" s="393" t="s">
+      <c r="A64" s="450"/>
+      <c r="B64" s="451"/>
+      <c r="C64" s="458" t="s">
         <v>403</v>
       </c>
-      <c r="D64" s="394"/>
-      <c r="E64" s="391" t="s">
+      <c r="D64" s="459"/>
+      <c r="E64" s="411" t="s">
         <v>550</v>
       </c>
-      <c r="F64" s="392"/>
+      <c r="F64" s="412"/>
       <c r="G64" s="113"/>
       <c r="H64" s="113"/>
       <c r="I64" s="113"/>
@@ -16678,10 +16676,10 @@
       <c r="AD64" s="113"/>
       <c r="AE64" s="113"/>
       <c r="AF64" s="113"/>
-      <c r="AG64" s="410"/>
-      <c r="AH64" s="410"/>
-      <c r="AI64" s="410"/>
-      <c r="AJ64" s="410"/>
+      <c r="AG64" s="421"/>
+      <c r="AH64" s="421"/>
+      <c r="AI64" s="421"/>
+      <c r="AJ64" s="421"/>
       <c r="AK64" s="192"/>
       <c r="AL64" s="193"/>
       <c r="AM64" s="192"/>
@@ -16723,14 +16721,14 @@
       <c r="BW64" s="192"/>
     </row>
     <row r="65" spans="1:75" s="191" customFormat="1">
-      <c r="A65" s="404"/>
-      <c r="B65" s="405"/>
-      <c r="C65" s="395"/>
-      <c r="D65" s="396"/>
-      <c r="E65" s="389" t="s">
+      <c r="A65" s="450"/>
+      <c r="B65" s="451"/>
+      <c r="C65" s="456"/>
+      <c r="D65" s="457"/>
+      <c r="E65" s="422" t="s">
         <v>440</v>
       </c>
-      <c r="F65" s="390"/>
+      <c r="F65" s="423"/>
       <c r="G65" s="113"/>
       <c r="H65" s="113"/>
       <c r="I65" s="113"/>
@@ -16800,16 +16798,16 @@
       <c r="BW65" s="192"/>
     </row>
     <row r="66" spans="1:75" s="191" customFormat="1">
-      <c r="A66" s="404"/>
-      <c r="B66" s="405"/>
-      <c r="C66" s="393" t="s">
+      <c r="A66" s="450"/>
+      <c r="B66" s="451"/>
+      <c r="C66" s="458" t="s">
         <v>404</v>
       </c>
-      <c r="D66" s="394"/>
-      <c r="E66" s="391" t="s">
+      <c r="D66" s="459"/>
+      <c r="E66" s="411" t="s">
         <v>551</v>
       </c>
-      <c r="F66" s="392"/>
+      <c r="F66" s="412"/>
       <c r="G66" s="113"/>
       <c r="H66" s="113"/>
       <c r="I66" s="113"/>
@@ -16834,10 +16832,10 @@
       <c r="AD66" s="113"/>
       <c r="AE66" s="113"/>
       <c r="AF66" s="113"/>
-      <c r="AG66" s="410"/>
-      <c r="AH66" s="410"/>
-      <c r="AI66" s="410"/>
-      <c r="AJ66" s="410"/>
+      <c r="AG66" s="421"/>
+      <c r="AH66" s="421"/>
+      <c r="AI66" s="421"/>
+      <c r="AJ66" s="421"/>
       <c r="AK66" s="198"/>
       <c r="AL66" s="194"/>
       <c r="AM66" s="192"/>
@@ -16879,14 +16877,14 @@
       <c r="BW66" s="192"/>
     </row>
     <row r="67" spans="1:75" s="191" customFormat="1">
-      <c r="A67" s="404"/>
-      <c r="B67" s="405"/>
-      <c r="C67" s="395"/>
-      <c r="D67" s="396"/>
-      <c r="E67" s="389" t="s">
+      <c r="A67" s="450"/>
+      <c r="B67" s="451"/>
+      <c r="C67" s="456"/>
+      <c r="D67" s="457"/>
+      <c r="E67" s="422" t="s">
         <v>441</v>
       </c>
-      <c r="F67" s="390"/>
+      <c r="F67" s="423"/>
       <c r="G67" s="113"/>
       <c r="H67" s="113"/>
       <c r="I67" s="113"/>
@@ -16956,16 +16954,16 @@
       <c r="BW67" s="192"/>
     </row>
     <row r="68" spans="1:75" s="191" customFormat="1">
-      <c r="A68" s="404"/>
-      <c r="B68" s="405"/>
-      <c r="C68" s="393" t="s">
+      <c r="A68" s="450"/>
+      <c r="B68" s="451"/>
+      <c r="C68" s="458" t="s">
         <v>405</v>
       </c>
-      <c r="D68" s="394"/>
-      <c r="E68" s="391" t="s">
+      <c r="D68" s="459"/>
+      <c r="E68" s="411" t="s">
         <v>552</v>
       </c>
-      <c r="F68" s="392"/>
+      <c r="F68" s="412"/>
       <c r="G68" s="113"/>
       <c r="H68" s="113"/>
       <c r="I68" s="113"/>
@@ -16992,10 +16990,10 @@
       <c r="AD68" s="113"/>
       <c r="AE68" s="113"/>
       <c r="AF68" s="113"/>
-      <c r="AG68" s="410"/>
-      <c r="AH68" s="410"/>
-      <c r="AI68" s="410"/>
-      <c r="AJ68" s="410"/>
+      <c r="AG68" s="421"/>
+      <c r="AH68" s="421"/>
+      <c r="AI68" s="421"/>
+      <c r="AJ68" s="421"/>
       <c r="AK68" s="193"/>
       <c r="AL68" s="193"/>
       <c r="AM68" s="192"/>
@@ -17037,14 +17035,14 @@
       <c r="BW68" s="192"/>
     </row>
     <row r="69" spans="1:75" s="191" customFormat="1">
-      <c r="A69" s="404"/>
-      <c r="B69" s="405"/>
-      <c r="C69" s="395"/>
-      <c r="D69" s="396"/>
-      <c r="E69" s="389" t="s">
+      <c r="A69" s="450"/>
+      <c r="B69" s="451"/>
+      <c r="C69" s="456"/>
+      <c r="D69" s="457"/>
+      <c r="E69" s="422" t="s">
         <v>442</v>
       </c>
-      <c r="F69" s="390"/>
+      <c r="F69" s="423"/>
       <c r="G69" s="113"/>
       <c r="H69" s="113"/>
       <c r="I69" s="113"/>
@@ -17116,16 +17114,16 @@
       <c r="BW69" s="192"/>
     </row>
     <row r="70" spans="1:75" s="191" customFormat="1">
-      <c r="A70" s="404"/>
-      <c r="B70" s="405"/>
-      <c r="C70" s="393" t="s">
+      <c r="A70" s="450"/>
+      <c r="B70" s="451"/>
+      <c r="C70" s="458" t="s">
         <v>408</v>
       </c>
-      <c r="D70" s="394"/>
-      <c r="E70" s="391" t="s">
+      <c r="D70" s="459"/>
+      <c r="E70" s="411" t="s">
         <v>553</v>
       </c>
-      <c r="F70" s="392"/>
+      <c r="F70" s="412"/>
       <c r="G70" s="113"/>
       <c r="H70" s="113"/>
       <c r="I70" s="113"/>
@@ -17197,14 +17195,14 @@
       <c r="BW70" s="192"/>
     </row>
     <row r="71" spans="1:75" s="191" customFormat="1">
-      <c r="A71" s="404"/>
-      <c r="B71" s="405"/>
-      <c r="C71" s="395"/>
-      <c r="D71" s="396"/>
-      <c r="E71" s="389" t="s">
+      <c r="A71" s="450"/>
+      <c r="B71" s="451"/>
+      <c r="C71" s="456"/>
+      <c r="D71" s="457"/>
+      <c r="E71" s="422" t="s">
         <v>443</v>
       </c>
-      <c r="F71" s="390"/>
+      <c r="F71" s="423"/>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
       <c r="I71" s="113"/>
@@ -17276,16 +17274,16 @@
       <c r="BW71" s="192"/>
     </row>
     <row r="72" spans="1:75" s="191" customFormat="1">
-      <c r="A72" s="404"/>
-      <c r="B72" s="405"/>
-      <c r="C72" s="398" t="s">
+      <c r="A72" s="450"/>
+      <c r="B72" s="451"/>
+      <c r="C72" s="444" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="399"/>
-      <c r="E72" s="389" t="s">
+      <c r="D72" s="445"/>
+      <c r="E72" s="422" t="s">
         <v>582</v>
       </c>
-      <c r="F72" s="390"/>
+      <c r="F72" s="423"/>
       <c r="G72" s="113"/>
       <c r="H72" s="113"/>
       <c r="I72" s="113"/>
@@ -17312,10 +17310,10 @@
       <c r="AD72" s="113"/>
       <c r="AE72" s="113"/>
       <c r="AF72" s="113"/>
-      <c r="AG72" s="429"/>
-      <c r="AH72" s="429"/>
-      <c r="AI72" s="429"/>
-      <c r="AJ72" s="429"/>
+      <c r="AG72" s="424"/>
+      <c r="AH72" s="424"/>
+      <c r="AI72" s="424"/>
+      <c r="AJ72" s="424"/>
       <c r="AK72" s="198"/>
       <c r="AL72" s="192"/>
       <c r="AM72" s="192"/>
@@ -17357,16 +17355,16 @@
       <c r="BW72" s="192"/>
     </row>
     <row r="73" spans="1:75" s="191" customFormat="1">
-      <c r="A73" s="404"/>
-      <c r="B73" s="405"/>
-      <c r="C73" s="400" t="s">
+      <c r="A73" s="450"/>
+      <c r="B73" s="451"/>
+      <c r="C73" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="401"/>
-      <c r="E73" s="389" t="s">
+      <c r="D73" s="447"/>
+      <c r="E73" s="422" t="s">
         <v>583</v>
       </c>
-      <c r="F73" s="390"/>
+      <c r="F73" s="423"/>
       <c r="G73" s="113"/>
       <c r="H73" s="113"/>
       <c r="I73" s="113"/>
@@ -17438,16 +17436,16 @@
       <c r="BW73" s="192"/>
     </row>
     <row r="74" spans="1:75" s="191" customFormat="1">
-      <c r="A74" s="406"/>
-      <c r="B74" s="407"/>
-      <c r="C74" s="400" t="s">
+      <c r="A74" s="452"/>
+      <c r="B74" s="453"/>
+      <c r="C74" s="446" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="401"/>
-      <c r="E74" s="389" t="s">
+      <c r="D74" s="447"/>
+      <c r="E74" s="422" t="s">
         <v>584</v>
       </c>
-      <c r="F74" s="390"/>
+      <c r="F74" s="423"/>
       <c r="G74" s="113"/>
       <c r="H74" s="113"/>
       <c r="I74" s="113"/>
@@ -17519,18 +17517,18 @@
       <c r="BW74" s="192"/>
     </row>
     <row r="75" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="425" t="s">
+      <c r="A75" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="426"/>
-      <c r="C75" s="423" t="s">
+      <c r="B75" s="441"/>
+      <c r="C75" s="438" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="424"/>
-      <c r="E75" s="389" t="s">
+      <c r="D75" s="439"/>
+      <c r="E75" s="422" t="s">
         <v>319</v>
       </c>
-      <c r="F75" s="390"/>
+      <c r="F75" s="423"/>
       <c r="G75" s="113"/>
       <c r="H75" s="113"/>
       <c r="I75" s="113"/>
@@ -17557,10 +17555,10 @@
       <c r="AD75" s="113"/>
       <c r="AE75" s="113"/>
       <c r="AF75" s="113"/>
-      <c r="AG75" s="421"/>
-      <c r="AH75" s="421"/>
-      <c r="AI75" s="421"/>
-      <c r="AJ75" s="421"/>
+      <c r="AG75" s="436"/>
+      <c r="AH75" s="436"/>
+      <c r="AI75" s="436"/>
+      <c r="AJ75" s="436"/>
       <c r="AK75" s="198"/>
       <c r="AL75" s="192"/>
       <c r="AM75" s="192"/>
@@ -17602,16 +17600,16 @@
       <c r="BW75" s="192"/>
     </row>
     <row r="76" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="427"/>
-      <c r="B76" s="428"/>
-      <c r="C76" s="423" t="s">
+      <c r="A76" s="442"/>
+      <c r="B76" s="443"/>
+      <c r="C76" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="424"/>
-      <c r="E76" s="389" t="s">
+      <c r="D76" s="439"/>
+      <c r="E76" s="422" t="s">
         <v>320</v>
       </c>
-      <c r="F76" s="390"/>
+      <c r="F76" s="423"/>
       <c r="G76" s="113"/>
       <c r="H76" s="113"/>
       <c r="I76" s="113"/>
@@ -17638,10 +17636,10 @@
       <c r="AD76" s="113"/>
       <c r="AE76" s="113"/>
       <c r="AF76" s="113"/>
-      <c r="AG76" s="421"/>
-      <c r="AH76" s="421"/>
-      <c r="AI76" s="421"/>
-      <c r="AJ76" s="421"/>
+      <c r="AG76" s="436"/>
+      <c r="AH76" s="436"/>
+      <c r="AI76" s="436"/>
+      <c r="AJ76" s="436"/>
       <c r="AK76" s="198"/>
       <c r="AL76" s="192"/>
       <c r="AM76" s="192"/>
@@ -17683,16 +17681,16 @@
       <c r="BW76" s="192"/>
     </row>
     <row r="77" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="427"/>
-      <c r="B77" s="428"/>
-      <c r="C77" s="423" t="s">
+      <c r="A77" s="442"/>
+      <c r="B77" s="443"/>
+      <c r="C77" s="438" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="424"/>
-      <c r="E77" s="389" t="s">
+      <c r="D77" s="439"/>
+      <c r="E77" s="422" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="390"/>
+      <c r="F77" s="423"/>
       <c r="G77" s="113"/>
       <c r="H77" s="113"/>
       <c r="I77" s="113"/>
@@ -17719,10 +17717,10 @@
       <c r="AD77" s="113"/>
       <c r="AE77" s="113"/>
       <c r="AF77" s="113"/>
-      <c r="AG77" s="422"/>
-      <c r="AH77" s="422"/>
-      <c r="AI77" s="422"/>
-      <c r="AJ77" s="422"/>
+      <c r="AG77" s="437"/>
+      <c r="AH77" s="437"/>
+      <c r="AI77" s="437"/>
+      <c r="AJ77" s="437"/>
       <c r="AK77" s="198"/>
       <c r="AL77" s="192"/>
       <c r="AM77" s="192"/>
@@ -17764,16 +17762,16 @@
       <c r="BW77" s="192"/>
     </row>
     <row r="78" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="427"/>
-      <c r="B78" s="428"/>
-      <c r="C78" s="423" t="s">
+      <c r="A78" s="442"/>
+      <c r="B78" s="443"/>
+      <c r="C78" s="438" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="424"/>
-      <c r="E78" s="389" t="s">
+      <c r="D78" s="439"/>
+      <c r="E78" s="422" t="s">
         <v>322</v>
       </c>
-      <c r="F78" s="390"/>
+      <c r="F78" s="423"/>
       <c r="G78" s="113"/>
       <c r="H78" s="113"/>
       <c r="I78" s="113"/>
@@ -17845,16 +17843,16 @@
       <c r="BW78" s="192"/>
     </row>
     <row r="79" spans="1:75" s="191" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="427"/>
-      <c r="B79" s="428"/>
-      <c r="C79" s="423" t="s">
+      <c r="A79" s="442"/>
+      <c r="B79" s="443"/>
+      <c r="C79" s="438" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="424"/>
-      <c r="E79" s="389" t="s">
+      <c r="D79" s="439"/>
+      <c r="E79" s="422" t="s">
         <v>409</v>
       </c>
-      <c r="F79" s="390"/>
+      <c r="F79" s="423"/>
       <c r="G79" s="113"/>
       <c r="H79" s="113"/>
       <c r="I79" s="113"/>
@@ -17881,10 +17879,10 @@
       <c r="AD79" s="113"/>
       <c r="AE79" s="113"/>
       <c r="AF79" s="113"/>
-      <c r="AG79" s="422"/>
-      <c r="AH79" s="422"/>
-      <c r="AI79" s="422"/>
-      <c r="AJ79" s="422"/>
+      <c r="AG79" s="437"/>
+      <c r="AH79" s="437"/>
+      <c r="AI79" s="437"/>
+      <c r="AJ79" s="437"/>
       <c r="AK79" s="198"/>
       <c r="AL79" s="192"/>
       <c r="AM79" s="192"/>
@@ -17926,16 +17924,16 @@
       <c r="BW79" s="192"/>
     </row>
     <row r="80" spans="1:75" s="191" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="403" t="s">
+      <c r="A80" s="449" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="403"/>
-      <c r="C80" s="403"/>
-      <c r="D80" s="403"/>
-      <c r="E80" s="402" t="s">
+      <c r="B80" s="449"/>
+      <c r="C80" s="449"/>
+      <c r="D80" s="449"/>
+      <c r="E80" s="448" t="s">
         <v>619</v>
       </c>
-      <c r="F80" s="390"/>
+      <c r="F80" s="423"/>
       <c r="G80" s="113"/>
       <c r="H80" s="113"/>
       <c r="I80" s="113"/>
@@ -17962,10 +17960,10 @@
       <c r="AD80" s="113"/>
       <c r="AE80" s="113"/>
       <c r="AF80" s="113"/>
-      <c r="AG80" s="397"/>
-      <c r="AH80" s="397"/>
-      <c r="AI80" s="397"/>
-      <c r="AJ80" s="397"/>
+      <c r="AG80" s="425"/>
+      <c r="AH80" s="425"/>
+      <c r="AI80" s="425"/>
+      <c r="AJ80" s="425"/>
       <c r="AK80" s="198"/>
       <c r="AL80" s="192"/>
       <c r="AM80" s="192"/>
@@ -18007,16 +18005,16 @@
       <c r="BW80" s="192"/>
     </row>
     <row r="81" spans="1:75" s="191" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="403" t="s">
+      <c r="A81" s="449" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="403"/>
-      <c r="C81" s="403"/>
-      <c r="D81" s="403"/>
-      <c r="E81" s="402" t="s">
+      <c r="B81" s="449"/>
+      <c r="C81" s="449"/>
+      <c r="D81" s="449"/>
+      <c r="E81" s="448" t="s">
         <v>620</v>
       </c>
-      <c r="F81" s="390"/>
+      <c r="F81" s="423"/>
       <c r="G81" s="113"/>
       <c r="H81" s="113"/>
       <c r="I81" s="113"/>
@@ -18043,10 +18041,10 @@
       <c r="AD81" s="113"/>
       <c r="AE81" s="113"/>
       <c r="AF81" s="113"/>
-      <c r="AG81" s="397"/>
-      <c r="AH81" s="397"/>
-      <c r="AI81" s="397"/>
-      <c r="AJ81" s="397"/>
+      <c r="AG81" s="425"/>
+      <c r="AH81" s="425"/>
+      <c r="AI81" s="425"/>
+      <c r="AJ81" s="425"/>
       <c r="AK81" s="198"/>
       <c r="AL81" s="192"/>
       <c r="AM81" s="192"/>
@@ -18094,17 +18092,17 @@
       <c r="D82" s="202"/>
       <c r="E82" s="202"/>
       <c r="F82" s="202"/>
-      <c r="G82" s="411"/>
-      <c r="H82" s="411"/>
-      <c r="I82" s="411"/>
+      <c r="G82" s="426"/>
+      <c r="H82" s="426"/>
+      <c r="I82" s="426"/>
       <c r="J82" s="202"/>
       <c r="K82" s="202"/>
       <c r="L82" s="202"/>
       <c r="M82" s="202"/>
       <c r="N82" s="202"/>
-      <c r="O82" s="411"/>
-      <c r="P82" s="411"/>
-      <c r="Q82" s="411"/>
+      <c r="O82" s="426"/>
+      <c r="P82" s="426"/>
+      <c r="Q82" s="426"/>
       <c r="R82" s="202"/>
       <c r="S82" s="202"/>
       <c r="T82" s="202"/>
@@ -18133,10 +18131,10 @@
         <v>519</v>
       </c>
       <c r="C83" s="209"/>
-      <c r="D83" s="420" t="s">
+      <c r="D83" s="435" t="s">
         <v>61</v>
       </c>
-      <c r="E83" s="420"/>
+      <c r="E83" s="435"/>
       <c r="F83" s="202"/>
       <c r="G83" s="208"/>
       <c r="H83" s="208"/>
@@ -18177,10 +18175,10 @@
         <v>520</v>
       </c>
       <c r="C84" s="209"/>
-      <c r="D84" s="420" t="s">
+      <c r="D84" s="435" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="420"/>
+      <c r="E84" s="435"/>
       <c r="F84" s="202"/>
       <c r="G84" s="208"/>
       <c r="H84" s="208"/>
@@ -18222,9 +18220,9 @@
       <c r="D85" s="202"/>
       <c r="E85" s="202"/>
       <c r="F85" s="202"/>
-      <c r="G85" s="413"/>
-      <c r="H85" s="413"/>
-      <c r="I85" s="413"/>
+      <c r="G85" s="428"/>
+      <c r="H85" s="428"/>
+      <c r="I85" s="428"/>
       <c r="J85" s="202"/>
       <c r="K85" s="202"/>
       <c r="L85" s="202"/>
@@ -18257,35 +18255,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="201"/>
-      <c r="B86" s="412" t="s">
+      <c r="B86" s="427" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="414"/>
-      <c r="D86" s="415"/>
-      <c r="E86" s="415"/>
-      <c r="F86" s="415"/>
-      <c r="G86" s="415"/>
-      <c r="H86" s="415"/>
-      <c r="I86" s="415"/>
-      <c r="J86" s="415"/>
-      <c r="K86" s="415"/>
-      <c r="L86" s="415"/>
-      <c r="M86" s="415"/>
-      <c r="N86" s="415"/>
-      <c r="O86" s="415"/>
-      <c r="P86" s="415"/>
-      <c r="Q86" s="415"/>
-      <c r="R86" s="415"/>
-      <c r="S86" s="415"/>
-      <c r="T86" s="415"/>
-      <c r="U86" s="415"/>
-      <c r="V86" s="415"/>
-      <c r="W86" s="415"/>
-      <c r="X86" s="415"/>
-      <c r="Y86" s="415"/>
-      <c r="Z86" s="415"/>
-      <c r="AA86" s="415"/>
-      <c r="AB86" s="416"/>
+      <c r="C86" s="429"/>
+      <c r="D86" s="430"/>
+      <c r="E86" s="430"/>
+      <c r="F86" s="430"/>
+      <c r="G86" s="430"/>
+      <c r="H86" s="430"/>
+      <c r="I86" s="430"/>
+      <c r="J86" s="430"/>
+      <c r="K86" s="430"/>
+      <c r="L86" s="430"/>
+      <c r="M86" s="430"/>
+      <c r="N86" s="430"/>
+      <c r="O86" s="430"/>
+      <c r="P86" s="430"/>
+      <c r="Q86" s="430"/>
+      <c r="R86" s="430"/>
+      <c r="S86" s="430"/>
+      <c r="T86" s="430"/>
+      <c r="U86" s="430"/>
+      <c r="V86" s="430"/>
+      <c r="W86" s="430"/>
+      <c r="X86" s="430"/>
+      <c r="Y86" s="430"/>
+      <c r="Z86" s="430"/>
+      <c r="AA86" s="430"/>
+      <c r="AB86" s="431"/>
       <c r="AC86" s="204"/>
       <c r="AD86" s="204"/>
       <c r="AE86" s="204"/>
@@ -18306,33 +18304,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="201"/>
-      <c r="B87" s="412"/>
-      <c r="C87" s="417"/>
-      <c r="D87" s="418"/>
-      <c r="E87" s="418"/>
-      <c r="F87" s="418"/>
-      <c r="G87" s="418"/>
-      <c r="H87" s="418"/>
-      <c r="I87" s="418"/>
-      <c r="J87" s="418"/>
-      <c r="K87" s="418"/>
-      <c r="L87" s="418"/>
-      <c r="M87" s="418"/>
-      <c r="N87" s="418"/>
-      <c r="O87" s="418"/>
-      <c r="P87" s="418"/>
-      <c r="Q87" s="418"/>
-      <c r="R87" s="418"/>
-      <c r="S87" s="418"/>
-      <c r="T87" s="418"/>
-      <c r="U87" s="418"/>
-      <c r="V87" s="418"/>
-      <c r="W87" s="418"/>
-      <c r="X87" s="418"/>
-      <c r="Y87" s="418"/>
-      <c r="Z87" s="418"/>
-      <c r="AA87" s="418"/>
-      <c r="AB87" s="419"/>
+      <c r="B87" s="427"/>
+      <c r="C87" s="432"/>
+      <c r="D87" s="433"/>
+      <c r="E87" s="433"/>
+      <c r="F87" s="433"/>
+      <c r="G87" s="433"/>
+      <c r="H87" s="433"/>
+      <c r="I87" s="433"/>
+      <c r="J87" s="433"/>
+      <c r="K87" s="433"/>
+      <c r="L87" s="433"/>
+      <c r="M87" s="433"/>
+      <c r="N87" s="433"/>
+      <c r="O87" s="433"/>
+      <c r="P87" s="433"/>
+      <c r="Q87" s="433"/>
+      <c r="R87" s="433"/>
+      <c r="S87" s="433"/>
+      <c r="T87" s="433"/>
+      <c r="U87" s="433"/>
+      <c r="V87" s="433"/>
+      <c r="W87" s="433"/>
+      <c r="X87" s="433"/>
+      <c r="Y87" s="433"/>
+      <c r="Z87" s="433"/>
+      <c r="AA87" s="433"/>
+      <c r="AB87" s="434"/>
       <c r="AC87" s="204"/>
       <c r="AD87" s="204"/>
       <c r="AE87" s="204"/>
@@ -37529,6 +37527,210 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="228">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A42:B74"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="C86:AB87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A75:B79"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="E2:AB3"/>
@@ -37553,210 +37755,6 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="C86:AB87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A75:B79"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A42:B74"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -37950,18 +37948,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37983,6 +37981,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -37996,12 +38002,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/loading/Vessel_1_Loading_Plan_Template.xlsx
@@ -2401,7 +2401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="643">
   <si>
     <t>TRIM</t>
   </si>
@@ -4340,10 +4340,10 @@
     <t>Composition Breakdown</t>
   </si>
   <si>
-    <t xml:space="preserve">    Slop Qty(OBS M3)</t>
-  </si>
-  <si>
     <t>${sheetOne.slopQuantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slop Qty(OBS M3)       :</t>
   </si>
 </sst>
 </file>
@@ -5144,7 +5144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="466">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5752,12 +5752,51 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5771,260 +5810,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6075,127 +5882,283 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6240,114 +6203,73 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6355,6 +6277,14 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -6364,47 +6294,68 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6473,70 +6424,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6661,7 +6658,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6715,7 +6712,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,7 +6766,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6823,7 +6820,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6877,7 +6874,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6928,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6985,7 +6982,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +7036,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7093,7 +7090,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7147,7 +7144,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,7 +7198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7251,7 +7248,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7305,7 +7302,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,7 +7356,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7413,7 +7410,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7467,7 +7464,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7521,7 +7518,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7575,7 +7572,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7960,12 +7957,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="248" t="s">
+      <c r="L3" s="345" t="s">
         <v>579</v>
       </c>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7985,13 +7982,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
+      <c r="H4" s="347"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -8018,13 +8015,13 @@
         <v>29</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="321" t="s">
+      <c r="D5" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -8042,13 +8039,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="271" t="s">
+      <c r="V5" s="336" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="271"/>
-      <c r="X5" s="271"/>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="271"/>
+      <c r="W5" s="336"/>
+      <c r="X5" s="336"/>
+      <c r="Y5" s="336"/>
+      <c r="Z5" s="336"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -8078,13 +8075,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="272" t="s">
+      <c r="V6" s="337" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="272"/>
-      <c r="X6" s="272"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="272"/>
+      <c r="W6" s="337"/>
+      <c r="X6" s="337"/>
+      <c r="Y6" s="337"/>
+      <c r="Z6" s="337"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -8093,24 +8090,24 @@
       <c r="B7" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="255" t="s">
+      <c r="C7" s="348" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="262" t="s">
+      <c r="D7" s="348"/>
+      <c r="E7" s="348"/>
+      <c r="F7" s="348"/>
+      <c r="G7" s="348"/>
+      <c r="H7" s="349" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="262"/>
-      <c r="J7" s="255" t="s">
+      <c r="I7" s="349"/>
+      <c r="J7" s="348" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
+      <c r="K7" s="348"/>
+      <c r="L7" s="348"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -8122,13 +8119,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="272" t="s">
+      <c r="V7" s="337" t="s">
         <v>64</v>
       </c>
-      <c r="W7" s="272"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
+      <c r="W7" s="337"/>
+      <c r="X7" s="337"/>
+      <c r="Y7" s="337"/>
+      <c r="Z7" s="337"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -8208,22 +8205,22 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="285" t="s">
+      <c r="P10" s="334" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="285"/>
-      <c r="S10" s="285"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
-      <c r="V10" s="285"/>
-      <c r="W10" s="285"/>
-      <c r="X10" s="339" t="s">
+      <c r="Q10" s="334"/>
+      <c r="R10" s="334"/>
+      <c r="S10" s="334"/>
+      <c r="T10" s="334"/>
+      <c r="U10" s="334"/>
+      <c r="V10" s="334"/>
+      <c r="W10" s="334"/>
+      <c r="X10" s="335" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="339"/>
-      <c r="Z10" s="339"/>
-      <c r="AA10" s="339"/>
+      <c r="Y10" s="335"/>
+      <c r="Z10" s="335"/>
+      <c r="AA10" s="335"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8246,21 +8243,21 @@
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
       <c r="O11" s="64"/>
-      <c r="P11" s="338" t="s">
+      <c r="P11" s="300" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="338"/>
-      <c r="R11" s="338"/>
-      <c r="S11" s="338"/>
-      <c r="T11" s="338"/>
-      <c r="U11" s="338"/>
-      <c r="V11" s="338"/>
-      <c r="W11" s="276" t="s">
+      <c r="Q11" s="300"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="300"/>
+      <c r="T11" s="300"/>
+      <c r="U11" s="300"/>
+      <c r="V11" s="300"/>
+      <c r="W11" s="340" t="s">
         <v>577</v>
       </c>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
+      <c r="X11" s="340"/>
+      <c r="Y11" s="340"/>
+      <c r="Z11" s="340"/>
       <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
@@ -8279,19 +8276,19 @@
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="275" t="s">
+      <c r="P12" s="339" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="275"/>
-      <c r="S12" s="275"/>
-      <c r="T12" s="275"/>
-      <c r="U12" s="275"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="275"/>
-      <c r="Z12" s="275"/>
+      <c r="Q12" s="339"/>
+      <c r="R12" s="339"/>
+      <c r="S12" s="339"/>
+      <c r="T12" s="339"/>
+      <c r="U12" s="339"/>
+      <c r="V12" s="339"/>
+      <c r="W12" s="339"/>
+      <c r="X12" s="339"/>
+      <c r="Y12" s="339"/>
+      <c r="Z12" s="339"/>
     </row>
     <row r="13" spans="1:32" s="65" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="66"/>
@@ -8352,8 +8349,8 @@
       <c r="G15" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="334"/>
-      <c r="I15" s="335"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="268"/>
       <c r="J15" s="75" t="s">
         <v>260</v>
       </c>
@@ -8361,8 +8358,8 @@
       <c r="L15" s="218" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="334"/>
-      <c r="N15" s="335"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
       <c r="O15" s="75" t="s">
         <v>262</v>
       </c>
@@ -8370,12 +8367,12 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="67"/>
       <c r="S15" s="67"/>
-      <c r="T15" s="274" t="s">
+      <c r="T15" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="274"/>
-      <c r="V15" s="274"/>
-      <c r="W15" s="274"/>
+      <c r="U15" s="332"/>
+      <c r="V15" s="332"/>
+      <c r="W15" s="332"/>
       <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="70"/>
@@ -8383,47 +8380,47 @@
     <row r="16" spans="1:32" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
-      <c r="C16" s="250" t="s">
+      <c r="C16" s="262" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="251"/>
-      <c r="E16" s="250" t="s">
+      <c r="D16" s="263"/>
+      <c r="E16" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="252"/>
-      <c r="G16" s="250" t="s">
+      <c r="F16" s="264"/>
+      <c r="G16" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="251"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="250" t="s">
+      <c r="H16" s="263"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="250" t="s">
+      <c r="K16" s="264"/>
+      <c r="L16" s="262" t="s">
         <v>191</v>
       </c>
-      <c r="M16" s="251"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="250" t="s">
+      <c r="M16" s="263"/>
+      <c r="N16" s="264"/>
+      <c r="O16" s="262" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="252"/>
+      <c r="P16" s="264"/>
       <c r="Q16" s="81"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="277" t="s">
+      <c r="T16" s="341" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="277"/>
-      <c r="V16" s="277"/>
-      <c r="W16" s="277"/>
+      <c r="U16" s="341"/>
+      <c r="V16" s="341"/>
+      <c r="W16" s="341"/>
       <c r="X16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="279" t="s">
+      <c r="Y16" s="324" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" s="279"/>
+      <c r="Z16" s="324"/>
       <c r="AF16" s="100"/>
     </row>
     <row r="17" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8444,10 +8441,10 @@
       <c r="G17" s="215" t="s">
         <v>275</v>
       </c>
-      <c r="H17" s="288" t="s">
+      <c r="H17" s="292" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="289"/>
+      <c r="I17" s="293"/>
       <c r="J17" s="82" t="s">
         <v>278</v>
       </c>
@@ -8457,10 +8454,10 @@
       <c r="L17" s="215" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="288" t="s">
+      <c r="M17" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="N17" s="289"/>
+      <c r="N17" s="293"/>
       <c r="O17" s="82" t="s">
         <v>284</v>
       </c>
@@ -8489,40 +8486,40 @@
     <row r="18" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="263" t="s">
+      <c r="C18" s="298" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="253"/>
-      <c r="E18" s="263" t="s">
+      <c r="D18" s="286"/>
+      <c r="E18" s="298" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="264"/>
-      <c r="G18" s="263" t="s">
+      <c r="F18" s="299"/>
+      <c r="G18" s="298" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="253"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="253" t="s">
+      <c r="H18" s="286"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="286" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="253"/>
-      <c r="L18" s="256" t="s">
+      <c r="K18" s="286"/>
+      <c r="L18" s="284" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="257"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="253" t="s">
+      <c r="M18" s="306"/>
+      <c r="N18" s="285"/>
+      <c r="O18" s="286" t="s">
         <v>221</v>
       </c>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="278" t="s">
+      <c r="P18" s="286"/>
+      <c r="Q18" s="330" t="s">
         <v>554</v>
       </c>
       <c r="S18" s="67"/>
-      <c r="T18" s="273"/>
-      <c r="U18" s="273"/>
-      <c r="V18" s="273"/>
-      <c r="W18" s="273"/>
+      <c r="T18" s="338"/>
+      <c r="U18" s="338"/>
+      <c r="V18" s="338"/>
+      <c r="W18" s="338"/>
       <c r="X18" s="78"/>
       <c r="Y18" s="86"/>
       <c r="Z18" s="70"/>
@@ -8551,10 +8548,10 @@
       <c r="G19" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="265" t="s">
+      <c r="H19" s="294" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="266"/>
+      <c r="I19" s="295"/>
       <c r="J19" s="219" t="s">
         <v>166</v>
       </c>
@@ -8564,22 +8561,22 @@
       <c r="L19" s="219" t="s">
         <v>194</v>
       </c>
-      <c r="M19" s="265" t="s">
+      <c r="M19" s="294" t="s">
         <v>195</v>
       </c>
-      <c r="N19" s="266"/>
+      <c r="N19" s="295"/>
       <c r="O19" s="222" t="s">
         <v>222</v>
       </c>
       <c r="P19" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="Q19" s="278"/>
+      <c r="Q19" s="330"/>
       <c r="S19" s="67"/>
-      <c r="T19" s="273"/>
-      <c r="U19" s="273"/>
-      <c r="V19" s="273"/>
-      <c r="W19" s="273"/>
+      <c r="T19" s="338"/>
+      <c r="U19" s="338"/>
+      <c r="V19" s="338"/>
+      <c r="W19" s="338"/>
       <c r="X19" s="78"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="70"/>
@@ -8596,24 +8593,24 @@
     </row>
     <row r="20" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="249" t="s">
+      <c r="B20" s="346" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="280" t="s">
+      <c r="D20" s="342" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="281"/>
-      <c r="F20" s="282"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="343"/>
       <c r="G20" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="267" t="s">
+      <c r="H20" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="268"/>
+      <c r="I20" s="297"/>
       <c r="J20" s="88" t="s">
         <v>276</v>
       </c>
@@ -8623,10 +8620,10 @@
       <c r="L20" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="M20" s="283" t="s">
+      <c r="M20" s="307" t="s">
         <v>168</v>
       </c>
-      <c r="N20" s="284"/>
+      <c r="N20" s="308"/>
       <c r="O20" s="91" t="s">
         <v>282</v>
       </c>
@@ -8635,48 +8632,48 @@
       </c>
       <c r="Q20" s="228"/>
       <c r="S20" s="67"/>
-      <c r="T20" s="273"/>
-      <c r="U20" s="273"/>
-      <c r="V20" s="273"/>
-      <c r="W20" s="273"/>
+      <c r="T20" s="338"/>
+      <c r="U20" s="338"/>
+      <c r="V20" s="338"/>
+      <c r="W20" s="338"/>
       <c r="X20" s="78"/>
       <c r="Y20" s="86"/>
       <c r="Z20" s="70"/>
       <c r="AA20" s="80"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="286" t="s">
+      <c r="AF20" s="322" t="s">
         <v>559</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="249"/>
-      <c r="C21" s="263" t="s">
+      <c r="B21" s="346"/>
+      <c r="C21" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="264"/>
-      <c r="G21" s="263" t="s">
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="298" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="253"/>
-      <c r="I21" s="264"/>
-      <c r="J21" s="256" t="s">
+      <c r="H21" s="286"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="284" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="258"/>
-      <c r="L21" s="256" t="s">
+      <c r="K21" s="285"/>
+      <c r="L21" s="284" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="257"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="256" t="s">
+      <c r="M21" s="306"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="284" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="258"/>
+      <c r="P21" s="285"/>
       <c r="Q21" s="229"/>
       <c r="S21" s="67"/>
       <c r="T21" s="67"/>
@@ -8689,7 +8686,7 @@
       <c r="AA21" s="80"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="286"/>
+      <c r="AF21" s="322"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
@@ -8698,18 +8695,18 @@
       <c r="C22" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="306" t="s">
+      <c r="D22" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="306"/>
-      <c r="F22" s="307"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
       <c r="G22" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="306" t="s">
+      <c r="H22" s="290" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="307"/>
+      <c r="I22" s="291"/>
       <c r="J22" s="225" t="s">
         <v>142</v>
       </c>
@@ -8719,10 +8716,10 @@
       <c r="L22" s="225" t="s">
         <v>170</v>
       </c>
-      <c r="M22" s="306" t="s">
+      <c r="M22" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="N22" s="307"/>
+      <c r="N22" s="291"/>
       <c r="O22" s="227" t="s">
         <v>198</v>
       </c>
@@ -8761,10 +8758,10 @@
       <c r="G23" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="H23" s="267" t="s">
+      <c r="H23" s="296" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="268"/>
+      <c r="I23" s="297"/>
       <c r="J23" s="88" t="s">
         <v>280</v>
       </c>
@@ -8774,10 +8771,10 @@
       <c r="L23" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="M23" s="267" t="s">
+      <c r="M23" s="296" t="s">
         <v>200</v>
       </c>
-      <c r="N23" s="268"/>
+      <c r="N23" s="297"/>
       <c r="O23" s="88" t="s">
         <v>285</v>
       </c>
@@ -8807,42 +8804,42 @@
     <row r="24" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
-      <c r="C24" s="263" t="s">
+      <c r="C24" s="298" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="263" t="s">
+      <c r="D24" s="286"/>
+      <c r="E24" s="298" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="253"/>
-      <c r="G24" s="259" t="s">
+      <c r="F24" s="286"/>
+      <c r="G24" s="287" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="260"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="263" t="s">
+      <c r="H24" s="288"/>
+      <c r="I24" s="289"/>
+      <c r="J24" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="253"/>
-      <c r="L24" s="259" t="s">
+      <c r="K24" s="286"/>
+      <c r="L24" s="287" t="s">
         <v>201</v>
       </c>
-      <c r="M24" s="260"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="263" t="s">
+      <c r="M24" s="288"/>
+      <c r="N24" s="289"/>
+      <c r="O24" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="P24" s="253"/>
-      <c r="Q24" s="278" t="s">
+      <c r="P24" s="286"/>
+      <c r="Q24" s="330" t="s">
         <v>552</v>
       </c>
       <c r="S24" s="67"/>
-      <c r="T24" s="291" t="s">
+      <c r="T24" s="270" t="s">
         <v>247</v>
       </c>
-      <c r="U24" s="291"/>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="270"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="95" t="s">
         <v>255</v>
@@ -8873,10 +8870,10 @@
       <c r="G25" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="269" t="s">
+      <c r="H25" s="304" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="270"/>
+      <c r="I25" s="305"/>
       <c r="J25" s="219" t="s">
         <v>174</v>
       </c>
@@ -8886,17 +8883,17 @@
       <c r="L25" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="M25" s="308" t="s">
+      <c r="M25" s="328" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="309"/>
+      <c r="N25" s="329"/>
       <c r="O25" s="219" t="s">
         <v>226</v>
       </c>
       <c r="P25" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="Q25" s="278"/>
+      <c r="Q25" s="330"/>
       <c r="S25" s="67"/>
       <c r="T25" s="67"/>
       <c r="U25" s="67"/>
@@ -8926,8 +8923,8 @@
       <c r="G26" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="336"/>
-      <c r="I26" s="337"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="266"/>
       <c r="J26" s="96" t="s">
         <v>266</v>
       </c>
@@ -8935,19 +8932,19 @@
       <c r="L26" s="217" t="s">
         <v>267</v>
       </c>
-      <c r="M26" s="336"/>
-      <c r="N26" s="337"/>
+      <c r="M26" s="265"/>
+      <c r="N26" s="266"/>
       <c r="O26" s="72" t="s">
         <v>268</v>
       </c>
       <c r="P26" s="99"/>
       <c r="Q26" s="81"/>
       <c r="S26" s="67"/>
-      <c r="T26" s="290" t="s">
+      <c r="T26" s="331" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
+      <c r="U26" s="331"/>
+      <c r="V26" s="331"/>
       <c r="W26" s="70" t="s">
         <v>8</v>
       </c>
@@ -8966,40 +8963,40 @@
     <row r="27" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="80"/>
       <c r="B27" s="71"/>
-      <c r="C27" s="250" t="s">
+      <c r="C27" s="262" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="251"/>
-      <c r="E27" s="250" t="s">
+      <c r="D27" s="263"/>
+      <c r="E27" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="251"/>
-      <c r="G27" s="250" t="s">
+      <c r="F27" s="263"/>
+      <c r="G27" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="251"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="250" t="s">
+      <c r="H27" s="263"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="262" t="s">
         <v>176</v>
       </c>
-      <c r="K27" s="251"/>
-      <c r="L27" s="250" t="s">
+      <c r="K27" s="263"/>
+      <c r="L27" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="251"/>
-      <c r="N27" s="252"/>
-      <c r="O27" s="250" t="s">
+      <c r="M27" s="263"/>
+      <c r="N27" s="264"/>
+      <c r="O27" s="262" t="s">
         <v>228</v>
       </c>
-      <c r="P27" s="252"/>
+      <c r="P27" s="264"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="67"/>
       <c r="S27" s="69"/>
-      <c r="T27" s="290" t="s">
+      <c r="T27" s="331" t="s">
         <v>67</v>
       </c>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
+      <c r="U27" s="331"/>
+      <c r="V27" s="331"/>
       <c r="W27" s="70" t="s">
         <v>8</v>
       </c>
@@ -9035,11 +9032,11 @@
       <c r="Q28" s="100"/>
       <c r="R28" s="67"/>
       <c r="S28" s="69"/>
-      <c r="T28" s="291" t="s">
+      <c r="T28" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="291"/>
-      <c r="V28" s="291"/>
+      <c r="U28" s="270"/>
+      <c r="V28" s="270"/>
       <c r="W28" s="70" t="s">
         <v>8</v>
       </c>
@@ -9158,12 +9155,12 @@
       <c r="Q31" s="63"/>
       <c r="R31" s="103"/>
       <c r="S31" s="107"/>
-      <c r="T31" s="274" t="s">
+      <c r="T31" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="U31" s="274"/>
-      <c r="V31" s="274"/>
-      <c r="W31" s="274"/>
+      <c r="U31" s="332"/>
+      <c r="V31" s="332"/>
+      <c r="W31" s="332"/>
       <c r="X31" s="105"/>
       <c r="Y31" s="106"/>
       <c r="Z31" s="70"/>
@@ -9194,32 +9191,32 @@
       <c r="Q32" s="108"/>
       <c r="R32" s="108"/>
       <c r="S32" s="108"/>
-      <c r="T32" s="292" t="s">
+      <c r="T32" s="333" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="292"/>
-      <c r="V32" s="292"/>
-      <c r="W32" s="292"/>
+      <c r="U32" s="333"/>
+      <c r="V32" s="333"/>
+      <c r="W32" s="333"/>
       <c r="X32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="279" t="s">
+      <c r="Y32" s="324" t="s">
         <v>76</v>
       </c>
-      <c r="Z32" s="279"/>
+      <c r="Z32" s="324"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="294"/>
-      <c r="AK32" s="294"/>
+      <c r="AJ32" s="321"/>
+      <c r="AK32" s="321"/>
       <c r="AL32" s="110"/>
       <c r="AM32" s="110"/>
       <c r="AN32" s="110"/>
-      <c r="AO32" s="294"/>
-      <c r="AP32" s="294"/>
+      <c r="AO32" s="321"/>
+      <c r="AP32" s="321"/>
       <c r="AQ32" s="110"/>
       <c r="AR32" s="110"/>
       <c r="AS32" s="110"/>
@@ -9238,8 +9235,8 @@
       <c r="G33" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="H33" s="334"/>
-      <c r="I33" s="335"/>
+      <c r="H33" s="267"/>
+      <c r="I33" s="268"/>
       <c r="J33" s="212" t="s">
         <v>289</v>
       </c>
@@ -9247,8 +9244,8 @@
       <c r="L33" s="218" t="s">
         <v>290</v>
       </c>
-      <c r="M33" s="334"/>
-      <c r="N33" s="335"/>
+      <c r="M33" s="267"/>
+      <c r="N33" s="268"/>
       <c r="O33" s="212" t="s">
         <v>291</v>
       </c>
@@ -9270,46 +9267,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="287"/>
-      <c r="AK33" s="287"/>
-      <c r="AL33" s="287"/>
-      <c r="AM33" s="287"/>
-      <c r="AN33" s="287"/>
-      <c r="AO33" s="287"/>
-      <c r="AP33" s="287"/>
-      <c r="AQ33" s="287"/>
-      <c r="AR33" s="287"/>
-      <c r="AS33" s="287"/>
+      <c r="AJ33" s="320"/>
+      <c r="AK33" s="320"/>
+      <c r="AL33" s="320"/>
+      <c r="AM33" s="320"/>
+      <c r="AN33" s="320"/>
+      <c r="AO33" s="320"/>
+      <c r="AP33" s="320"/>
+      <c r="AQ33" s="320"/>
+      <c r="AR33" s="320"/>
+      <c r="AS33" s="320"/>
     </row>
     <row r="34" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="113"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="250" t="s">
+      <c r="C34" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="252"/>
-      <c r="E34" s="250" t="s">
+      <c r="D34" s="264"/>
+      <c r="E34" s="262" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="252"/>
-      <c r="G34" s="250" t="s">
+      <c r="F34" s="264"/>
+      <c r="G34" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="251"/>
-      <c r="I34" s="252"/>
-      <c r="J34" s="250" t="s">
+      <c r="H34" s="263"/>
+      <c r="I34" s="264"/>
+      <c r="J34" s="262" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="252"/>
-      <c r="L34" s="250" t="s">
+      <c r="K34" s="264"/>
+      <c r="L34" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="251"/>
-      <c r="N34" s="252"/>
-      <c r="O34" s="250" t="s">
+      <c r="M34" s="263"/>
+      <c r="N34" s="264"/>
+      <c r="O34" s="262" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="252"/>
+      <c r="P34" s="264"/>
       <c r="Q34" s="81"/>
       <c r="S34" s="111"/>
       <c r="T34" s="112"/>
@@ -9327,13 +9324,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="295"/>
-      <c r="AK34" s="295"/>
+      <c r="AJ34" s="325"/>
+      <c r="AK34" s="325"/>
       <c r="AL34" s="115"/>
       <c r="AM34" s="114"/>
       <c r="AN34" s="115"/>
-      <c r="AO34" s="295"/>
-      <c r="AP34" s="295"/>
+      <c r="AO34" s="325"/>
+      <c r="AP34" s="325"/>
       <c r="AQ34" s="115"/>
       <c r="AR34" s="114"/>
       <c r="AS34" s="115"/>
@@ -9356,10 +9353,10 @@
       <c r="G35" s="215" t="s">
         <v>294</v>
       </c>
-      <c r="H35" s="288" t="s">
+      <c r="H35" s="292" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="289"/>
+      <c r="I35" s="293"/>
       <c r="J35" s="215" t="s">
         <v>295</v>
       </c>
@@ -9369,10 +9366,10 @@
       <c r="L35" s="215" t="s">
         <v>296</v>
       </c>
-      <c r="M35" s="288" t="s">
+      <c r="M35" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="N35" s="289"/>
+      <c r="N35" s="293"/>
       <c r="O35" s="215" t="s">
         <v>297</v>
       </c>
@@ -9401,47 +9398,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="287"/>
-      <c r="AK35" s="287"/>
-      <c r="AL35" s="287"/>
-      <c r="AM35" s="287"/>
-      <c r="AN35" s="287"/>
-      <c r="AO35" s="260"/>
-      <c r="AP35" s="260"/>
-      <c r="AQ35" s="260"/>
-      <c r="AR35" s="296"/>
-      <c r="AS35" s="296"/>
+      <c r="AJ35" s="320"/>
+      <c r="AK35" s="320"/>
+      <c r="AL35" s="320"/>
+      <c r="AM35" s="320"/>
+      <c r="AN35" s="320"/>
+      <c r="AO35" s="288"/>
+      <c r="AP35" s="288"/>
+      <c r="AQ35" s="288"/>
+      <c r="AR35" s="326"/>
+      <c r="AS35" s="326"/>
     </row>
     <row r="36" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="113"/>
       <c r="B36" s="81"/>
-      <c r="C36" s="263" t="s">
+      <c r="C36" s="298" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="264"/>
-      <c r="E36" s="263" t="s">
+      <c r="D36" s="299"/>
+      <c r="E36" s="298" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="264"/>
-      <c r="G36" s="263" t="s">
+      <c r="F36" s="299"/>
+      <c r="G36" s="298" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="253"/>
-      <c r="I36" s="264"/>
-      <c r="J36" s="263" t="s">
+      <c r="H36" s="286"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="298" t="s">
         <v>179</v>
       </c>
-      <c r="K36" s="264"/>
-      <c r="L36" s="256" t="s">
+      <c r="K36" s="299"/>
+      <c r="L36" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="M36" s="257"/>
-      <c r="N36" s="258"/>
-      <c r="O36" s="263" t="s">
+      <c r="M36" s="306"/>
+      <c r="N36" s="285"/>
+      <c r="O36" s="298" t="s">
         <v>231</v>
       </c>
-      <c r="P36" s="264"/>
-      <c r="Q36" s="278" t="s">
+      <c r="P36" s="299"/>
+      <c r="Q36" s="330" t="s">
         <v>555</v>
       </c>
       <c r="S36" s="111"/>
@@ -9491,10 +9488,10 @@
       <c r="G37" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="265" t="s">
+      <c r="H37" s="294" t="s">
         <v>153</v>
       </c>
-      <c r="I37" s="266"/>
+      <c r="I37" s="295"/>
       <c r="J37" s="219" t="s">
         <v>180</v>
       </c>
@@ -9504,17 +9501,17 @@
       <c r="L37" s="219" t="s">
         <v>208</v>
       </c>
-      <c r="M37" s="265" t="s">
+      <c r="M37" s="294" t="s">
         <v>209</v>
       </c>
-      <c r="N37" s="266"/>
+      <c r="N37" s="295"/>
       <c r="O37" s="222" t="s">
         <v>232</v>
       </c>
       <c r="P37" s="220" t="s">
         <v>233</v>
       </c>
-      <c r="Q37" s="278"/>
+      <c r="Q37" s="330"/>
       <c r="S37" s="121"/>
       <c r="T37" s="112"/>
       <c r="U37" s="112"/>
@@ -9533,37 +9530,37 @@
       <c r="AG37" s="232"/>
       <c r="AH37" s="232"/>
       <c r="AI37" s="232"/>
-      <c r="AJ37" s="293"/>
-      <c r="AK37" s="293"/>
+      <c r="AJ37" s="323"/>
+      <c r="AK37" s="323"/>
       <c r="AL37" s="115"/>
       <c r="AM37" s="93"/>
       <c r="AN37" s="116"/>
       <c r="AO37" s="93"/>
-      <c r="AP37" s="297"/>
-      <c r="AQ37" s="297"/>
+      <c r="AP37" s="327"/>
+      <c r="AQ37" s="327"/>
       <c r="AR37" s="93"/>
       <c r="AS37" s="115"/>
     </row>
     <row r="38" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="113"/>
-      <c r="B38" s="249" t="s">
+      <c r="B38" s="346" t="s">
         <v>238</v>
       </c>
       <c r="C38" s="213" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="281" t="s">
+      <c r="D38" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="281"/>
+      <c r="E38" s="309"/>
       <c r="F38" s="310"/>
       <c r="G38" s="216" t="s">
         <v>299</v>
       </c>
-      <c r="H38" s="267" t="s">
+      <c r="H38" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="268"/>
+      <c r="I38" s="297"/>
       <c r="J38" s="213" t="s">
         <v>300</v>
       </c>
@@ -9573,10 +9570,10 @@
       <c r="L38" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="M38" s="283" t="s">
+      <c r="M38" s="307" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="284"/>
+      <c r="N38" s="308"/>
       <c r="O38" s="91" t="s">
         <v>302</v>
       </c>
@@ -9592,50 +9589,50 @@
       <c r="X38" s="67"/>
       <c r="Y38" s="122"/>
       <c r="Z38" s="67"/>
-      <c r="AF38" s="286" t="s">
+      <c r="AF38" s="322" t="s">
         <v>566</v>
       </c>
       <c r="AG38" s="231"/>
       <c r="AH38" s="231"/>
       <c r="AI38" s="231"/>
-      <c r="AJ38" s="287"/>
-      <c r="AK38" s="287"/>
-      <c r="AL38" s="287"/>
-      <c r="AM38" s="260"/>
-      <c r="AN38" s="260"/>
-      <c r="AO38" s="260"/>
-      <c r="AP38" s="260"/>
-      <c r="AQ38" s="260"/>
-      <c r="AR38" s="260"/>
-      <c r="AS38" s="260"/>
+      <c r="AJ38" s="320"/>
+      <c r="AK38" s="320"/>
+      <c r="AL38" s="320"/>
+      <c r="AM38" s="288"/>
+      <c r="AN38" s="288"/>
+      <c r="AO38" s="288"/>
+      <c r="AP38" s="288"/>
+      <c r="AQ38" s="288"/>
+      <c r="AR38" s="288"/>
+      <c r="AS38" s="288"/>
     </row>
     <row r="39" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="113"/>
-      <c r="B39" s="249"/>
-      <c r="C39" s="263" t="s">
+      <c r="B39" s="346"/>
+      <c r="C39" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="264"/>
-      <c r="G39" s="263" t="s">
+      <c r="D39" s="286"/>
+      <c r="E39" s="286"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="298" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="253"/>
-      <c r="I39" s="264"/>
-      <c r="J39" s="256" t="s">
+      <c r="H39" s="286"/>
+      <c r="I39" s="299"/>
+      <c r="J39" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="s">
+      <c r="K39" s="285"/>
+      <c r="L39" s="284" t="s">
         <v>183</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="258"/>
-      <c r="O39" s="256" t="s">
+      <c r="M39" s="306"/>
+      <c r="N39" s="285"/>
+      <c r="O39" s="284" t="s">
         <v>211</v>
       </c>
-      <c r="P39" s="258"/>
+      <c r="P39" s="285"/>
       <c r="Q39" s="229"/>
       <c r="S39" s="121"/>
       <c r="T39" s="69" t="s">
@@ -9647,7 +9644,7 @@
       <c r="X39" s="67"/>
       <c r="Y39" s="122"/>
       <c r="Z39" s="70"/>
-      <c r="AF39" s="286"/>
+      <c r="AF39" s="322"/>
       <c r="AG39" s="233"/>
       <c r="AH39" s="233"/>
       <c r="AI39" s="120"/>
@@ -9668,18 +9665,18 @@
       <c r="C40" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="306" t="s">
+      <c r="D40" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="306"/>
-      <c r="F40" s="307"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="291"/>
       <c r="G40" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="306" t="s">
+      <c r="H40" s="290" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="307"/>
+      <c r="I40" s="291"/>
       <c r="J40" s="225" t="s">
         <v>156</v>
       </c>
@@ -9689,10 +9686,10 @@
       <c r="L40" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="M40" s="306" t="s">
+      <c r="M40" s="290" t="s">
         <v>185</v>
       </c>
-      <c r="N40" s="307"/>
+      <c r="N40" s="291"/>
       <c r="O40" s="227" t="s">
         <v>212</v>
       </c>
@@ -9701,12 +9698,12 @@
       </c>
       <c r="Q40" s="94"/>
       <c r="S40" s="63"/>
-      <c r="T40" s="291" t="s">
+      <c r="T40" s="270" t="s">
         <v>247</v>
       </c>
-      <c r="U40" s="291"/>
-      <c r="V40" s="291"/>
-      <c r="W40" s="291"/>
+      <c r="U40" s="270"/>
+      <c r="V40" s="270"/>
+      <c r="W40" s="270"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="123" t="s">
         <v>77</v>
@@ -9716,13 +9713,13 @@
       <c r="AG40" s="115"/>
       <c r="AH40" s="233"/>
       <c r="AI40" s="232"/>
-      <c r="AJ40" s="293"/>
-      <c r="AK40" s="293"/>
+      <c r="AJ40" s="323"/>
+      <c r="AK40" s="323"/>
       <c r="AL40" s="115"/>
       <c r="AM40" s="93"/>
       <c r="AN40" s="115"/>
-      <c r="AO40" s="293"/>
-      <c r="AP40" s="293"/>
+      <c r="AO40" s="323"/>
+      <c r="AP40" s="323"/>
       <c r="AQ40" s="115"/>
       <c r="AR40" s="93"/>
       <c r="AS40" s="115"/>
@@ -9745,10 +9742,10 @@
       <c r="G41" s="216" t="s">
         <v>305</v>
       </c>
-      <c r="H41" s="267" t="s">
+      <c r="H41" s="296" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="268"/>
+      <c r="I41" s="297"/>
       <c r="J41" s="213" t="s">
         <v>306</v>
       </c>
@@ -9758,10 +9755,10 @@
       <c r="L41" s="216" t="s">
         <v>307</v>
       </c>
-      <c r="M41" s="267" t="s">
+      <c r="M41" s="296" t="s">
         <v>214</v>
       </c>
-      <c r="N41" s="268"/>
+      <c r="N41" s="297"/>
       <c r="O41" s="213" t="s">
         <v>308</v>
       </c>
@@ -9783,55 +9780,55 @@
       <c r="AG41" s="230"/>
       <c r="AH41" s="230"/>
       <c r="AI41" s="230"/>
-      <c r="AJ41" s="260"/>
-      <c r="AK41" s="260"/>
-      <c r="AL41" s="260"/>
-      <c r="AM41" s="287"/>
-      <c r="AN41" s="287"/>
-      <c r="AO41" s="260"/>
-      <c r="AP41" s="260"/>
-      <c r="AQ41" s="260"/>
-      <c r="AR41" s="260"/>
-      <c r="AS41" s="260"/>
+      <c r="AJ41" s="288"/>
+      <c r="AK41" s="288"/>
+      <c r="AL41" s="288"/>
+      <c r="AM41" s="320"/>
+      <c r="AN41" s="320"/>
+      <c r="AO41" s="288"/>
+      <c r="AP41" s="288"/>
+      <c r="AQ41" s="288"/>
+      <c r="AR41" s="288"/>
+      <c r="AS41" s="288"/>
     </row>
     <row r="42" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="113"/>
       <c r="B42" s="81"/>
-      <c r="C42" s="263" t="s">
+      <c r="C42" s="298" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="264"/>
-      <c r="E42" s="263" t="s">
+      <c r="D42" s="299"/>
+      <c r="E42" s="298" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="264"/>
-      <c r="G42" s="259" t="s">
+      <c r="F42" s="299"/>
+      <c r="G42" s="287" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="260"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="263" t="s">
+      <c r="H42" s="288"/>
+      <c r="I42" s="289"/>
+      <c r="J42" s="298" t="s">
         <v>187</v>
       </c>
-      <c r="K42" s="264"/>
-      <c r="L42" s="259" t="s">
+      <c r="K42" s="299"/>
+      <c r="L42" s="287" t="s">
         <v>215</v>
       </c>
-      <c r="M42" s="260"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="263" t="s">
+      <c r="M42" s="288"/>
+      <c r="N42" s="289"/>
+      <c r="O42" s="298" t="s">
         <v>235</v>
       </c>
-      <c r="P42" s="264"/>
-      <c r="Q42" s="278" t="s">
+      <c r="P42" s="299"/>
+      <c r="Q42" s="330" t="s">
         <v>553</v>
       </c>
       <c r="S42" s="67"/>
-      <c r="T42" s="290" t="s">
+      <c r="T42" s="331" t="s">
         <v>39</v>
       </c>
-      <c r="U42" s="290"/>
-      <c r="V42" s="290"/>
+      <c r="U42" s="331"/>
+      <c r="V42" s="331"/>
       <c r="W42" s="70" t="s">
         <v>8</v>
       </c>
@@ -9873,10 +9870,10 @@
       <c r="G43" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="269" t="s">
+      <c r="H43" s="304" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="270"/>
+      <c r="I43" s="305"/>
       <c r="J43" s="219" t="s">
         <v>188</v>
       </c>
@@ -9886,23 +9883,23 @@
       <c r="L43" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="M43" s="265" t="s">
+      <c r="M43" s="294" t="s">
         <v>217</v>
       </c>
-      <c r="N43" s="266"/>
+      <c r="N43" s="295"/>
       <c r="O43" s="219" t="s">
         <v>236</v>
       </c>
       <c r="P43" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="Q43" s="278"/>
+      <c r="Q43" s="330"/>
       <c r="S43" s="67"/>
-      <c r="T43" s="290" t="s">
+      <c r="T43" s="331" t="s">
         <v>67</v>
       </c>
-      <c r="U43" s="290"/>
-      <c r="V43" s="290"/>
+      <c r="U43" s="331"/>
+      <c r="V43" s="331"/>
       <c r="W43" s="70" t="s">
         <v>8</v>
       </c>
@@ -9915,13 +9912,13 @@
       <c r="AG43" s="234"/>
       <c r="AH43" s="234"/>
       <c r="AI43" s="234"/>
-      <c r="AJ43" s="294"/>
-      <c r="AK43" s="294"/>
+      <c r="AJ43" s="321"/>
+      <c r="AK43" s="321"/>
       <c r="AL43" s="110"/>
       <c r="AM43" s="110"/>
       <c r="AN43" s="110"/>
-      <c r="AO43" s="294"/>
-      <c r="AP43" s="294"/>
+      <c r="AO43" s="321"/>
+      <c r="AP43" s="321"/>
       <c r="AQ43" s="110"/>
       <c r="AR43" s="110"/>
       <c r="AS43" s="110"/>
@@ -9940,8 +9937,8 @@
       <c r="G44" s="218" t="s">
         <v>311</v>
       </c>
-      <c r="H44" s="334"/>
-      <c r="I44" s="335"/>
+      <c r="H44" s="267"/>
+      <c r="I44" s="268"/>
       <c r="J44" s="96" t="s">
         <v>312</v>
       </c>
@@ -9949,19 +9946,19 @@
       <c r="L44" s="218" t="s">
         <v>313</v>
       </c>
-      <c r="M44" s="334"/>
-      <c r="N44" s="335"/>
+      <c r="M44" s="267"/>
+      <c r="N44" s="268"/>
       <c r="O44" s="72" t="s">
         <v>314</v>
       </c>
       <c r="P44" s="99"/>
       <c r="Q44" s="81"/>
       <c r="S44" s="67"/>
-      <c r="T44" s="291" t="s">
+      <c r="T44" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="U44" s="291"/>
-      <c r="V44" s="291"/>
+      <c r="U44" s="270"/>
+      <c r="V44" s="270"/>
       <c r="W44" s="70" t="s">
         <v>8</v>
       </c>
@@ -9977,46 +9974,46 @@
       <c r="AG44" s="231"/>
       <c r="AH44" s="231"/>
       <c r="AI44" s="231"/>
-      <c r="AJ44" s="287"/>
-      <c r="AK44" s="287"/>
-      <c r="AL44" s="287"/>
-      <c r="AM44" s="287"/>
-      <c r="AN44" s="287"/>
-      <c r="AO44" s="287"/>
-      <c r="AP44" s="287"/>
-      <c r="AQ44" s="287"/>
-      <c r="AR44" s="287"/>
-      <c r="AS44" s="287"/>
+      <c r="AJ44" s="320"/>
+      <c r="AK44" s="320"/>
+      <c r="AL44" s="320"/>
+      <c r="AM44" s="320"/>
+      <c r="AN44" s="320"/>
+      <c r="AO44" s="320"/>
+      <c r="AP44" s="320"/>
+      <c r="AQ44" s="320"/>
+      <c r="AR44" s="320"/>
+      <c r="AS44" s="320"/>
     </row>
     <row r="45" spans="1:45" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="80"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="250" t="s">
+      <c r="C45" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="252"/>
-      <c r="E45" s="250" t="s">
+      <c r="D45" s="264"/>
+      <c r="E45" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="252"/>
-      <c r="G45" s="250" t="s">
+      <c r="F45" s="264"/>
+      <c r="G45" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="251"/>
-      <c r="I45" s="252"/>
-      <c r="J45" s="250" t="s">
+      <c r="H45" s="263"/>
+      <c r="I45" s="264"/>
+      <c r="J45" s="262" t="s">
         <v>190</v>
       </c>
-      <c r="K45" s="252"/>
-      <c r="L45" s="250" t="s">
+      <c r="K45" s="264"/>
+      <c r="L45" s="262" t="s">
         <v>218</v>
       </c>
-      <c r="M45" s="251"/>
-      <c r="N45" s="252"/>
-      <c r="O45" s="250" t="s">
+      <c r="M45" s="263"/>
+      <c r="N45" s="264"/>
+      <c r="O45" s="262" t="s">
         <v>315</v>
       </c>
-      <c r="P45" s="252"/>
+      <c r="P45" s="264"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="67"/>
       <c r="S45" s="69"/>
@@ -10031,18 +10028,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="126"/>
-      <c r="C46" s="315"/>
-      <c r="D46" s="315"/>
-      <c r="E46" s="315"/>
-      <c r="F46" s="315"/>
-      <c r="G46" s="315"/>
-      <c r="H46" s="315"/>
-      <c r="I46" s="315"/>
-      <c r="J46" s="315"/>
-      <c r="K46" s="315"/>
-      <c r="L46" s="315"/>
-      <c r="M46" s="315"/>
-      <c r="N46" s="315"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="261"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="261"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="261"/>
+      <c r="M46" s="261"/>
+      <c r="N46" s="261"/>
       <c r="O46" s="109"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
@@ -10099,20 +10096,20 @@
       <c r="F48" s="128"/>
       <c r="G48" s="128"/>
       <c r="H48" s="128"/>
-      <c r="I48" s="314"/>
-      <c r="J48" s="314"/>
-      <c r="K48" s="314"/>
-      <c r="L48" s="314"/>
-      <c r="M48" s="322" t="s">
+      <c r="I48" s="319"/>
+      <c r="J48" s="319"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="319"/>
+      <c r="M48" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="323"/>
-      <c r="O48" s="323"/>
-      <c r="P48" s="323"/>
-      <c r="Q48" s="323"/>
-      <c r="R48" s="323"/>
-      <c r="S48" s="323"/>
-      <c r="T48" s="324"/>
+      <c r="N48" s="273"/>
+      <c r="O48" s="273"/>
+      <c r="P48" s="273"/>
+      <c r="Q48" s="273"/>
+      <c r="R48" s="273"/>
+      <c r="S48" s="273"/>
+      <c r="T48" s="274"/>
       <c r="U48" s="131"/>
       <c r="V48" s="131"/>
       <c r="W48" s="131"/>
@@ -10133,22 +10130,22 @@
       <c r="F49" s="134"/>
       <c r="G49" s="134"/>
       <c r="H49" s="135"/>
-      <c r="I49" s="320" t="s">
+      <c r="I49" s="269" t="s">
         <v>249</v>
       </c>
-      <c r="J49" s="320"/>
-      <c r="K49" s="320"/>
-      <c r="L49" s="320"/>
-      <c r="M49" s="325" t="s">
+      <c r="J49" s="269"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="275" t="s">
         <v>256</v>
       </c>
-      <c r="N49" s="326"/>
-      <c r="O49" s="326"/>
-      <c r="P49" s="326"/>
-      <c r="Q49" s="326"/>
-      <c r="R49" s="326"/>
-      <c r="S49" s="326"/>
-      <c r="T49" s="327"/>
+      <c r="N49" s="276"/>
+      <c r="O49" s="276"/>
+      <c r="P49" s="276"/>
+      <c r="Q49" s="276"/>
+      <c r="R49" s="276"/>
+      <c r="S49" s="276"/>
+      <c r="T49" s="277"/>
       <c r="U49" s="131"/>
       <c r="V49" s="131"/>
       <c r="W49" s="131"/>
@@ -10169,20 +10166,20 @@
       <c r="F50" s="134"/>
       <c r="G50" s="134"/>
       <c r="H50" s="135"/>
-      <c r="I50" s="320" t="s">
+      <c r="I50" s="269" t="s">
         <v>250</v>
       </c>
-      <c r="J50" s="320"/>
-      <c r="K50" s="320"/>
-      <c r="L50" s="320"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
-      <c r="P50" s="329"/>
-      <c r="Q50" s="329"/>
-      <c r="R50" s="329"/>
-      <c r="S50" s="329"/>
-      <c r="T50" s="330"/>
+      <c r="J50" s="269"/>
+      <c r="K50" s="269"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="278"/>
+      <c r="N50" s="279"/>
+      <c r="O50" s="279"/>
+      <c r="P50" s="279"/>
+      <c r="Q50" s="279"/>
+      <c r="R50" s="279"/>
+      <c r="S50" s="279"/>
+      <c r="T50" s="280"/>
       <c r="U50" s="132"/>
       <c r="V50" s="131"/>
       <c r="W50" s="131"/>
@@ -10203,20 +10200,20 @@
       <c r="F51" s="134"/>
       <c r="G51" s="134"/>
       <c r="H51" s="135"/>
-      <c r="I51" s="320" t="s">
+      <c r="I51" s="269" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="320"/>
-      <c r="K51" s="320"/>
-      <c r="L51" s="320"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="329"/>
-      <c r="R51" s="329"/>
-      <c r="S51" s="329"/>
-      <c r="T51" s="330"/>
+      <c r="J51" s="269"/>
+      <c r="K51" s="269"/>
+      <c r="L51" s="269"/>
+      <c r="M51" s="278"/>
+      <c r="N51" s="279"/>
+      <c r="O51" s="279"/>
+      <c r="P51" s="279"/>
+      <c r="Q51" s="279"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="279"/>
+      <c r="T51" s="280"/>
       <c r="U51" s="132"/>
       <c r="V51" s="131"/>
       <c r="W51" s="131"/>
@@ -10237,20 +10234,20 @@
       <c r="F52" s="134"/>
       <c r="G52" s="134"/>
       <c r="H52" s="135"/>
-      <c r="I52" s="320" t="s">
+      <c r="I52" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="J52" s="320"/>
-      <c r="K52" s="320"/>
-      <c r="L52" s="320"/>
-      <c r="M52" s="328"/>
-      <c r="N52" s="329"/>
-      <c r="O52" s="329"/>
-      <c r="P52" s="329"/>
-      <c r="Q52" s="329"/>
-      <c r="R52" s="329"/>
-      <c r="S52" s="329"/>
-      <c r="T52" s="330"/>
+      <c r="J52" s="269"/>
+      <c r="K52" s="269"/>
+      <c r="L52" s="269"/>
+      <c r="M52" s="278"/>
+      <c r="N52" s="279"/>
+      <c r="O52" s="279"/>
+      <c r="P52" s="279"/>
+      <c r="Q52" s="279"/>
+      <c r="R52" s="279"/>
+      <c r="S52" s="279"/>
+      <c r="T52" s="280"/>
       <c r="U52" s="132"/>
       <c r="V52" s="131"/>
       <c r="W52" s="131"/>
@@ -10271,20 +10268,20 @@
       <c r="F53" s="134"/>
       <c r="G53" s="134"/>
       <c r="H53" s="135"/>
-      <c r="I53" s="320" t="s">
+      <c r="I53" s="269" t="s">
         <v>251</v>
       </c>
-      <c r="J53" s="320"/>
-      <c r="K53" s="320"/>
-      <c r="L53" s="320"/>
-      <c r="M53" s="328"/>
-      <c r="N53" s="329"/>
-      <c r="O53" s="329"/>
-      <c r="P53" s="329"/>
-      <c r="Q53" s="329"/>
-      <c r="R53" s="329"/>
-      <c r="S53" s="329"/>
-      <c r="T53" s="330"/>
+      <c r="J53" s="269"/>
+      <c r="K53" s="269"/>
+      <c r="L53" s="269"/>
+      <c r="M53" s="278"/>
+      <c r="N53" s="279"/>
+      <c r="O53" s="279"/>
+      <c r="P53" s="279"/>
+      <c r="Q53" s="279"/>
+      <c r="R53" s="279"/>
+      <c r="S53" s="279"/>
+      <c r="T53" s="280"/>
       <c r="U53" s="132"/>
       <c r="V53" s="131"/>
       <c r="W53" s="131"/>
@@ -10296,29 +10293,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="130"/>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="312"/>
-      <c r="D54" s="312"/>
-      <c r="E54" s="312"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="312"/>
-      <c r="H54" s="313"/>
-      <c r="I54" s="319" t="s">
+      <c r="C54" s="317"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="317"/>
+      <c r="F54" s="317"/>
+      <c r="G54" s="317"/>
+      <c r="H54" s="318"/>
+      <c r="I54" s="301" t="s">
         <v>254</v>
       </c>
-      <c r="J54" s="319"/>
-      <c r="K54" s="319"/>
-      <c r="L54" s="319"/>
-      <c r="M54" s="328"/>
-      <c r="N54" s="329"/>
-      <c r="O54" s="329"/>
-      <c r="P54" s="329"/>
-      <c r="Q54" s="329"/>
-      <c r="R54" s="329"/>
-      <c r="S54" s="329"/>
-      <c r="T54" s="330"/>
+      <c r="J54" s="301"/>
+      <c r="K54" s="301"/>
+      <c r="L54" s="301"/>
+      <c r="M54" s="278"/>
+      <c r="N54" s="279"/>
+      <c r="O54" s="279"/>
+      <c r="P54" s="279"/>
+      <c r="Q54" s="279"/>
+      <c r="R54" s="279"/>
+      <c r="S54" s="279"/>
+      <c r="T54" s="280"/>
       <c r="U54" s="132"/>
       <c r="V54" s="131"/>
       <c r="W54" s="131"/>
@@ -10341,18 +10338,18 @@
       <c r="F55" s="138"/>
       <c r="G55" s="138"/>
       <c r="H55" s="139"/>
-      <c r="I55" s="319"/>
-      <c r="J55" s="319"/>
-      <c r="K55" s="319"/>
-      <c r="L55" s="319"/>
-      <c r="M55" s="328"/>
-      <c r="N55" s="329"/>
-      <c r="O55" s="329"/>
-      <c r="P55" s="329"/>
-      <c r="Q55" s="329"/>
-      <c r="R55" s="329"/>
-      <c r="S55" s="329"/>
-      <c r="T55" s="330"/>
+      <c r="I55" s="301"/>
+      <c r="J55" s="301"/>
+      <c r="K55" s="301"/>
+      <c r="L55" s="301"/>
+      <c r="M55" s="278"/>
+      <c r="N55" s="279"/>
+      <c r="O55" s="279"/>
+      <c r="P55" s="279"/>
+      <c r="Q55" s="279"/>
+      <c r="R55" s="279"/>
+      <c r="S55" s="279"/>
+      <c r="T55" s="280"/>
       <c r="U55" s="132"/>
       <c r="V55" s="131"/>
       <c r="W55" s="131"/>
@@ -10375,18 +10372,18 @@
       <c r="F56" s="138"/>
       <c r="G56" s="138"/>
       <c r="H56" s="139"/>
-      <c r="I56" s="319"/>
-      <c r="J56" s="319"/>
-      <c r="K56" s="319"/>
-      <c r="L56" s="319"/>
-      <c r="M56" s="328"/>
-      <c r="N56" s="329"/>
-      <c r="O56" s="329"/>
-      <c r="P56" s="329"/>
-      <c r="Q56" s="329"/>
-      <c r="R56" s="329"/>
-      <c r="S56" s="329"/>
-      <c r="T56" s="330"/>
+      <c r="I56" s="301"/>
+      <c r="J56" s="301"/>
+      <c r="K56" s="301"/>
+      <c r="L56" s="301"/>
+      <c r="M56" s="278"/>
+      <c r="N56" s="279"/>
+      <c r="O56" s="279"/>
+      <c r="P56" s="279"/>
+      <c r="Q56" s="279"/>
+      <c r="R56" s="279"/>
+      <c r="S56" s="279"/>
+      <c r="T56" s="280"/>
       <c r="U56" s="132"/>
       <c r="V56" s="131"/>
       <c r="W56" s="131"/>
@@ -10409,18 +10406,18 @@
       <c r="F57" s="138"/>
       <c r="G57" s="138"/>
       <c r="H57" s="139"/>
-      <c r="I57" s="319"/>
-      <c r="J57" s="319"/>
-      <c r="K57" s="319"/>
-      <c r="L57" s="319"/>
-      <c r="M57" s="328"/>
-      <c r="N57" s="329"/>
-      <c r="O57" s="329"/>
-      <c r="P57" s="329"/>
-      <c r="Q57" s="329"/>
-      <c r="R57" s="329"/>
-      <c r="S57" s="329"/>
-      <c r="T57" s="330"/>
+      <c r="I57" s="301"/>
+      <c r="J57" s="301"/>
+      <c r="K57" s="301"/>
+      <c r="L57" s="301"/>
+      <c r="M57" s="278"/>
+      <c r="N57" s="279"/>
+      <c r="O57" s="279"/>
+      <c r="P57" s="279"/>
+      <c r="Q57" s="279"/>
+      <c r="R57" s="279"/>
+      <c r="S57" s="279"/>
+      <c r="T57" s="280"/>
       <c r="U57" s="132"/>
       <c r="V57" s="131"/>
       <c r="W57" s="131"/>
@@ -10443,18 +10440,18 @@
       <c r="F58" s="138"/>
       <c r="G58" s="138"/>
       <c r="H58" s="139"/>
-      <c r="I58" s="319"/>
-      <c r="J58" s="319"/>
-      <c r="K58" s="319"/>
-      <c r="L58" s="319"/>
-      <c r="M58" s="328"/>
-      <c r="N58" s="329"/>
-      <c r="O58" s="329"/>
-      <c r="P58" s="329"/>
-      <c r="Q58" s="329"/>
-      <c r="R58" s="329"/>
-      <c r="S58" s="329"/>
-      <c r="T58" s="330"/>
+      <c r="I58" s="301"/>
+      <c r="J58" s="301"/>
+      <c r="K58" s="301"/>
+      <c r="L58" s="301"/>
+      <c r="M58" s="278"/>
+      <c r="N58" s="279"/>
+      <c r="O58" s="279"/>
+      <c r="P58" s="279"/>
+      <c r="Q58" s="279"/>
+      <c r="R58" s="279"/>
+      <c r="S58" s="279"/>
+      <c r="T58" s="280"/>
       <c r="U58" s="132"/>
       <c r="V58" s="131"/>
       <c r="W58" s="131"/>
@@ -10477,18 +10474,18 @@
       <c r="F59" s="140"/>
       <c r="G59" s="140"/>
       <c r="H59" s="141"/>
-      <c r="I59" s="319"/>
-      <c r="J59" s="319"/>
-      <c r="K59" s="319"/>
-      <c r="L59" s="319"/>
-      <c r="M59" s="331"/>
-      <c r="N59" s="332"/>
-      <c r="O59" s="332"/>
-      <c r="P59" s="332"/>
-      <c r="Q59" s="332"/>
-      <c r="R59" s="332"/>
-      <c r="S59" s="332"/>
-      <c r="T59" s="333"/>
+      <c r="I59" s="301"/>
+      <c r="J59" s="301"/>
+      <c r="K59" s="301"/>
+      <c r="L59" s="301"/>
+      <c r="M59" s="281"/>
+      <c r="N59" s="282"/>
+      <c r="O59" s="282"/>
+      <c r="P59" s="282"/>
+      <c r="Q59" s="282"/>
+      <c r="R59" s="282"/>
+      <c r="S59" s="282"/>
+      <c r="T59" s="283"/>
       <c r="U59" s="132"/>
       <c r="V59" s="131"/>
       <c r="W59" s="131"/>
@@ -10574,28 +10571,28 @@
       <c r="C62" s="146"/>
       <c r="D62" s="146"/>
       <c r="E62" s="147"/>
-      <c r="F62" s="301" t="s">
+      <c r="F62" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="G62" s="301"/>
-      <c r="H62" s="301"/>
-      <c r="I62" s="301"/>
-      <c r="J62" s="301"/>
-      <c r="K62" s="300"/>
-      <c r="L62" s="300"/>
-      <c r="M62" s="300"/>
-      <c r="N62" s="300"/>
-      <c r="O62" s="300"/>
-      <c r="P62" s="299"/>
-      <c r="Q62" s="299"/>
-      <c r="R62" s="299"/>
-      <c r="S62" s="299"/>
-      <c r="T62" s="299"/>
-      <c r="U62" s="299"/>
-      <c r="V62" s="299"/>
-      <c r="W62" s="299"/>
-      <c r="X62" s="299"/>
-      <c r="Y62" s="299"/>
+      <c r="G62" s="256"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="256"/>
+      <c r="J62" s="256"/>
+      <c r="K62" s="302"/>
+      <c r="L62" s="302"/>
+      <c r="M62" s="302"/>
+      <c r="N62" s="302"/>
+      <c r="O62" s="302"/>
+      <c r="P62" s="303"/>
+      <c r="Q62" s="303"/>
+      <c r="R62" s="303"/>
+      <c r="S62" s="303"/>
+      <c r="T62" s="303"/>
+      <c r="U62" s="303"/>
+      <c r="V62" s="303"/>
+      <c r="W62" s="303"/>
+      <c r="X62" s="303"/>
+      <c r="Y62" s="303"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10608,37 +10605,37 @@
         <v>26</v>
       </c>
       <c r="C63" s="149"/>
-      <c r="D63" s="317" t="s">
+      <c r="D63" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="318"/>
-      <c r="F63" s="301" t="s">
+      <c r="E63" s="255"/>
+      <c r="F63" s="256" t="s">
         <v>240</v>
       </c>
-      <c r="G63" s="301"/>
-      <c r="H63" s="301"/>
-      <c r="I63" s="301"/>
-      <c r="J63" s="301"/>
-      <c r="K63" s="300"/>
-      <c r="L63" s="300"/>
-      <c r="M63" s="300"/>
-      <c r="N63" s="300"/>
-      <c r="O63" s="300"/>
-      <c r="P63" s="300"/>
-      <c r="Q63" s="300"/>
-      <c r="R63" s="300"/>
-      <c r="S63" s="300"/>
-      <c r="T63" s="300"/>
-      <c r="U63" s="300"/>
-      <c r="V63" s="300"/>
-      <c r="W63" s="300"/>
-      <c r="X63" s="300"/>
-      <c r="Y63" s="300"/>
-      <c r="Z63" s="304"/>
-      <c r="AA63" s="304"/>
-      <c r="AB63" s="304"/>
-      <c r="AC63" s="304"/>
-      <c r="AD63" s="304"/>
+      <c r="G63" s="256"/>
+      <c r="H63" s="256"/>
+      <c r="I63" s="256"/>
+      <c r="J63" s="256"/>
+      <c r="K63" s="302"/>
+      <c r="L63" s="302"/>
+      <c r="M63" s="302"/>
+      <c r="N63" s="302"/>
+      <c r="O63" s="302"/>
+      <c r="P63" s="302"/>
+      <c r="Q63" s="302"/>
+      <c r="R63" s="302"/>
+      <c r="S63" s="302"/>
+      <c r="T63" s="302"/>
+      <c r="U63" s="302"/>
+      <c r="V63" s="302"/>
+      <c r="W63" s="302"/>
+      <c r="X63" s="302"/>
+      <c r="Y63" s="302"/>
+      <c r="Z63" s="311"/>
+      <c r="AA63" s="311"/>
+      <c r="AB63" s="311"/>
+      <c r="AC63" s="311"/>
+      <c r="AD63" s="311"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="65"/>
@@ -10648,33 +10645,33 @@
       <c r="C64" s="146"/>
       <c r="D64" s="146"/>
       <c r="E64" s="147"/>
-      <c r="F64" s="301" t="s">
+      <c r="F64" s="256" t="s">
         <v>241</v>
       </c>
-      <c r="G64" s="301"/>
-      <c r="H64" s="301"/>
-      <c r="I64" s="301"/>
-      <c r="J64" s="301"/>
-      <c r="K64" s="300"/>
-      <c r="L64" s="300"/>
-      <c r="M64" s="300"/>
-      <c r="N64" s="300"/>
-      <c r="O64" s="300"/>
-      <c r="P64" s="300"/>
-      <c r="Q64" s="300"/>
-      <c r="R64" s="300"/>
-      <c r="S64" s="300"/>
-      <c r="T64" s="300"/>
-      <c r="U64" s="300"/>
-      <c r="V64" s="300"/>
-      <c r="W64" s="300"/>
-      <c r="X64" s="300"/>
-      <c r="Y64" s="300"/>
-      <c r="Z64" s="304"/>
-      <c r="AA64" s="304"/>
-      <c r="AB64" s="304"/>
-      <c r="AC64" s="304"/>
-      <c r="AD64" s="304"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="256"/>
+      <c r="K64" s="302"/>
+      <c r="L64" s="302"/>
+      <c r="M64" s="302"/>
+      <c r="N64" s="302"/>
+      <c r="O64" s="302"/>
+      <c r="P64" s="302"/>
+      <c r="Q64" s="302"/>
+      <c r="R64" s="302"/>
+      <c r="S64" s="302"/>
+      <c r="T64" s="302"/>
+      <c r="U64" s="302"/>
+      <c r="V64" s="302"/>
+      <c r="W64" s="302"/>
+      <c r="X64" s="302"/>
+      <c r="Y64" s="302"/>
+      <c r="Z64" s="311"/>
+      <c r="AA64" s="311"/>
+      <c r="AB64" s="311"/>
+      <c r="AC64" s="311"/>
+      <c r="AD64" s="311"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="65"/>
@@ -10684,33 +10681,33 @@
       <c r="C65" s="146"/>
       <c r="D65" s="146"/>
       <c r="E65" s="147"/>
-      <c r="F65" s="301" t="s">
+      <c r="F65" s="256" t="s">
         <v>242</v>
       </c>
-      <c r="G65" s="301"/>
-      <c r="H65" s="301"/>
-      <c r="I65" s="301"/>
-      <c r="J65" s="301"/>
-      <c r="K65" s="302"/>
-      <c r="L65" s="302"/>
-      <c r="M65" s="302"/>
-      <c r="N65" s="302"/>
-      <c r="O65" s="302"/>
-      <c r="P65" s="302"/>
-      <c r="Q65" s="302"/>
-      <c r="R65" s="302"/>
-      <c r="S65" s="302"/>
-      <c r="T65" s="302"/>
-      <c r="U65" s="302"/>
-      <c r="V65" s="302"/>
-      <c r="W65" s="302"/>
-      <c r="X65" s="302"/>
-      <c r="Y65" s="302"/>
-      <c r="Z65" s="304"/>
-      <c r="AA65" s="304"/>
-      <c r="AB65" s="304"/>
-      <c r="AC65" s="304"/>
-      <c r="AD65" s="304"/>
+      <c r="G65" s="256"/>
+      <c r="H65" s="256"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="256"/>
+      <c r="K65" s="313"/>
+      <c r="L65" s="313"/>
+      <c r="M65" s="313"/>
+      <c r="N65" s="313"/>
+      <c r="O65" s="313"/>
+      <c r="P65" s="313"/>
+      <c r="Q65" s="313"/>
+      <c r="R65" s="313"/>
+      <c r="S65" s="313"/>
+      <c r="T65" s="313"/>
+      <c r="U65" s="313"/>
+      <c r="V65" s="313"/>
+      <c r="W65" s="313"/>
+      <c r="X65" s="313"/>
+      <c r="Y65" s="313"/>
+      <c r="Z65" s="311"/>
+      <c r="AA65" s="311"/>
+      <c r="AB65" s="311"/>
+      <c r="AC65" s="311"/>
+      <c r="AD65" s="311"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="65"/>
@@ -10720,69 +10717,69 @@
       <c r="C66" s="146"/>
       <c r="D66" s="146"/>
       <c r="E66" s="147"/>
-      <c r="F66" s="301" t="s">
+      <c r="F66" s="256" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="301"/>
-      <c r="H66" s="301"/>
-      <c r="I66" s="301"/>
-      <c r="J66" s="301"/>
-      <c r="K66" s="302"/>
-      <c r="L66" s="302"/>
-      <c r="M66" s="302"/>
-      <c r="N66" s="302"/>
-      <c r="O66" s="302"/>
-      <c r="P66" s="302"/>
-      <c r="Q66" s="302"/>
-      <c r="R66" s="302"/>
-      <c r="S66" s="302"/>
-      <c r="T66" s="302"/>
-      <c r="U66" s="302"/>
-      <c r="V66" s="302"/>
-      <c r="W66" s="302"/>
-      <c r="X66" s="302"/>
-      <c r="Y66" s="302"/>
-      <c r="Z66" s="305"/>
-      <c r="AA66" s="305"/>
-      <c r="AB66" s="305"/>
-      <c r="AC66" s="305"/>
-      <c r="AD66" s="305"/>
+      <c r="G66" s="256"/>
+      <c r="H66" s="256"/>
+      <c r="I66" s="256"/>
+      <c r="J66" s="256"/>
+      <c r="K66" s="313"/>
+      <c r="L66" s="313"/>
+      <c r="M66" s="313"/>
+      <c r="N66" s="313"/>
+      <c r="O66" s="313"/>
+      <c r="P66" s="313"/>
+      <c r="Q66" s="313"/>
+      <c r="R66" s="313"/>
+      <c r="S66" s="313"/>
+      <c r="T66" s="313"/>
+      <c r="U66" s="313"/>
+      <c r="V66" s="313"/>
+      <c r="W66" s="313"/>
+      <c r="X66" s="313"/>
+      <c r="Y66" s="313"/>
+      <c r="Z66" s="312"/>
+      <c r="AA66" s="312"/>
+      <c r="AB66" s="312"/>
+      <c r="AC66" s="312"/>
+      <c r="AD66" s="312"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="65"/>
-      <c r="B67" s="316" t="s">
+      <c r="B67" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="317"/>
-      <c r="D67" s="317"/>
-      <c r="E67" s="318"/>
-      <c r="F67" s="301" t="s">
+      <c r="C67" s="254"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="255"/>
+      <c r="F67" s="256" t="s">
         <v>244</v>
       </c>
-      <c r="G67" s="301"/>
-      <c r="H67" s="301"/>
-      <c r="I67" s="301"/>
-      <c r="J67" s="301"/>
-      <c r="K67" s="302"/>
-      <c r="L67" s="302"/>
-      <c r="M67" s="302"/>
-      <c r="N67" s="302"/>
-      <c r="O67" s="302"/>
-      <c r="P67" s="302"/>
-      <c r="Q67" s="302"/>
-      <c r="R67" s="302"/>
-      <c r="S67" s="302"/>
-      <c r="T67" s="302"/>
-      <c r="U67" s="302"/>
-      <c r="V67" s="302"/>
-      <c r="W67" s="302"/>
-      <c r="X67" s="302"/>
-      <c r="Y67" s="302"/>
-      <c r="Z67" s="305"/>
-      <c r="AA67" s="305"/>
-      <c r="AB67" s="305"/>
-      <c r="AC67" s="305"/>
-      <c r="AD67" s="305"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="313"/>
+      <c r="L67" s="313"/>
+      <c r="M67" s="313"/>
+      <c r="N67" s="313"/>
+      <c r="O67" s="313"/>
+      <c r="P67" s="313"/>
+      <c r="Q67" s="313"/>
+      <c r="R67" s="313"/>
+      <c r="S67" s="313"/>
+      <c r="T67" s="313"/>
+      <c r="U67" s="313"/>
+      <c r="V67" s="313"/>
+      <c r="W67" s="313"/>
+      <c r="X67" s="313"/>
+      <c r="Y67" s="313"/>
+      <c r="Z67" s="312"/>
+      <c r="AA67" s="312"/>
+      <c r="AB67" s="312"/>
+      <c r="AC67" s="312"/>
+      <c r="AD67" s="312"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="65"/>
@@ -10792,28 +10789,28 @@
       <c r="C68" s="146"/>
       <c r="D68" s="146"/>
       <c r="E68" s="147"/>
-      <c r="F68" s="301" t="s">
+      <c r="F68" s="256" t="s">
         <v>245</v>
       </c>
-      <c r="G68" s="301"/>
-      <c r="H68" s="301"/>
-      <c r="I68" s="301"/>
-      <c r="J68" s="301"/>
-      <c r="K68" s="298"/>
-      <c r="L68" s="298"/>
-      <c r="M68" s="298"/>
-      <c r="N68" s="298"/>
-      <c r="O68" s="298"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="298"/>
-      <c r="R68" s="298"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="298"/>
-      <c r="V68" s="298"/>
-      <c r="W68" s="298"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="298"/>
+      <c r="G68" s="256"/>
+      <c r="H68" s="256"/>
+      <c r="I68" s="256"/>
+      <c r="J68" s="256"/>
+      <c r="K68" s="315"/>
+      <c r="L68" s="315"/>
+      <c r="M68" s="315"/>
+      <c r="N68" s="315"/>
+      <c r="O68" s="315"/>
+      <c r="P68" s="315"/>
+      <c r="Q68" s="315"/>
+      <c r="R68" s="315"/>
+      <c r="S68" s="315"/>
+      <c r="T68" s="315"/>
+      <c r="U68" s="315"/>
+      <c r="V68" s="315"/>
+      <c r="W68" s="315"/>
+      <c r="X68" s="315"/>
+      <c r="Y68" s="315"/>
       <c r="Z68" s="150"/>
       <c r="AA68" s="151"/>
       <c r="AB68" s="150"/>
@@ -10828,33 +10825,33 @@
       <c r="C69" s="146"/>
       <c r="D69" s="146"/>
       <c r="E69" s="147"/>
-      <c r="F69" s="301" t="s">
+      <c r="F69" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="G69" s="301"/>
-      <c r="H69" s="301"/>
-      <c r="I69" s="301"/>
-      <c r="J69" s="301"/>
-      <c r="K69" s="303"/>
-      <c r="L69" s="303"/>
-      <c r="M69" s="303"/>
-      <c r="N69" s="303"/>
-      <c r="O69" s="303"/>
-      <c r="P69" s="303"/>
-      <c r="Q69" s="303"/>
-      <c r="R69" s="303"/>
-      <c r="S69" s="303"/>
-      <c r="T69" s="303"/>
-      <c r="U69" s="303"/>
-      <c r="V69" s="303"/>
-      <c r="W69" s="303"/>
-      <c r="X69" s="303"/>
-      <c r="Y69" s="303"/>
-      <c r="Z69" s="304"/>
-      <c r="AA69" s="304"/>
-      <c r="AB69" s="304"/>
-      <c r="AC69" s="304"/>
-      <c r="AD69" s="304"/>
+      <c r="G69" s="256"/>
+      <c r="H69" s="256"/>
+      <c r="I69" s="256"/>
+      <c r="J69" s="256"/>
+      <c r="K69" s="314"/>
+      <c r="L69" s="314"/>
+      <c r="M69" s="314"/>
+      <c r="N69" s="314"/>
+      <c r="O69" s="314"/>
+      <c r="P69" s="314"/>
+      <c r="Q69" s="314"/>
+      <c r="R69" s="314"/>
+      <c r="S69" s="314"/>
+      <c r="T69" s="314"/>
+      <c r="U69" s="314"/>
+      <c r="V69" s="314"/>
+      <c r="W69" s="314"/>
+      <c r="X69" s="314"/>
+      <c r="Y69" s="314"/>
+      <c r="Z69" s="311"/>
+      <c r="AA69" s="311"/>
+      <c r="AB69" s="311"/>
+      <c r="AC69" s="311"/>
+      <c r="AD69" s="311"/>
     </row>
     <row r="70" spans="1:30" ht="17.25" customHeight="1">
       <c r="A70" s="65"/>
@@ -10890,21 +10887,19 @@
     </row>
     <row r="71" spans="1:30" ht="13.5" customHeight="1">
       <c r="A71" s="65"/>
-      <c r="B71" s="291" t="s">
+      <c r="B71" s="270" t="s">
+        <v>642</v>
+      </c>
+      <c r="C71" s="270"/>
+      <c r="D71" s="270"/>
+      <c r="E71" s="270"/>
+      <c r="F71" s="344" t="s">
         <v>641</v>
       </c>
-      <c r="C71" s="291"/>
-      <c r="D71" s="291"/>
-      <c r="E71" s="465" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="464" t="s">
-        <v>642</v>
-      </c>
-      <c r="G71" s="464"/>
-      <c r="H71" s="464"/>
-      <c r="I71" s="464"/>
-      <c r="J71" s="464"/>
+      <c r="G71" s="344"/>
+      <c r="H71" s="344"/>
+      <c r="I71" s="344"/>
+      <c r="J71" s="344"/>
       <c r="K71" s="244"/>
       <c r="L71" s="244"/>
       <c r="M71" s="244"/>
@@ -10970,148 +10965,148 @@
       <c r="N73" s="155"/>
     </row>
     <row r="74" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B74" s="316" t="s">
+      <c r="B74" s="260" t="s">
         <v>620</v>
       </c>
-      <c r="C74" s="317"/>
-      <c r="D74" s="317"/>
-      <c r="E74" s="318"/>
-      <c r="F74" s="301" t="s">
+      <c r="C74" s="254"/>
+      <c r="D74" s="254"/>
+      <c r="E74" s="255"/>
+      <c r="F74" s="256" t="s">
         <v>629</v>
       </c>
-      <c r="G74" s="301"/>
-      <c r="H74" s="301"/>
-      <c r="I74" s="301"/>
-      <c r="J74" s="301"/>
-      <c r="K74" s="301"/>
+      <c r="G74" s="256"/>
+      <c r="H74" s="256"/>
+      <c r="I74" s="256"/>
+      <c r="J74" s="256"/>
+      <c r="K74" s="256"/>
       <c r="L74" s="241"/>
       <c r="M74" s="241"/>
       <c r="W74" s="156"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B75" s="316" t="s">
+      <c r="B75" s="260" t="s">
         <v>621</v>
       </c>
-      <c r="C75" s="317"/>
-      <c r="D75" s="317"/>
-      <c r="E75" s="318"/>
-      <c r="F75" s="301" t="s">
+      <c r="C75" s="254"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="255"/>
+      <c r="F75" s="256" t="s">
         <v>631</v>
       </c>
-      <c r="G75" s="301"/>
-      <c r="H75" s="301"/>
-      <c r="I75" s="301"/>
-      <c r="J75" s="301"/>
-      <c r="K75" s="301"/>
+      <c r="G75" s="256"/>
+      <c r="H75" s="256"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="256"/>
+      <c r="K75" s="256"/>
     </row>
     <row r="76" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B76" s="316" t="s">
+      <c r="B76" s="260" t="s">
         <v>624</v>
       </c>
-      <c r="C76" s="317"/>
-      <c r="D76" s="317"/>
-      <c r="E76" s="318"/>
-      <c r="F76" s="301" t="s">
+      <c r="C76" s="254"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="255"/>
+      <c r="F76" s="256" t="s">
         <v>632</v>
       </c>
-      <c r="G76" s="301"/>
-      <c r="H76" s="301"/>
-      <c r="I76" s="301"/>
-      <c r="J76" s="301"/>
-      <c r="K76" s="301"/>
+      <c r="G76" s="256"/>
+      <c r="H76" s="256"/>
+      <c r="I76" s="256"/>
+      <c r="J76" s="256"/>
+      <c r="K76" s="256"/>
       <c r="R76" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B77" s="316" t="s">
+      <c r="B77" s="260" t="s">
         <v>622</v>
       </c>
-      <c r="C77" s="317"/>
-      <c r="D77" s="317"/>
-      <c r="E77" s="318"/>
-      <c r="F77" s="301" t="s">
+      <c r="C77" s="254"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="255"/>
+      <c r="F77" s="256" t="s">
         <v>630</v>
       </c>
-      <c r="G77" s="301"/>
-      <c r="H77" s="301"/>
-      <c r="I77" s="301"/>
-      <c r="J77" s="301"/>
-      <c r="K77" s="301"/>
+      <c r="G77" s="256"/>
+      <c r="H77" s="256"/>
+      <c r="I77" s="256"/>
+      <c r="J77" s="256"/>
+      <c r="K77" s="256"/>
     </row>
     <row r="78" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B78" s="316" t="s">
+      <c r="B78" s="260" t="s">
         <v>623</v>
       </c>
-      <c r="C78" s="317"/>
-      <c r="D78" s="317" t="s">
+      <c r="C78" s="254"/>
+      <c r="D78" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="318"/>
-      <c r="F78" s="301" t="s">
+      <c r="E78" s="255"/>
+      <c r="F78" s="256" t="s">
         <v>633</v>
       </c>
-      <c r="G78" s="301"/>
-      <c r="H78" s="301"/>
-      <c r="I78" s="301"/>
-      <c r="J78" s="301"/>
-      <c r="K78" s="301"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="256"/>
+      <c r="I78" s="256"/>
+      <c r="J78" s="256"/>
+      <c r="K78" s="256"/>
     </row>
     <row r="79" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B79" s="340" t="s">
+      <c r="B79" s="248" t="s">
         <v>640</v>
       </c>
-      <c r="C79" s="341"/>
-      <c r="D79" s="317" t="s">
+      <c r="C79" s="249"/>
+      <c r="D79" s="254" t="s">
         <v>626</v>
       </c>
-      <c r="E79" s="318"/>
-      <c r="F79" s="301" t="s">
+      <c r="E79" s="255"/>
+      <c r="F79" s="256" t="s">
         <v>634</v>
       </c>
-      <c r="G79" s="301"/>
-      <c r="H79" s="301"/>
-      <c r="I79" s="301" t="s">
+      <c r="G79" s="256"/>
+      <c r="H79" s="256"/>
+      <c r="I79" s="256" t="s">
         <v>637</v>
       </c>
-      <c r="J79" s="301"/>
-      <c r="K79" s="301"/>
+      <c r="J79" s="256"/>
+      <c r="K79" s="256"/>
     </row>
     <row r="80" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B80" s="342"/>
-      <c r="C80" s="343"/>
-      <c r="D80" s="317" t="s">
+      <c r="B80" s="250"/>
+      <c r="C80" s="251"/>
+      <c r="D80" s="254" t="s">
         <v>627</v>
       </c>
-      <c r="E80" s="318"/>
-      <c r="F80" s="346" t="s">
+      <c r="E80" s="255"/>
+      <c r="F80" s="257" t="s">
         <v>635</v>
       </c>
-      <c r="G80" s="347"/>
-      <c r="H80" s="348"/>
-      <c r="I80" s="346" t="s">
+      <c r="G80" s="258"/>
+      <c r="H80" s="259"/>
+      <c r="I80" s="257" t="s">
         <v>638</v>
       </c>
-      <c r="J80" s="347"/>
-      <c r="K80" s="348"/>
+      <c r="J80" s="258"/>
+      <c r="K80" s="259"/>
     </row>
     <row r="81" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B81" s="344"/>
-      <c r="C81" s="345"/>
-      <c r="D81" s="317" t="s">
+      <c r="B81" s="252"/>
+      <c r="C81" s="253"/>
+      <c r="D81" s="254" t="s">
         <v>628</v>
       </c>
-      <c r="E81" s="318"/>
-      <c r="F81" s="346" t="s">
+      <c r="E81" s="255"/>
+      <c r="F81" s="257" t="s">
         <v>636</v>
       </c>
-      <c r="G81" s="347"/>
-      <c r="H81" s="348"/>
-      <c r="I81" s="346" t="s">
+      <c r="G81" s="258"/>
+      <c r="H81" s="259"/>
+      <c r="I81" s="257" t="s">
         <v>639</v>
       </c>
-      <c r="J81" s="347"/>
-      <c r="K81" s="348"/>
+      <c r="J81" s="258"/>
+      <c r="K81" s="259"/>
     </row>
     <row r="82" spans="1:30" ht="15.75" customHeight="1">
       <c r="A82" s="152" t="s">
@@ -11150,36 +11145,181 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="241">
-    <mergeCell ref="B79:C81"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F77:K77"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I53:L53"/>
     <mergeCell ref="M48:T48"/>
@@ -11204,6 +11344,16 @@
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="L45:N45"/>
     <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G46:H46"/>
@@ -11217,180 +11367,25 @@
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B79:C81"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F78:K78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -11498,72 +11493,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="355" t="s">
+      <c r="B8" s="378" t="s">
         <v>472</v>
       </c>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="353" t="s">
+      <c r="C8" s="378"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="378"/>
+      <c r="F8" s="371" t="s">
         <v>573</v>
       </c>
-      <c r="G8" s="354"/>
-      <c r="J8" s="355" t="s">
+      <c r="G8" s="372"/>
+      <c r="J8" s="378" t="s">
         <v>473</v>
       </c>
-      <c r="K8" s="355"/>
-      <c r="L8" s="355"/>
-      <c r="M8" s="356"/>
-      <c r="N8" s="353" t="s">
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="379"/>
+      <c r="N8" s="371" t="s">
         <v>489</v>
       </c>
-      <c r="O8" s="354"/>
+      <c r="O8" s="372"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="355" t="s">
+      <c r="B9" s="378" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="353" t="s">
+      <c r="C9" s="378"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="378"/>
+      <c r="F9" s="371" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="354"/>
-      <c r="J9" s="355" t="s">
+      <c r="G9" s="372"/>
+      <c r="J9" s="378" t="s">
         <v>491</v>
       </c>
-      <c r="K9" s="355"/>
-      <c r="L9" s="355"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="353" t="s">
+      <c r="K9" s="378"/>
+      <c r="L9" s="378"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="371" t="s">
         <v>493</v>
       </c>
-      <c r="O9" s="354"/>
+      <c r="O9" s="372"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="355" t="s">
+      <c r="B10" s="378" t="s">
         <v>492</v>
       </c>
-      <c r="C10" s="355"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="355"/>
-      <c r="F10" s="353" t="s">
+      <c r="C10" s="378"/>
+      <c r="D10" s="378"/>
+      <c r="E10" s="378"/>
+      <c r="F10" s="371" t="s">
         <v>495</v>
       </c>
-      <c r="G10" s="354"/>
-      <c r="J10" s="355" t="s">
+      <c r="G10" s="372"/>
+      <c r="J10" s="378" t="s">
         <v>474</v>
       </c>
-      <c r="K10" s="355"/>
-      <c r="L10" s="355"/>
-      <c r="M10" s="356"/>
-      <c r="N10" s="353" t="s">
+      <c r="K10" s="378"/>
+      <c r="L10" s="378"/>
+      <c r="M10" s="379"/>
+      <c r="N10" s="371" t="s">
         <v>494</v>
       </c>
-      <c r="O10" s="354"/>
+      <c r="O10" s="372"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -11595,108 +11590,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="367" t="s">
+      <c r="B13" s="373" t="s">
         <v>445</v>
       </c>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="353" t="s">
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="371" t="s">
         <v>497</v>
       </c>
-      <c r="F13" s="354"/>
+      <c r="F13" s="372"/>
       <c r="H13" s="12" t="s">
         <v>446</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="362" t="s">
+      <c r="K13" s="374" t="s">
         <v>498</v>
       </c>
-      <c r="L13" s="362" t="s">
+      <c r="L13" s="374" t="s">
         <v>444</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="367" t="s">
+      <c r="N13" s="373" t="s">
         <v>447</v>
       </c>
-      <c r="O13" s="367"/>
-      <c r="P13" s="367"/>
-      <c r="Q13" s="353" t="s">
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="371" t="s">
         <v>567</v>
       </c>
-      <c r="R13" s="354"/>
+      <c r="R13" s="372"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="367" t="s">
+      <c r="B14" s="373" t="s">
         <v>448</v>
       </c>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="353" t="s">
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="371" t="s">
         <v>499</v>
       </c>
-      <c r="F14" s="354"/>
+      <c r="F14" s="372"/>
       <c r="H14" s="12" t="s">
         <v>449</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="362" t="s">
+      <c r="K14" s="374" t="s">
         <v>500</v>
       </c>
-      <c r="L14" s="362"/>
+      <c r="L14" s="374"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="367" t="s">
+      <c r="N14" s="373" t="s">
         <v>450</v>
       </c>
-      <c r="O14" s="367"/>
-      <c r="P14" s="367"/>
-      <c r="Q14" s="353" t="s">
+      <c r="O14" s="373"/>
+      <c r="P14" s="373"/>
+      <c r="Q14" s="371" t="s">
         <v>501</v>
       </c>
-      <c r="R14" s="354"/>
-      <c r="T14" s="367" t="s">
+      <c r="R14" s="372"/>
+      <c r="T14" s="373" t="s">
         <v>451</v>
       </c>
-      <c r="U14" s="367"/>
-      <c r="V14" s="353" t="s">
+      <c r="U14" s="373"/>
+      <c r="V14" s="371" t="s">
         <v>574</v>
       </c>
-      <c r="W14" s="354"/>
+      <c r="W14" s="372"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="367" t="s">
+      <c r="B15" s="373" t="s">
         <v>452</v>
       </c>
-      <c r="C15" s="367"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="353" t="s">
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="371" t="s">
         <v>502</v>
       </c>
-      <c r="F15" s="354"/>
+      <c r="F15" s="372"/>
       <c r="H15" s="12" t="s">
         <v>454</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="362" t="s">
+      <c r="K15" s="374" t="s">
         <v>503</v>
       </c>
-      <c r="L15" s="362" t="s">
+      <c r="L15" s="374" t="s">
         <v>453</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="367" t="s">
+      <c r="N15" s="373" t="s">
         <v>455</v>
       </c>
-      <c r="O15" s="367"/>
-      <c r="P15" s="367"/>
-      <c r="Q15" s="353" t="s">
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
+      <c r="Q15" s="371" t="s">
         <v>504</v>
       </c>
-      <c r="R15" s="354"/>
+      <c r="R15" s="372"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -11730,23 +11725,23 @@
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="360" t="s">
+      <c r="F18" s="380" t="s">
         <v>458</v>
       </c>
-      <c r="G18" s="361"/>
-      <c r="H18" s="353" t="s">
+      <c r="G18" s="381"/>
+      <c r="H18" s="371" t="s">
         <v>505</v>
       </c>
-      <c r="I18" s="354"/>
+      <c r="I18" s="372"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="360" t="s">
+      <c r="K18" s="380" t="s">
         <v>459</v>
       </c>
-      <c r="L18" s="361"/>
-      <c r="M18" s="353" t="s">
+      <c r="L18" s="381"/>
+      <c r="M18" s="371" t="s">
         <v>506</v>
       </c>
-      <c r="N18" s="354"/>
+      <c r="N18" s="372"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
@@ -11756,23 +11751,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="360" t="s">
+      <c r="F19" s="380" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="361"/>
-      <c r="H19" s="353" t="s">
+      <c r="G19" s="381"/>
+      <c r="H19" s="371" t="s">
         <v>507</v>
       </c>
-      <c r="I19" s="354"/>
+      <c r="I19" s="372"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="360" t="s">
+      <c r="K19" s="380" t="s">
         <v>459</v>
       </c>
-      <c r="L19" s="361"/>
-      <c r="M19" s="353" t="s">
+      <c r="L19" s="381"/>
+      <c r="M19" s="371" t="s">
         <v>508</v>
       </c>
-      <c r="N19" s="354"/>
+      <c r="N19" s="372"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
@@ -11827,20 +11822,20 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="362" t="s">
+      <c r="H23" s="374" t="s">
         <v>568</v>
       </c>
-      <c r="I23" s="362" t="s">
+      <c r="I23" s="374" t="s">
         <v>444</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="363" t="s">
+      <c r="L23" s="386" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="364"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="366"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="375"/>
+      <c r="O23" s="377"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11850,22 +11845,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="369" t="s">
+      <c r="B24" s="382" t="s">
         <v>463</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="368"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
-      <c r="L24" s="368"/>
-      <c r="M24" s="368"/>
-      <c r="N24" s="368"/>
-      <c r="O24" s="366"/>
+      <c r="C24" s="382"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="382"/>
+      <c r="H24" s="375"/>
+      <c r="I24" s="376"/>
+      <c r="J24" s="376"/>
+      <c r="K24" s="376"/>
+      <c r="L24" s="376"/>
+      <c r="M24" s="376"/>
+      <c r="N24" s="376"/>
+      <c r="O24" s="377"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11900,25 +11895,25 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="357"/>
-      <c r="C26" s="358"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="358"/>
-      <c r="I26" s="358"/>
-      <c r="J26" s="358"/>
-      <c r="K26" s="358"/>
-      <c r="L26" s="358"/>
-      <c r="M26" s="358"/>
-      <c r="N26" s="358"/>
-      <c r="O26" s="358"/>
-      <c r="P26" s="358"/>
-      <c r="Q26" s="358"/>
-      <c r="R26" s="358"/>
-      <c r="S26" s="358"/>
-      <c r="T26" s="359"/>
+      <c r="B26" s="383"/>
+      <c r="C26" s="384"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="384"/>
+      <c r="F26" s="384"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="384"/>
+      <c r="I26" s="384"/>
+      <c r="J26" s="384"/>
+      <c r="K26" s="384"/>
+      <c r="L26" s="384"/>
+      <c r="M26" s="384"/>
+      <c r="N26" s="384"/>
+      <c r="O26" s="384"/>
+      <c r="P26" s="384"/>
+      <c r="Q26" s="384"/>
+      <c r="R26" s="384"/>
+      <c r="S26" s="384"/>
+      <c r="T26" s="385"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
@@ -11946,17 +11941,17 @@
       <c r="B29" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C29" s="365" t="s">
+      <c r="C29" s="375" t="s">
         <v>556</v>
       </c>
-      <c r="D29" s="368"/>
-      <c r="E29" s="368"/>
-      <c r="F29" s="366"/>
-      <c r="H29" s="375" t="s">
+      <c r="D29" s="376"/>
+      <c r="E29" s="376"/>
+      <c r="F29" s="377"/>
+      <c r="H29" s="363" t="s">
         <v>467</v>
       </c>
-      <c r="I29" s="375"/>
-      <c r="J29" s="375"/>
+      <c r="I29" s="363"/>
+      <c r="J29" s="363"/>
       <c r="K29" s="27" t="s">
         <v>468</v>
       </c>
@@ -12073,39 +12068,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="383" t="s">
+      <c r="B35" s="350" t="s">
         <v>510</v>
       </c>
-      <c r="C35" s="384"/>
-      <c r="D35" s="384"/>
-      <c r="E35" s="384"/>
-      <c r="F35" s="385"/>
-      <c r="G35" s="373" t="s">
+      <c r="C35" s="351"/>
+      <c r="D35" s="351"/>
+      <c r="E35" s="351"/>
+      <c r="F35" s="352"/>
+      <c r="G35" s="361" t="s">
         <v>569</v>
       </c>
-      <c r="H35" s="373"/>
-      <c r="I35" s="373"/>
-      <c r="J35" s="373"/>
-      <c r="K35" s="373"/>
+      <c r="H35" s="361"/>
+      <c r="I35" s="361"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="361"/>
       <c r="L35" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="M35" s="380"/>
-      <c r="N35" s="381"/>
-      <c r="O35" s="382"/>
-      <c r="P35" s="387" t="s">
+      <c r="M35" s="368"/>
+      <c r="N35" s="369"/>
+      <c r="O35" s="370"/>
+      <c r="P35" s="354" t="s">
         <v>512</v>
       </c>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
-      <c r="S35" s="389"/>
-      <c r="T35" s="370" t="s">
+      <c r="Q35" s="355"/>
+      <c r="R35" s="355"/>
+      <c r="S35" s="356"/>
+      <c r="T35" s="358" t="s">
         <v>570</v>
       </c>
-      <c r="U35" s="371"/>
-      <c r="V35" s="371"/>
-      <c r="W35" s="371"/>
-      <c r="X35" s="372"/>
+      <c r="U35" s="359"/>
+      <c r="V35" s="359"/>
+      <c r="W35" s="359"/>
+      <c r="X35" s="360"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -12117,78 +12112,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
-      <c r="I36" s="377"/>
-      <c r="J36" s="377"/>
-      <c r="K36" s="377"/>
-      <c r="L36" s="377"/>
-      <c r="M36" s="377"/>
-      <c r="N36" s="377"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="387" t="s">
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
+      <c r="I36" s="365"/>
+      <c r="J36" s="365"/>
+      <c r="K36" s="365"/>
+      <c r="L36" s="365"/>
+      <c r="M36" s="365"/>
+      <c r="N36" s="365"/>
+      <c r="O36" s="366"/>
+      <c r="P36" s="354" t="s">
         <v>513</v>
       </c>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
-      <c r="S36" s="389"/>
-      <c r="T36" s="373" t="s">
+      <c r="Q36" s="355"/>
+      <c r="R36" s="355"/>
+      <c r="S36" s="356"/>
+      <c r="T36" s="361" t="s">
         <v>571</v>
       </c>
-      <c r="U36" s="373"/>
-      <c r="V36" s="373"/>
-      <c r="W36" s="373"/>
-      <c r="X36" s="373"/>
+      <c r="U36" s="361"/>
+      <c r="V36" s="361"/>
+      <c r="W36" s="361"/>
+      <c r="X36" s="361"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.45" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="386" t="s">
+      <c r="B37" s="353" t="s">
         <v>516</v>
       </c>
-      <c r="C37" s="386"/>
-      <c r="D37" s="386"/>
-      <c r="E37" s="386"/>
-      <c r="F37" s="386"/>
-      <c r="G37" s="374" t="s">
+      <c r="C37" s="353"/>
+      <c r="D37" s="353"/>
+      <c r="E37" s="353"/>
+      <c r="F37" s="353"/>
+      <c r="G37" s="362" t="s">
         <v>572</v>
       </c>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="374"/>
-      <c r="M37" s="374"/>
-      <c r="N37" s="374"/>
-      <c r="O37" s="374"/>
-      <c r="P37" s="390" t="s">
+      <c r="H37" s="362"/>
+      <c r="I37" s="362"/>
+      <c r="J37" s="362"/>
+      <c r="K37" s="362"/>
+      <c r="L37" s="362"/>
+      <c r="M37" s="362"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+      <c r="P37" s="357" t="s">
         <v>514</v>
       </c>
-      <c r="Q37" s="390"/>
-      <c r="R37" s="390"/>
-      <c r="S37" s="390"/>
-      <c r="T37" s="379" t="s">
+      <c r="Q37" s="357"/>
+      <c r="R37" s="357"/>
+      <c r="S37" s="357"/>
+      <c r="T37" s="367" t="s">
         <v>515</v>
       </c>
-      <c r="U37" s="379"/>
-      <c r="V37" s="379"/>
-      <c r="W37" s="379"/>
-      <c r="X37" s="379"/>
+      <c r="U37" s="367"/>
+      <c r="V37" s="367"/>
+      <c r="W37" s="367"/>
+      <c r="X37" s="367"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.45" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="351" t="s">
+      <c r="B39" s="390" t="s">
         <v>478</v>
       </c>
-      <c r="C39" s="351"/>
-      <c r="D39" s="352" t="s">
+      <c r="C39" s="390"/>
+      <c r="D39" s="391" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="352"/>
-      <c r="F39" s="352"/>
-      <c r="G39" s="352"/>
-      <c r="H39" s="352"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="391"/>
+      <c r="G39" s="391"/>
+      <c r="H39" s="391"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -12200,13 +12195,13 @@
       <c r="Q39" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="R39" s="352" t="s">
+      <c r="R39" s="391" t="s">
         <v>60</v>
       </c>
-      <c r="S39" s="352"/>
-      <c r="T39" s="352"/>
-      <c r="U39" s="352"/>
-      <c r="V39" s="352"/>
+      <c r="S39" s="391"/>
+      <c r="T39" s="391"/>
+      <c r="U39" s="391"/>
+      <c r="V39" s="391"/>
       <c r="W39" s="211"/>
       <c r="X39" s="19"/>
     </row>
@@ -12239,93 +12234,93 @@
       <c r="B41" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C41" s="349"/>
-      <c r="D41" s="349"/>
-      <c r="E41" s="349"/>
-      <c r="F41" s="349"/>
-      <c r="G41" s="349"/>
+      <c r="C41" s="388"/>
+      <c r="D41" s="388"/>
+      <c r="E41" s="388"/>
+      <c r="F41" s="388"/>
+      <c r="G41" s="388"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="J41" s="349"/>
-      <c r="K41" s="349"/>
-      <c r="L41" s="349"/>
-      <c r="M41" s="349"/>
-      <c r="N41" s="349"/>
-      <c r="O41" s="349"/>
+      <c r="J41" s="388"/>
+      <c r="K41" s="388"/>
+      <c r="L41" s="388"/>
+      <c r="M41" s="388"/>
+      <c r="N41" s="388"/>
+      <c r="O41" s="388"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="R41" s="350"/>
-      <c r="S41" s="350"/>
-      <c r="T41" s="350"/>
-      <c r="U41" s="350"/>
-      <c r="V41" s="350"/>
-      <c r="W41" s="350"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
+      <c r="T41" s="389"/>
+      <c r="U41" s="389"/>
+      <c r="V41" s="389"/>
+      <c r="W41" s="389"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="C42" s="349"/>
-      <c r="D42" s="349"/>
-      <c r="E42" s="349"/>
-      <c r="F42" s="349"/>
-      <c r="G42" s="349"/>
+      <c r="C42" s="388"/>
+      <c r="D42" s="388"/>
+      <c r="E42" s="388"/>
+      <c r="F42" s="388"/>
+      <c r="G42" s="388"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="J42" s="349"/>
-      <c r="K42" s="349"/>
-      <c r="L42" s="349"/>
-      <c r="M42" s="349"/>
-      <c r="N42" s="349"/>
-      <c r="O42" s="349"/>
+      <c r="J42" s="388"/>
+      <c r="K42" s="388"/>
+      <c r="L42" s="388"/>
+      <c r="M42" s="388"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="R42" s="350"/>
-      <c r="S42" s="350"/>
-      <c r="T42" s="350"/>
-      <c r="U42" s="350"/>
-      <c r="V42" s="350"/>
-      <c r="W42" s="350"/>
+      <c r="R42" s="389"/>
+      <c r="S42" s="389"/>
+      <c r="T42" s="389"/>
+      <c r="U42" s="389"/>
+      <c r="V42" s="389"/>
+      <c r="W42" s="389"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="C43" s="349"/>
-      <c r="D43" s="349"/>
-      <c r="E43" s="349"/>
-      <c r="F43" s="349"/>
-      <c r="G43" s="349"/>
+      <c r="C43" s="388"/>
+      <c r="D43" s="388"/>
+      <c r="E43" s="388"/>
+      <c r="F43" s="388"/>
+      <c r="G43" s="388"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="J43" s="349"/>
-      <c r="K43" s="349"/>
-      <c r="L43" s="349"/>
-      <c r="M43" s="349"/>
-      <c r="N43" s="349"/>
-      <c r="O43" s="349"/>
+      <c r="J43" s="388"/>
+      <c r="K43" s="388"/>
+      <c r="L43" s="388"/>
+      <c r="M43" s="388"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="R43" s="350"/>
-      <c r="S43" s="350"/>
-      <c r="T43" s="350"/>
-      <c r="U43" s="350"/>
-      <c r="V43" s="350"/>
-      <c r="W43" s="350"/>
+      <c r="R43" s="389"/>
+      <c r="S43" s="389"/>
+      <c r="T43" s="389"/>
+      <c r="U43" s="389"/>
+      <c r="V43" s="389"/>
+      <c r="W43" s="389"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -12380,31 +12375,34 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B26:T26"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T14:U14"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="J8:M8"/>
@@ -12421,34 +12419,31 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B26:T26"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H25:I25">
@@ -12502,37 +12497,37 @@
       <c r="A2" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="417" t="s">
+      <c r="B2" s="439" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="397" t="s">
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="451" t="s">
         <v>578</v>
       </c>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="398"/>
-      <c r="P2" s="398"/>
-      <c r="Q2" s="398"/>
-      <c r="R2" s="398"/>
-      <c r="S2" s="398"/>
-      <c r="T2" s="398"/>
-      <c r="U2" s="398"/>
-      <c r="V2" s="398"/>
-      <c r="W2" s="398"/>
-      <c r="X2" s="398"/>
-      <c r="Y2" s="398"/>
-      <c r="Z2" s="398"/>
-      <c r="AA2" s="398"/>
-      <c r="AB2" s="399"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
+      <c r="J2" s="452"/>
+      <c r="K2" s="452"/>
+      <c r="L2" s="452"/>
+      <c r="M2" s="452"/>
+      <c r="N2" s="452"/>
+      <c r="O2" s="452"/>
+      <c r="P2" s="452"/>
+      <c r="Q2" s="452"/>
+      <c r="R2" s="452"/>
+      <c r="S2" s="452"/>
+      <c r="T2" s="452"/>
+      <c r="U2" s="452"/>
+      <c r="V2" s="452"/>
+      <c r="W2" s="452"/>
+      <c r="X2" s="452"/>
+      <c r="Y2" s="452"/>
+      <c r="Z2" s="452"/>
+      <c r="AA2" s="452"/>
+      <c r="AB2" s="453"/>
       <c r="AC2" s="161"/>
       <c r="AD2" s="161"/>
       <c r="AE2" s="161"/>
@@ -12542,54 +12537,54 @@
       <c r="AI2" s="162"/>
       <c r="AJ2" s="162"/>
       <c r="AP2" s="159"/>
-      <c r="BF2" s="418"/>
-      <c r="BG2" s="418"/>
-      <c r="BH2" s="418"/>
-      <c r="BI2" s="418"/>
-      <c r="BJ2" s="418"/>
-      <c r="BK2" s="418"/>
-      <c r="BL2" s="418"/>
-      <c r="BM2" s="418"/>
-      <c r="BN2" s="418"/>
-      <c r="BO2" s="418"/>
-      <c r="BP2" s="418"/>
-      <c r="BQ2" s="418"/>
-      <c r="BR2" s="418"/>
-      <c r="BS2" s="418"/>
+      <c r="BF2" s="440"/>
+      <c r="BG2" s="440"/>
+      <c r="BH2" s="440"/>
+      <c r="BI2" s="440"/>
+      <c r="BJ2" s="440"/>
+      <c r="BK2" s="440"/>
+      <c r="BL2" s="440"/>
+      <c r="BM2" s="440"/>
+      <c r="BN2" s="440"/>
+      <c r="BO2" s="440"/>
+      <c r="BP2" s="440"/>
+      <c r="BQ2" s="440"/>
+      <c r="BR2" s="440"/>
+      <c r="BS2" s="440"/>
     </row>
     <row r="3" spans="1:75" ht="46.9" customHeight="1" thickBot="1">
       <c r="A3" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="417" t="s">
+      <c r="B3" s="439" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="401"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="401"/>
-      <c r="L3" s="401"/>
-      <c r="M3" s="401"/>
-      <c r="N3" s="401"/>
-      <c r="O3" s="401"/>
-      <c r="P3" s="401"/>
-      <c r="Q3" s="401"/>
-      <c r="R3" s="401"/>
-      <c r="S3" s="401"/>
-      <c r="T3" s="401"/>
-      <c r="U3" s="401"/>
-      <c r="V3" s="401"/>
-      <c r="W3" s="401"/>
-      <c r="X3" s="401"/>
-      <c r="Y3" s="401"/>
-      <c r="Z3" s="401"/>
-      <c r="AA3" s="401"/>
-      <c r="AB3" s="402"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="455"/>
+      <c r="G3" s="455"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="455"/>
+      <c r="K3" s="455"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="455"/>
+      <c r="O3" s="455"/>
+      <c r="P3" s="455"/>
+      <c r="Q3" s="455"/>
+      <c r="R3" s="455"/>
+      <c r="S3" s="455"/>
+      <c r="T3" s="455"/>
+      <c r="U3" s="455"/>
+      <c r="V3" s="455"/>
+      <c r="W3" s="455"/>
+      <c r="X3" s="455"/>
+      <c r="Y3" s="455"/>
+      <c r="Z3" s="455"/>
+      <c r="AA3" s="455"/>
+      <c r="AB3" s="456"/>
       <c r="AC3" s="161"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="161"/>
@@ -12698,22 +12693,22 @@
       <c r="BO4" s="157"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="423" t="s">
+      <c r="A5" s="437" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="403" t="s">
+      <c r="B5" s="457" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="421" t="s">
+      <c r="C5" s="443" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="405" t="s">
+      <c r="D5" s="459" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="409" t="s">
+      <c r="E5" s="461" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="410"/>
+      <c r="F5" s="462"/>
       <c r="G5" s="167"/>
       <c r="H5" s="167"/>
       <c r="I5" s="167"/>
@@ -12740,10 +12735,10 @@
       <c r="AD5" s="171"/>
       <c r="AE5" s="172"/>
       <c r="AF5" s="172"/>
-      <c r="AG5" s="419"/>
-      <c r="AH5" s="419"/>
-      <c r="AI5" s="419"/>
-      <c r="AJ5" s="419"/>
+      <c r="AG5" s="441"/>
+      <c r="AH5" s="441"/>
+      <c r="AI5" s="441"/>
+      <c r="AJ5" s="441"/>
       <c r="AK5" s="173"/>
       <c r="AL5" s="174"/>
       <c r="AM5" s="175"/>
@@ -12785,12 +12780,12 @@
       <c r="BW5" s="175"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="424"/>
-      <c r="B6" s="404"/>
-      <c r="C6" s="422"/>
-      <c r="D6" s="406"/>
-      <c r="E6" s="411"/>
-      <c r="F6" s="412"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="444"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="463"/>
+      <c r="F6" s="464"/>
       <c r="G6" s="112"/>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -12815,12 +12810,12 @@
       <c r="AB6" s="112"/>
       <c r="AC6" s="112"/>
       <c r="AD6" s="112"/>
-      <c r="AE6" s="420"/>
-      <c r="AF6" s="420"/>
+      <c r="AE6" s="442"/>
+      <c r="AF6" s="442"/>
       <c r="AG6" s="176"/>
       <c r="AH6" s="177"/>
-      <c r="AI6" s="420"/>
-      <c r="AJ6" s="420"/>
+      <c r="AI6" s="442"/>
+      <c r="AJ6" s="442"/>
       <c r="AK6" s="177"/>
       <c r="AL6" s="178"/>
       <c r="AM6" s="178"/>
@@ -12862,22 +12857,22 @@
       <c r="BW6" s="179"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="435" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="413" t="s">
+      <c r="B7" s="392" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="407" t="s">
+      <c r="C7" s="435" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="408" t="s">
+      <c r="D7" s="436" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="415" t="s">
+      <c r="E7" s="396" t="s">
         <v>520</v>
       </c>
-      <c r="F7" s="416"/>
+      <c r="F7" s="397"/>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
@@ -12927,14 +12922,14 @@
       <c r="BW7" s="186"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="407"/>
-      <c r="B8" s="414"/>
-      <c r="C8" s="407"/>
-      <c r="D8" s="408"/>
-      <c r="E8" s="415" t="s">
+      <c r="A8" s="435"/>
+      <c r="B8" s="393"/>
+      <c r="C8" s="435"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="396" t="s">
         <v>410</v>
       </c>
-      <c r="F8" s="416"/>
+      <c r="F8" s="397"/>
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
@@ -12981,22 +12976,22 @@
       <c r="BW8" s="186"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="407" t="s">
+      <c r="A9" s="435" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="413" t="s">
+      <c r="B9" s="392" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="407" t="s">
+      <c r="C9" s="435" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="408" t="s">
+      <c r="D9" s="436" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="415" t="s">
+      <c r="E9" s="396" t="s">
         <v>521</v>
       </c>
-      <c r="F9" s="416"/>
+      <c r="F9" s="397"/>
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
       <c r="I9" s="112"/>
@@ -13043,14 +13038,14 @@
       <c r="BW9" s="186"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="407"/>
-      <c r="B10" s="414"/>
-      <c r="C10" s="407"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="415" t="s">
+      <c r="A10" s="435"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="435"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="396" t="s">
         <v>411</v>
       </c>
-      <c r="F10" s="416"/>
+      <c r="F10" s="397"/>
       <c r="G10" s="112"/>
       <c r="H10" s="112"/>
       <c r="I10" s="112"/>
@@ -13101,22 +13096,22 @@
       <c r="BW10" s="186"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="407" t="s">
+      <c r="A11" s="435" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="413" t="s">
+      <c r="B11" s="392" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="407" t="s">
+      <c r="C11" s="435" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="408" t="s">
+      <c r="D11" s="436" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="415" t="s">
+      <c r="E11" s="396" t="s">
         <v>522</v>
       </c>
-      <c r="F11" s="416"/>
+      <c r="F11" s="397"/>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
@@ -13168,14 +13163,14 @@
       <c r="BW11" s="186"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="407"/>
-      <c r="B12" s="414"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="415" t="s">
+      <c r="A12" s="435"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="435"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="396" t="s">
         <v>412</v>
       </c>
-      <c r="F12" s="416"/>
+      <c r="F12" s="397"/>
       <c r="G12" s="112"/>
       <c r="H12" s="112"/>
       <c r="I12" s="112"/>
@@ -13227,22 +13222,22 @@
       <c r="BW12" s="186"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="407" t="s">
+      <c r="A13" s="435" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="413" t="s">
+      <c r="B13" s="392" t="s">
         <v>335</v>
       </c>
-      <c r="C13" s="407" t="s">
+      <c r="C13" s="435" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="408" t="s">
+      <c r="D13" s="436" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="396" t="s">
         <v>523</v>
       </c>
-      <c r="F13" s="416"/>
+      <c r="F13" s="397"/>
       <c r="G13" s="112"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
@@ -13294,14 +13289,14 @@
       <c r="BW13" s="186"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="407"/>
-      <c r="B14" s="414"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="408"/>
-      <c r="E14" s="415" t="s">
+      <c r="A14" s="435"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="435"/>
+      <c r="D14" s="436"/>
+      <c r="E14" s="396" t="s">
         <v>413</v>
       </c>
-      <c r="F14" s="416"/>
+      <c r="F14" s="397"/>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
       <c r="I14" s="112"/>
@@ -13353,22 +13348,22 @@
       <c r="BW14" s="186"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="407" t="s">
+      <c r="A15" s="435" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="392" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="407" t="s">
+      <c r="C15" s="435" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="408" t="s">
+      <c r="D15" s="436" t="s">
         <v>341</v>
       </c>
-      <c r="E15" s="415" t="s">
+      <c r="E15" s="396" t="s">
         <v>524</v>
       </c>
-      <c r="F15" s="416"/>
+      <c r="F15" s="397"/>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
       <c r="I15" s="112"/>
@@ -13420,14 +13415,14 @@
       <c r="BW15" s="186"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="407"/>
-      <c r="B16" s="414"/>
-      <c r="C16" s="407"/>
-      <c r="D16" s="408"/>
-      <c r="E16" s="415" t="s">
+      <c r="A16" s="435"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="435"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="396" t="s">
         <v>414</v>
       </c>
-      <c r="F16" s="416"/>
+      <c r="F16" s="397"/>
       <c r="G16" s="112"/>
       <c r="H16" s="112"/>
       <c r="I16" s="112"/>
@@ -13474,22 +13469,22 @@
       <c r="BW16" s="186"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="407" t="s">
+      <c r="A17" s="435" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="413" t="s">
+      <c r="B17" s="392" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="407" t="s">
+      <c r="C17" s="435" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="408" t="s">
+      <c r="D17" s="436" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="415" t="s">
+      <c r="E17" s="396" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="416"/>
+      <c r="F17" s="397"/>
       <c r="G17" s="112"/>
       <c r="H17" s="112"/>
       <c r="I17" s="112"/>
@@ -13536,14 +13531,14 @@
       <c r="BW17" s="186"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="407"/>
-      <c r="B18" s="414"/>
-      <c r="C18" s="407"/>
-      <c r="D18" s="408"/>
-      <c r="E18" s="415" t="s">
+      <c r="A18" s="435"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="435"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="396" t="s">
         <v>415</v>
       </c>
-      <c r="F18" s="416"/>
+      <c r="F18" s="397"/>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
       <c r="I18" s="112"/>
@@ -13598,22 +13593,22 @@
       <c r="BW18" s="186"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="407" t="s">
+      <c r="A19" s="435" t="s">
         <v>346</v>
       </c>
-      <c r="B19" s="413" t="s">
+      <c r="B19" s="392" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="407" t="s">
+      <c r="C19" s="435" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="408" t="s">
+      <c r="D19" s="436" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="415" t="s">
+      <c r="E19" s="396" t="s">
         <v>526</v>
       </c>
-      <c r="F19" s="416"/>
+      <c r="F19" s="397"/>
       <c r="G19" s="112"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
@@ -13660,14 +13655,14 @@
       <c r="BW19" s="186"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="407"/>
-      <c r="B20" s="414"/>
-      <c r="C20" s="407"/>
-      <c r="D20" s="408"/>
-      <c r="E20" s="415" t="s">
+      <c r="A20" s="435"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="435"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="396" t="s">
         <v>416</v>
       </c>
-      <c r="F20" s="416"/>
+      <c r="F20" s="397"/>
       <c r="G20" s="112"/>
       <c r="H20" s="112"/>
       <c r="I20" s="112"/>
@@ -13714,22 +13709,22 @@
       <c r="BW20" s="186"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="407" t="s">
+      <c r="A21" s="435" t="s">
         <v>350</v>
       </c>
-      <c r="B21" s="413" t="s">
+      <c r="B21" s="392" t="s">
         <v>351</v>
       </c>
-      <c r="C21" s="407" t="s">
+      <c r="C21" s="435" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="408" t="s">
+      <c r="D21" s="436" t="s">
         <v>353</v>
       </c>
-      <c r="E21" s="415" t="s">
+      <c r="E21" s="396" t="s">
         <v>527</v>
       </c>
-      <c r="F21" s="416"/>
+      <c r="F21" s="397"/>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
       <c r="I21" s="112"/>
@@ -13776,14 +13771,14 @@
       <c r="BW21" s="186"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="407"/>
-      <c r="B22" s="414"/>
-      <c r="C22" s="407"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="415" t="s">
+      <c r="A22" s="435"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="435"/>
+      <c r="D22" s="436"/>
+      <c r="E22" s="396" t="s">
         <v>417</v>
       </c>
-      <c r="F22" s="416"/>
+      <c r="F22" s="397"/>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
       <c r="I22" s="112"/>
@@ -13830,22 +13825,22 @@
       <c r="BW22" s="186"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="407" t="s">
+      <c r="A23" s="435" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="413" t="s">
+      <c r="B23" s="392" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="407" t="s">
+      <c r="C23" s="435" t="s">
         <v>356</v>
       </c>
-      <c r="D23" s="408" t="s">
+      <c r="D23" s="436" t="s">
         <v>357</v>
       </c>
-      <c r="E23" s="415" t="s">
+      <c r="E23" s="396" t="s">
         <v>528</v>
       </c>
-      <c r="F23" s="416"/>
+      <c r="F23" s="397"/>
       <c r="G23" s="112"/>
       <c r="H23" s="112"/>
       <c r="I23" s="112"/>
@@ -13892,14 +13887,14 @@
       <c r="BW23" s="186"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="407"/>
-      <c r="B24" s="414"/>
-      <c r="C24" s="407"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="415" t="s">
+      <c r="A24" s="435"/>
+      <c r="B24" s="393"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="396" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="416"/>
+      <c r="F24" s="397"/>
       <c r="G24" s="112"/>
       <c r="H24" s="112"/>
       <c r="I24" s="112"/>
@@ -13946,22 +13941,22 @@
       <c r="BW24" s="186"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="407" t="s">
+      <c r="A25" s="435" t="s">
         <v>358</v>
       </c>
-      <c r="B25" s="413" t="s">
+      <c r="B25" s="392" t="s">
         <v>359</v>
       </c>
-      <c r="C25" s="407" t="s">
+      <c r="C25" s="435" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="408" t="s">
+      <c r="D25" s="436" t="s">
         <v>361</v>
       </c>
-      <c r="E25" s="415" t="s">
+      <c r="E25" s="396" t="s">
         <v>529</v>
       </c>
-      <c r="F25" s="416"/>
+      <c r="F25" s="397"/>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
       <c r="I25" s="112"/>
@@ -14008,14 +14003,14 @@
       <c r="BW25" s="186"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="407"/>
-      <c r="B26" s="414"/>
-      <c r="C26" s="407"/>
-      <c r="D26" s="408"/>
-      <c r="E26" s="415" t="s">
+      <c r="A26" s="435"/>
+      <c r="B26" s="393"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="436"/>
+      <c r="E26" s="396" t="s">
         <v>419</v>
       </c>
-      <c r="F26" s="416"/>
+      <c r="F26" s="397"/>
       <c r="G26" s="112"/>
       <c r="H26" s="112"/>
       <c r="I26" s="112"/>
@@ -14062,22 +14057,22 @@
       <c r="BW26" s="186"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="407" t="s">
+      <c r="A27" s="435" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="413" t="s">
+      <c r="B27" s="392" t="s">
         <v>363</v>
       </c>
-      <c r="C27" s="407" t="s">
+      <c r="C27" s="435" t="s">
         <v>364</v>
       </c>
-      <c r="D27" s="408" t="s">
+      <c r="D27" s="436" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="415" t="s">
+      <c r="E27" s="396" t="s">
         <v>530</v>
       </c>
-      <c r="F27" s="416"/>
+      <c r="F27" s="397"/>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
       <c r="I27" s="112"/>
@@ -14124,14 +14119,14 @@
       <c r="BW27" s="186"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="407"/>
-      <c r="B28" s="414"/>
-      <c r="C28" s="407"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="415" t="s">
+      <c r="A28" s="435"/>
+      <c r="B28" s="393"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="396" t="s">
         <v>420</v>
       </c>
-      <c r="F28" s="416"/>
+      <c r="F28" s="397"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
       <c r="I28" s="112"/>
@@ -14178,22 +14173,22 @@
       <c r="BW28" s="186"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="407" t="s">
+      <c r="A29" s="435" t="s">
         <v>366</v>
       </c>
-      <c r="B29" s="413" t="s">
+      <c r="B29" s="392" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="407" t="s">
+      <c r="C29" s="435" t="s">
         <v>368</v>
       </c>
-      <c r="D29" s="408" t="s">
+      <c r="D29" s="436" t="s">
         <v>369</v>
       </c>
-      <c r="E29" s="415" t="s">
+      <c r="E29" s="396" t="s">
         <v>531</v>
       </c>
-      <c r="F29" s="416"/>
+      <c r="F29" s="397"/>
       <c r="G29" s="112"/>
       <c r="H29" s="112"/>
       <c r="I29" s="112"/>
@@ -14240,14 +14235,14 @@
       <c r="BW29" s="186"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="407"/>
-      <c r="B30" s="414"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="415" t="s">
+      <c r="A30" s="435"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="435"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="396" t="s">
         <v>421</v>
       </c>
-      <c r="F30" s="416"/>
+      <c r="F30" s="397"/>
       <c r="G30" s="112"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
@@ -14294,22 +14289,22 @@
       <c r="BW30" s="186"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="407" t="s">
+      <c r="A31" s="435" t="s">
         <v>370</v>
       </c>
-      <c r="B31" s="413" t="s">
+      <c r="B31" s="392" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="407" t="s">
+      <c r="C31" s="435" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="408" t="s">
+      <c r="D31" s="436" t="s">
         <v>373</v>
       </c>
-      <c r="E31" s="415" t="s">
+      <c r="E31" s="396" t="s">
         <v>532</v>
       </c>
-      <c r="F31" s="416"/>
+      <c r="F31" s="397"/>
       <c r="G31" s="112"/>
       <c r="H31" s="112"/>
       <c r="I31" s="112"/>
@@ -14356,14 +14351,14 @@
       <c r="BW31" s="186"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="407"/>
-      <c r="B32" s="414"/>
-      <c r="C32" s="407"/>
-      <c r="D32" s="408"/>
-      <c r="E32" s="415" t="s">
+      <c r="A32" s="435"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="435"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="396" t="s">
         <v>422</v>
       </c>
-      <c r="F32" s="416"/>
+      <c r="F32" s="397"/>
       <c r="G32" s="112"/>
       <c r="H32" s="112"/>
       <c r="I32" s="112"/>
@@ -14410,22 +14405,22 @@
       <c r="BW32" s="186"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="407" t="s">
+      <c r="A33" s="435" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="413" t="s">
+      <c r="B33" s="392" t="s">
         <v>375</v>
       </c>
-      <c r="C33" s="407" t="s">
+      <c r="C33" s="435" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="408" t="s">
+      <c r="D33" s="436" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="415" t="s">
+      <c r="E33" s="396" t="s">
         <v>533</v>
       </c>
-      <c r="F33" s="416"/>
+      <c r="F33" s="397"/>
       <c r="G33" s="112"/>
       <c r="H33" s="112"/>
       <c r="I33" s="112"/>
@@ -14472,14 +14467,14 @@
       <c r="BW33" s="186"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="407"/>
-      <c r="B34" s="414"/>
-      <c r="C34" s="407"/>
-      <c r="D34" s="408"/>
-      <c r="E34" s="415" t="s">
+      <c r="A34" s="435"/>
+      <c r="B34" s="393"/>
+      <c r="C34" s="435"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="396" t="s">
         <v>423</v>
       </c>
-      <c r="F34" s="416"/>
+      <c r="F34" s="397"/>
       <c r="G34" s="112"/>
       <c r="H34" s="112"/>
       <c r="I34" s="112"/>
@@ -14526,22 +14521,22 @@
       <c r="BW34" s="186"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="407" t="s">
+      <c r="A35" s="435" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="413" t="s">
+      <c r="B35" s="392" t="s">
         <v>379</v>
       </c>
-      <c r="C35" s="407" t="s">
+      <c r="C35" s="435" t="s">
         <v>380</v>
       </c>
-      <c r="D35" s="408" t="s">
+      <c r="D35" s="436" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="415" t="s">
+      <c r="E35" s="396" t="s">
         <v>534</v>
       </c>
-      <c r="F35" s="416"/>
+      <c r="F35" s="397"/>
       <c r="G35" s="112"/>
       <c r="H35" s="112"/>
       <c r="I35" s="112"/>
@@ -14588,14 +14583,14 @@
       <c r="BW35" s="186"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="407"/>
-      <c r="B36" s="414"/>
-      <c r="C36" s="407"/>
-      <c r="D36" s="408"/>
-      <c r="E36" s="415" t="s">
+      <c r="A36" s="435"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="435"/>
+      <c r="D36" s="436"/>
+      <c r="E36" s="396" t="s">
         <v>424</v>
       </c>
-      <c r="F36" s="416"/>
+      <c r="F36" s="397"/>
       <c r="G36" s="112"/>
       <c r="H36" s="112"/>
       <c r="I36" s="112"/>
@@ -14642,22 +14637,22 @@
       <c r="BW36" s="186"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="407" t="s">
+      <c r="A37" s="435" t="s">
         <v>382</v>
       </c>
-      <c r="B37" s="413" t="s">
+      <c r="B37" s="392" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="407" t="s">
+      <c r="C37" s="435" t="s">
         <v>384</v>
       </c>
-      <c r="D37" s="408" t="s">
+      <c r="D37" s="436" t="s">
         <v>385</v>
       </c>
-      <c r="E37" s="415" t="s">
+      <c r="E37" s="396" t="s">
         <v>535</v>
       </c>
-      <c r="F37" s="416"/>
+      <c r="F37" s="397"/>
       <c r="G37" s="112"/>
       <c r="H37" s="112"/>
       <c r="I37" s="112"/>
@@ -14704,14 +14699,14 @@
       <c r="BW37" s="186"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="407"/>
-      <c r="B38" s="414"/>
-      <c r="C38" s="407"/>
-      <c r="D38" s="408"/>
-      <c r="E38" s="415" t="s">
+      <c r="A38" s="435"/>
+      <c r="B38" s="393"/>
+      <c r="C38" s="435"/>
+      <c r="D38" s="436"/>
+      <c r="E38" s="396" t="s">
         <v>425</v>
       </c>
-      <c r="F38" s="416"/>
+      <c r="F38" s="397"/>
       <c r="G38" s="112"/>
       <c r="H38" s="112"/>
       <c r="I38" s="112"/>
@@ -14758,22 +14753,22 @@
       <c r="BW38" s="186"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="407" t="s">
+      <c r="A39" s="435" t="s">
         <v>386</v>
       </c>
-      <c r="B39" s="413" t="s">
+      <c r="B39" s="392" t="s">
         <v>387</v>
       </c>
-      <c r="C39" s="407" t="s">
+      <c r="C39" s="435" t="s">
         <v>388</v>
       </c>
-      <c r="D39" s="408" t="s">
+      <c r="D39" s="436" t="s">
         <v>389</v>
       </c>
-      <c r="E39" s="415" t="s">
+      <c r="E39" s="396" t="s">
         <v>536</v>
       </c>
-      <c r="F39" s="416"/>
+      <c r="F39" s="397"/>
       <c r="G39" s="112"/>
       <c r="H39" s="112"/>
       <c r="I39" s="112"/>
@@ -14820,14 +14815,14 @@
       <c r="BW39" s="186"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="407"/>
-      <c r="B40" s="414"/>
-      <c r="C40" s="407"/>
-      <c r="D40" s="408"/>
-      <c r="E40" s="415" t="s">
+      <c r="A40" s="435"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="435"/>
+      <c r="D40" s="436"/>
+      <c r="E40" s="396" t="s">
         <v>426</v>
       </c>
-      <c r="F40" s="416"/>
+      <c r="F40" s="397"/>
       <c r="G40" s="112"/>
       <c r="H40" s="112"/>
       <c r="I40" s="112"/>
@@ -14898,18 +14893,18 @@
       <c r="BW40" s="188"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="393" t="s">
+      <c r="A41" s="447" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="394"/>
-      <c r="C41" s="395"/>
-      <c r="D41" s="395"/>
-      <c r="E41" s="395"/>
-      <c r="F41" s="396"/>
-      <c r="G41" s="391" t="s">
+      <c r="B41" s="448"/>
+      <c r="C41" s="449"/>
+      <c r="D41" s="449"/>
+      <c r="E41" s="449"/>
+      <c r="F41" s="450"/>
+      <c r="G41" s="445" t="s">
         <v>575</v>
       </c>
-      <c r="H41" s="392"/>
+      <c r="H41" s="446"/>
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
       <c r="K41" s="112"/>
@@ -14977,18 +14972,18 @@
       <c r="BW41" s="159"/>
     </row>
     <row r="42" spans="1:75" s="190" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="454" t="s">
+      <c r="A42" s="409" t="s">
         <v>321</v>
       </c>
-      <c r="B42" s="455"/>
-      <c r="C42" s="458" t="s">
+      <c r="B42" s="410"/>
+      <c r="C42" s="413" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="459"/>
-      <c r="E42" s="415" t="s">
+      <c r="D42" s="414"/>
+      <c r="E42" s="396" t="s">
         <v>537</v>
       </c>
-      <c r="F42" s="416"/>
+      <c r="F42" s="397"/>
       <c r="G42" s="112"/>
       <c r="H42" s="112"/>
       <c r="I42" s="112"/>
@@ -15058,14 +15053,14 @@
       <c r="BW42" s="191"/>
     </row>
     <row r="43" spans="1:75" s="190" customFormat="1">
-      <c r="A43" s="454"/>
-      <c r="B43" s="455"/>
-      <c r="C43" s="460"/>
-      <c r="D43" s="461"/>
-      <c r="E43" s="426" t="s">
+      <c r="A43" s="409"/>
+      <c r="B43" s="410"/>
+      <c r="C43" s="400"/>
+      <c r="D43" s="401"/>
+      <c r="E43" s="394" t="s">
         <v>427</v>
       </c>
-      <c r="F43" s="427"/>
+      <c r="F43" s="395"/>
       <c r="G43" s="112"/>
       <c r="H43" s="112"/>
       <c r="I43" s="112"/>
@@ -15135,16 +15130,16 @@
       <c r="BW43" s="191"/>
     </row>
     <row r="44" spans="1:75" s="190" customFormat="1">
-      <c r="A44" s="454"/>
-      <c r="B44" s="455"/>
-      <c r="C44" s="462" t="s">
+      <c r="A44" s="409"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="398" t="s">
         <v>391</v>
       </c>
-      <c r="D44" s="463"/>
-      <c r="E44" s="415" t="s">
+      <c r="D44" s="399"/>
+      <c r="E44" s="396" t="s">
         <v>538</v>
       </c>
-      <c r="F44" s="416"/>
+      <c r="F44" s="397"/>
       <c r="G44" s="112"/>
       <c r="H44" s="112"/>
       <c r="I44" s="112"/>
@@ -15214,14 +15209,14 @@
       <c r="BW44" s="191"/>
     </row>
     <row r="45" spans="1:75" s="190" customFormat="1">
-      <c r="A45" s="454"/>
-      <c r="B45" s="455"/>
-      <c r="C45" s="460"/>
-      <c r="D45" s="461"/>
-      <c r="E45" s="426" t="s">
+      <c r="A45" s="409"/>
+      <c r="B45" s="410"/>
+      <c r="C45" s="400"/>
+      <c r="D45" s="401"/>
+      <c r="E45" s="394" t="s">
         <v>428</v>
       </c>
-      <c r="F45" s="427"/>
+      <c r="F45" s="395"/>
       <c r="G45" s="112"/>
       <c r="H45" s="112"/>
       <c r="I45" s="112"/>
@@ -15291,16 +15286,16 @@
       <c r="BW45" s="191"/>
     </row>
     <row r="46" spans="1:75" s="190" customFormat="1">
-      <c r="A46" s="454"/>
-      <c r="B46" s="455"/>
-      <c r="C46" s="462" t="s">
+      <c r="A46" s="409"/>
+      <c r="B46" s="410"/>
+      <c r="C46" s="398" t="s">
         <v>392</v>
       </c>
-      <c r="D46" s="463"/>
-      <c r="E46" s="415" t="s">
+      <c r="D46" s="399"/>
+      <c r="E46" s="396" t="s">
         <v>539</v>
       </c>
-      <c r="F46" s="416"/>
+      <c r="F46" s="397"/>
       <c r="G46" s="112"/>
       <c r="H46" s="112"/>
       <c r="I46" s="112"/>
@@ -15325,10 +15320,10 @@
       <c r="AD46" s="112"/>
       <c r="AE46" s="112"/>
       <c r="AF46" s="112"/>
-      <c r="AG46" s="425"/>
-      <c r="AH46" s="425"/>
-      <c r="AI46" s="425"/>
-      <c r="AJ46" s="425"/>
+      <c r="AG46" s="415"/>
+      <c r="AH46" s="415"/>
+      <c r="AI46" s="415"/>
+      <c r="AJ46" s="415"/>
       <c r="AK46" s="191"/>
       <c r="AL46" s="191"/>
       <c r="AM46" s="191"/>
@@ -15370,14 +15365,14 @@
       <c r="BW46" s="191"/>
     </row>
     <row r="47" spans="1:75" s="190" customFormat="1">
-      <c r="A47" s="454"/>
-      <c r="B47" s="455"/>
-      <c r="C47" s="460"/>
-      <c r="D47" s="461"/>
-      <c r="E47" s="426" t="s">
+      <c r="A47" s="409"/>
+      <c r="B47" s="410"/>
+      <c r="C47" s="400"/>
+      <c r="D47" s="401"/>
+      <c r="E47" s="394" t="s">
         <v>429</v>
       </c>
-      <c r="F47" s="427"/>
+      <c r="F47" s="395"/>
       <c r="G47" s="112"/>
       <c r="H47" s="112"/>
       <c r="I47" s="112"/>
@@ -15447,16 +15442,16 @@
       <c r="BW47" s="191"/>
     </row>
     <row r="48" spans="1:75" s="190" customFormat="1">
-      <c r="A48" s="454"/>
-      <c r="B48" s="455"/>
-      <c r="C48" s="462" t="s">
+      <c r="A48" s="409"/>
+      <c r="B48" s="410"/>
+      <c r="C48" s="398" t="s">
         <v>393</v>
       </c>
-      <c r="D48" s="463"/>
-      <c r="E48" s="415" t="s">
+      <c r="D48" s="399"/>
+      <c r="E48" s="396" t="s">
         <v>540</v>
       </c>
-      <c r="F48" s="416"/>
+      <c r="F48" s="397"/>
       <c r="G48" s="112"/>
       <c r="H48" s="112"/>
       <c r="I48" s="112"/>
@@ -15481,10 +15476,10 @@
       <c r="AD48" s="112"/>
       <c r="AE48" s="112"/>
       <c r="AF48" s="112"/>
-      <c r="AG48" s="425"/>
-      <c r="AH48" s="425"/>
-      <c r="AI48" s="425"/>
-      <c r="AJ48" s="425"/>
+      <c r="AG48" s="415"/>
+      <c r="AH48" s="415"/>
+      <c r="AI48" s="415"/>
+      <c r="AJ48" s="415"/>
       <c r="AK48" s="191"/>
       <c r="AL48" s="191"/>
       <c r="AM48" s="191"/>
@@ -15526,14 +15521,14 @@
       <c r="BW48" s="191"/>
     </row>
     <row r="49" spans="1:75" s="190" customFormat="1">
-      <c r="A49" s="454"/>
-      <c r="B49" s="455"/>
-      <c r="C49" s="460"/>
-      <c r="D49" s="461"/>
-      <c r="E49" s="426" t="s">
+      <c r="A49" s="409"/>
+      <c r="B49" s="410"/>
+      <c r="C49" s="400"/>
+      <c r="D49" s="401"/>
+      <c r="E49" s="394" t="s">
         <v>430</v>
       </c>
-      <c r="F49" s="427"/>
+      <c r="F49" s="395"/>
       <c r="G49" s="112"/>
       <c r="H49" s="112"/>
       <c r="I49" s="112"/>
@@ -15603,16 +15598,16 @@
       <c r="BW49" s="191"/>
     </row>
     <row r="50" spans="1:75" s="190" customFormat="1">
-      <c r="A50" s="454"/>
-      <c r="B50" s="455"/>
-      <c r="C50" s="462" t="s">
+      <c r="A50" s="409"/>
+      <c r="B50" s="410"/>
+      <c r="C50" s="398" t="s">
         <v>394</v>
       </c>
-      <c r="D50" s="463"/>
-      <c r="E50" s="415" t="s">
+      <c r="D50" s="399"/>
+      <c r="E50" s="396" t="s">
         <v>541</v>
       </c>
-      <c r="F50" s="416"/>
+      <c r="F50" s="397"/>
       <c r="G50" s="112"/>
       <c r="H50" s="112"/>
       <c r="I50" s="112"/>
@@ -15637,10 +15632,10 @@
       <c r="AD50" s="112"/>
       <c r="AE50" s="112"/>
       <c r="AF50" s="112"/>
-      <c r="AG50" s="425"/>
-      <c r="AH50" s="425"/>
-      <c r="AI50" s="425"/>
-      <c r="AJ50" s="425"/>
+      <c r="AG50" s="415"/>
+      <c r="AH50" s="415"/>
+      <c r="AI50" s="415"/>
+      <c r="AJ50" s="415"/>
       <c r="AK50" s="191"/>
       <c r="AL50" s="191"/>
       <c r="AM50" s="191"/>
@@ -15682,14 +15677,14 @@
       <c r="BW50" s="191"/>
     </row>
     <row r="51" spans="1:75" s="190" customFormat="1">
-      <c r="A51" s="454"/>
-      <c r="B51" s="455"/>
-      <c r="C51" s="460"/>
-      <c r="D51" s="461"/>
-      <c r="E51" s="426" t="s">
+      <c r="A51" s="409"/>
+      <c r="B51" s="410"/>
+      <c r="C51" s="400"/>
+      <c r="D51" s="401"/>
+      <c r="E51" s="394" t="s">
         <v>431</v>
       </c>
-      <c r="F51" s="427"/>
+      <c r="F51" s="395"/>
       <c r="G51" s="112"/>
       <c r="H51" s="112"/>
       <c r="I51" s="112"/>
@@ -15759,16 +15754,16 @@
       <c r="BW51" s="191"/>
     </row>
     <row r="52" spans="1:75" s="190" customFormat="1">
-      <c r="A52" s="454"/>
-      <c r="B52" s="455"/>
-      <c r="C52" s="462" t="s">
+      <c r="A52" s="409"/>
+      <c r="B52" s="410"/>
+      <c r="C52" s="398" t="s">
         <v>395</v>
       </c>
-      <c r="D52" s="463"/>
-      <c r="E52" s="415" t="s">
+      <c r="D52" s="399"/>
+      <c r="E52" s="396" t="s">
         <v>542</v>
       </c>
-      <c r="F52" s="416"/>
+      <c r="F52" s="397"/>
       <c r="G52" s="112"/>
       <c r="H52" s="112"/>
       <c r="I52" s="112"/>
@@ -15793,10 +15788,10 @@
       <c r="AD52" s="112"/>
       <c r="AE52" s="112"/>
       <c r="AF52" s="112"/>
-      <c r="AG52" s="425"/>
-      <c r="AH52" s="425"/>
-      <c r="AI52" s="425"/>
-      <c r="AJ52" s="425"/>
+      <c r="AG52" s="415"/>
+      <c r="AH52" s="415"/>
+      <c r="AI52" s="415"/>
+      <c r="AJ52" s="415"/>
       <c r="AK52" s="191"/>
       <c r="AL52" s="191"/>
       <c r="AM52" s="191"/>
@@ -15838,14 +15833,14 @@
       <c r="BW52" s="191"/>
     </row>
     <row r="53" spans="1:75" s="190" customFormat="1">
-      <c r="A53" s="454"/>
-      <c r="B53" s="455"/>
-      <c r="C53" s="460"/>
-      <c r="D53" s="461"/>
-      <c r="E53" s="426" t="s">
+      <c r="A53" s="409"/>
+      <c r="B53" s="410"/>
+      <c r="C53" s="400"/>
+      <c r="D53" s="401"/>
+      <c r="E53" s="394" t="s">
         <v>432</v>
       </c>
-      <c r="F53" s="427"/>
+      <c r="F53" s="395"/>
       <c r="G53" s="112"/>
       <c r="H53" s="112"/>
       <c r="I53" s="112"/>
@@ -15915,16 +15910,16 @@
       <c r="BW53" s="191"/>
     </row>
     <row r="54" spans="1:75" s="190" customFormat="1">
-      <c r="A54" s="454"/>
-      <c r="B54" s="455"/>
-      <c r="C54" s="462" t="s">
+      <c r="A54" s="409"/>
+      <c r="B54" s="410"/>
+      <c r="C54" s="398" t="s">
         <v>396</v>
       </c>
-      <c r="D54" s="463"/>
-      <c r="E54" s="415" t="s">
+      <c r="D54" s="399"/>
+      <c r="E54" s="396" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="416"/>
+      <c r="F54" s="397"/>
       <c r="G54" s="112"/>
       <c r="H54" s="112"/>
       <c r="I54" s="112"/>
@@ -15949,10 +15944,10 @@
       <c r="AD54" s="112"/>
       <c r="AE54" s="112"/>
       <c r="AF54" s="112"/>
-      <c r="AG54" s="425"/>
-      <c r="AH54" s="425"/>
-      <c r="AI54" s="425"/>
-      <c r="AJ54" s="425"/>
+      <c r="AG54" s="415"/>
+      <c r="AH54" s="415"/>
+      <c r="AI54" s="415"/>
+      <c r="AJ54" s="415"/>
       <c r="AK54" s="191"/>
       <c r="AL54" s="191"/>
       <c r="AM54" s="191"/>
@@ -15994,14 +15989,14 @@
       <c r="BW54" s="191"/>
     </row>
     <row r="55" spans="1:75" s="190" customFormat="1">
-      <c r="A55" s="454"/>
-      <c r="B55" s="455"/>
-      <c r="C55" s="460"/>
-      <c r="D55" s="461"/>
-      <c r="E55" s="426" t="s">
+      <c r="A55" s="409"/>
+      <c r="B55" s="410"/>
+      <c r="C55" s="400"/>
+      <c r="D55" s="401"/>
+      <c r="E55" s="394" t="s">
         <v>433</v>
       </c>
-      <c r="F55" s="427"/>
+      <c r="F55" s="395"/>
       <c r="G55" s="112"/>
       <c r="H55" s="112"/>
       <c r="I55" s="112"/>
@@ -16071,16 +16066,16 @@
       <c r="BW55" s="191"/>
     </row>
     <row r="56" spans="1:75" s="190" customFormat="1">
-      <c r="A56" s="454"/>
-      <c r="B56" s="455"/>
-      <c r="C56" s="462" t="s">
+      <c r="A56" s="409"/>
+      <c r="B56" s="410"/>
+      <c r="C56" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="D56" s="463"/>
-      <c r="E56" s="426" t="s">
+      <c r="D56" s="399"/>
+      <c r="E56" s="394" t="s">
         <v>544</v>
       </c>
-      <c r="F56" s="427"/>
+      <c r="F56" s="395"/>
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
       <c r="I56" s="112"/>
@@ -16105,10 +16100,10 @@
       <c r="AD56" s="112"/>
       <c r="AE56" s="112"/>
       <c r="AF56" s="112"/>
-      <c r="AG56" s="425"/>
-      <c r="AH56" s="425"/>
-      <c r="AI56" s="425"/>
-      <c r="AJ56" s="425"/>
+      <c r="AG56" s="415"/>
+      <c r="AH56" s="415"/>
+      <c r="AI56" s="415"/>
+      <c r="AJ56" s="415"/>
       <c r="AK56" s="191"/>
       <c r="AL56" s="191"/>
       <c r="AM56" s="191"/>
@@ -16150,14 +16145,14 @@
       <c r="BW56" s="191"/>
     </row>
     <row r="57" spans="1:75" s="190" customFormat="1">
-      <c r="A57" s="454"/>
-      <c r="B57" s="455"/>
-      <c r="C57" s="460"/>
-      <c r="D57" s="461"/>
-      <c r="E57" s="426" t="s">
+      <c r="A57" s="409"/>
+      <c r="B57" s="410"/>
+      <c r="C57" s="400"/>
+      <c r="D57" s="401"/>
+      <c r="E57" s="394" t="s">
         <v>434</v>
       </c>
-      <c r="F57" s="427"/>
+      <c r="F57" s="395"/>
       <c r="G57" s="112"/>
       <c r="H57" s="112"/>
       <c r="I57" s="112"/>
@@ -16227,16 +16222,16 @@
       <c r="BW57" s="191"/>
     </row>
     <row r="58" spans="1:75" s="190" customFormat="1">
-      <c r="A58" s="454"/>
-      <c r="B58" s="455"/>
-      <c r="C58" s="462" t="s">
+      <c r="A58" s="409"/>
+      <c r="B58" s="410"/>
+      <c r="C58" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="D58" s="463"/>
-      <c r="E58" s="415" t="s">
+      <c r="D58" s="399"/>
+      <c r="E58" s="396" t="s">
         <v>545</v>
       </c>
-      <c r="F58" s="416"/>
+      <c r="F58" s="397"/>
       <c r="G58" s="112"/>
       <c r="H58" s="112"/>
       <c r="I58" s="112"/>
@@ -16261,10 +16256,10 @@
       <c r="AD58" s="112"/>
       <c r="AE58" s="112"/>
       <c r="AF58" s="112"/>
-      <c r="AG58" s="425"/>
-      <c r="AH58" s="425"/>
-      <c r="AI58" s="425"/>
-      <c r="AJ58" s="425"/>
+      <c r="AG58" s="415"/>
+      <c r="AH58" s="415"/>
+      <c r="AI58" s="415"/>
+      <c r="AJ58" s="415"/>
       <c r="AK58" s="191"/>
       <c r="AL58" s="193"/>
       <c r="AM58" s="191"/>
@@ -16306,14 +16301,14 @@
       <c r="BW58" s="191"/>
     </row>
     <row r="59" spans="1:75" s="190" customFormat="1">
-      <c r="A59" s="454"/>
-      <c r="B59" s="455"/>
-      <c r="C59" s="460"/>
-      <c r="D59" s="461"/>
-      <c r="E59" s="426" t="s">
+      <c r="A59" s="409"/>
+      <c r="B59" s="410"/>
+      <c r="C59" s="400"/>
+      <c r="D59" s="401"/>
+      <c r="E59" s="394" t="s">
         <v>435</v>
       </c>
-      <c r="F59" s="427"/>
+      <c r="F59" s="395"/>
       <c r="G59" s="112"/>
       <c r="H59" s="112"/>
       <c r="I59" s="112"/>
@@ -16383,16 +16378,16 @@
       <c r="BW59" s="191"/>
     </row>
     <row r="60" spans="1:75" s="190" customFormat="1">
-      <c r="A60" s="454"/>
-      <c r="B60" s="455"/>
-      <c r="C60" s="462" t="s">
+      <c r="A60" s="409"/>
+      <c r="B60" s="410"/>
+      <c r="C60" s="398" t="s">
         <v>399</v>
       </c>
-      <c r="D60" s="463"/>
-      <c r="E60" s="415" t="s">
+      <c r="D60" s="399"/>
+      <c r="E60" s="396" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="416"/>
+      <c r="F60" s="397"/>
       <c r="G60" s="112"/>
       <c r="H60" s="112"/>
       <c r="I60" s="112"/>
@@ -16417,10 +16412,10 @@
       <c r="AD60" s="112"/>
       <c r="AE60" s="112"/>
       <c r="AF60" s="112"/>
-      <c r="AG60" s="425"/>
-      <c r="AH60" s="425"/>
-      <c r="AI60" s="425"/>
-      <c r="AJ60" s="425"/>
+      <c r="AG60" s="415"/>
+      <c r="AH60" s="415"/>
+      <c r="AI60" s="415"/>
+      <c r="AJ60" s="415"/>
       <c r="AK60" s="191"/>
       <c r="AL60" s="192"/>
       <c r="AM60" s="191"/>
@@ -16462,14 +16457,14 @@
       <c r="BW60" s="191"/>
     </row>
     <row r="61" spans="1:75" s="190" customFormat="1">
-      <c r="A61" s="454"/>
-      <c r="B61" s="455"/>
-      <c r="C61" s="460"/>
-      <c r="D61" s="461"/>
-      <c r="E61" s="426" t="s">
+      <c r="A61" s="409"/>
+      <c r="B61" s="410"/>
+      <c r="C61" s="400"/>
+      <c r="D61" s="401"/>
+      <c r="E61" s="394" t="s">
         <v>436</v>
       </c>
-      <c r="F61" s="427"/>
+      <c r="F61" s="395"/>
       <c r="G61" s="112"/>
       <c r="H61" s="112"/>
       <c r="I61" s="112"/>
@@ -16539,16 +16534,16 @@
       <c r="BW61" s="191"/>
     </row>
     <row r="62" spans="1:75" s="190" customFormat="1">
-      <c r="A62" s="454"/>
-      <c r="B62" s="455"/>
-      <c r="C62" s="462" t="s">
+      <c r="A62" s="409"/>
+      <c r="B62" s="410"/>
+      <c r="C62" s="398" t="s">
         <v>400</v>
       </c>
-      <c r="D62" s="463"/>
-      <c r="E62" s="415" t="s">
+      <c r="D62" s="399"/>
+      <c r="E62" s="396" t="s">
         <v>547</v>
       </c>
-      <c r="F62" s="416"/>
+      <c r="F62" s="397"/>
       <c r="G62" s="112"/>
       <c r="H62" s="112"/>
       <c r="I62" s="112"/>
@@ -16573,10 +16568,10 @@
       <c r="AD62" s="112"/>
       <c r="AE62" s="112"/>
       <c r="AF62" s="112"/>
-      <c r="AG62" s="425"/>
-      <c r="AH62" s="425"/>
-      <c r="AI62" s="425"/>
-      <c r="AJ62" s="425"/>
+      <c r="AG62" s="415"/>
+      <c r="AH62" s="415"/>
+      <c r="AI62" s="415"/>
+      <c r="AJ62" s="415"/>
       <c r="AK62" s="197"/>
       <c r="AL62" s="193"/>
       <c r="AM62" s="191"/>
@@ -16618,14 +16613,14 @@
       <c r="BW62" s="191"/>
     </row>
     <row r="63" spans="1:75" s="190" customFormat="1">
-      <c r="A63" s="454"/>
-      <c r="B63" s="455"/>
-      <c r="C63" s="460"/>
-      <c r="D63" s="461"/>
-      <c r="E63" s="426" t="s">
+      <c r="A63" s="409"/>
+      <c r="B63" s="410"/>
+      <c r="C63" s="400"/>
+      <c r="D63" s="401"/>
+      <c r="E63" s="394" t="s">
         <v>437</v>
       </c>
-      <c r="F63" s="427"/>
+      <c r="F63" s="395"/>
       <c r="G63" s="112"/>
       <c r="H63" s="112"/>
       <c r="I63" s="112"/>
@@ -16695,16 +16690,16 @@
       <c r="BW63" s="191"/>
     </row>
     <row r="64" spans="1:75" s="190" customFormat="1">
-      <c r="A64" s="454"/>
-      <c r="B64" s="455"/>
-      <c r="C64" s="462" t="s">
+      <c r="A64" s="409"/>
+      <c r="B64" s="410"/>
+      <c r="C64" s="398" t="s">
         <v>401</v>
       </c>
-      <c r="D64" s="463"/>
-      <c r="E64" s="415" t="s">
+      <c r="D64" s="399"/>
+      <c r="E64" s="396" t="s">
         <v>548</v>
       </c>
-      <c r="F64" s="416"/>
+      <c r="F64" s="397"/>
       <c r="G64" s="112"/>
       <c r="H64" s="112"/>
       <c r="I64" s="112"/>
@@ -16729,10 +16724,10 @@
       <c r="AD64" s="112"/>
       <c r="AE64" s="112"/>
       <c r="AF64" s="112"/>
-      <c r="AG64" s="425"/>
-      <c r="AH64" s="425"/>
-      <c r="AI64" s="425"/>
-      <c r="AJ64" s="425"/>
+      <c r="AG64" s="415"/>
+      <c r="AH64" s="415"/>
+      <c r="AI64" s="415"/>
+      <c r="AJ64" s="415"/>
       <c r="AK64" s="191"/>
       <c r="AL64" s="192"/>
       <c r="AM64" s="191"/>
@@ -16774,14 +16769,14 @@
       <c r="BW64" s="191"/>
     </row>
     <row r="65" spans="1:75" s="190" customFormat="1">
-      <c r="A65" s="454"/>
-      <c r="B65" s="455"/>
-      <c r="C65" s="460"/>
-      <c r="D65" s="461"/>
-      <c r="E65" s="426" t="s">
+      <c r="A65" s="409"/>
+      <c r="B65" s="410"/>
+      <c r="C65" s="400"/>
+      <c r="D65" s="401"/>
+      <c r="E65" s="394" t="s">
         <v>438</v>
       </c>
-      <c r="F65" s="427"/>
+      <c r="F65" s="395"/>
       <c r="G65" s="112"/>
       <c r="H65" s="112"/>
       <c r="I65" s="112"/>
@@ -16851,16 +16846,16 @@
       <c r="BW65" s="191"/>
     </row>
     <row r="66" spans="1:75" s="190" customFormat="1">
-      <c r="A66" s="454"/>
-      <c r="B66" s="455"/>
-      <c r="C66" s="462" t="s">
+      <c r="A66" s="409"/>
+      <c r="B66" s="410"/>
+      <c r="C66" s="398" t="s">
         <v>402</v>
       </c>
-      <c r="D66" s="463"/>
-      <c r="E66" s="415" t="s">
+      <c r="D66" s="399"/>
+      <c r="E66" s="396" t="s">
         <v>549</v>
       </c>
-      <c r="F66" s="416"/>
+      <c r="F66" s="397"/>
       <c r="G66" s="112"/>
       <c r="H66" s="112"/>
       <c r="I66" s="112"/>
@@ -16885,10 +16880,10 @@
       <c r="AD66" s="112"/>
       <c r="AE66" s="112"/>
       <c r="AF66" s="112"/>
-      <c r="AG66" s="425"/>
-      <c r="AH66" s="425"/>
-      <c r="AI66" s="425"/>
-      <c r="AJ66" s="425"/>
+      <c r="AG66" s="415"/>
+      <c r="AH66" s="415"/>
+      <c r="AI66" s="415"/>
+      <c r="AJ66" s="415"/>
       <c r="AK66" s="197"/>
       <c r="AL66" s="193"/>
       <c r="AM66" s="191"/>
@@ -16930,14 +16925,14 @@
       <c r="BW66" s="191"/>
     </row>
     <row r="67" spans="1:75" s="190" customFormat="1">
-      <c r="A67" s="454"/>
-      <c r="B67" s="455"/>
-      <c r="C67" s="460"/>
-      <c r="D67" s="461"/>
-      <c r="E67" s="426" t="s">
+      <c r="A67" s="409"/>
+      <c r="B67" s="410"/>
+      <c r="C67" s="400"/>
+      <c r="D67" s="401"/>
+      <c r="E67" s="394" t="s">
         <v>439</v>
       </c>
-      <c r="F67" s="427"/>
+      <c r="F67" s="395"/>
       <c r="G67" s="112"/>
       <c r="H67" s="112"/>
       <c r="I67" s="112"/>
@@ -17007,16 +17002,16 @@
       <c r="BW67" s="191"/>
     </row>
     <row r="68" spans="1:75" s="190" customFormat="1">
-      <c r="A68" s="454"/>
-      <c r="B68" s="455"/>
-      <c r="C68" s="462" t="s">
+      <c r="A68" s="409"/>
+      <c r="B68" s="410"/>
+      <c r="C68" s="398" t="s">
         <v>403</v>
       </c>
-      <c r="D68" s="463"/>
-      <c r="E68" s="415" t="s">
+      <c r="D68" s="399"/>
+      <c r="E68" s="396" t="s">
         <v>550</v>
       </c>
-      <c r="F68" s="416"/>
+      <c r="F68" s="397"/>
       <c r="G68" s="112"/>
       <c r="H68" s="112"/>
       <c r="I68" s="112"/>
@@ -17043,10 +17038,10 @@
       <c r="AD68" s="112"/>
       <c r="AE68" s="112"/>
       <c r="AF68" s="112"/>
-      <c r="AG68" s="425"/>
-      <c r="AH68" s="425"/>
-      <c r="AI68" s="425"/>
-      <c r="AJ68" s="425"/>
+      <c r="AG68" s="415"/>
+      <c r="AH68" s="415"/>
+      <c r="AI68" s="415"/>
+      <c r="AJ68" s="415"/>
       <c r="AK68" s="192"/>
       <c r="AL68" s="192"/>
       <c r="AM68" s="191"/>
@@ -17088,14 +17083,14 @@
       <c r="BW68" s="191"/>
     </row>
     <row r="69" spans="1:75" s="190" customFormat="1">
-      <c r="A69" s="454"/>
-      <c r="B69" s="455"/>
-      <c r="C69" s="460"/>
-      <c r="D69" s="461"/>
-      <c r="E69" s="426" t="s">
+      <c r="A69" s="409"/>
+      <c r="B69" s="410"/>
+      <c r="C69" s="400"/>
+      <c r="D69" s="401"/>
+      <c r="E69" s="394" t="s">
         <v>440</v>
       </c>
-      <c r="F69" s="427"/>
+      <c r="F69" s="395"/>
       <c r="G69" s="112"/>
       <c r="H69" s="112"/>
       <c r="I69" s="112"/>
@@ -17167,16 +17162,16 @@
       <c r="BW69" s="191"/>
     </row>
     <row r="70" spans="1:75" s="190" customFormat="1">
-      <c r="A70" s="454"/>
-      <c r="B70" s="455"/>
-      <c r="C70" s="462" t="s">
+      <c r="A70" s="409"/>
+      <c r="B70" s="410"/>
+      <c r="C70" s="398" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="463"/>
-      <c r="E70" s="415" t="s">
+      <c r="D70" s="399"/>
+      <c r="E70" s="396" t="s">
         <v>551</v>
       </c>
-      <c r="F70" s="416"/>
+      <c r="F70" s="397"/>
       <c r="G70" s="112"/>
       <c r="H70" s="112"/>
       <c r="I70" s="112"/>
@@ -17248,14 +17243,14 @@
       <c r="BW70" s="191"/>
     </row>
     <row r="71" spans="1:75" s="190" customFormat="1">
-      <c r="A71" s="454"/>
-      <c r="B71" s="455"/>
-      <c r="C71" s="460"/>
-      <c r="D71" s="461"/>
-      <c r="E71" s="426" t="s">
+      <c r="A71" s="409"/>
+      <c r="B71" s="410"/>
+      <c r="C71" s="400"/>
+      <c r="D71" s="401"/>
+      <c r="E71" s="394" t="s">
         <v>441</v>
       </c>
-      <c r="F71" s="427"/>
+      <c r="F71" s="395"/>
       <c r="G71" s="112"/>
       <c r="H71" s="112"/>
       <c r="I71" s="112"/>
@@ -17327,16 +17322,16 @@
       <c r="BW71" s="191"/>
     </row>
     <row r="72" spans="1:75" s="190" customFormat="1">
-      <c r="A72" s="454"/>
-      <c r="B72" s="455"/>
-      <c r="C72" s="448" t="s">
+      <c r="A72" s="409"/>
+      <c r="B72" s="410"/>
+      <c r="C72" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="449"/>
-      <c r="E72" s="426" t="s">
+      <c r="D72" s="404"/>
+      <c r="E72" s="394" t="s">
         <v>580</v>
       </c>
-      <c r="F72" s="427"/>
+      <c r="F72" s="395"/>
       <c r="G72" s="112"/>
       <c r="H72" s="112"/>
       <c r="I72" s="112"/>
@@ -17363,10 +17358,10 @@
       <c r="AD72" s="112"/>
       <c r="AE72" s="112"/>
       <c r="AF72" s="112"/>
-      <c r="AG72" s="428"/>
-      <c r="AH72" s="428"/>
-      <c r="AI72" s="428"/>
-      <c r="AJ72" s="428"/>
+      <c r="AG72" s="434"/>
+      <c r="AH72" s="434"/>
+      <c r="AI72" s="434"/>
+      <c r="AJ72" s="434"/>
       <c r="AK72" s="197"/>
       <c r="AL72" s="191"/>
       <c r="AM72" s="191"/>
@@ -17408,16 +17403,16 @@
       <c r="BW72" s="191"/>
     </row>
     <row r="73" spans="1:75" s="190" customFormat="1">
-      <c r="A73" s="454"/>
-      <c r="B73" s="455"/>
-      <c r="C73" s="450" t="s">
+      <c r="A73" s="409"/>
+      <c r="B73" s="410"/>
+      <c r="C73" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="451"/>
-      <c r="E73" s="426" t="s">
+      <c r="D73" s="406"/>
+      <c r="E73" s="394" t="s">
         <v>581</v>
       </c>
-      <c r="F73" s="427"/>
+      <c r="F73" s="395"/>
       <c r="G73" s="112"/>
       <c r="H73" s="112"/>
       <c r="I73" s="112"/>
@@ -17489,16 +17484,16 @@
       <c r="BW73" s="191"/>
     </row>
     <row r="74" spans="1:75" s="190" customFormat="1">
-      <c r="A74" s="456"/>
-      <c r="B74" s="457"/>
-      <c r="C74" s="450" t="s">
+      <c r="A74" s="411"/>
+      <c r="B74" s="412"/>
+      <c r="C74" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="451"/>
-      <c r="E74" s="426" t="s">
+      <c r="D74" s="406"/>
+      <c r="E74" s="394" t="s">
         <v>582</v>
       </c>
-      <c r="F74" s="427"/>
+      <c r="F74" s="395"/>
       <c r="G74" s="112"/>
       <c r="H74" s="112"/>
       <c r="I74" s="112"/>
@@ -17570,18 +17565,18 @@
       <c r="BW74" s="191"/>
     </row>
     <row r="75" spans="1:75" s="190" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="444" t="s">
+      <c r="A75" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="445"/>
-      <c r="C75" s="442" t="s">
+      <c r="B75" s="431"/>
+      <c r="C75" s="428" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="443"/>
-      <c r="E75" s="426" t="s">
+      <c r="D75" s="429"/>
+      <c r="E75" s="394" t="s">
         <v>317</v>
       </c>
-      <c r="F75" s="427"/>
+      <c r="F75" s="395"/>
       <c r="G75" s="112"/>
       <c r="H75" s="112"/>
       <c r="I75" s="112"/>
@@ -17608,10 +17603,10 @@
       <c r="AD75" s="112"/>
       <c r="AE75" s="112"/>
       <c r="AF75" s="112"/>
-      <c r="AG75" s="440"/>
-      <c r="AH75" s="440"/>
-      <c r="AI75" s="440"/>
-      <c r="AJ75" s="440"/>
+      <c r="AG75" s="426"/>
+      <c r="AH75" s="426"/>
+      <c r="AI75" s="426"/>
+      <c r="AJ75" s="426"/>
       <c r="AK75" s="197"/>
       <c r="AL75" s="191"/>
       <c r="AM75" s="191"/>
@@ -17653,16 +17648,16 @@
       <c r="BW75" s="191"/>
     </row>
     <row r="76" spans="1:75" s="190" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="446"/>
-      <c r="B76" s="447"/>
-      <c r="C76" s="442" t="s">
+      <c r="A76" s="432"/>
+      <c r="B76" s="433"/>
+      <c r="C76" s="428" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="443"/>
-      <c r="E76" s="426" t="s">
+      <c r="D76" s="429"/>
+      <c r="E76" s="394" t="s">
         <v>318</v>
       </c>
-      <c r="F76" s="427"/>
+      <c r="F76" s="395"/>
       <c r="G76" s="112"/>
       <c r="H76" s="112"/>
       <c r="I76" s="112"/>
@@ -17689,10 +17684,10 @@
       <c r="AD76" s="112"/>
       <c r="AE76" s="112"/>
       <c r="AF76" s="112"/>
-      <c r="AG76" s="440"/>
-      <c r="AH76" s="440"/>
-      <c r="AI76" s="440"/>
-      <c r="AJ76" s="440"/>
+      <c r="AG76" s="426"/>
+      <c r="AH76" s="426"/>
+      <c r="AI76" s="426"/>
+      <c r="AJ76" s="426"/>
       <c r="AK76" s="197"/>
       <c r="AL76" s="191"/>
       <c r="AM76" s="191"/>
@@ -17734,16 +17729,16 @@
       <c r="BW76" s="191"/>
     </row>
     <row r="77" spans="1:75" s="190" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="446"/>
-      <c r="B77" s="447"/>
-      <c r="C77" s="442" t="s">
+      <c r="A77" s="432"/>
+      <c r="B77" s="433"/>
+      <c r="C77" s="428" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="443"/>
-      <c r="E77" s="426" t="s">
+      <c r="D77" s="429"/>
+      <c r="E77" s="394" t="s">
         <v>319</v>
       </c>
-      <c r="F77" s="427"/>
+      <c r="F77" s="395"/>
       <c r="G77" s="112"/>
       <c r="H77" s="112"/>
       <c r="I77" s="112"/>
@@ -17770,10 +17765,10 @@
       <c r="AD77" s="112"/>
       <c r="AE77" s="112"/>
       <c r="AF77" s="112"/>
-      <c r="AG77" s="441"/>
-      <c r="AH77" s="441"/>
-      <c r="AI77" s="441"/>
-      <c r="AJ77" s="441"/>
+      <c r="AG77" s="427"/>
+      <c r="AH77" s="427"/>
+      <c r="AI77" s="427"/>
+      <c r="AJ77" s="427"/>
       <c r="AK77" s="197"/>
       <c r="AL77" s="191"/>
       <c r="AM77" s="191"/>
@@ -17815,16 +17810,16 @@
       <c r="BW77" s="191"/>
     </row>
     <row r="78" spans="1:75" s="190" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="446"/>
-      <c r="B78" s="447"/>
-      <c r="C78" s="442" t="s">
+      <c r="A78" s="432"/>
+      <c r="B78" s="433"/>
+      <c r="C78" s="428" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="443"/>
-      <c r="E78" s="426" t="s">
+      <c r="D78" s="429"/>
+      <c r="E78" s="394" t="s">
         <v>320</v>
       </c>
-      <c r="F78" s="427"/>
+      <c r="F78" s="395"/>
       <c r="G78" s="112"/>
       <c r="H78" s="112"/>
       <c r="I78" s="112"/>
@@ -17896,16 +17891,16 @@
       <c r="BW78" s="191"/>
     </row>
     <row r="79" spans="1:75" s="190" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="446"/>
-      <c r="B79" s="447"/>
-      <c r="C79" s="442" t="s">
+      <c r="A79" s="432"/>
+      <c r="B79" s="433"/>
+      <c r="C79" s="428" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="443"/>
-      <c r="E79" s="426" t="s">
+      <c r="D79" s="429"/>
+      <c r="E79" s="394" t="s">
         <v>407</v>
       </c>
-      <c r="F79" s="427"/>
+      <c r="F79" s="395"/>
       <c r="G79" s="112"/>
       <c r="H79" s="112"/>
       <c r="I79" s="112"/>
@@ -17932,10 +17927,10 @@
       <c r="AD79" s="112"/>
       <c r="AE79" s="112"/>
       <c r="AF79" s="112"/>
-      <c r="AG79" s="441"/>
-      <c r="AH79" s="441"/>
-      <c r="AI79" s="441"/>
-      <c r="AJ79" s="441"/>
+      <c r="AG79" s="427"/>
+      <c r="AH79" s="427"/>
+      <c r="AI79" s="427"/>
+      <c r="AJ79" s="427"/>
       <c r="AK79" s="197"/>
       <c r="AL79" s="191"/>
       <c r="AM79" s="191"/>
@@ -17977,16 +17972,16 @@
       <c r="BW79" s="191"/>
     </row>
     <row r="80" spans="1:75" s="190" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="453" t="s">
+      <c r="A80" s="408" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="453"/>
-      <c r="C80" s="453"/>
-      <c r="D80" s="453"/>
-      <c r="E80" s="452" t="s">
+      <c r="B80" s="408"/>
+      <c r="C80" s="408"/>
+      <c r="D80" s="408"/>
+      <c r="E80" s="407" t="s">
         <v>617</v>
       </c>
-      <c r="F80" s="427"/>
+      <c r="F80" s="395"/>
       <c r="G80" s="112"/>
       <c r="H80" s="112"/>
       <c r="I80" s="112"/>
@@ -18013,10 +18008,10 @@
       <c r="AD80" s="112"/>
       <c r="AE80" s="112"/>
       <c r="AF80" s="112"/>
-      <c r="AG80" s="429"/>
-      <c r="AH80" s="429"/>
-      <c r="AI80" s="429"/>
-      <c r="AJ80" s="429"/>
+      <c r="AG80" s="402"/>
+      <c r="AH80" s="402"/>
+      <c r="AI80" s="402"/>
+      <c r="AJ80" s="402"/>
       <c r="AK80" s="197"/>
       <c r="AL80" s="191"/>
       <c r="AM80" s="191"/>
@@ -18058,16 +18053,16 @@
       <c r="BW80" s="191"/>
     </row>
     <row r="81" spans="1:75" s="190" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="453" t="s">
+      <c r="A81" s="408" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="453"/>
-      <c r="C81" s="453"/>
-      <c r="D81" s="453"/>
-      <c r="E81" s="452" t="s">
+      <c r="B81" s="408"/>
+      <c r="C81" s="408"/>
+      <c r="D81" s="408"/>
+      <c r="E81" s="407" t="s">
         <v>618</v>
       </c>
-      <c r="F81" s="427"/>
+      <c r="F81" s="395"/>
       <c r="G81" s="112"/>
       <c r="H81" s="112"/>
       <c r="I81" s="112"/>
@@ -18094,10 +18089,10 @@
       <c r="AD81" s="112"/>
       <c r="AE81" s="112"/>
       <c r="AF81" s="112"/>
-      <c r="AG81" s="429"/>
-      <c r="AH81" s="429"/>
-      <c r="AI81" s="429"/>
-      <c r="AJ81" s="429"/>
+      <c r="AG81" s="402"/>
+      <c r="AH81" s="402"/>
+      <c r="AI81" s="402"/>
+      <c r="AJ81" s="402"/>
       <c r="AK81" s="197"/>
       <c r="AL81" s="191"/>
       <c r="AM81" s="191"/>
@@ -18145,17 +18140,17 @@
       <c r="D82" s="201"/>
       <c r="E82" s="201"/>
       <c r="F82" s="201"/>
-      <c r="G82" s="430"/>
-      <c r="H82" s="430"/>
-      <c r="I82" s="430"/>
+      <c r="G82" s="416"/>
+      <c r="H82" s="416"/>
+      <c r="I82" s="416"/>
       <c r="J82" s="201"/>
       <c r="K82" s="201"/>
       <c r="L82" s="201"/>
       <c r="M82" s="201"/>
       <c r="N82" s="201"/>
-      <c r="O82" s="430"/>
-      <c r="P82" s="430"/>
-      <c r="Q82" s="430"/>
+      <c r="O82" s="416"/>
+      <c r="P82" s="416"/>
+      <c r="Q82" s="416"/>
       <c r="R82" s="201"/>
       <c r="S82" s="201"/>
       <c r="T82" s="201"/>
@@ -18184,10 +18179,10 @@
         <v>517</v>
       </c>
       <c r="C83" s="208"/>
-      <c r="D83" s="439" t="s">
+      <c r="D83" s="425" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="439"/>
+      <c r="E83" s="425"/>
       <c r="F83" s="201"/>
       <c r="G83" s="207"/>
       <c r="H83" s="207"/>
@@ -18228,10 +18223,10 @@
         <v>518</v>
       </c>
       <c r="C84" s="208"/>
-      <c r="D84" s="439" t="s">
+      <c r="D84" s="425" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="439"/>
+      <c r="E84" s="425"/>
       <c r="F84" s="201"/>
       <c r="G84" s="207"/>
       <c r="H84" s="207"/>
@@ -18273,9 +18268,9 @@
       <c r="D85" s="201"/>
       <c r="E85" s="201"/>
       <c r="F85" s="201"/>
-      <c r="G85" s="432"/>
-      <c r="H85" s="432"/>
-      <c r="I85" s="432"/>
+      <c r="G85" s="418"/>
+      <c r="H85" s="418"/>
+      <c r="I85" s="418"/>
       <c r="J85" s="201"/>
       <c r="K85" s="201"/>
       <c r="L85" s="201"/>
@@ -18308,35 +18303,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="200"/>
-      <c r="B86" s="431" t="s">
+      <c r="B86" s="417" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="433"/>
-      <c r="D86" s="434"/>
-      <c r="E86" s="434"/>
-      <c r="F86" s="434"/>
-      <c r="G86" s="434"/>
-      <c r="H86" s="434"/>
-      <c r="I86" s="434"/>
-      <c r="J86" s="434"/>
-      <c r="K86" s="434"/>
-      <c r="L86" s="434"/>
-      <c r="M86" s="434"/>
-      <c r="N86" s="434"/>
-      <c r="O86" s="434"/>
-      <c r="P86" s="434"/>
-      <c r="Q86" s="434"/>
-      <c r="R86" s="434"/>
-      <c r="S86" s="434"/>
-      <c r="T86" s="434"/>
-      <c r="U86" s="434"/>
-      <c r="V86" s="434"/>
-      <c r="W86" s="434"/>
-      <c r="X86" s="434"/>
-      <c r="Y86" s="434"/>
-      <c r="Z86" s="434"/>
-      <c r="AA86" s="434"/>
-      <c r="AB86" s="435"/>
+      <c r="C86" s="419"/>
+      <c r="D86" s="420"/>
+      <c r="E86" s="420"/>
+      <c r="F86" s="420"/>
+      <c r="G86" s="420"/>
+      <c r="H86" s="420"/>
+      <c r="I86" s="420"/>
+      <c r="J86" s="420"/>
+      <c r="K86" s="420"/>
+      <c r="L86" s="420"/>
+      <c r="M86" s="420"/>
+      <c r="N86" s="420"/>
+      <c r="O86" s="420"/>
+      <c r="P86" s="420"/>
+      <c r="Q86" s="420"/>
+      <c r="R86" s="420"/>
+      <c r="S86" s="420"/>
+      <c r="T86" s="420"/>
+      <c r="U86" s="420"/>
+      <c r="V86" s="420"/>
+      <c r="W86" s="420"/>
+      <c r="X86" s="420"/>
+      <c r="Y86" s="420"/>
+      <c r="Z86" s="420"/>
+      <c r="AA86" s="420"/>
+      <c r="AB86" s="421"/>
       <c r="AC86" s="203"/>
       <c r="AD86" s="203"/>
       <c r="AE86" s="203"/>
@@ -18357,33 +18352,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="200"/>
-      <c r="B87" s="431"/>
-      <c r="C87" s="436"/>
-      <c r="D87" s="437"/>
-      <c r="E87" s="437"/>
-      <c r="F87" s="437"/>
-      <c r="G87" s="437"/>
-      <c r="H87" s="437"/>
-      <c r="I87" s="437"/>
-      <c r="J87" s="437"/>
-      <c r="K87" s="437"/>
-      <c r="L87" s="437"/>
-      <c r="M87" s="437"/>
-      <c r="N87" s="437"/>
-      <c r="O87" s="437"/>
-      <c r="P87" s="437"/>
-      <c r="Q87" s="437"/>
-      <c r="R87" s="437"/>
-      <c r="S87" s="437"/>
-      <c r="T87" s="437"/>
-      <c r="U87" s="437"/>
-      <c r="V87" s="437"/>
-      <c r="W87" s="437"/>
-      <c r="X87" s="437"/>
-      <c r="Y87" s="437"/>
-      <c r="Z87" s="437"/>
-      <c r="AA87" s="437"/>
-      <c r="AB87" s="438"/>
+      <c r="B87" s="417"/>
+      <c r="C87" s="422"/>
+      <c r="D87" s="423"/>
+      <c r="E87" s="423"/>
+      <c r="F87" s="423"/>
+      <c r="G87" s="423"/>
+      <c r="H87" s="423"/>
+      <c r="I87" s="423"/>
+      <c r="J87" s="423"/>
+      <c r="K87" s="423"/>
+      <c r="L87" s="423"/>
+      <c r="M87" s="423"/>
+      <c r="N87" s="423"/>
+      <c r="O87" s="423"/>
+      <c r="P87" s="423"/>
+      <c r="Q87" s="423"/>
+      <c r="R87" s="423"/>
+      <c r="S87" s="423"/>
+      <c r="T87" s="423"/>
+      <c r="U87" s="423"/>
+      <c r="V87" s="423"/>
+      <c r="W87" s="423"/>
+      <c r="X87" s="423"/>
+      <c r="Y87" s="423"/>
+      <c r="Z87" s="423"/>
+      <c r="AA87" s="423"/>
+      <c r="AB87" s="424"/>
       <c r="AC87" s="203"/>
       <c r="AD87" s="203"/>
       <c r="AE87" s="203"/>
@@ -37580,50 +37575,166 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="228">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="C86:AB87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A75:B79"/>
     <mergeCell ref="AG81:AH81"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
@@ -37648,166 +37759,50 @@
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="C86:AB87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A75:B79"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -38001,18 +37996,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38034,14 +38029,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -38055,4 +38042,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>